--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z365"/>
+  <dimension ref="A1:Z368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44992</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -653,14 +653,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 47506-2023</t>
+          <t>A 2412-2026</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45203.28686342593</v>
+        <v>46036.73480324074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -673,17 +673,17 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -707,119 +707,119 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Svinrot</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 2412-2026 artfynd.xlsx", "A 2412-2026")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 2412-2026 karta.png", "A 2412-2026")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 2412-2026 FSC-klagomål.docx", "A 2412-2026")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 2412-2026 FSC-klagomål mail.docx", "A 2412-2026")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 2412-2026 tillsynsbegäran.docx", "A 2412-2026")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 2412-2026 tillsynsbegäran mail.docx", "A 2412-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 47506-2023</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45203.28686342593</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
           <t>Revlummer</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 47506-2023 artfynd.xlsx", "A 47506-2023")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 47506-2023 karta.png", "A 47506-2023")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 47506-2023 FSC-klagomål.docx", "A 47506-2023")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 47506-2023 FSC-klagomål mail.docx", "A 47506-2023")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 47506-2023 tillsynsbegäran.docx", "A 47506-2023")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 47506-2023 tillsynsbegäran mail.docx", "A 47506-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 2412-2026</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>46036.73480324074</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>VÅRGÅRDA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Svinrot</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 2412-2026 artfynd.xlsx", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 2412-2026 karta.png", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 2412-2026 FSC-klagomål.docx", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 2412-2026 FSC-klagomål mail.docx", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 2412-2026 tillsynsbegäran.docx", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 2412-2026 tillsynsbegäran mail.docx", "A 2412-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44249.74386574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44271.61297453703</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44496</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1136,14 +1136,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 15291-2021</t>
+          <t>A 64396-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44284</v>
+        <v>44511</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1193,14 +1193,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 64396-2021</t>
+          <t>A 15291-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44511</v>
+        <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>44314</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>44316.39745370371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44568.35050925926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44568.35122685185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44445.32841435185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44601</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44533</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44572</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44389.36113425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1825,14 +1825,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 10158-2021</t>
+          <t>A 20272-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44256</v>
+        <v>44314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1846,11 +1846,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>7.8</v>
+        <v>1.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1887,14 +1887,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 20272-2021</t>
+          <t>A 10158-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44314</v>
+        <v>44256</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1908,11 +1908,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.2</v>
+        <v>7.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1956,7 +1956,7 @@
         <v>44677</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>44818</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>44347</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44571</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44271.47305555556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>44501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>44455.51653935185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44564</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44382.40559027778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44505</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>44743.30945601852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>44607</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44580</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44446.59780092593</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44298.64422453703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>44511</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>44811.28633101852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>44616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>44243</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44621.91310185185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44434.48554398148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44465.35538194444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>44469.43070601852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>44299</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>44501</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3379,14 +3379,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 29025-2021</t>
+          <t>A 15117-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44358</v>
+        <v>44282</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3436,14 +3436,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 15117-2021</t>
+          <t>A 29025-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44282</v>
+        <v>44358</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         <v>44573.34431712963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>44826.95922453704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3607,14 +3607,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 36638-2025</t>
+          <t>A 15548-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45870.73099537037</v>
+        <v>44662.48648148148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3664,14 +3664,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 36639-2025</t>
+          <t>A 13506-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45870.73174768518</v>
+        <v>44648.29912037037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3721,14 +3721,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 15548-2022</t>
+          <t>A 65303-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44662.48648148148</v>
+        <v>44515</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3778,14 +3778,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 36637-2025</t>
+          <t>A 16282-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45870.73012731481</v>
+        <v>45751.29126157407</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3795,6 +3795,11 @@
       <c r="E56" t="inlineStr">
         <is>
           <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -3835,14 +3840,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 13506-2022</t>
+          <t>A 9189-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44648.29912037037</v>
+        <v>44615.89261574074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3855,7 +3860,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3892,14 +3897,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 36838-2025</t>
+          <t>A 64234-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45874.37011574074</v>
+        <v>44510.64112268519</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3912,7 +3917,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3949,14 +3954,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 65303-2021</t>
+          <t>A 30061-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44515</v>
+        <v>44363</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3969,7 +3974,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4006,14 +4011,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 36641-2025</t>
+          <t>A 17951-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45871.43119212963</v>
+        <v>45040</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4026,7 +4031,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4063,14 +4068,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 20807-2025</t>
+          <t>A 2995-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45776.65706018519</v>
+        <v>45315</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4082,13 +4087,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4125,14 +4125,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 36974-2024</t>
+          <t>A 59619-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45538.89228009259</v>
+        <v>44907.88240740741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4182,14 +4182,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 56788-2024</t>
+          <t>A 26362-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45628.45511574074</v>
+        <v>45469.38258101852</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>6.3</v>
+        <v>3.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4239,14 +4239,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 8895-2023</t>
+          <t>A 9725-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44979</v>
+        <v>44984</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,13 +4258,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4301,14 +4296,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 46108-2021</t>
+          <t>A 61969-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44442.36792824074</v>
+        <v>44914</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4321,7 +4316,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.3</v>
+        <v>5.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4358,14 +4353,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 14786-2024</t>
+          <t>A 4550-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45397.76206018519</v>
+        <v>45327.71622685185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4378,7 +4373,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4415,14 +4410,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 19319-2025</t>
+          <t>A 4845-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45769.57847222222</v>
+        <v>45329.35953703704</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4435,7 +4430,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4472,14 +4467,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 20475-2023</t>
+          <t>A 30038-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45057</v>
+        <v>44363.45402777778</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4492,7 +4487,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4529,14 +4524,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 26526-2022</t>
+          <t>A 3057-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44739.44171296297</v>
+        <v>44946</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4549,7 +4544,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4586,14 +4581,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 39372-2025</t>
+          <t>A 55972-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45889.58609953704</v>
+        <v>45233</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4606,7 +4601,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4643,14 +4638,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 39375-2025</t>
+          <t>A 9090-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45889.58944444444</v>
+        <v>45357.90923611111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4663,7 +4658,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4700,14 +4695,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 39419-2025</t>
+          <t>A 54991-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45889.66032407407</v>
+        <v>45620.85204861111</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4720,7 +4715,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4757,14 +4752,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 20806-2023</t>
+          <t>A 9802-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45058</v>
+        <v>44252.70211805555</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4777,7 +4772,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4814,14 +4809,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 16282-2025</t>
+          <t>A 24064-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45751.29126157407</v>
+        <v>44725.32741898148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4833,13 +4828,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4876,14 +4866,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 54587-2023</t>
+          <t>A 9898-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45233</v>
+        <v>45363</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4896,7 +4886,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4933,14 +4923,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 10655-2025</t>
+          <t>A 12342-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45721.69958333333</v>
+        <v>44267.43596064814</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4953,7 +4943,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4990,14 +4980,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 46944-2021</t>
+          <t>A 60191-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44446.51780092593</v>
+        <v>44910</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5010,7 +5000,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5047,14 +5037,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 39416-2025</t>
+          <t>A 52016-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45889</v>
+        <v>44463</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5067,7 +5057,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5104,14 +5094,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 30038-2021</t>
+          <t>A 11777-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44363.45402777778</v>
+        <v>45374.35063657408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5124,7 +5114,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5161,14 +5151,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 16587-2025</t>
+          <t>A 11792-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45752.87754629629</v>
+        <v>45375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5181,7 +5171,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5218,14 +5208,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 29092-2023</t>
+          <t>A 45309-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45105.34570601852</v>
+        <v>45576.43064814815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5237,13 +5227,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5280,14 +5265,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 34133-2022</t>
+          <t>A 8195-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44791.52582175926</v>
+        <v>45351.66591435186</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5300,7 +5285,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5337,14 +5322,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 19308-2025</t>
+          <t>A 58049-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45769.56891203704</v>
+        <v>45247</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5356,13 +5341,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5399,14 +5379,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 16284-2025</t>
+          <t>A 25324-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45751.29762731482</v>
+        <v>45800</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5419,7 +5399,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5456,14 +5436,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 8195-2024</t>
+          <t>A 5448-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45351.66591435186</v>
+        <v>45692.88263888889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5476,7 +5456,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5513,14 +5493,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 9863-2024</t>
+          <t>A 25326-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45363</v>
+        <v>45800</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5533,7 +5513,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5570,14 +5550,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 11793-2024</t>
+          <t>A 9633-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45375.30324074074</v>
+        <v>45362.3203125</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5590,7 +5570,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5627,14 +5607,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 57921-2022</t>
+          <t>A 25906-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44900</v>
+        <v>45804.55729166666</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5684,14 +5664,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 5152-2024</t>
+          <t>A 25909-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45330.49232638889</v>
+        <v>45804.55820601852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5704,7 +5684,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5741,14 +5721,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 39929-2025</t>
+          <t>A 25911-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45891.69728009259</v>
+        <v>45804.55912037037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5761,7 +5741,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5798,14 +5778,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 39843-2025</t>
+          <t>A 59325-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45891</v>
+        <v>45253</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5818,7 +5798,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5855,14 +5835,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 20454-2025</t>
+          <t>A 39375-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45775.50877314815</v>
+        <v>45889.58944444444</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5875,7 +5855,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5912,14 +5892,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 20456-2025</t>
+          <t>A 14786-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45775.51363425926</v>
+        <v>45397.76206018519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5932,7 +5912,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5969,14 +5949,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 40239-2025</t>
+          <t>A 27109-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45894.84497685185</v>
+        <v>45811.73126157407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5989,7 +5969,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6026,14 +6006,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 40650-2025</t>
+          <t>A 27110-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45896.6321875</v>
+        <v>45811.73269675926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6046,7 +6026,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6083,14 +6063,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 12990-2024</t>
+          <t>A 21875-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45385.55565972222</v>
+        <v>45443.38331018519</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6103,7 +6083,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6140,14 +6120,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 57569-2025</t>
+          <t>A 39419-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45980.73299768518</v>
+        <v>45889.66032407407</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6160,7 +6140,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6197,14 +6177,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 57567-2025</t>
+          <t>A 26964-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45980.73072916667</v>
+        <v>45811.46918981482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6217,7 +6197,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6254,14 +6234,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 40955-2025</t>
+          <t>A 39372-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45897.67510416666</v>
+        <v>45889.58609953704</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6274,7 +6254,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6311,14 +6291,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 20169-2025</t>
+          <t>A 39416-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45772.57777777778</v>
+        <v>45889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6331,7 +6311,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6368,14 +6348,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 41724-2025</t>
+          <t>A 27112-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45902.4534375</v>
+        <v>45811.73366898148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6388,7 +6368,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6425,14 +6405,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 17195-2025</t>
+          <t>A 54586-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45756.40695601852</v>
+        <v>45233.77412037037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6445,7 +6425,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6482,14 +6462,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 59225-2023</t>
+          <t>A 27585-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45253</v>
+        <v>45813.50371527778</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6502,7 +6482,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6539,14 +6519,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 41590-2025</t>
+          <t>A 39929-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45901.63255787037</v>
+        <v>45891.69728009259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6559,7 +6539,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6596,14 +6576,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 41625-2025</t>
+          <t>A 27227-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45901.7124537037</v>
+        <v>45812.43118055556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6616,7 +6596,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.4</v>
+        <v>3.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6653,14 +6633,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 41593-2025</t>
+          <t>A 27249-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45901.63788194444</v>
+        <v>45812.46844907408</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6673,7 +6653,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6710,14 +6690,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 15236-2024</t>
+          <t>A 39843-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45400</v>
+        <v>45891</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6730,7 +6710,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6767,14 +6747,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 35055-2025</t>
+          <t>A 28052-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45852</v>
+        <v>45817.65847222223</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6787,7 +6767,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6824,14 +6804,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 58398-2025</t>
+          <t>A 28049-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45985.56231481482</v>
+        <v>45817.65653935185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6844,7 +6824,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6881,14 +6861,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 58444-2025</t>
+          <t>A 40239-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45985.61791666667</v>
+        <v>45894.84497685185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6901,7 +6881,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6938,14 +6918,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 12342-2021</t>
+          <t>A 20275-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44267.43596064814</v>
+        <v>45774.32253472223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6958,7 +6938,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6995,14 +6975,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 58443-2025</t>
+          <t>A 46944-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45985.61674768518</v>
+        <v>44446.51780092593</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7015,7 +6995,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7052,14 +7032,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 4548-2024</t>
+          <t>A 54185-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45327.7147800926</v>
+        <v>45616.64060185185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7072,7 +7052,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7109,14 +7089,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 42646-2025</t>
+          <t>A 37424-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45906.48516203704</v>
+        <v>44398.48474537037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7129,7 +7109,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7166,14 +7146,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 58866-2025</t>
+          <t>A 15236-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45987.44790509259</v>
+        <v>45400</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7186,7 +7166,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7223,14 +7203,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 62535-2023</t>
+          <t>A 28152-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45268</v>
+        <v>45818.35734953704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7243,7 +7223,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7280,14 +7260,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 946-2026</t>
+          <t>A 40650-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46030.53789351852</v>
+        <v>45896.6321875</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7300,7 +7280,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7337,14 +7317,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 59156-2025</t>
+          <t>A 40955-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45988.54133101852</v>
+        <v>45897.67510416666</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7357,7 +7337,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7394,14 +7374,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 65946-2021</t>
+          <t>A 41593-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44517</v>
+        <v>45901.63788194444</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7414,7 +7394,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7451,14 +7431,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 43337-2025</t>
+          <t>A 41590-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45910.73006944444</v>
+        <v>45901.63255787037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7471,7 +7451,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7508,14 +7488,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 43314-2025</t>
+          <t>A 41625-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45910</v>
+        <v>45901.7124537037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7527,13 +7507,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7570,14 +7545,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 59042-2025</t>
+          <t>A 27141-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45988.37216435185</v>
+        <v>45471.55196759259</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7590,7 +7565,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7627,14 +7602,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 38046-2022</t>
+          <t>A 5144-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44811.64700231481</v>
+        <v>45330</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7647,7 +7622,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7684,14 +7659,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 43214-2025</t>
+          <t>A 35055-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45910</v>
+        <v>45852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7703,13 +7678,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>13.8</v>
+        <v>0.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7746,14 +7716,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 58833-2025</t>
+          <t>A 41724-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45987.35474537037</v>
+        <v>45902.4534375</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7766,7 +7736,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7803,14 +7773,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 43593-2025</t>
+          <t>A 30280-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45911.65733796296</v>
+        <v>45110.88763888889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7823,7 +7793,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7860,14 +7830,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 21875-2024</t>
+          <t>A 42646-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45443.38331018519</v>
+        <v>45906.48516203704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7880,7 +7850,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7917,14 +7887,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 21932-2024</t>
+          <t>A 43214-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45443</v>
+        <v>45910</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7936,8 +7906,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>0.6</v>
+        <v>13.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7974,14 +7949,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 1427-2026</t>
+          <t>A 43593-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>46031.94480324074</v>
+        <v>45911.65733796296</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7994,7 +7969,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8031,14 +8006,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 57860-2023</t>
+          <t>A 13034-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45247.44261574074</v>
+        <v>45734.57408564815</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8051,7 +8026,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8088,14 +8063,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 59508-2025</t>
+          <t>A 30079-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45989.64269675926</v>
+        <v>45826.64440972222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8107,13 +8082,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8150,14 +8120,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 50160-2022</t>
+          <t>A 43337-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44865.58923611111</v>
+        <v>45910.73006944444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8170,7 +8140,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8207,14 +8177,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 59317-2025</t>
+          <t>A 43314-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45989.32200231482</v>
+        <v>45910</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8226,8 +8196,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8264,14 +8239,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 1437-2026</t>
+          <t>A 44431-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46032.56134259259</v>
+        <v>45189.35152777778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8284,7 +8259,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8321,14 +8296,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 1438-2026</t>
+          <t>A 45978-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46032.5637037037</v>
+        <v>44846.69284722222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8341,7 +8316,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8378,14 +8353,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 59309-2025</t>
+          <t>A 54937-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45989.27822916667</v>
+        <v>44881</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8398,7 +8373,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8435,14 +8410,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 1513-2026</t>
+          <t>A 10924-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46034.34575231482</v>
+        <v>45722.83402777778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8455,7 +8430,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8492,14 +8467,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 22386-2024</t>
+          <t>A 9086-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45446.66300925926</v>
+        <v>45357.90260416667</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8512,7 +8487,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.8</v>
+        <v>5.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8549,14 +8524,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 45978-2022</t>
+          <t>A 9089-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44846.69284722222</v>
+        <v>45357.90612268518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8569,7 +8544,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8606,14 +8581,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 2345-2023</t>
+          <t>A 20022-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44942</v>
+        <v>45772.34013888889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8626,7 +8601,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8663,14 +8638,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 2430-2026</t>
+          <t>A 42359-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46036.81327546296</v>
+        <v>45180.52940972222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8683,7 +8658,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8720,14 +8695,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 2431-2026</t>
+          <t>A 45853-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46036.81487268519</v>
+        <v>45923.6297337963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8740,7 +8715,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8777,14 +8752,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 2410-2026</t>
+          <t>A 45293-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46036.72965277778</v>
+        <v>45920.43634259259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8797,7 +8772,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8834,14 +8809,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 2411-2026</t>
+          <t>A 45292-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46036.73222222222</v>
+        <v>45920.43488425926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8854,7 +8829,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8891,14 +8866,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 2416-2026</t>
+          <t>A 46234-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46036.76255787037</v>
+        <v>45925.29591435185</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8911,7 +8886,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8948,14 +8923,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 2052-2026</t>
+          <t>A 46237-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46031</v>
+        <v>45925.30956018518</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8967,13 +8942,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>8.5</v>
+        <v>14.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9010,14 +8980,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 1880-2026</t>
+          <t>A 62097-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46035.47288194444</v>
+        <v>44920</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9030,7 +9000,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9067,14 +9037,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 45293-2025</t>
+          <t>A 46233-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45920.43634259259</v>
+        <v>45925.29270833333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9087,7 +9057,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9124,14 +9094,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 1860-2026</t>
+          <t>A 22202-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46035.44283564815</v>
+        <v>45446.37318287037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9144,7 +9114,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9181,14 +9151,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 62097-2022</t>
+          <t>A 9749-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44920</v>
+        <v>44984</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9201,7 +9171,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9238,14 +9208,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 39000-2023</t>
+          <t>A 42552-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45163.67079861111</v>
+        <v>45565.61814814815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9258,7 +9228,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9295,14 +9265,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 9721-2023</t>
+          <t>A 46823-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44984</v>
+        <v>45926.79550925926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9315,7 +9285,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9352,14 +9322,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 45292-2025</t>
+          <t>A 13122-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45920.43488425926</v>
+        <v>45734.80390046296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9372,7 +9342,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9409,14 +9379,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 2432-2026</t>
+          <t>A 46833-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46036.81594907407</v>
+        <v>45927.68620370371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9429,7 +9399,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9466,14 +9436,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 64234-2021</t>
+          <t>A 26526-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44510.64112268519</v>
+        <v>44739.44171296297</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9486,7 +9456,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9523,14 +9493,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 2051-2026</t>
+          <t>A 47169-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46031</v>
+        <v>45929.91121527777</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9542,13 +9512,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9585,14 +9550,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 3010-2026</t>
+          <t>A 48094-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46038.66194444444</v>
+        <v>45933.33019675926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9605,7 +9570,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9642,14 +9607,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 45853-2025</t>
+          <t>A 48100-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45923.6297337963</v>
+        <v>45933.33457175926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9662,7 +9627,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9699,14 +9664,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 9090-2024</t>
+          <t>A 59440-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45357.90923611111</v>
+        <v>45254</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9719,7 +9684,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.6</v>
+        <v>15</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9756,14 +9721,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 1277-2026</t>
+          <t>A 48082-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46031</v>
+        <v>45932.77143518518</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9776,7 +9741,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9813,14 +9778,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 3012-2026</t>
+          <t>A 48099-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46038.66331018518</v>
+        <v>45933.33207175926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9833,7 +9798,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9870,14 +9835,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 46233-2025</t>
+          <t>A 48080-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45925.29270833333</v>
+        <v>45932.7685300926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9890,7 +9855,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9927,14 +9892,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 11777-2024</t>
+          <t>A 48081-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45374.35063657408</v>
+        <v>45932.77</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9947,7 +9912,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9984,14 +9949,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 11792-2024</t>
+          <t>A 48104-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45375</v>
+        <v>45933.3422337963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10004,7 +9969,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10041,14 +10006,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 46234-2025</t>
+          <t>A 48452-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45925.29591435185</v>
+        <v>45935.79104166666</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10061,7 +10026,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10098,14 +10063,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 46237-2025</t>
+          <t>A 49431-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45925.30956018518</v>
+        <v>45938.845</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10118,7 +10083,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>14.2</v>
+        <v>1.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10155,14 +10120,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 60802-2025</t>
+          <t>A 13397-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45999.43222222223</v>
+        <v>45735.71293981482</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10175,7 +10140,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.3</v>
+        <v>7.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10212,14 +10177,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 3382-2026</t>
+          <t>A 48955-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46042.36003472222</v>
+        <v>45937</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10232,7 +10197,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10269,14 +10234,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 60981-2025</t>
+          <t>A 48760-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45999.70361111111</v>
+        <v>45936.77475694445</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10289,7 +10254,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10326,14 +10291,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 47169-2025</t>
+          <t>A 24785-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45929.91121527777</v>
+        <v>45084.67194444445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10346,7 +10311,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10383,14 +10348,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 46833-2025</t>
+          <t>A 42330-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45927.68620370371</v>
+        <v>45180</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10403,7 +10368,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10440,14 +10405,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 46823-2025</t>
+          <t>A 49598-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45926.79550925926</v>
+        <v>45939.53748842593</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10460,7 +10425,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10497,14 +10462,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 60975-2025</t>
+          <t>A 49855-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45999.69570601852</v>
+        <v>45940.50458333334</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10517,7 +10482,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10554,14 +10519,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 60985-2025</t>
+          <t>A 21932-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45999.70759259259</v>
+        <v>45443</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10574,7 +10539,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10611,14 +10576,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 60973-2025</t>
+          <t>A 1262-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45999.69430555555</v>
+        <v>44936.39234953704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10631,7 +10596,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10668,14 +10633,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 64386-2021</t>
+          <t>A 7732-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44511</v>
+        <v>44973</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10687,8 +10652,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>3.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10725,14 +10695,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 30280-2023</t>
+          <t>A 16121-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45110.88763888889</v>
+        <v>45406.49583333333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10745,7 +10715,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10782,14 +10752,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 9086-2024</t>
+          <t>A 51167-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45357.90260416667</v>
+        <v>45947.59884259259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10802,7 +10772,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10839,14 +10809,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 9089-2024</t>
+          <t>A 50685-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45357.90612268518</v>
+        <v>45945.82289351852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10859,7 +10829,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10896,14 +10866,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 8983-2024</t>
+          <t>A 44421-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45356</v>
+        <v>45573.86858796296</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10916,7 +10886,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10953,14 +10923,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 61731-2025</t>
+          <t>A 2917-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46002.59304398148</v>
+        <v>44943</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10973,7 +10943,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11010,14 +10980,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 58074-2022</t>
+          <t>A 33939-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44900.61518518518</v>
+        <v>45134.55792824074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11067,14 +11037,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 48452-2025</t>
+          <t>A 19391-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45935.79104166666</v>
+        <v>45429.37967592593</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11087,7 +11057,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11124,14 +11094,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 48099-2025</t>
+          <t>A 19394-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45933.33207175926</v>
+        <v>45429.38112268518</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11144,7 +11114,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11181,14 +11151,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 3701-2026</t>
+          <t>A 35621-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46043.47123842593</v>
+        <v>45859.4146875</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11201,7 +11171,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11238,14 +11208,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 48094-2025</t>
+          <t>A 56637-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45933.33019675926</v>
+        <v>45625.69395833334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11258,7 +11228,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11295,14 +11265,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 48104-2025</t>
+          <t>A 59381-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45933.3422337963</v>
+        <v>44905.46840277778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11315,7 +11285,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11352,14 +11322,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 48081-2025</t>
+          <t>A 20169-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45932.77</v>
+        <v>45772.57777777778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11372,7 +11342,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11409,14 +11379,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 48082-2025</t>
+          <t>A 51890-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45932.77143518518</v>
+        <v>45952.41594907407</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11429,7 +11399,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11466,14 +11436,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 48080-2025</t>
+          <t>A 17199-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45932.7685300926</v>
+        <v>45756.41421296296</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11486,7 +11456,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11523,14 +11493,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 48100-2025</t>
+          <t>A 36637-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45933.33457175926</v>
+        <v>45870.73012731481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11543,7 +11513,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11580,14 +11550,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 6525-2025</t>
+          <t>A 36638-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45699.66690972223</v>
+        <v>45870.73099537037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11600,7 +11570,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11637,14 +11607,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 21232-2023</t>
+          <t>A 9721-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45062.54716435185</v>
+        <v>44984</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11657,7 +11627,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11694,14 +11664,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 48760-2025</t>
+          <t>A 36639-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45936.77475694445</v>
+        <v>45870.73174768518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11714,7 +11684,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11751,14 +11721,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 7962-2024</t>
+          <t>A 36641-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45350.57357638889</v>
+        <v>45871.43119212963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11771,7 +11741,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11808,14 +11778,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 48955-2025</t>
+          <t>A 10586-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45937</v>
+        <v>45366.69975694444</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11828,7 +11798,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11865,14 +11835,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 15421-2024</t>
+          <t>A 36838-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45401.36530092593</v>
+        <v>45874.37011574074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11885,7 +11855,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11922,14 +11892,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 49431-2025</t>
+          <t>A 29092-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45938.845</v>
+        <v>45105.34570601852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11941,8 +11911,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11979,14 +11954,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 16281-2025</t>
+          <t>A 48595-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45751.29027777778</v>
+        <v>44452.48140046297</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11998,13 +11973,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12041,14 +12011,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 16283-2025</t>
+          <t>A 24611-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45751.29266203703</v>
+        <v>45084.33306712963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12060,13 +12030,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12103,14 +12068,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 22202-2024</t>
+          <t>A 62148-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45446.37318287037</v>
+        <v>44922.40197916667</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12123,7 +12088,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12160,14 +12125,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 4260-2026</t>
+          <t>A 6603-2021</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46045.3403125</v>
+        <v>44236.46976851852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12180,7 +12145,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12217,14 +12182,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 49598-2025</t>
+          <t>A 36974-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45939.53748842593</v>
+        <v>45538.89228009259</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12237,7 +12202,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12274,14 +12239,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 49855-2025</t>
+          <t>A 51887-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45940.50458333334</v>
+        <v>45952</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12294,7 +12259,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.5</v>
+        <v>10.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12331,14 +12296,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 59684-2022</t>
+          <t>A 3756-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44908</v>
+        <v>44951.47405092593</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12350,13 +12315,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12393,14 +12353,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 49751-2023</t>
+          <t>A 20807-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45212.52082175926</v>
+        <v>45776.65706018519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12412,8 +12372,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>11.5</v>
+        <v>1.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12450,14 +12415,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 50685-2025</t>
+          <t>A 19308-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45945.82289351852</v>
+        <v>45769.56891203704</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12469,8 +12434,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12507,14 +12477,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 60380-2022</t>
+          <t>A 8268-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44910.69658564815</v>
+        <v>45708.51210648148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12527,7 +12497,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12564,14 +12534,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 3756-2023</t>
+          <t>A 11484-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44951.47405092593</v>
+        <v>45726.69502314815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12584,7 +12554,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>5.2</v>
+        <v>0.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12621,14 +12591,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 6083-2026</t>
+          <t>A 15421-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46052.68944444445</v>
+        <v>45401.36530092593</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12641,7 +12611,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12678,14 +12648,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 9802-2021</t>
+          <t>A 6003-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44252.70211805555</v>
+        <v>44964.39972222222</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12697,8 +12667,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12735,14 +12710,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 51167-2025</t>
+          <t>A 57860-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45947.59884259259</v>
+        <v>45247.44261574074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12755,7 +12730,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12792,14 +12767,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 61904-2022</t>
+          <t>A 55189-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44917.73387731481</v>
+        <v>45968.54363425926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12811,13 +12786,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12854,14 +12824,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 61907-2022</t>
+          <t>A 16912-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44917.73603009259</v>
+        <v>45755.36498842593</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12873,13 +12843,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12916,14 +12881,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 49455-2023</t>
+          <t>A 9642-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45211.50127314815</v>
+        <v>45715.84020833333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12936,7 +12901,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12973,14 +12938,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 51890-2025</t>
+          <t>A 16587-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45952.41594907407</v>
+        <v>45752.87754629629</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12993,7 +12958,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13030,14 +12995,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 5707-2026</t>
+          <t>A 55188-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46051.5116087963</v>
+        <v>45968.5422800926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13050,7 +13015,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13087,14 +13052,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 5708-2026</t>
+          <t>A 5152-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46051.51230324074</v>
+        <v>45330.49232638889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13107,7 +13072,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>9.199999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13144,14 +13109,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 59381-2022</t>
+          <t>A 55992-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44905.46840277778</v>
+        <v>45973.55912037037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13164,7 +13129,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13201,14 +13166,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 10586-2024</t>
+          <t>A 14787-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45366.69975694444</v>
+        <v>45397.7650462963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13221,7 +13186,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13258,14 +13223,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 7329-2025</t>
+          <t>A 14789-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45703.32144675926</v>
+        <v>45397.81939814815</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13278,7 +13243,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13315,14 +13280,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 24064-2022</t>
+          <t>A 55706-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44725.32741898148</v>
+        <v>45972.47302083333</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13335,7 +13300,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13372,14 +13337,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 7680-2025</t>
+          <t>A 55776-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45706.36583333334</v>
+        <v>45972</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13392,7 +13357,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13429,14 +13394,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 1262-2023</t>
+          <t>A 56381-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44936.39234953704</v>
+        <v>45974.7060300926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13449,7 +13414,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13486,14 +13451,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 50958-2023</t>
+          <t>A 56379-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45210</v>
+        <v>45974.70221064815</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13505,13 +13470,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13548,14 +13508,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 5663-2025</t>
+          <t>A 8895-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45693.82982638889</v>
+        <v>44979</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13567,8 +13527,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>8.199999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13605,14 +13570,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 50053-2024</t>
+          <t>A 49751-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45600.33508101852</v>
+        <v>45212.52082175926</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13625,7 +13590,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.6</v>
+        <v>11.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13662,14 +13627,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 7070-2026</t>
+          <t>A 60814-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46058.31163194445</v>
+        <v>45644.61975694444</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13682,7 +13647,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13719,14 +13684,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 30674-2023</t>
+          <t>A 57567-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45112</v>
+        <v>45980.73072916667</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13739,7 +13704,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13776,14 +13741,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 22515-2022</t>
+          <t>A 52097-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44713.68042824074</v>
+        <v>45608.4153125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13796,7 +13761,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>10.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13833,14 +13798,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 22517-2022</t>
+          <t>A 57569-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44713.68208333333</v>
+        <v>45980.73299768518</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13853,7 +13818,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13890,14 +13855,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 42552-2024</t>
+          <t>A 59684-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45565.61814814815</v>
+        <v>44908</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13909,8 +13874,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13947,14 +13917,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 51887-2025</t>
+          <t>A 58444-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45952</v>
+        <v>45985.61791666667</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13967,7 +13937,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>10.6</v>
+        <v>1.3</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14004,14 +13974,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 33939-2023</t>
+          <t>A 58398-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45134.55792824074</v>
+        <v>45985.56231481482</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14024,7 +13994,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14061,14 +14031,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 5523-2023</t>
+          <t>A 58443-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44960</v>
+        <v>45985.61674768518</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14081,7 +14051,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14118,14 +14088,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 55189-2025</t>
+          <t>A 58866-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45968.54363425926</v>
+        <v>45987.44790509259</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14138,7 +14108,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14175,14 +14145,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 55188-2025</t>
+          <t>A 30674-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45968.5422800926</v>
+        <v>45112</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14195,7 +14165,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14232,14 +14202,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 9642-2025</t>
+          <t>A 58833-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45715.84020833333</v>
+        <v>45987.35474537037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14252,7 +14222,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14289,14 +14259,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 55706-2025</t>
+          <t>A 12918-2021</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45972.47302083333</v>
+        <v>44271</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14309,7 +14279,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14346,14 +14316,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 55776-2025</t>
+          <t>A 59309-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45972</v>
+        <v>45989.27822916667</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14366,7 +14336,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14403,14 +14373,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 17951-2023</t>
+          <t>A 59156-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45040</v>
+        <v>45988.54133101852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14423,7 +14393,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14460,14 +14430,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 17972-2023</t>
+          <t>A 59508-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45040</v>
+        <v>45989.64269675926</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14479,8 +14449,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14517,14 +14492,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 3619-2023</t>
+          <t>A 59317-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44950.63637731481</v>
+        <v>45989.32200231482</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14537,7 +14512,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14574,14 +14549,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 55992-2025</t>
+          <t>A 946-2026</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45973.55912037037</v>
+        <v>46030.53789351852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14594,7 +14569,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14631,14 +14606,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 56379-2025</t>
+          <t>A 20172-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45974.70221064815</v>
+        <v>45772.57979166666</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14651,7 +14626,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14688,14 +14663,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 56381-2025</t>
+          <t>A 22386-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45974.7060300926</v>
+        <v>45446.66300925926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14708,7 +14683,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14745,14 +14720,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 20260-2021</t>
+          <t>A 59042-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44314</v>
+        <v>45988.37216435185</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14764,13 +14739,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14807,14 +14777,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 52097-2024</t>
+          <t>A 57902-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45608.4153125</v>
+        <v>44900.35104166667</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14827,7 +14797,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>10.9</v>
+        <v>1.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14864,14 +14834,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 66386-2021</t>
+          <t>A 17195-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44518</v>
+        <v>45756.40695601852</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14884,7 +14854,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14921,14 +14891,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 8268-2025</t>
+          <t>A 1437-2026</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45708.51210648148</v>
+        <v>46032.56134259259</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14941,7 +14911,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14978,14 +14948,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 4550-2024</t>
+          <t>A 1880-2026</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45327.71622685185</v>
+        <v>46035.47288194444</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14998,7 +14968,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15035,14 +15005,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 44668-2023</t>
+          <t>A 1438-2026</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45189.72548611111</v>
+        <v>46032.5637037037</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15055,7 +15025,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15092,14 +15062,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 42330-2023</t>
+          <t>A 20260-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45180</v>
+        <v>44314</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15111,8 +15081,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15149,14 +15124,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 1122-2025</t>
+          <t>A 16169-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45666.66532407407</v>
+        <v>45406.61987268519</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15169,7 +15144,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15206,14 +15181,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 9725-2023</t>
+          <t>A 1427-2026</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44984</v>
+        <v>46031.94480324074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15226,7 +15201,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15263,14 +15238,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 60814-2024</t>
+          <t>A 8456-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45644.61975694444</v>
+        <v>45354</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15283,7 +15258,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15320,14 +15295,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 46732-2023</t>
+          <t>A 1860-2026</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45198.59054398148</v>
+        <v>46035.44283564815</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15339,13 +15314,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G257" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15382,14 +15352,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 11484-2025</t>
+          <t>A 1513-2026</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45726.69502314815</v>
+        <v>46034.34575231482</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15402,7 +15372,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15439,14 +15409,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 7734-2022</t>
+          <t>A 2411-2026</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44608</v>
+        <v>46036.73222222222</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15459,7 +15429,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15496,14 +15466,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 30362-2024</t>
+          <t>A 1277-2026</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45491.35975694445</v>
+        <v>46031</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15516,7 +15486,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15553,14 +15523,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 24785-2023</t>
+          <t>A 50958-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45084.67194444445</v>
+        <v>45210</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15572,8 +15542,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15610,14 +15585,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 54937-2022</t>
+          <t>A 2416-2026</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44881</v>
+        <v>46036.76255787037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15630,7 +15605,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15667,14 +15642,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 49357-2024</t>
+          <t>A 2051-2026</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45595.61976851852</v>
+        <v>46031</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15686,8 +15661,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G263" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15724,14 +15704,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 37424-2021</t>
+          <t>A 2410-2026</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44398.48474537037</v>
+        <v>46036.72965277778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15744,7 +15724,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15781,14 +15761,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 17527-2025</t>
+          <t>A 2430-2026</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45757.58712962963</v>
+        <v>46036.81327546296</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15801,7 +15781,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -15838,14 +15818,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 2917-2023</t>
+          <t>A 2431-2026</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44943</v>
+        <v>46036.81487268519</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15858,7 +15838,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -15895,14 +15875,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 47583-2024</t>
+          <t>A 17972-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45587.77702546296</v>
+        <v>45040</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15914,13 +15894,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G267" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -15957,14 +15932,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 14655-2022</t>
+          <t>A 2432-2026</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44655</v>
+        <v>46036.81594907407</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15977,7 +15952,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16014,14 +15989,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 16121-2024</t>
+          <t>A 2052-2026</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45406.49583333333</v>
+        <v>46031</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16033,8 +16008,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16071,14 +16051,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 55972-2023</t>
+          <t>A 60802-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45233</v>
+        <v>45999.43222222223</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16091,7 +16071,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16128,14 +16108,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 9189-2022</t>
+          <t>A 7047-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44615.89261574074</v>
+        <v>44968</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16148,7 +16128,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16185,14 +16165,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 60589-2023</t>
+          <t>A 60975-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45260.28659722222</v>
+        <v>45999.69570601852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16205,7 +16185,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16242,14 +16222,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 50307-2023</t>
+          <t>A 60985-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45209</v>
+        <v>45999.70759259259</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16262,7 +16242,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16299,14 +16279,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 46747-2023</t>
+          <t>A 3012-2026</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45198</v>
+        <v>46038.66331018518</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16318,13 +16298,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G274" t="n">
-        <v>6.6</v>
+        <v>3.2</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16361,14 +16336,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 46736-2023</t>
+          <t>A 20454-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45198</v>
+        <v>45775.50877314815</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16380,13 +16355,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G275" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16423,14 +16393,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 17201-2025</t>
+          <t>A 60973-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45756.42020833334</v>
+        <v>45999.69430555555</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16443,7 +16413,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16480,14 +16450,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 39475-2023</t>
+          <t>A 3010-2026</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45166</v>
+        <v>46038.66194444444</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16500,7 +16470,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>5.1</v>
+        <v>2.7</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16537,14 +16507,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 53213-2024</t>
+          <t>A 60981-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45612.65795138889</v>
+        <v>45999.70361111111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16557,7 +16527,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16594,14 +16564,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 20022-2025</t>
+          <t>A 62535-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45772.34013888889</v>
+        <v>45268</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16614,7 +16584,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16651,14 +16621,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 5144-2024</t>
+          <t>A 3382-2026</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45330</v>
+        <v>46042.36003472222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16671,7 +16641,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16708,14 +16678,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 6766-2021</t>
+          <t>A 3701-2026</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44236</v>
+        <v>46043.47123842593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16728,7 +16698,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16765,14 +16735,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 9633-2024</t>
+          <t>A 16280-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45362.3203125</v>
+        <v>45751.28666666667</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16784,8 +16754,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G282" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16822,14 +16797,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 59619-2022</t>
+          <t>A 4260-2026</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>44907.88240740741</v>
+        <v>46045.3403125</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16842,7 +16817,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -16879,14 +16854,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 16280-2025</t>
+          <t>A 61731-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45751.28666666667</v>
+        <v>46002.59304398148</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16898,13 +16873,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G284" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -16941,14 +16911,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 16912-2025</t>
+          <t>A 10655-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45755.36498842593</v>
+        <v>45721.69958333333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16961,7 +16931,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -16998,14 +16968,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 37653-2023</t>
+          <t>A 44669-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45159.51601851852</v>
+        <v>45189</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17018,7 +16988,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17055,14 +17025,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 13397-2025</t>
+          <t>A 64386-2021</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45735.71293981482</v>
+        <v>44511</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17075,7 +17045,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>7.1</v>
+        <v>3.7</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17112,14 +17082,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 17199-2025</t>
+          <t>A 66386-2021</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45756.41421296296</v>
+        <v>44518</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17132,7 +17102,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17169,14 +17139,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 18068-2025</t>
+          <t>A 5707-2026</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45761.49069444444</v>
+        <v>46051.5116087963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17189,7 +17159,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17226,14 +17196,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 1005-2024</t>
+          <t>A 17201-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45301</v>
+        <v>45756.42020833334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17246,7 +17216,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17283,14 +17253,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 3057-2023</t>
+          <t>A 5708-2026</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44946</v>
+        <v>46051.51230324074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17303,7 +17273,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17340,14 +17310,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 20172-2025</t>
+          <t>A 1005-2024</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45772.57979166666</v>
+        <v>45301</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17360,7 +17330,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>4.9</v>
+        <v>0.8</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17397,14 +17367,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 8456-2024</t>
+          <t>A 4548-2024</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45354</v>
+        <v>45327.7147800926</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17417,7 +17387,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17454,14 +17424,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 6003-2023</t>
+          <t>A 6083-2026</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>44964.39972222222</v>
+        <v>46052.68944444445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17473,13 +17443,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G294" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17516,14 +17481,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 6603-2021</t>
+          <t>A 60589-2023</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>44236.46976851852</v>
+        <v>45260.28659722222</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17536,7 +17501,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17573,14 +17538,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 16169-2024</t>
+          <t>A 5663-2025</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45406.61987268519</v>
+        <v>45693.82982638889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17593,7 +17558,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>2.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17630,14 +17595,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 48595-2021</t>
+          <t>A 7329-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>44452.48140046297</v>
+        <v>45703.32144675926</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17650,7 +17615,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17687,14 +17652,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 30061-2021</t>
+          <t>A 7680-2025</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>44363</v>
+        <v>45706.36583333334</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17707,7 +17672,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17744,14 +17709,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 42359-2023</t>
+          <t>A 57921-2022</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45180.52940972222</v>
+        <v>44900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17764,7 +17729,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -17801,14 +17766,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 9749-2023</t>
+          <t>A 7529-2026</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>44984</v>
+        <v>46059.61733796296</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17821,7 +17786,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -17858,14 +17823,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 9898-2024</t>
+          <t>A 7070-2026</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45363</v>
+        <v>46058.31163194445</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17878,7 +17843,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -17915,14 +17880,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 57167-2022</t>
+          <t>A 21232-2023</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>44895.60074074074</v>
+        <v>45062.54716435185</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17972,14 +17937,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 61969-2022</t>
+          <t>A 7533-2026</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>44914</v>
+        <v>46059.62197916667</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17992,7 +17957,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18029,14 +17994,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 62148-2022</t>
+          <t>A 7535-2026</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>44922.40197916667</v>
+        <v>46059.62313657408</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18049,7 +18014,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18086,14 +18051,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 12918-2021</t>
+          <t>A 16281-2025</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>44271</v>
+        <v>45751.29027777778</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18105,8 +18070,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G305" t="n">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18143,14 +18113,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 57902-2022</t>
+          <t>A 16283-2025</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>44900.35104166667</v>
+        <v>45751.29266203703</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18162,8 +18132,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G306" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18200,14 +18175,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 50945-2023</t>
+          <t>A 7734-2022</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45210</v>
+        <v>44608</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18219,13 +18194,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G307" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18262,14 +18232,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 19391-2024</t>
+          <t>A 20806-2023</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45429.37967592593</v>
+        <v>45058</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18282,7 +18252,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18319,14 +18289,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 19394-2024</t>
+          <t>A 54097-2024</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45429.38112268518</v>
+        <v>45616.51472222222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18339,7 +18309,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18376,14 +18346,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 58049-2023</t>
+          <t>A 59225-2023</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45247</v>
+        <v>45253</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18396,7 +18366,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18433,14 +18403,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 11797-2024</t>
+          <t>A 9863-2024</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45375.38054398148</v>
+        <v>45363</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18453,7 +18423,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18490,14 +18460,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 54991-2024</t>
+          <t>A 5523-2023</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45620.85204861111</v>
+        <v>44960</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18510,7 +18480,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18547,14 +18517,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 54097-2024</t>
+          <t>A 11793-2024</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45616.51472222222</v>
+        <v>45375.30324074074</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18567,7 +18537,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18604,14 +18574,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 4065-2023</t>
+          <t>A 60380-2022</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>44952</v>
+        <v>44910.69658564815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18624,7 +18594,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18661,14 +18631,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 44431-2023</t>
+          <t>A 8983-2024</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45189.35152777778</v>
+        <v>45356</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18681,7 +18651,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18718,14 +18688,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 52016-2021</t>
+          <t>A 50945-2023</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>44463</v>
+        <v>45210</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18737,8 +18707,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G316" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18775,14 +18750,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 60191-2022</t>
+          <t>A 22515-2022</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>44910</v>
+        <v>44713.68042824074</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18795,7 +18770,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -18832,14 +18807,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 55240-2023</t>
+          <t>A 22517-2022</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45237.63732638889</v>
+        <v>44713.68208333333</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18852,7 +18827,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -18889,14 +18864,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 616-2025</t>
+          <t>A 46108-2021</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45664.60969907408</v>
+        <v>44442.36792824074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18909,7 +18884,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -18946,14 +18921,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 48718-2023</t>
+          <t>A 6525-2025</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45208</v>
+        <v>45699.66690972223</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18966,7 +18941,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19003,14 +18978,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 16590-2025</t>
+          <t>A 39000-2023</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45752.89317129629</v>
+        <v>45163.67079861111</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19023,7 +18998,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19060,14 +19035,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 24611-2023</t>
+          <t>A 55240-2023</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45084.33306712963</v>
+        <v>45237.63732638889</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19080,7 +19055,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19117,14 +19092,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 7047-2023</t>
+          <t>A 50053-2024</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>44968</v>
+        <v>45600.33508101852</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19137,7 +19112,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19174,14 +19149,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 59440-2023</t>
+          <t>A 58074-2022</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45254</v>
+        <v>44900.61518518518</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19194,7 +19169,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>15</v>
+        <v>0.7</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19231,14 +19206,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 63073-2023</t>
+          <t>A 11797-2024</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45273.00841435185</v>
+        <v>45375.38054398148</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19251,7 +19226,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19288,14 +19263,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 14787-2024</t>
+          <t>A 53213-2024</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45397.7650462963</v>
+        <v>45612.65795138889</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19308,7 +19283,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19345,14 +19320,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 14789-2024</t>
+          <t>A 46747-2023</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45397.81939814815</v>
+        <v>45198</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19364,8 +19339,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G327" t="n">
-        <v>1.1</v>
+        <v>6.6</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19402,14 +19382,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 26362-2024</t>
+          <t>A 49455-2023</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45469.38258101852</v>
+        <v>45211.50127314815</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19422,7 +19402,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19459,14 +19439,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 7732-2023</t>
+          <t>A 34133-2022</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>44973</v>
+        <v>44791.52582175926</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19478,13 +19458,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F329" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G329" t="n">
-        <v>9.300000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19521,14 +19496,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 43384-2023</t>
+          <t>A 44668-2023</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45183.85680555556</v>
+        <v>45189.72548611111</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19541,7 +19516,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19578,14 +19553,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 44669-2023</t>
+          <t>A 47583-2024</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45189</v>
+        <v>45587.77702546296</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19597,8 +19572,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G331" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19635,14 +19615,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 2995-2024</t>
+          <t>A 49357-2024</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45315</v>
+        <v>45595.61976851852</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19655,7 +19635,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -19692,14 +19672,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 4845-2024</t>
+          <t>A 61904-2022</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45329.35953703704</v>
+        <v>44917.73387731481</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19711,8 +19691,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G333" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -19749,14 +19734,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 44744-2023</t>
+          <t>A 61907-2022</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45190.39100694445</v>
+        <v>44917.73603009259</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19768,8 +19753,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G334" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -19806,14 +19796,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 21535-2025</t>
+          <t>A 4065-2023</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>45782.65741898148</v>
+        <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19826,7 +19816,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -19863,14 +19853,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 23950-2025</t>
+          <t>A 7962-2024</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>45796.35803240741</v>
+        <v>45350.57357638889</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19883,7 +19873,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -19920,14 +19910,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 45309-2024</t>
+          <t>A 65946-2021</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>45576.43064814815</v>
+        <v>44517</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19940,7 +19930,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -19977,14 +19967,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 25324-2025</t>
+          <t>A 48718-2023</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>45800</v>
+        <v>45208</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19997,7 +19987,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20034,14 +20024,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 25326-2025</t>
+          <t>A 20456-2025</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>45800</v>
+        <v>45775.51363425926</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20054,7 +20044,7 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -20091,14 +20081,14 @@
     <row r="340" ht="15" customHeight="1">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 25906-2025</t>
+          <t>A 43384-2023</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>45804.55729166666</v>
+        <v>45183.85680555556</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20111,7 +20101,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -20148,14 +20138,14 @@
     <row r="341" ht="15" customHeight="1">
       <c r="A341" t="inlineStr">
         <is>
-          <t>A 25909-2025</t>
+          <t>A 616-2025</t>
         </is>
       </c>
       <c r="B341" s="1" t="n">
-        <v>45804.55820601852</v>
+        <v>45664.60969907408</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20168,7 +20158,7 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -20205,14 +20195,14 @@
     <row r="342" ht="15" customHeight="1">
       <c r="A342" t="inlineStr">
         <is>
-          <t>A 5448-2025</t>
+          <t>A 17527-2025</t>
         </is>
       </c>
       <c r="B342" s="1" t="n">
-        <v>45692.88263888889</v>
+        <v>45757.58712962963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20225,7 +20215,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -20262,14 +20252,14 @@
     <row r="343" ht="15" customHeight="1">
       <c r="A343" t="inlineStr">
         <is>
-          <t>A 25911-2025</t>
+          <t>A 50160-2022</t>
         </is>
       </c>
       <c r="B343" s="1" t="n">
-        <v>45804.55912037037</v>
+        <v>44865.58923611111</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20282,7 +20272,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -20319,14 +20309,14 @@
     <row r="344" ht="15" customHeight="1">
       <c r="A344" t="inlineStr">
         <is>
-          <t>A 59325-2023</t>
+          <t>A 39475-2023</t>
         </is>
       </c>
       <c r="B344" s="1" t="n">
-        <v>45253</v>
+        <v>45166</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20339,7 +20329,7 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -20376,14 +20366,14 @@
     <row r="345" ht="15" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
-          <t>A 54586-2023</t>
+          <t>A 14655-2022</t>
         </is>
       </c>
       <c r="B345" s="1" t="n">
-        <v>45233.77412037037</v>
+        <v>44655</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20396,7 +20386,7 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -20433,14 +20423,14 @@
     <row r="346" ht="15" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
-          <t>A 27249-2025</t>
+          <t>A 54587-2023</t>
         </is>
       </c>
       <c r="B346" s="1" t="n">
-        <v>45812.46844907408</v>
+        <v>45233</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20453,7 +20443,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -20490,14 +20480,14 @@
     <row r="347" ht="15" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
-          <t>A 27112-2025</t>
+          <t>A 16284-2025</t>
         </is>
       </c>
       <c r="B347" s="1" t="n">
-        <v>45811.73366898148</v>
+        <v>45751.29762731482</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20510,7 +20500,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -20547,14 +20537,14 @@
     <row r="348" ht="15" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
-          <t>A 26964-2025</t>
+          <t>A 2345-2023</t>
         </is>
       </c>
       <c r="B348" s="1" t="n">
-        <v>45811.46918981482</v>
+        <v>44942</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20567,7 +20557,7 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -20604,14 +20594,14 @@
     <row r="349" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
-          <t>A 27227-2025</t>
+          <t>A 3619-2023</t>
         </is>
       </c>
       <c r="B349" s="1" t="n">
-        <v>45812.43118055556</v>
+        <v>44950.63637731481</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20624,7 +20614,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -20661,14 +20651,14 @@
     <row r="350" ht="15" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
-          <t>A 27109-2025</t>
+          <t>A 44744-2023</t>
         </is>
       </c>
       <c r="B350" s="1" t="n">
-        <v>45811.73126157407</v>
+        <v>45190.39100694445</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20681,7 +20671,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -20718,14 +20708,14 @@
     <row r="351" ht="15" customHeight="1">
       <c r="A351" t="inlineStr">
         <is>
-          <t>A 27110-2025</t>
+          <t>A 18068-2025</t>
         </is>
       </c>
       <c r="B351" s="1" t="n">
-        <v>45811.73269675926</v>
+        <v>45761.49069444444</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20738,7 +20728,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -20775,14 +20765,14 @@
     <row r="352" ht="15" customHeight="1">
       <c r="A352" t="inlineStr">
         <is>
-          <t>A 27585-2025</t>
+          <t>A 63073-2023</t>
         </is>
       </c>
       <c r="B352" s="1" t="n">
-        <v>45813.50371527778</v>
+        <v>45273.00841435185</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20795,7 +20785,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -20832,14 +20822,14 @@
     <row r="353" ht="15" customHeight="1">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A 54185-2024</t>
+          <t>A 56788-2024</t>
         </is>
       </c>
       <c r="B353" s="1" t="n">
-        <v>45616.64060185185</v>
+        <v>45628.45511574074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20852,7 +20842,7 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>5.1</v>
+        <v>6.3</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -20889,14 +20879,14 @@
     <row r="354" ht="15" customHeight="1">
       <c r="A354" t="inlineStr">
         <is>
-          <t>A 27141-2024</t>
+          <t>A 37653-2023</t>
         </is>
       </c>
       <c r="B354" s="1" t="n">
-        <v>45471.55196759259</v>
+        <v>45159.51601851852</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20909,7 +20899,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -20946,14 +20936,14 @@
     <row r="355" ht="15" customHeight="1">
       <c r="A355" t="inlineStr">
         <is>
-          <t>A 20275-2025</t>
+          <t>A 19319-2025</t>
         </is>
       </c>
       <c r="B355" s="1" t="n">
-        <v>45774.32253472223</v>
+        <v>45769.57847222222</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20966,7 +20956,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -21003,14 +20993,14 @@
     <row r="356" ht="15" customHeight="1">
       <c r="A356" t="inlineStr">
         <is>
-          <t>A 28049-2025</t>
+          <t>A 20475-2023</t>
         </is>
       </c>
       <c r="B356" s="1" t="n">
-        <v>45817.65653935185</v>
+        <v>45057</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21023,7 +21013,7 @@
         </is>
       </c>
       <c r="G356" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -21060,14 +21050,14 @@
     <row r="357" ht="15" customHeight="1">
       <c r="A357" t="inlineStr">
         <is>
-          <t>A 28152-2025</t>
+          <t>A 6766-2021</t>
         </is>
       </c>
       <c r="B357" s="1" t="n">
-        <v>45818.35734953704</v>
+        <v>44236</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21080,7 +21070,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -21117,14 +21107,14 @@
     <row r="358" ht="15" customHeight="1">
       <c r="A358" t="inlineStr">
         <is>
-          <t>A 28052-2025</t>
+          <t>A 12990-2024</t>
         </is>
       </c>
       <c r="B358" s="1" t="n">
-        <v>45817.65847222223</v>
+        <v>45385.55565972222</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21137,7 +21127,7 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -21174,14 +21164,14 @@
     <row r="359" ht="15" customHeight="1">
       <c r="A359" t="inlineStr">
         <is>
-          <t>A 30079-2025</t>
+          <t>A 57167-2022</t>
         </is>
       </c>
       <c r="B359" s="1" t="n">
-        <v>45826.64440972222</v>
+        <v>44895.60074074074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21194,7 +21184,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -21231,14 +21221,14 @@
     <row r="360" ht="15" customHeight="1">
       <c r="A360" t="inlineStr">
         <is>
-          <t>A 13034-2025</t>
+          <t>A 50307-2023</t>
         </is>
       </c>
       <c r="B360" s="1" t="n">
-        <v>45734.57408564815</v>
+        <v>45209</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21251,7 +21241,7 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -21288,14 +21278,14 @@
     <row r="361" ht="15" customHeight="1">
       <c r="A361" t="inlineStr">
         <is>
-          <t>A 10924-2025</t>
+          <t>A 38046-2022</t>
         </is>
       </c>
       <c r="B361" s="1" t="n">
-        <v>45722.83402777778</v>
+        <v>44811.64700231481</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21308,7 +21298,7 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -21345,14 +21335,14 @@
     <row r="362" ht="15" customHeight="1">
       <c r="A362" t="inlineStr">
         <is>
-          <t>A 13122-2025</t>
+          <t>A 46736-2023</t>
         </is>
       </c>
       <c r="B362" s="1" t="n">
-        <v>45734.80390046296</v>
+        <v>45198</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21364,8 +21354,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -21402,14 +21397,14 @@
     <row r="363" ht="15" customHeight="1">
       <c r="A363" t="inlineStr">
         <is>
-          <t>A 44421-2024</t>
+          <t>A 16590-2025</t>
         </is>
       </c>
       <c r="B363" s="1" t="n">
-        <v>45573.86858796296</v>
+        <v>45752.89317129629</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21422,7 +21417,7 @@
         </is>
       </c>
       <c r="G363" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -21459,14 +21454,14 @@
     <row r="364" ht="15" customHeight="1">
       <c r="A364" t="inlineStr">
         <is>
-          <t>A 35621-2025</t>
+          <t>A 30362-2024</t>
         </is>
       </c>
       <c r="B364" s="1" t="n">
-        <v>45859.4146875</v>
+        <v>45491.35975694445</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21479,7 +21474,7 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -21513,17 +21508,17 @@
       </c>
       <c r="R364" s="2" t="inlineStr"/>
     </row>
-    <row r="365">
+    <row r="365" ht="15" customHeight="1">
       <c r="A365" t="inlineStr">
         <is>
-          <t>A 56637-2024</t>
+          <t>A 1122-2025</t>
         </is>
       </c>
       <c r="B365" s="1" t="n">
-        <v>45625.69395833334</v>
+        <v>45666.66532407407</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21536,7 +21531,7 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -21569,6 +21564,182 @@
         <v>0</v>
       </c>
       <c r="R365" s="2" t="inlineStr"/>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>A 46732-2023</t>
+        </is>
+      </c>
+      <c r="B366" s="1" t="n">
+        <v>45198.59054398148</v>
+      </c>
+      <c r="C366" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G366" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0</v>
+      </c>
+      <c r="L366" t="n">
+        <v>0</v>
+      </c>
+      <c r="M366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N366" t="n">
+        <v>0</v>
+      </c>
+      <c r="O366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R366" s="2" t="inlineStr"/>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>A 21535-2025</t>
+        </is>
+      </c>
+      <c r="B367" s="1" t="n">
+        <v>45782.65741898148</v>
+      </c>
+      <c r="C367" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="G367" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0</v>
+      </c>
+      <c r="L367" t="n">
+        <v>0</v>
+      </c>
+      <c r="M367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N367" t="n">
+        <v>0</v>
+      </c>
+      <c r="O367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R367" s="2" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>A 23950-2025</t>
+        </is>
+      </c>
+      <c r="B368" s="1" t="n">
+        <v>45796.35803240741</v>
+      </c>
+      <c r="C368" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="G368" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="n">
+        <v>0</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0</v>
+      </c>
+      <c r="L368" t="n">
+        <v>0</v>
+      </c>
+      <c r="M368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N368" t="n">
+        <v>0</v>
+      </c>
+      <c r="O368" t="n">
+        <v>0</v>
+      </c>
+      <c r="P368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>0</v>
+      </c>
+      <c r="R368" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -575,7 +575,7 @@
         <v>44992</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>46036.73480324074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>45203.28686342593</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44249.74386574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44271.61297453703</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44496</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44511</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>44314</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>44316.39745370371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44568.35050925926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44568.35122685185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44445.32841435185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44601</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44533</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44572</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44389.36113425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44256</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44677</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>44818</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>44347</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44571</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44271.47305555556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>44501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>44455.51653935185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44564</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44382.40559027778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44505</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>44743.30945601852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>44607</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44580</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44446.59780092593</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44298.64422453703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>44511</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>44811.28633101852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>44616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>44243</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44621.91310185185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44434.48554398148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44465.35538194444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>44469.43070601852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>44299</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>44501</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>44282</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>44358</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44573.34431712963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>44826.95922453704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>44662.48648148148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44648.29912037037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>44515</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>45751.29126157407</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44615.89261574074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>44510.64112268519</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>44363</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>45040</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>45315</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44907.88240740741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>45469.38258101852</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44984</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44914</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>45327.71622685185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>45329.35953703704</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44363.45402777778</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44946</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>45233</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>45357.90923611111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>45620.85204861111</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44252.70211805555</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44725.32741898148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>45363</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44267.43596064814</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44910</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>44463</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45374.35063657408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45576.43064814815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45351.66591435186</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45247</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45800</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45692.88263888889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45800</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45362.3203125</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>45804.55729166666</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45804.55820601852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45804.55912037037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>45253</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>45889.58944444444</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>45397.76206018519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>45811.73126157407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>45811.73269675926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45443.38331018519</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45889.66032407407</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>45811.46918981482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>45889.58609953704</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>45889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>45811.73366898148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>45233.77412037037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>45813.50371527778</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>45891.69728009259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>45812.43118055556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>45812.46844907408</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>45891</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>45817.65847222223</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>45817.65653935185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>45894.84497685185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>45774.32253472223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>44446.51780092593</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>45616.64060185185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>44398.48474537037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>45400</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>45818.35734953704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>45896.6321875</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>45897.67510416666</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>45901.63788194444</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>45901.63255787037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>45901.7124537037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>45471.55196759259</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>45330</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>45902.4534375</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>45110.88763888889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45906.48516203704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>45910</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>45911.65733796296</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>45734.57408564815</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>45826.64440972222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>45910.73006944444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>45910</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>45189.35152777778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>44846.69284722222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>44881</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45722.83402777778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>45357.90260416667</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>45357.90612268518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>45772.34013888889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>45180.52940972222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>45923.6297337963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>45920.43634259259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>45920.43488425926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>45925.29591435185</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>45925.30956018518</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>44920</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>45925.29270833333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>45446.37318287037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>44984</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>45565.61814814815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>45926.79550925926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>45734.80390046296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>45927.68620370371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44739.44171296297</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>45929.91121527777</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>45933.33019675926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>45933.33457175926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>45254</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>45932.77143518518</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45933.33207175926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>45932.7685300926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>45932.77</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>45933.3422337963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>45935.79104166666</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         <v>45938.845</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10127,7 +10127,7 @@
         <v>45735.71293981482</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>45937</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
         <v>45936.77475694445</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10298,7 +10298,7 @@
         <v>45084.67194444445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>45180</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>45939.53748842593</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>45940.50458333334</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>45443</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>44936.39234953704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44973</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>45406.49583333333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>45947.59884259259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>45945.82289351852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>45573.86858796296</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>44943</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10987,7 +10987,7 @@
         <v>45134.55792824074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11044,7 +11044,7 @@
         <v>45429.37967592593</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11101,7 +11101,7 @@
         <v>45429.38112268518</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11158,7 +11158,7 @@
         <v>45859.4146875</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11215,7 +11215,7 @@
         <v>45625.69395833334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>44905.46840277778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>45772.57777777778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>45952.41594907407</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>45756.41421296296</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11500,7 +11500,7 @@
         <v>45870.73012731481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>45870.73099537037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>44984</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11671,7 +11671,7 @@
         <v>45870.73174768518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>45871.43119212963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>45366.69975694444</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>45874.37011574074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>45105.34570601852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44452.48140046297</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>45084.33306712963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>44922.40197916667</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>44236.46976851852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>45538.89228009259</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>45952</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>44951.47405092593</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12360,7 +12360,7 @@
         <v>45776.65706018519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>45769.56891203704</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>45708.51210648148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>45726.69502314815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>45401.36530092593</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44964.39972222222</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>45247.44261574074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>45968.54363425926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>45755.36498842593</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12888,7 +12888,7 @@
         <v>45715.84020833333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>45752.87754629629</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13002,7 +13002,7 @@
         <v>45968.5422800926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13059,7 +13059,7 @@
         <v>45330.49232638889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>45973.55912037037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>45397.7650462963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>45397.81939814815</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>45972.47302083333</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>45972</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>45974.7060300926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>45974.70221064815</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>44979</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>45212.52082175926</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>45644.61975694444</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>45980.73072916667</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45608.4153125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45980.73299768518</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44908</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>45985.61791666667</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>45985.56231481482</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>45985.61674768518</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>45987.44790509259</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>45112</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>45987.35474537037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44271</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>45989.27822916667</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>45988.54133101852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>45989.64269675926</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>45989.32200231482</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>46030.53789351852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>45772.57979166666</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>45446.66300925926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>45988.37216435185</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44900.35104166667</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>45756.40695601852</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>46032.56134259259</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>46035.47288194444</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>46032.5637037037</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44314</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45406.61987268519</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>46031.94480324074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45354</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>46035.44283564815</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>46034.34575231482</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>46036.73222222222</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>46031</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45210</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>46036.76255787037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>46031</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>46036.72965277778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>46036.81327546296</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>46036.81487268519</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>45040</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15939,7 +15939,7 @@
         <v>46036.81594907407</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15996,7 +15996,7 @@
         <v>46031</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>45999.43222222223</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44968</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>45999.69570601852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>45999.70759259259</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>46038.66331018518</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>45775.50877314815</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>45999.69430555555</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>46038.66194444444</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>45999.70361111111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>45268</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>46042.36003472222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>46043.47123842593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>45751.28666666667</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>46045.3403125</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>46002.59304398148</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>45721.69958333333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>45189</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44511</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44518</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>46051.5116087963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45756.42020833334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>46051.51230324074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>45301</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>45327.7147800926</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>46052.68944444445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>45260.28659722222</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>45693.82982638889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>45703.32144675926</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>45706.36583333334</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>46059.61733796296</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>46058.31163194445</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>45062.54716435185</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>46059.62197916667</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>46059.62313657408</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>45751.29027777778</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>45751.29266203703</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18182,7 +18182,7 @@
         <v>44608</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18239,7 +18239,7 @@
         <v>45058</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18296,7 +18296,7 @@
         <v>45616.51472222222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18353,7 +18353,7 @@
         <v>45253</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18410,7 +18410,7 @@
         <v>45363</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>44960</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18524,7 +18524,7 @@
         <v>45375.30324074074</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18581,7 +18581,7 @@
         <v>44910.69658564815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>45356</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>45210</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>44713.68042824074</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>44713.68208333333</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44442.36792824074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>45699.66690972223</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>45163.67079861111</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>45237.63732638889</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>45600.33508101852</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44900.61518518518</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>45375.38054398148</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>45612.65795138889</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>45198</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>45211.50127314815</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44791.52582175926</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>45189.72548611111</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>45587.77702546296</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>45595.61976851852</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44917.73387731481</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>44917.73603009259</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>45350.57357638889</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44517</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>45208</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>45775.51363425926</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>45183.85680555556</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>45664.60969907408</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>45757.58712962963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44865.58923611111</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>45166</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44655</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>45233</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>45751.29762731482</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44942</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44950.63637731481</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>45190.39100694445</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>45761.49069444444</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>45273.00841435185</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>45628.45511574074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>45159.51601851852</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>45769.57847222222</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>45057</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44236</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>45385.55565972222</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44895.60074074074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>45209</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44811.64700231481</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>45198</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>45752.89317129629</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>45491.35975694445</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>45666.66532407407</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>45198.59054398148</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>45782.65741898148</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>45796.35803240741</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -575,7 +575,7 @@
         <v>44992</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>46036.73480324074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>45203.28686342593</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44249.74386574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44271.61297453703</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44496</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44511</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>44314</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>44316.39745370371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44568.35050925926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44568.35122685185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44445.32841435185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44601</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44533</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44572</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44389.36113425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44256</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44677</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>44818</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>44347</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44571</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44271.47305555556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>44501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>44455.51653935185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44564</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44382.40559027778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44505</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>44743.30945601852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>44607</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44580</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44446.59780092593</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44298.64422453703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>44511</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>44811.28633101852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>44616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>44243</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44621.91310185185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44434.48554398148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44465.35538194444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>44469.43070601852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>44299</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>44501</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>44282</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>44358</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44573.34431712963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>44826.95922453704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>44662.48648148148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44648.29912037037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>44515</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>45751.29126157407</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44615.89261574074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>44510.64112268519</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>44363</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>45040</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>45315</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44907.88240740741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>45469.38258101852</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44984</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44914</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>45327.71622685185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>45329.35953703704</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44363.45402777778</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44946</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>45233</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>45357.90923611111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>45620.85204861111</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44252.70211805555</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44725.32741898148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>45363</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44267.43596064814</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44910</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>44463</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45374.35063657408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45576.43064814815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45351.66591435186</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45247</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45800</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45692.88263888889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45800</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45362.3203125</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>45804.55729166666</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45804.55820601852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45804.55912037037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>45253</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>45889.58944444444</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>45397.76206018519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>45811.73126157407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>45811.73269675926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45443.38331018519</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45889.66032407407</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>45811.46918981482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>45889.58609953704</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>45889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>45811.73366898148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>45233.77412037037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>45813.50371527778</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>45891.69728009259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>45812.43118055556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>45812.46844907408</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>45891</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>45817.65847222223</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>45817.65653935185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>45894.84497685185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>45774.32253472223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>44446.51780092593</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>45616.64060185185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>44398.48474537037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>45400</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>45818.35734953704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>45896.6321875</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>45897.67510416666</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>45901.63788194444</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>45901.63255787037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>45901.7124537037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>45471.55196759259</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>45330</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>45902.4534375</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>45110.88763888889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45906.48516203704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>45910</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>45911.65733796296</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>45734.57408564815</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>45826.64440972222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>45910.73006944444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>45910</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>45189.35152777778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>44846.69284722222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>44881</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45722.83402777778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>45357.90260416667</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>45357.90612268518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>45772.34013888889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>45180.52940972222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>45923.6297337963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>45920.43634259259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>45920.43488425926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>45925.29591435185</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>45925.30956018518</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>44920</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>45925.29270833333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>45446.37318287037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>44984</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>45565.61814814815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>45926.79550925926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>45734.80390046296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>45927.68620370371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44739.44171296297</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>45929.91121527777</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>45933.33019675926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>45933.33457175926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>45254</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>45932.77143518518</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45933.33207175926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>45932.7685300926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>45932.77</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>45933.3422337963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>45935.79104166666</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         <v>45938.845</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10127,7 +10127,7 @@
         <v>45735.71293981482</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>45937</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
         <v>45936.77475694445</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10298,7 +10298,7 @@
         <v>45084.67194444445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>45180</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>45939.53748842593</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>45940.50458333334</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>45443</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>44936.39234953704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44973</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>45406.49583333333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>45947.59884259259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>45945.82289351852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>45573.86858796296</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>44943</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10987,7 +10987,7 @@
         <v>45134.55792824074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11044,7 +11044,7 @@
         <v>45429.37967592593</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11101,7 +11101,7 @@
         <v>45429.38112268518</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11158,7 +11158,7 @@
         <v>45859.4146875</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11215,7 +11215,7 @@
         <v>45625.69395833334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>44905.46840277778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>45772.57777777778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>45952.41594907407</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>45756.41421296296</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11500,7 +11500,7 @@
         <v>45870.73012731481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>45870.73099537037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>44984</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11671,7 +11671,7 @@
         <v>45870.73174768518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>45871.43119212963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>45366.69975694444</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>45874.37011574074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>45105.34570601852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44452.48140046297</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>45084.33306712963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>44922.40197916667</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>44236.46976851852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>45538.89228009259</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>45952</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>44951.47405092593</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12360,7 +12360,7 @@
         <v>45776.65706018519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>45769.56891203704</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>45708.51210648148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>45726.69502314815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>45401.36530092593</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44964.39972222222</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>45247.44261574074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>45968.54363425926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>45755.36498842593</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12888,7 +12888,7 @@
         <v>45715.84020833333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>45752.87754629629</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13002,7 +13002,7 @@
         <v>45968.5422800926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13059,7 +13059,7 @@
         <v>45330.49232638889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>45973.55912037037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>45397.7650462963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>45397.81939814815</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>45972.47302083333</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>45972</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>45974.7060300926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>45974.70221064815</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>44979</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>45212.52082175926</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>45644.61975694444</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>45980.73072916667</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45608.4153125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45980.73299768518</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44908</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>45985.61791666667</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>45985.56231481482</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>45985.61674768518</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>45987.44790509259</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>45112</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>45987.35474537037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44271</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>45989.27822916667</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>45988.54133101852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>45989.64269675926</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>45989.32200231482</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>46030.53789351852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>45772.57979166666</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>45446.66300925926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>45988.37216435185</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44900.35104166667</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>45756.40695601852</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>46032.56134259259</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>46035.47288194444</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>46032.5637037037</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44314</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45406.61987268519</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>46031.94480324074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45354</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>46035.44283564815</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>46034.34575231482</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>46036.73222222222</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>46031</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45210</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>46036.76255787037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>46031</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>46036.72965277778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>46036.81327546296</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>46036.81487268519</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>45040</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15939,7 +15939,7 @@
         <v>46036.81594907407</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15996,7 +15996,7 @@
         <v>46031</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>45999.43222222223</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44968</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>45999.69570601852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>45999.70759259259</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>46038.66331018518</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>45775.50877314815</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>45999.69430555555</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>46038.66194444444</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>45999.70361111111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>45268</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>46042.36003472222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>46043.47123842593</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>45751.28666666667</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>46045.3403125</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>46002.59304398148</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>45721.69958333333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>45189</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>44511</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44518</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>46051.5116087963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45756.42020833334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>46051.51230324074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>45301</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>45327.7147800926</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>46052.68944444445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>45260.28659722222</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>45693.82982638889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>45703.32144675926</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>45706.36583333334</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>44900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>46059.61733796296</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>46058.31163194445</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>45062.54716435185</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>46059.62197916667</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>46059.62313657408</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>45751.29027777778</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>45751.29266203703</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18182,7 +18182,7 @@
         <v>44608</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18239,7 +18239,7 @@
         <v>45058</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18296,7 +18296,7 @@
         <v>45616.51472222222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18353,7 +18353,7 @@
         <v>45253</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18410,7 +18410,7 @@
         <v>45363</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>44960</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18524,7 +18524,7 @@
         <v>45375.30324074074</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18581,7 +18581,7 @@
         <v>44910.69658564815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>45356</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>45210</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>44713.68042824074</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>44713.68208333333</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44442.36792824074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>45699.66690972223</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>45163.67079861111</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>45237.63732638889</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>45600.33508101852</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44900.61518518518</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>45375.38054398148</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>45612.65795138889</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>45198</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>45211.50127314815</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44791.52582175926</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>45189.72548611111</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>45587.77702546296</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>45595.61976851852</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44917.73387731481</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>44917.73603009259</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44952</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>45350.57357638889</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44517</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>45208</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>45775.51363425926</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>45183.85680555556</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>45664.60969907408</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>45757.58712962963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44865.58923611111</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>45166</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44655</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>45233</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>45751.29762731482</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44942</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44950.63637731481</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>45190.39100694445</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>45761.49069444444</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>45273.00841435185</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>45628.45511574074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>45159.51601851852</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>45769.57847222222</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>45057</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>44236</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>45385.55565972222</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>44895.60074074074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>45209</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>44811.64700231481</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>45198</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>45752.89317129629</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>45491.35975694445</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>45666.66532407407</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>45198.59054398148</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>45782.65741898148</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>45796.35803240741</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z368"/>
+  <dimension ref="A1:Z366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 11214-2023</t>
+          <t>A 13991-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44992</v>
+        <v>45008</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -615,126 +615,126 @@
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
+          <t>Borsttåg</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 13991-2023 artfynd.xlsx", "A 13991-2023")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 13991-2023 karta.png", "A 13991-2023")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 13991-2023 FSC-klagomål.docx", "A 13991-2023")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 13991-2023 FSC-klagomål mail.docx", "A 13991-2023")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 13991-2023 tillsynsbegäran.docx", "A 13991-2023")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 13991-2023 tillsynsbegäran mail.docx", "A 13991-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 11214-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
           <t>Stare</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 11214-2023 artfynd.xlsx", "A 11214-2023")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 11214-2023 karta.png", "A 11214-2023")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 11214-2023 FSC-klagomål.docx", "A 11214-2023")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 11214-2023 FSC-klagomål mail.docx", "A 11214-2023")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 11214-2023 tillsynsbegäran.docx", "A 11214-2023")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 11214-2023 tillsynsbegäran mail.docx", "A 11214-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 2412-2026</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>46036.73480324074</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>VÅRGÅRDA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Svinrot</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 2412-2026 artfynd.xlsx", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 2412-2026 karta.png", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 2412-2026 FSC-klagomål.docx", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 2412-2026 FSC-klagomål mail.docx", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 2412-2026 tillsynsbegäran.docx", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 2412-2026 tillsynsbegäran mail.docx", "A 2412-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>45203.28686342593</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -823,14 +823,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 13991-2023</t>
+          <t>A 2412-2026</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45008</v>
+        <v>46036.73480324074</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.2</v>
+        <v>4.4</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -877,31 +877,31 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Borsttåg</t>
+          <t>Svinrot</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 13991-2023 artfynd.xlsx", "A 13991-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 2412-2026 artfynd.xlsx", "A 2412-2026")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 13991-2023 karta.png", "A 13991-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 2412-2026 karta.png", "A 2412-2026")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 13991-2023 FSC-klagomål.docx", "A 13991-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 2412-2026 FSC-klagomål.docx", "A 2412-2026")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 13991-2023 FSC-klagomål mail.docx", "A 13991-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 2412-2026 FSC-klagomål mail.docx", "A 2412-2026")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 13991-2023 tillsynsbegäran.docx", "A 13991-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 2412-2026 tillsynsbegäran.docx", "A 2412-2026")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 13991-2023 tillsynsbegäran mail.docx", "A 13991-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 2412-2026 tillsynsbegäran mail.docx", "A 2412-2026")</f>
         <v/>
       </c>
     </row>
@@ -915,7 +915,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44249.74386574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44271.61297453703</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44496</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44511</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>44314</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>44316.39745370371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1369,14 +1369,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 627-2022</t>
+          <t>A 46432-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44568.35050925926</v>
+        <v>44445.32841435185</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1426,14 +1426,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 628-2022</t>
+          <t>A 627-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44568.35122685185</v>
+        <v>44568.35050925926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1483,14 +1483,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 46432-2021</t>
+          <t>A 628-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44445.32841435185</v>
+        <v>44568.35122685185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>8.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>44601</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44533</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44572</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44389.36113425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44256</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44677</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>44818</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>44347</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44571</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44271.47305555556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>44501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>44455.51653935185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44564</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44382.40559027778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44505</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>44743.30945601852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>44607</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44580</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44446.59780092593</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44298.64422453703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>44511</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>44811.28633101852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>44616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>44243</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44621.91310185185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44434.48554398148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44465.35538194444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>44469.43070601852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3265,14 +3265,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 17393-2021</t>
+          <t>A 62124-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44299</v>
+        <v>44501</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3322,14 +3322,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 62124-2021</t>
+          <t>A 17393-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44501</v>
+        <v>44299</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3379,14 +3379,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 15117-2021</t>
+          <t>A 29025-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44282</v>
+        <v>44358</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3436,14 +3436,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 29025-2021</t>
+          <t>A 1367-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44358</v>
+        <v>44573.34431712963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3493,14 +3493,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 1367-2022</t>
+          <t>A 15117-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44573.34431712963</v>
+        <v>44282</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>44826.95922453704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>44662.48648148148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44648.29912037037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>44515</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3778,14 +3778,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 16282-2025</t>
+          <t>A 56788-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45751.29126157407</v>
+        <v>45628.45511574074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3797,13 +3797,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>0.8</v>
+        <v>6.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3840,14 +3835,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 9189-2022</t>
+          <t>A 26526-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44615.89261574074</v>
+        <v>44739.44171296297</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3860,7 +3855,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3897,14 +3892,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 64234-2021</t>
+          <t>A 30038-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44510.64112268519</v>
+        <v>44363.45402777778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3917,7 +3912,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3954,14 +3949,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 30061-2021</t>
+          <t>A 29092-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44363</v>
+        <v>45105.34570601852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3973,8 +3968,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4011,14 +4011,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 17951-2023</t>
+          <t>A 11793-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45040</v>
+        <v>45375.30324074074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4068,14 +4068,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 2995-2024</t>
+          <t>A 20806-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45315</v>
+        <v>45058</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4125,14 +4125,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 59619-2022</t>
+          <t>A 5152-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44907.88240740741</v>
+        <v>45330.49232638889</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4182,14 +4182,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 26362-2024</t>
+          <t>A 57921-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45469.38258101852</v>
+        <v>44900</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4239,14 +4239,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 9725-2023</t>
+          <t>A 20454-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44984</v>
+        <v>45775.50877314815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4296,14 +4296,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 61969-2022</t>
+          <t>A 20456-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44914</v>
+        <v>45775.51363425926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.7</v>
+        <v>1.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4353,14 +4353,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 4550-2024</t>
+          <t>A 12990-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45327.71622685185</v>
+        <v>45385.55565972222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4410,14 +4410,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 4845-2024</t>
+          <t>A 20169-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45329.35953703704</v>
+        <v>45772.57777777778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4467,14 +4467,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 30038-2021</t>
+          <t>A 15236-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44363.45402777778</v>
+        <v>45400</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4524,14 +4524,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 3057-2023</t>
+          <t>A 17195-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44946</v>
+        <v>45756.40695601852</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4581,14 +4581,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 55972-2023</t>
+          <t>A 59225-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45233</v>
+        <v>45253</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4638,14 +4638,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 9090-2024</t>
+          <t>A 12342-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45357.90923611111</v>
+        <v>44267.43596064814</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4695,14 +4695,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 54991-2024</t>
+          <t>A 4548-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45620.85204861111</v>
+        <v>45327.7147800926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4752,14 +4752,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 9802-2021</t>
+          <t>A 38046-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44252.70211805555</v>
+        <v>44811.64700231481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4809,14 +4809,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 24064-2022</t>
+          <t>A 62535-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44725.32741898148</v>
+        <v>45268</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4866,14 +4866,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 9898-2024</t>
+          <t>A 21875-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45363</v>
+        <v>45443.38331018519</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4923,14 +4923,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 12342-2021</t>
+          <t>A 57860-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44267.43596064814</v>
+        <v>45247.44261574074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4980,14 +4980,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 60191-2022</t>
+          <t>A 50160-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44910</v>
+        <v>44865.58923611111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5037,14 +5037,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 52016-2021</t>
+          <t>A 21932-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44463</v>
+        <v>45443</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5094,14 +5094,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 11777-2024</t>
+          <t>A 45978-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45374.35063657408</v>
+        <v>44846.69284722222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5151,14 +5151,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 11792-2024</t>
+          <t>A 2345-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45375</v>
+        <v>44942</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5208,14 +5208,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 45309-2024</t>
+          <t>A 65946-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45576.43064814815</v>
+        <v>44517</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 8195-2024</t>
+          <t>A 62097-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45351.66591435186</v>
+        <v>44920</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5322,14 +5322,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 58049-2023</t>
+          <t>A 39000-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45247</v>
+        <v>45163.67079861111</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5379,14 +5379,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 25324-2025</t>
+          <t>A 9721-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45800</v>
+        <v>44984</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5436,14 +5436,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 5448-2025</t>
+          <t>A 9090-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45692.88263888889</v>
+        <v>45357.90923611111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5493,14 +5493,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 25326-2025</t>
+          <t>A 8983-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45800</v>
+        <v>45356</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5550,14 +5550,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 9633-2024</t>
+          <t>A 58074-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45362.3203125</v>
+        <v>44900.61518518518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5607,14 +5607,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 25906-2025</t>
+          <t>A 15421-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45804.55729166666</v>
+        <v>45401.36530092593</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5664,14 +5664,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 25909-2025</t>
+          <t>A 6525-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45804.55820601852</v>
+        <v>45699.66690972223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5721,14 +5721,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 25911-2025</t>
+          <t>A 7962-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45804.55912037037</v>
+        <v>45350.57357638889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5778,14 +5778,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 59325-2023</t>
+          <t>A 16281-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45253</v>
+        <v>45751.29027777778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5797,8 +5797,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5835,14 +5840,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 39375-2025</t>
+          <t>A 16283-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45889.58944444444</v>
+        <v>45751.29266203703</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5854,8 +5859,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5892,14 +5902,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 14786-2024</t>
+          <t>A 28152-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45397.76206018519</v>
+        <v>45818.35734953704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5912,7 +5922,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5949,14 +5959,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 27109-2025</t>
+          <t>A 28052-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45811.73126157407</v>
+        <v>45817.65847222223</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5969,7 +5979,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6006,14 +6016,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 27110-2025</t>
+          <t>A 59684-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45811.73269675926</v>
+        <v>44908</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6025,8 +6035,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6063,14 +6078,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 21875-2024</t>
+          <t>A 49751-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45443.38331018519</v>
+        <v>45212.52082175926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6083,7 +6098,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>11.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6120,14 +6135,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 39419-2025</t>
+          <t>A 3756-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45889.66032407407</v>
+        <v>44951.47405092593</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6140,7 +6155,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.8</v>
+        <v>5.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6177,14 +6192,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 26964-2025</t>
+          <t>A 30079-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45811.46918981482</v>
+        <v>45826.64440972222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6197,7 +6212,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6234,14 +6249,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 39372-2025</t>
+          <t>A 9802-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45889.58609953704</v>
+        <v>44252.70211805555</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6254,7 +6269,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6291,14 +6306,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 39416-2025</t>
+          <t>A 13034-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45889</v>
+        <v>45734.57408564815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6311,7 +6326,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6348,14 +6363,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 27112-2025</t>
+          <t>A 61904-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45811.73366898148</v>
+        <v>44917.73387731481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6367,8 +6382,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6405,14 +6425,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 54586-2023</t>
+          <t>A 61907-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45233.77412037037</v>
+        <v>44917.73603009259</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6424,8 +6444,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6462,14 +6487,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 27585-2025</t>
+          <t>A 10924-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45813.50371527778</v>
+        <v>45722.83402777778</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6482,7 +6507,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6519,14 +6544,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 39929-2025</t>
+          <t>A 49455-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45891.69728009259</v>
+        <v>45211.50127314815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6539,7 +6564,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6576,14 +6601,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 27227-2025</t>
+          <t>A 20807-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45812.43118055556</v>
+        <v>45776.65706018519</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6595,8 +6620,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6633,14 +6663,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 27249-2025</t>
+          <t>A 59381-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45812.46844907408</v>
+        <v>44905.46840277778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6653,7 +6683,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6690,14 +6720,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 39843-2025</t>
+          <t>A 8895-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45891</v>
+        <v>44979</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6709,8 +6739,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6747,14 +6782,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 28052-2025</t>
+          <t>A 13122-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45817.65847222223</v>
+        <v>45734.80390046296</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6767,7 +6802,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6804,14 +6839,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 28049-2025</t>
+          <t>A 10586-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45817.65653935185</v>
+        <v>45366.69975694444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6824,7 +6859,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6861,14 +6896,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 40239-2025</t>
+          <t>A 14786-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45894.84497685185</v>
+        <v>45397.76206018519</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6881,7 +6916,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6918,14 +6953,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 20275-2025</t>
+          <t>A 24064-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45774.32253472223</v>
+        <v>44725.32741898148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6938,7 +6973,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6975,14 +7010,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 46944-2021</t>
+          <t>A 1262-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44446.51780092593</v>
+        <v>44936.39234953704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6995,7 +7030,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7032,14 +7067,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 54185-2024</t>
+          <t>A 50958-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45616.64060185185</v>
+        <v>45210</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7051,8 +7086,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7089,14 +7129,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 37424-2021</t>
+          <t>A 39372-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44398.48474537037</v>
+        <v>45889.58609953704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7109,7 +7149,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7146,14 +7186,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 15236-2024</t>
+          <t>A 39375-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45400</v>
+        <v>45889.58944444444</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7166,7 +7206,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7203,14 +7243,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 28152-2025</t>
+          <t>A 39419-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45818.35734953704</v>
+        <v>45889.66032407407</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7223,7 +7263,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7260,14 +7300,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 40650-2025</t>
+          <t>A 39416-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45896.6321875</v>
+        <v>45889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7280,7 +7320,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7317,14 +7357,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 40955-2025</t>
+          <t>A 50053-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45897.67510416666</v>
+        <v>45600.33508101852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7337,7 +7377,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7374,14 +7414,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 41593-2025</t>
+          <t>A 30674-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45901.63788194444</v>
+        <v>45112</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7394,7 +7434,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7431,14 +7471,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 41590-2025</t>
+          <t>A 39929-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45901.63255787037</v>
+        <v>45891.69728009259</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7451,7 +7491,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7488,14 +7528,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 41625-2025</t>
+          <t>A 39843-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45901.7124537037</v>
+        <v>45891</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7508,7 +7548,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>5.4</v>
+        <v>2.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7545,14 +7585,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 27141-2024</t>
+          <t>A 40239-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45471.55196759259</v>
+        <v>45894.84497685185</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7565,7 +7605,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7602,14 +7642,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 5144-2024</t>
+          <t>A 40650-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45330</v>
+        <v>45896.6321875</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7622,7 +7662,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7659,14 +7699,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 35055-2025</t>
+          <t>A 22515-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45852</v>
+        <v>44713.68042824074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7679,7 +7719,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7716,14 +7756,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 41724-2025</t>
+          <t>A 22517-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45902.4534375</v>
+        <v>44713.68208333333</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7736,7 +7776,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7773,14 +7813,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 30280-2023</t>
+          <t>A 42552-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45110.88763888889</v>
+        <v>45565.61814814815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7793,7 +7833,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.6</v>
+        <v>4.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7830,14 +7870,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 42646-2025</t>
+          <t>A 40955-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45906.48516203704</v>
+        <v>45897.67510416666</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7850,7 +7890,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7887,14 +7927,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 43214-2025</t>
+          <t>A 41724-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45910</v>
+        <v>45902.4534375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7906,13 +7946,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>13.8</v>
+        <v>0.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7949,14 +7984,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 43593-2025</t>
+          <t>A 5523-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45911.65733796296</v>
+        <v>44960</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7969,7 +8004,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8006,14 +8041,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 13034-2025</t>
+          <t>A 41590-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45734.57408564815</v>
+        <v>45901.63255787037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8026,7 +8061,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8063,14 +8098,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 30079-2025</t>
+          <t>A 44421-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45826.64440972222</v>
+        <v>45573.86858796296</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8083,7 +8118,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8120,14 +8155,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 43337-2025</t>
+          <t>A 41625-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45910.73006944444</v>
+        <v>45901.7124537037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8140,7 +8175,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8177,14 +8212,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 43314-2025</t>
+          <t>A 41593-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45910</v>
+        <v>45901.63788194444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8196,13 +8231,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8239,14 +8269,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 44431-2023</t>
+          <t>A 35055-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45189.35152777778</v>
+        <v>45852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8259,7 +8289,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8296,14 +8326,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 45978-2022</t>
+          <t>A 35621-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44846.69284722222</v>
+        <v>45859.4146875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8316,7 +8346,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8353,14 +8383,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 54937-2022</t>
+          <t>A 42646-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44881</v>
+        <v>45906.48516203704</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8373,7 +8403,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8410,14 +8440,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 10924-2025</t>
+          <t>A 56637-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45722.83402777778</v>
+        <v>45625.69395833334</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8430,7 +8460,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.8</v>
+        <v>4.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8467,14 +8497,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 9086-2024</t>
+          <t>A 20260-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45357.90260416667</v>
+        <v>44314</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8486,8 +8516,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>5.8</v>
+        <v>1.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8524,14 +8559,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 9089-2024</t>
+          <t>A 52097-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45357.90612268518</v>
+        <v>45608.4153125</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8544,7 +8579,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.7</v>
+        <v>10.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8581,14 +8616,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 20022-2025</t>
+          <t>A 43337-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45772.34013888889</v>
+        <v>45910.73006944444</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8601,7 +8636,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8638,14 +8673,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 42359-2023</t>
+          <t>A 43314-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45180.52940972222</v>
+        <v>45910</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8657,8 +8692,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8695,14 +8735,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 45853-2025</t>
+          <t>A 8268-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45923.6297337963</v>
+        <v>45708.51210648148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8715,7 +8755,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8752,14 +8792,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 45293-2025</t>
+          <t>A 36638-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45920.43634259259</v>
+        <v>45870.73099537037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8772,7 +8812,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8809,14 +8849,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 45292-2025</t>
+          <t>A 36639-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45920.43488425926</v>
+        <v>45870.73174768518</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8829,7 +8869,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8866,14 +8906,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 46234-2025</t>
+          <t>A 43214-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45925.29591435185</v>
+        <v>45910</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8885,8 +8925,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>2.2</v>
+        <v>13.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8923,14 +8968,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 46237-2025</t>
+          <t>A 36637-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45925.30956018518</v>
+        <v>45870.73012731481</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8943,7 +8988,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>14.2</v>
+        <v>0.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8980,14 +9025,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 62097-2022</t>
+          <t>A 43593-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44920</v>
+        <v>45911.65733796296</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9000,7 +9045,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9037,14 +9082,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 46233-2025</t>
+          <t>A 36838-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45925.29270833333</v>
+        <v>45874.37011574074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9057,7 +9102,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9094,14 +9139,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 22202-2024</t>
+          <t>A 36641-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45446.37318287037</v>
+        <v>45871.43119212963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9114,7 +9159,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9151,14 +9196,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 9749-2023</t>
+          <t>A 36974-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44984</v>
+        <v>45538.89228009259</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9171,7 +9216,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9208,14 +9253,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 42552-2024</t>
+          <t>A 1122-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45565.61814814815</v>
+        <v>45666.66532407407</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9228,7 +9273,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9265,14 +9310,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 46823-2025</t>
+          <t>A 9725-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45926.79550925926</v>
+        <v>44984</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9285,7 +9330,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.4</v>
+        <v>4.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9322,14 +9367,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 13122-2025</t>
+          <t>A 45293-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45734.80390046296</v>
+        <v>45920.43634259259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9342,7 +9387,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9379,14 +9424,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 46833-2025</t>
+          <t>A 46732-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45927.68620370371</v>
+        <v>45198.59054398148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9398,8 +9443,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9436,14 +9486,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 26526-2022</t>
+          <t>A 11484-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44739.44171296297</v>
+        <v>45726.69502314815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9456,7 +9506,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9493,14 +9543,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 47169-2025</t>
+          <t>A 45292-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45929.91121527777</v>
+        <v>45920.43488425926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9513,7 +9563,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9550,14 +9600,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 48094-2025</t>
+          <t>A 45853-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45933.33019675926</v>
+        <v>45923.6297337963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9570,7 +9620,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9607,14 +9657,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 48100-2025</t>
+          <t>A 30362-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45933.33457175926</v>
+        <v>45491.35975694445</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9627,7 +9677,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9664,14 +9714,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 59440-2023</t>
+          <t>A 19308-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45254</v>
+        <v>45769.56891203704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9683,8 +9733,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>15</v>
+        <v>1.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9721,14 +9776,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 48082-2025</t>
+          <t>A 24785-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45932.77143518518</v>
+        <v>45084.67194444445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9741,7 +9796,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9778,14 +9833,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 48099-2025</t>
+          <t>A 54937-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45933.33207175926</v>
+        <v>44881</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9798,7 +9853,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9835,14 +9890,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 48080-2025</t>
+          <t>A 46233-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45932.7685300926</v>
+        <v>45925.29270833333</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9855,7 +9910,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9892,14 +9947,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 48081-2025</t>
+          <t>A 37424-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45932.77</v>
+        <v>44398.48474537037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9912,7 +9967,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9949,14 +10004,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 48104-2025</t>
+          <t>A 46234-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45933.3422337963</v>
+        <v>45925.29591435185</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9969,7 +10024,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10006,14 +10061,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 48452-2025</t>
+          <t>A 46237-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45935.79104166666</v>
+        <v>45925.30956018518</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10026,7 +10081,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.4</v>
+        <v>14.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10063,14 +10118,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 49431-2025</t>
+          <t>A 47169-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45938.845</v>
+        <v>45929.91121527777</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10083,7 +10138,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10120,14 +10175,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 13397-2025</t>
+          <t>A 46833-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45735.71293981482</v>
+        <v>45927.68620370371</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10140,7 +10195,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10177,14 +10232,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 48955-2025</t>
+          <t>A 46823-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45937</v>
+        <v>45926.79550925926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10197,7 +10252,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10234,14 +10289,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 48760-2025</t>
+          <t>A 17527-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45936.77475694445</v>
+        <v>45757.58712962963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10254,7 +10309,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10291,14 +10346,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 24785-2023</t>
+          <t>A 2917-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45084.67194444445</v>
+        <v>44943</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10311,7 +10366,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10348,14 +10403,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 42330-2023</t>
+          <t>A 48452-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45180</v>
+        <v>45935.79104166666</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10368,7 +10423,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10405,14 +10460,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 49598-2025</t>
+          <t>A 48099-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45939.53748842593</v>
+        <v>45933.33207175926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10425,7 +10480,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10462,14 +10517,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 49855-2025</t>
+          <t>A 48094-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45940.50458333334</v>
+        <v>45933.33019675926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10482,7 +10537,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10519,14 +10574,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 21932-2024</t>
+          <t>A 48104-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45443</v>
+        <v>45933.3422337963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10539,7 +10594,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10576,14 +10631,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 1262-2023</t>
+          <t>A 46108-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44936.39234953704</v>
+        <v>44442.36792824074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10596,7 +10651,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>4.1</v>
+        <v>0.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10633,14 +10688,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 7732-2023</t>
+          <t>A 48081-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44973</v>
+        <v>45932.77</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10652,13 +10707,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>9.300000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10695,14 +10745,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 16121-2024</t>
+          <t>A 48082-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45406.49583333333</v>
+        <v>45932.77143518518</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10715,7 +10765,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10752,14 +10802,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 51167-2025</t>
+          <t>A 48080-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45947.59884259259</v>
+        <v>45932.7685300926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10772,7 +10822,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10809,14 +10859,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 50685-2025</t>
+          <t>A 19319-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45945.82289351852</v>
+        <v>45769.57847222222</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10829,7 +10879,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10866,14 +10916,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 44421-2024</t>
+          <t>A 48100-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45573.86858796296</v>
+        <v>45933.33457175926</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10886,7 +10936,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10923,14 +10973,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 2917-2023</t>
+          <t>A 48760-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44943</v>
+        <v>45936.77475694445</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10943,7 +10993,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10980,14 +11030,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 33939-2023</t>
+          <t>A 48955-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45134.55792824074</v>
+        <v>45937</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11000,7 +11050,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11037,14 +11087,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 19391-2024</t>
+          <t>A 20475-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45429.37967592593</v>
+        <v>45057</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11057,7 +11107,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11094,14 +11144,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 19394-2024</t>
+          <t>A 49431-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45429.38112268518</v>
+        <v>45938.845</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11114,7 +11164,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11151,14 +11201,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 35621-2025</t>
+          <t>A 16282-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45859.4146875</v>
+        <v>45751.29126157407</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11170,8 +11220,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11208,14 +11263,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 56637-2024</t>
+          <t>A 49598-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45625.69395833334</v>
+        <v>45939.53748842593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11228,7 +11283,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11265,14 +11320,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 59381-2022</t>
+          <t>A 54587-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44905.46840277778</v>
+        <v>45233</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11285,7 +11340,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11322,14 +11377,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 20169-2025</t>
+          <t>A 49855-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45772.57777777778</v>
+        <v>45940.50458333334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11342,7 +11397,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11379,14 +11434,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 51890-2025</t>
+          <t>A 10655-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45952.41594907407</v>
+        <v>45721.69958333333</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11399,7 +11454,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11436,14 +11491,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 17199-2025</t>
+          <t>A 46944-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45756.41421296296</v>
+        <v>44446.51780092593</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11456,7 +11511,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11493,14 +11548,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 36637-2025</t>
+          <t>A 16587-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45870.73012731481</v>
+        <v>45752.87754629629</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11513,7 +11568,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11550,14 +11605,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 36638-2025</t>
+          <t>A 50685-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45870.73099537037</v>
+        <v>45945.82289351852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11570,7 +11625,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11607,14 +11662,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 9721-2023</t>
+          <t>A 34133-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44984</v>
+        <v>44791.52582175926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11627,7 +11682,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11664,14 +11719,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 36639-2025</t>
+          <t>A 51167-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45870.73174768518</v>
+        <v>45947.59884259259</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11684,7 +11739,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11721,14 +11776,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 36641-2025</t>
+          <t>A 16284-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45871.43119212963</v>
+        <v>45751.29762731482</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11741,7 +11796,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11778,14 +11833,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 10586-2024</t>
+          <t>A 8195-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45366.69975694444</v>
+        <v>45351.66591435186</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11798,7 +11853,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11835,14 +11890,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 36838-2025</t>
+          <t>A 9863-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45874.37011574074</v>
+        <v>45363</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11855,7 +11910,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11892,14 +11947,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 29092-2023</t>
+          <t>A 51890-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45105.34570601852</v>
+        <v>45952.41594907407</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11911,13 +11966,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11954,14 +12004,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 48595-2021</t>
+          <t>A 64234-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44452.48140046297</v>
+        <v>44510.64112268519</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11974,7 +12024,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12011,14 +12061,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 24611-2023</t>
+          <t>A 11777-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45084.33306712963</v>
+        <v>45374.35063657408</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12031,7 +12081,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12068,14 +12118,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 62148-2022</t>
+          <t>A 11792-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44922.40197916667</v>
+        <v>45375</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12088,7 +12138,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12125,14 +12175,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 6603-2021</t>
+          <t>A 64386-2021</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44236.46976851852</v>
+        <v>44511</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12145,7 +12195,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.4</v>
+        <v>3.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12182,14 +12232,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 36974-2024</t>
+          <t>A 30280-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45538.89228009259</v>
+        <v>45110.88763888889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12202,7 +12252,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12246,7 +12296,7 @@
         <v>45952</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12296,14 +12346,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 3756-2023</t>
+          <t>A 9086-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44951.47405092593</v>
+        <v>45357.90260416667</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12316,7 +12366,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12353,14 +12403,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 20807-2025</t>
+          <t>A 9089-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45776.65706018519</v>
+        <v>45357.90612268518</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12372,13 +12422,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12415,14 +12460,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 19308-2025</t>
+          <t>A 55189-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45769.56891203704</v>
+        <v>45968.54363425926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12434,13 +12479,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12477,14 +12517,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 8268-2025</t>
+          <t>A 21232-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45708.51210648148</v>
+        <v>45062.54716435185</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12497,7 +12537,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12534,14 +12574,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 11484-2025</t>
+          <t>A 55188-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45726.69502314815</v>
+        <v>45968.5422800926</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12554,7 +12594,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12591,14 +12631,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 15421-2024</t>
+          <t>A 22202-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45401.36530092593</v>
+        <v>45446.37318287037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12611,7 +12651,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12648,14 +12688,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 6003-2023</t>
+          <t>A 60380-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44964.39972222222</v>
+        <v>44910.69658564815</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12667,13 +12707,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12710,14 +12745,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 57860-2023</t>
+          <t>A 55706-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45247.44261574074</v>
+        <v>45972.47302083333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12730,7 +12765,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12767,14 +12802,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 55189-2025</t>
+          <t>A 55776-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45968.54363425926</v>
+        <v>45972</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12787,7 +12822,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12824,14 +12859,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 16912-2025</t>
+          <t>A 55992-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45755.36498842593</v>
+        <v>45973.55912037037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12844,7 +12879,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12881,14 +12916,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 9642-2025</t>
+          <t>A 33939-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45715.84020833333</v>
+        <v>45134.55792824074</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12901,7 +12936,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12938,14 +12973,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 16587-2025</t>
+          <t>A 56379-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45752.87754629629</v>
+        <v>45974.70221064815</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12958,7 +12993,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -12995,14 +13030,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 55188-2025</t>
+          <t>A 56381-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45968.5422800926</v>
+        <v>45974.7060300926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13015,7 +13050,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13052,14 +13087,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 5152-2024</t>
+          <t>A 9642-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45330.49232638889</v>
+        <v>45715.84020833333</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13072,7 +13107,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13109,14 +13144,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 55992-2025</t>
+          <t>A 17951-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45973.55912037037</v>
+        <v>45040</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13129,7 +13164,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13166,14 +13201,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 14787-2024</t>
+          <t>A 17972-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45397.7650462963</v>
+        <v>45040</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13186,7 +13221,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13223,14 +13258,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 14789-2024</t>
+          <t>A 3619-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45397.81939814815</v>
+        <v>44950.63637731481</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13243,7 +13278,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13280,14 +13315,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 55706-2025</t>
+          <t>A 66386-2021</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45972.47302083333</v>
+        <v>44518</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13300,7 +13335,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13337,14 +13372,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 55776-2025</t>
+          <t>A 57569-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45972</v>
+        <v>45980.73299768518</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13357,7 +13392,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13394,14 +13429,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 56381-2025</t>
+          <t>A 4550-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45974.7060300926</v>
+        <v>45327.71622685185</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13414,7 +13449,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13451,14 +13486,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 56379-2025</t>
+          <t>A 44668-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45974.70221064815</v>
+        <v>45189.72548611111</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13471,7 +13506,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13508,14 +13543,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 8895-2023</t>
+          <t>A 57567-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44979</v>
+        <v>45980.73072916667</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13527,13 +13562,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13570,14 +13600,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 49751-2023</t>
+          <t>A 42330-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45212.52082175926</v>
+        <v>45180</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13590,7 +13620,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>11.5</v>
+        <v>0.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13627,14 +13657,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 60814-2024</t>
+          <t>A 58398-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45644.61975694444</v>
+        <v>45985.56231481482</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13647,7 +13677,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13684,14 +13714,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 57567-2025</t>
+          <t>A 58444-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45980.73072916667</v>
+        <v>45985.61791666667</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13704,7 +13734,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13741,14 +13771,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 52097-2024</t>
+          <t>A 60814-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45608.4153125</v>
+        <v>45644.61975694444</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13761,7 +13791,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>10.9</v>
+        <v>1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13798,14 +13828,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 57569-2025</t>
+          <t>A 58443-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45980.73299768518</v>
+        <v>45985.61674768518</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13818,7 +13848,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13855,14 +13885,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 59684-2022</t>
+          <t>A 58866-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44908</v>
+        <v>45987.44790509259</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13874,13 +13904,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13917,14 +13942,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 58444-2025</t>
+          <t>A 946-2026</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45985.61791666667</v>
+        <v>46030.53789351852</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13974,14 +13999,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 58398-2025</t>
+          <t>A 59156-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45985.56231481482</v>
+        <v>45988.54133101852</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13994,7 +14019,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14031,14 +14056,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 58443-2025</t>
+          <t>A 59042-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45985.61674768518</v>
+        <v>45988.37216435185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14051,7 +14076,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14088,14 +14113,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 58866-2025</t>
+          <t>A 58833-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45987.44790509259</v>
+        <v>45987.35474537037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14108,7 +14133,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14145,14 +14170,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 30674-2023</t>
+          <t>A 7734-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45112</v>
+        <v>44608</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14165,7 +14190,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14202,14 +14227,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 58833-2025</t>
+          <t>A 1427-2026</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45987.35474537037</v>
+        <v>46031.94480324074</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14222,7 +14247,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14259,14 +14284,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 12918-2021</t>
+          <t>A 59508-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44271</v>
+        <v>45989.64269675926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14278,8 +14303,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14316,14 +14346,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 59309-2025</t>
+          <t>A 59317-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45989.27822916667</v>
+        <v>45989.32200231482</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14336,7 +14366,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14373,14 +14403,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 59156-2025</t>
+          <t>A 1437-2026</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45988.54133101852</v>
+        <v>46032.56134259259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14393,7 +14423,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14430,14 +14460,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 59508-2025</t>
+          <t>A 1438-2026</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45989.64269675926</v>
+        <v>46032.5637037037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14449,13 +14479,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14492,14 +14517,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 59317-2025</t>
+          <t>A 59309-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45989.32200231482</v>
+        <v>45989.27822916667</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14512,7 +14537,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14549,14 +14574,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 946-2026</t>
+          <t>A 1513-2026</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>46030.53789351852</v>
+        <v>46034.34575231482</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14569,7 +14594,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14606,14 +14631,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 20172-2025</t>
+          <t>A 22386-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45772.57979166666</v>
+        <v>45446.66300925926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14626,7 +14651,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14663,14 +14688,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 22386-2024</t>
+          <t>A 2430-2026</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45446.66300925926</v>
+        <v>46036.81327546296</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14683,7 +14708,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14720,14 +14745,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 59042-2025</t>
+          <t>A 2431-2026</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45988.37216435185</v>
+        <v>46036.81487268519</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14740,7 +14765,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14777,14 +14802,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 57902-2022</t>
+          <t>A 49357-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44900.35104166667</v>
+        <v>45595.61976851852</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14797,7 +14822,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14834,14 +14859,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 17195-2025</t>
+          <t>A 2410-2026</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45756.40695601852</v>
+        <v>46036.72965277778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14854,7 +14879,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14891,14 +14916,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 1437-2026</t>
+          <t>A 2411-2026</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>46032.56134259259</v>
+        <v>46036.73222222222</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14911,7 +14936,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14948,14 +14973,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 1880-2026</t>
+          <t>A 2416-2026</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>46035.47288194444</v>
+        <v>46036.76255787037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14968,7 +14993,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15005,14 +15030,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 1438-2026</t>
+          <t>A 2052-2026</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>46032.5637037037</v>
+        <v>46031</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15024,8 +15049,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G252" t="n">
-        <v>1.2</v>
+        <v>8.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15062,14 +15092,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 20260-2021</t>
+          <t>A 1880-2026</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44314</v>
+        <v>46035.47288194444</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15081,13 +15111,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15124,14 +15149,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 16169-2024</t>
+          <t>A 1860-2026</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45406.61987268519</v>
+        <v>46035.44283564815</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15144,7 +15169,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15181,14 +15206,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 1427-2026</t>
+          <t>A 2432-2026</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>46031.94480324074</v>
+        <v>46036.81594907407</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15201,7 +15226,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15238,14 +15263,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 8456-2024</t>
+          <t>A 2051-2026</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45354</v>
+        <v>46031</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15257,8 +15282,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G256" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15295,14 +15325,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 1860-2026</t>
+          <t>A 3010-2026</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>46035.44283564815</v>
+        <v>46038.66194444444</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15352,14 +15382,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 1513-2026</t>
+          <t>A 1277-2026</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>46034.34575231482</v>
+        <v>46031</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15372,7 +15402,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15409,14 +15439,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 2411-2026</t>
+          <t>A 3012-2026</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>46036.73222222222</v>
+        <v>46038.66331018518</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15429,7 +15459,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15466,14 +15496,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 1277-2026</t>
+          <t>A 47583-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>46031</v>
+        <v>45587.77702546296</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15485,8 +15515,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15523,14 +15558,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 50958-2023</t>
+          <t>A 14655-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45210</v>
+        <v>44655</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15542,13 +15577,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G261" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15585,14 +15615,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 2416-2026</t>
+          <t>A 16121-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>46036.76255787037</v>
+        <v>45406.49583333333</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15605,7 +15635,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15642,14 +15672,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 2051-2026</t>
+          <t>A 60802-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>46031</v>
+        <v>45999.43222222223</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15661,13 +15691,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G263" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15704,14 +15729,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 2410-2026</t>
+          <t>A 3382-2026</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>46036.72965277778</v>
+        <v>46042.36003472222</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15724,7 +15749,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15761,14 +15786,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 2430-2026</t>
+          <t>A 60981-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>46036.81327546296</v>
+        <v>45999.70361111111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15781,7 +15806,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -15818,14 +15843,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 2431-2026</t>
+          <t>A 60975-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>46036.81487268519</v>
+        <v>45999.69570601852</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15838,7 +15863,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -15875,14 +15900,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 17972-2023</t>
+          <t>A 60985-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45040</v>
+        <v>45999.70759259259</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15895,7 +15920,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -15932,14 +15957,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 2432-2026</t>
+          <t>A 60973-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>46036.81594907407</v>
+        <v>45999.69430555555</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15952,7 +15977,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -15989,14 +16014,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 2052-2026</t>
+          <t>A 55972-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>46031</v>
+        <v>45233</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16008,13 +16033,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G269" t="n">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16051,14 +16071,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 60802-2025</t>
+          <t>A 9189-2022</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45999.43222222223</v>
+        <v>44615.89261574074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16071,7 +16091,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16108,14 +16128,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 7047-2023</t>
+          <t>A 60589-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44968</v>
+        <v>45260.28659722222</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16128,7 +16148,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16165,14 +16185,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 60975-2025</t>
+          <t>A 61731-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45999.69570601852</v>
+        <v>46002.59304398148</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16185,7 +16205,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16222,14 +16242,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 60985-2025</t>
+          <t>A 50307-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45999.70759259259</v>
+        <v>45209</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16242,7 +16262,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16279,14 +16299,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 3012-2026</t>
+          <t>A 3701-2026</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>46038.66331018518</v>
+        <v>46043.47123842593</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16299,7 +16319,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16336,14 +16356,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 20454-2025</t>
+          <t>A 46747-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45775.50877314815</v>
+        <v>45198</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16355,8 +16375,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G275" t="n">
-        <v>0.8</v>
+        <v>6.6</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16393,14 +16418,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 60973-2025</t>
+          <t>A 46736-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45999.69430555555</v>
+        <v>45198</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16412,8 +16437,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G276" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16450,14 +16480,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 3010-2026</t>
+          <t>A 4260-2026</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>46038.66194444444</v>
+        <v>46045.3403125</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16470,7 +16500,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16507,14 +16537,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 60981-2025</t>
+          <t>A 6083-2026</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45999.70361111111</v>
+        <v>46052.68944444445</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16527,7 +16557,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16564,14 +16594,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 62535-2023</t>
+          <t>A 17201-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45268</v>
+        <v>45756.42020833334</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16584,7 +16614,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16621,14 +16651,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 3382-2026</t>
+          <t>A 39475-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>46042.36003472222</v>
+        <v>45166</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16641,7 +16671,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16678,14 +16708,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 3701-2026</t>
+          <t>A 53213-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>46043.47123842593</v>
+        <v>45612.65795138889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16698,7 +16728,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16735,14 +16765,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 16280-2025</t>
+          <t>A 5707-2026</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45751.28666666667</v>
+        <v>46051.5116087963</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16754,13 +16784,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G282" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16797,14 +16822,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 4260-2026</t>
+          <t>A 5708-2026</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>46045.3403125</v>
+        <v>46051.51230324074</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16817,7 +16842,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -16854,14 +16879,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 61731-2025</t>
+          <t>A 20022-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>46002.59304398148</v>
+        <v>45772.34013888889</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16874,7 +16899,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -16911,14 +16936,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 10655-2025</t>
+          <t>A 7329-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45721.69958333333</v>
+        <v>45703.32144675926</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16931,7 +16956,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -16968,14 +16993,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 44669-2023</t>
+          <t>A 5144-2024</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45189</v>
+        <v>45330</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -16988,7 +17013,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17025,14 +17050,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 64386-2021</t>
+          <t>A 7680-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>44511</v>
+        <v>45706.36583333334</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17045,7 +17070,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17082,14 +17107,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 66386-2021</t>
+          <t>A 9633-2024</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>44518</v>
+        <v>45362.3203125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17102,7 +17127,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17139,14 +17164,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 5707-2026</t>
+          <t>A 5663-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>46051.5116087963</v>
+        <v>45693.82982638889</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17159,7 +17184,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>2.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17196,14 +17221,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 17201-2025</t>
+          <t>A 59619-2022</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45756.42020833334</v>
+        <v>44907.88240740741</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17216,7 +17241,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17253,14 +17278,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 5708-2026</t>
+          <t>A 16280-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>46051.51230324074</v>
+        <v>45751.28666666667</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17272,8 +17297,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G291" t="n">
-        <v>9.199999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17310,14 +17340,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 1005-2024</t>
+          <t>A 16912-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45301</v>
+        <v>45755.36498842593</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17330,7 +17360,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17367,14 +17397,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 4548-2024</t>
+          <t>A 7070-2026</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45327.7147800926</v>
+        <v>46058.31163194445</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17387,7 +17417,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17424,14 +17454,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 6083-2026</t>
+          <t>A 37653-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>46052.68944444445</v>
+        <v>45159.51601851852</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17444,7 +17474,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17481,14 +17511,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 60589-2023</t>
+          <t>A 13397-2025</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45260.28659722222</v>
+        <v>45735.71293981482</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17501,7 +17531,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>3.8</v>
+        <v>7.1</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17538,14 +17568,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 5663-2025</t>
+          <t>A 17199-2025</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45693.82982638889</v>
+        <v>45756.41421296296</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17558,7 +17588,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>8.199999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17595,14 +17625,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 7329-2025</t>
+          <t>A 18068-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45703.32144675926</v>
+        <v>45761.49069444444</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17615,7 +17645,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17652,14 +17682,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 7680-2025</t>
+          <t>A 7533-2026</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45706.36583333334</v>
+        <v>46059.62197916667</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17672,7 +17702,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17709,14 +17739,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 57921-2022</t>
+          <t>A 7535-2026</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>44900</v>
+        <v>46059.62313657408</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17729,7 +17759,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -17766,14 +17796,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 7529-2026</t>
+          <t>A 1005-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>46059.61733796296</v>
+        <v>45301</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17786,7 +17816,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -17823,14 +17853,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 7070-2026</t>
+          <t>A 3057-2023</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>46058.31163194445</v>
+        <v>44946</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17843,7 +17873,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -17880,14 +17910,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 21232-2023</t>
+          <t>A 20172-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45062.54716435185</v>
+        <v>45772.57979166666</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17900,7 +17930,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>0.6</v>
+        <v>4.9</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -17937,14 +17967,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 7533-2026</t>
+          <t>A 7529-2026</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>46059.62197916667</v>
+        <v>46059.61733796296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17957,7 +17987,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -17994,14 +18024,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 7535-2026</t>
+          <t>A 8456-2024</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>46059.62313657408</v>
+        <v>45354</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18014,7 +18044,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18051,14 +18081,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 16281-2025</t>
+          <t>A 6003-2023</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45751.29027777778</v>
+        <v>44964.39972222222</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18076,7 +18106,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18113,14 +18143,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 16283-2025</t>
+          <t>A 16169-2024</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45751.29266203703</v>
+        <v>45406.61987268519</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18132,13 +18162,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G306" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18175,14 +18200,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 7734-2022</t>
+          <t>A 48595-2021</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>44608</v>
+        <v>44452.48140046297</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18195,7 +18220,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18232,14 +18257,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 20806-2023</t>
+          <t>A 30061-2021</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45058</v>
+        <v>44363</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18252,7 +18277,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18289,14 +18314,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 54097-2024</t>
+          <t>A 42359-2023</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45616.51472222222</v>
+        <v>45180.52940972222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18309,7 +18334,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18346,14 +18371,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 59225-2023</t>
+          <t>A 9749-2023</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45253</v>
+        <v>44984</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18366,7 +18391,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18403,14 +18428,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 9863-2024</t>
+          <t>A 9898-2024</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
         <v>45363</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18423,7 +18448,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18460,14 +18485,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 5523-2023</t>
+          <t>A 57167-2022</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>44960</v>
+        <v>44895.60074074074</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18480,7 +18505,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18517,14 +18542,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 11793-2024</t>
+          <t>A 61969-2022</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45375.30324074074</v>
+        <v>44914</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18537,7 +18562,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>0.4</v>
+        <v>5.7</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18574,14 +18599,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 60380-2022</t>
+          <t>A 62148-2022</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>44910.69658564815</v>
+        <v>44922.40197916667</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18594,7 +18619,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18631,14 +18656,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 8983-2024</t>
+          <t>A 12918-2021</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45356</v>
+        <v>44271</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18651,7 +18676,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18688,14 +18713,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 50945-2023</t>
+          <t>A 57902-2022</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45210</v>
+        <v>44900.35104166667</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18707,13 +18732,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G316" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18750,14 +18770,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 22515-2022</t>
+          <t>A 50945-2023</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>44713.68042824074</v>
+        <v>45210</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18769,8 +18789,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G317" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -18807,14 +18832,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 22517-2022</t>
+          <t>A 19391-2024</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>44713.68208333333</v>
+        <v>45429.37967592593</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18827,7 +18852,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -18864,14 +18889,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 46108-2021</t>
+          <t>A 19394-2024</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>44442.36792824074</v>
+        <v>45429.38112268518</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18884,7 +18909,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -18921,14 +18946,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 6525-2025</t>
+          <t>A 58049-2023</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45699.66690972223</v>
+        <v>45247</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18941,7 +18966,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -18978,14 +19003,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 39000-2023</t>
+          <t>A 11797-2024</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45163.67079861111</v>
+        <v>45375.38054398148</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -18998,7 +19023,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19035,14 +19060,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 55240-2023</t>
+          <t>A 54991-2024</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45237.63732638889</v>
+        <v>45620.85204861111</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19055,7 +19080,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19092,14 +19117,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 50053-2024</t>
+          <t>A 54097-2024</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45600.33508101852</v>
+        <v>45616.51472222222</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19112,7 +19137,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19149,14 +19174,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 58074-2022</t>
+          <t>A 4065-2023</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>44900.61518518518</v>
+        <v>44952</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19169,7 +19194,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19206,14 +19231,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 11797-2024</t>
+          <t>A 44431-2023</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45375.38054398148</v>
+        <v>45189.35152777778</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19226,7 +19251,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19263,14 +19288,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 53213-2024</t>
+          <t>A 52016-2021</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45612.65795138889</v>
+        <v>44463</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19283,7 +19308,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19320,14 +19345,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 46747-2023</t>
+          <t>A 60191-2022</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45198</v>
+        <v>44910</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19339,13 +19364,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G327" t="n">
-        <v>6.6</v>
+        <v>2.8</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19382,14 +19402,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 49455-2023</t>
+          <t>A 55240-2023</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45211.50127314815</v>
+        <v>45237.63732638889</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19402,7 +19422,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19439,14 +19459,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 34133-2022</t>
+          <t>A 616-2025</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>44791.52582175926</v>
+        <v>45664.60969907408</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19459,7 +19479,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>3.8</v>
+        <v>10</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19496,14 +19516,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 44668-2023</t>
+          <t>A 48718-2023</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45189.72548611111</v>
+        <v>45208</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19516,7 +19536,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19553,14 +19573,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 47583-2024</t>
+          <t>A 16590-2025</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45587.77702546296</v>
+        <v>45752.89317129629</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19572,13 +19592,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F331" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G331" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19615,14 +19630,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 49357-2024</t>
+          <t>A 24611-2023</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45595.61976851852</v>
+        <v>45084.33306712963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19635,7 +19650,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -19672,14 +19687,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 61904-2022</t>
+          <t>A 7047-2023</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>44917.73387731481</v>
+        <v>44968</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19691,13 +19706,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G333" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -19734,14 +19744,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 61907-2022</t>
+          <t>A 59440-2023</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>44917.73603009259</v>
+        <v>45254</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19753,13 +19763,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F334" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G334" t="n">
-        <v>3.2</v>
+        <v>15</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -19796,14 +19801,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 4065-2023</t>
+          <t>A 63073-2023</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>44952</v>
+        <v>45273.00841435185</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19816,7 +19821,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -19853,14 +19858,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 7962-2024</t>
+          <t>A 14787-2024</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>45350.57357638889</v>
+        <v>45397.7650462963</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19873,7 +19878,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -19910,14 +19915,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 65946-2021</t>
+          <t>A 14789-2024</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>44517</v>
+        <v>45397.81939814815</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19930,7 +19935,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -19967,14 +19972,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 48718-2023</t>
+          <t>A 26362-2024</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>45208</v>
+        <v>45469.38258101852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19987,7 +19992,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20024,14 +20029,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 20456-2025</t>
+          <t>A 7732-2023</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>45775.51363425926</v>
+        <v>44973</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20043,8 +20048,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G339" t="n">
-        <v>1.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -20088,7 +20098,7 @@
         <v>45183.85680555556</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20138,14 +20148,14 @@
     <row r="341" ht="15" customHeight="1">
       <c r="A341" t="inlineStr">
         <is>
-          <t>A 616-2025</t>
+          <t>A 44669-2023</t>
         </is>
       </c>
       <c r="B341" s="1" t="n">
-        <v>45664.60969907408</v>
+        <v>45189</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20158,7 +20168,7 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>10</v>
+        <v>0.7</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -20195,14 +20205,14 @@
     <row r="342" ht="15" customHeight="1">
       <c r="A342" t="inlineStr">
         <is>
-          <t>A 17527-2025</t>
+          <t>A 2995-2024</t>
         </is>
       </c>
       <c r="B342" s="1" t="n">
-        <v>45757.58712962963</v>
+        <v>45315</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20215,7 +20225,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -20252,14 +20262,14 @@
     <row r="343" ht="15" customHeight="1">
       <c r="A343" t="inlineStr">
         <is>
-          <t>A 50160-2022</t>
+          <t>A 4845-2024</t>
         </is>
       </c>
       <c r="B343" s="1" t="n">
-        <v>44865.58923611111</v>
+        <v>45329.35953703704</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20272,7 +20282,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -20309,14 +20319,14 @@
     <row r="344" ht="15" customHeight="1">
       <c r="A344" t="inlineStr">
         <is>
-          <t>A 39475-2023</t>
+          <t>A 44744-2023</t>
         </is>
       </c>
       <c r="B344" s="1" t="n">
-        <v>45166</v>
+        <v>45190.39100694445</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20329,7 +20339,7 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -20366,14 +20376,14 @@
     <row r="345" ht="15" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
-          <t>A 14655-2022</t>
+          <t>A 21535-2025</t>
         </is>
       </c>
       <c r="B345" s="1" t="n">
-        <v>44655</v>
+        <v>45782.65741898148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20386,7 +20396,7 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -20423,14 +20433,14 @@
     <row r="346" ht="15" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
-          <t>A 54587-2023</t>
+          <t>A 23950-2025</t>
         </is>
       </c>
       <c r="B346" s="1" t="n">
-        <v>45233</v>
+        <v>45796.35803240741</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20443,7 +20453,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -20480,14 +20490,14 @@
     <row r="347" ht="15" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
-          <t>A 16284-2025</t>
+          <t>A 45309-2024</t>
         </is>
       </c>
       <c r="B347" s="1" t="n">
-        <v>45751.29762731482</v>
+        <v>45576.43064814815</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20500,7 +20510,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -20537,14 +20547,14 @@
     <row r="348" ht="15" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
-          <t>A 2345-2023</t>
+          <t>A 25324-2025</t>
         </is>
       </c>
       <c r="B348" s="1" t="n">
-        <v>44942</v>
+        <v>45800</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20557,7 +20567,7 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -20594,14 +20604,14 @@
     <row r="349" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
-          <t>A 3619-2023</t>
+          <t>A 25326-2025</t>
         </is>
       </c>
       <c r="B349" s="1" t="n">
-        <v>44950.63637731481</v>
+        <v>45800</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20614,7 +20624,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -20651,14 +20661,14 @@
     <row r="350" ht="15" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
-          <t>A 44744-2023</t>
+          <t>A 25906-2025</t>
         </is>
       </c>
       <c r="B350" s="1" t="n">
-        <v>45190.39100694445</v>
+        <v>45804.55729166666</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20671,7 +20681,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -20708,14 +20718,14 @@
     <row r="351" ht="15" customHeight="1">
       <c r="A351" t="inlineStr">
         <is>
-          <t>A 18068-2025</t>
+          <t>A 25909-2025</t>
         </is>
       </c>
       <c r="B351" s="1" t="n">
-        <v>45761.49069444444</v>
+        <v>45804.55820601852</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20728,7 +20738,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -20765,14 +20775,14 @@
     <row r="352" ht="15" customHeight="1">
       <c r="A352" t="inlineStr">
         <is>
-          <t>A 63073-2023</t>
+          <t>A 5448-2025</t>
         </is>
       </c>
       <c r="B352" s="1" t="n">
-        <v>45273.00841435185</v>
+        <v>45692.88263888889</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20785,7 +20795,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -20822,14 +20832,14 @@
     <row r="353" ht="15" customHeight="1">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A 56788-2024</t>
+          <t>A 25911-2025</t>
         </is>
       </c>
       <c r="B353" s="1" t="n">
-        <v>45628.45511574074</v>
+        <v>45804.55912037037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20842,7 +20852,7 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>6.3</v>
+        <v>2</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -20879,14 +20889,14 @@
     <row r="354" ht="15" customHeight="1">
       <c r="A354" t="inlineStr">
         <is>
-          <t>A 37653-2023</t>
+          <t>A 59325-2023</t>
         </is>
       </c>
       <c r="B354" s="1" t="n">
-        <v>45159.51601851852</v>
+        <v>45253</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20899,7 +20909,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -20936,14 +20946,14 @@
     <row r="355" ht="15" customHeight="1">
       <c r="A355" t="inlineStr">
         <is>
-          <t>A 19319-2025</t>
+          <t>A 54586-2023</t>
         </is>
       </c>
       <c r="B355" s="1" t="n">
-        <v>45769.57847222222</v>
+        <v>45233.77412037037</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20956,7 +20966,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -20993,14 +21003,14 @@
     <row r="356" ht="15" customHeight="1">
       <c r="A356" t="inlineStr">
         <is>
-          <t>A 20475-2023</t>
+          <t>A 27249-2025</t>
         </is>
       </c>
       <c r="B356" s="1" t="n">
-        <v>45057</v>
+        <v>45812.46844907408</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21050,14 +21060,14 @@
     <row r="357" ht="15" customHeight="1">
       <c r="A357" t="inlineStr">
         <is>
-          <t>A 6766-2021</t>
+          <t>A 27112-2025</t>
         </is>
       </c>
       <c r="B357" s="1" t="n">
-        <v>44236</v>
+        <v>45811.73366898148</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21070,7 +21080,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -21107,14 +21117,14 @@
     <row r="358" ht="15" customHeight="1">
       <c r="A358" t="inlineStr">
         <is>
-          <t>A 12990-2024</t>
+          <t>A 26964-2025</t>
         </is>
       </c>
       <c r="B358" s="1" t="n">
-        <v>45385.55565972222</v>
+        <v>45811.46918981482</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21127,7 +21137,7 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -21164,14 +21174,14 @@
     <row r="359" ht="15" customHeight="1">
       <c r="A359" t="inlineStr">
         <is>
-          <t>A 57167-2022</t>
+          <t>A 27227-2025</t>
         </is>
       </c>
       <c r="B359" s="1" t="n">
-        <v>44895.60074074074</v>
+        <v>45812.43118055556</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21184,7 +21194,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -21221,14 +21231,14 @@
     <row r="360" ht="15" customHeight="1">
       <c r="A360" t="inlineStr">
         <is>
-          <t>A 50307-2023</t>
+          <t>A 27109-2025</t>
         </is>
       </c>
       <c r="B360" s="1" t="n">
-        <v>45209</v>
+        <v>45811.73126157407</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21241,7 +21251,7 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -21278,14 +21288,14 @@
     <row r="361" ht="15" customHeight="1">
       <c r="A361" t="inlineStr">
         <is>
-          <t>A 38046-2022</t>
+          <t>A 27110-2025</t>
         </is>
       </c>
       <c r="B361" s="1" t="n">
-        <v>44811.64700231481</v>
+        <v>45811.73269675926</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21298,7 +21308,7 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -21335,14 +21345,14 @@
     <row r="362" ht="15" customHeight="1">
       <c r="A362" t="inlineStr">
         <is>
-          <t>A 46736-2023</t>
+          <t>A 27585-2025</t>
         </is>
       </c>
       <c r="B362" s="1" t="n">
-        <v>45198</v>
+        <v>45813.50371527778</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21354,13 +21364,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F362" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G362" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -21397,14 +21402,14 @@
     <row r="363" ht="15" customHeight="1">
       <c r="A363" t="inlineStr">
         <is>
-          <t>A 16590-2025</t>
+          <t>A 54185-2024</t>
         </is>
       </c>
       <c r="B363" s="1" t="n">
-        <v>45752.89317129629</v>
+        <v>45616.64060185185</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21417,7 +21422,7 @@
         </is>
       </c>
       <c r="G363" t="n">
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -21454,14 +21459,14 @@
     <row r="364" ht="15" customHeight="1">
       <c r="A364" t="inlineStr">
         <is>
-          <t>A 30362-2024</t>
+          <t>A 27141-2024</t>
         </is>
       </c>
       <c r="B364" s="1" t="n">
-        <v>45491.35975694445</v>
+        <v>45471.55196759259</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21511,14 +21516,14 @@
     <row r="365" ht="15" customHeight="1">
       <c r="A365" t="inlineStr">
         <is>
-          <t>A 1122-2025</t>
+          <t>A 20275-2025</t>
         </is>
       </c>
       <c r="B365" s="1" t="n">
-        <v>45666.66532407407</v>
+        <v>45774.32253472223</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21531,7 +21536,7 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -21565,17 +21570,17 @@
       </c>
       <c r="R365" s="2" t="inlineStr"/>
     </row>
-    <row r="366" ht="15" customHeight="1">
+    <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>A 46732-2023</t>
+          <t>A 28049-2025</t>
         </is>
       </c>
       <c r="B366" s="1" t="n">
-        <v>45198.59054398148</v>
+        <v>45817.65653935185</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21587,13 +21592,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G366" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -21626,120 +21626,6 @@
         <v>0</v>
       </c>
       <c r="R366" s="2" t="inlineStr"/>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>A 21535-2025</t>
-        </is>
-      </c>
-      <c r="B367" s="1" t="n">
-        <v>45782.65741898148</v>
-      </c>
-      <c r="C367" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>VÅRGÅRDA</t>
-        </is>
-      </c>
-      <c r="G367" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="n">
-        <v>0</v>
-      </c>
-      <c r="J367" t="n">
-        <v>0</v>
-      </c>
-      <c r="K367" t="n">
-        <v>0</v>
-      </c>
-      <c r="L367" t="n">
-        <v>0</v>
-      </c>
-      <c r="M367" t="n">
-        <v>0</v>
-      </c>
-      <c r="N367" t="n">
-        <v>0</v>
-      </c>
-      <c r="O367" t="n">
-        <v>0</v>
-      </c>
-      <c r="P367" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q367" t="n">
-        <v>0</v>
-      </c>
-      <c r="R367" s="2" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>A 23950-2025</t>
-        </is>
-      </c>
-      <c r="B368" s="1" t="n">
-        <v>45796.35803240741</v>
-      </c>
-      <c r="C368" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E368" t="inlineStr">
-        <is>
-          <t>VÅRGÅRDA</t>
-        </is>
-      </c>
-      <c r="G368" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="n">
-        <v>0</v>
-      </c>
-      <c r="J368" t="n">
-        <v>0</v>
-      </c>
-      <c r="K368" t="n">
-        <v>0</v>
-      </c>
-      <c r="L368" t="n">
-        <v>0</v>
-      </c>
-      <c r="M368" t="n">
-        <v>0</v>
-      </c>
-      <c r="N368" t="n">
-        <v>0</v>
-      </c>
-      <c r="O368" t="n">
-        <v>0</v>
-      </c>
-      <c r="P368" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q368" t="n">
-        <v>0</v>
-      </c>
-      <c r="R368" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 13991-2023</t>
+          <t>A 11214-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45008</v>
+        <v>44992</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -615,52 +615,52 @@
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>Borsttåg</t>
+          <t>Stare</t>
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 13991-2023 artfynd.xlsx", "A 13991-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 11214-2023 artfynd.xlsx", "A 11214-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 13991-2023 karta.png", "A 13991-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 11214-2023 karta.png", "A 11214-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 13991-2023 FSC-klagomål.docx", "A 13991-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 11214-2023 FSC-klagomål.docx", "A 11214-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 13991-2023 FSC-klagomål mail.docx", "A 13991-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 11214-2023 FSC-klagomål mail.docx", "A 11214-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 13991-2023 tillsynsbegäran.docx", "A 13991-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 11214-2023 tillsynsbegäran.docx", "A 11214-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 13991-2023 tillsynsbegäran mail.docx", "A 13991-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 11214-2023 tillsynsbegäran mail.docx", "A 11214-2023")</f>
         <v/>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 11214-2023</t>
+          <t>A 2412-2026</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44992</v>
+        <v>46036.73480324074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -673,19 +673,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>4.4</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -700,38 +700,38 @@
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
-          <t>Stare</t>
+          <t>Svinrot</t>
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 11214-2023 artfynd.xlsx", "A 11214-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 2412-2026 artfynd.xlsx", "A 2412-2026")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 11214-2023 karta.png", "A 11214-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 2412-2026 karta.png", "A 2412-2026")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 11214-2023 FSC-klagomål.docx", "A 11214-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 2412-2026 FSC-klagomål.docx", "A 2412-2026")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 11214-2023 FSC-klagomål mail.docx", "A 11214-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 2412-2026 FSC-klagomål mail.docx", "A 2412-2026")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 11214-2023 tillsynsbegäran.docx", "A 11214-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 2412-2026 tillsynsbegäran.docx", "A 2412-2026")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 11214-2023 tillsynsbegäran mail.docx", "A 11214-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 2412-2026 tillsynsbegäran mail.docx", "A 2412-2026")</f>
         <v/>
       </c>
     </row>
@@ -745,7 +745,7 @@
         <v>45203.28686342593</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -823,14 +823,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 2412-2026</t>
+          <t>A 13991-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>46036.73480324074</v>
+        <v>45008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.4</v>
+        <v>0.2</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -877,31 +877,31 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Svinrot</t>
+          <t>Borsttåg</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 2412-2026 artfynd.xlsx", "A 2412-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 13991-2023 artfynd.xlsx", "A 13991-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 2412-2026 karta.png", "A 2412-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 13991-2023 karta.png", "A 13991-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 2412-2026 FSC-klagomål.docx", "A 2412-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 13991-2023 FSC-klagomål.docx", "A 13991-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 2412-2026 FSC-klagomål mail.docx", "A 2412-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 13991-2023 FSC-klagomål mail.docx", "A 13991-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 2412-2026 tillsynsbegäran.docx", "A 2412-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 13991-2023 tillsynsbegäran.docx", "A 13991-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 2412-2026 tillsynsbegäran mail.docx", "A 2412-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 13991-2023 tillsynsbegäran mail.docx", "A 13991-2023")</f>
         <v/>
       </c>
     </row>
@@ -915,7 +915,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44249.74386574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44271.61297453703</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44496</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44511</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>44314</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>44316.39745370371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1369,14 +1369,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 46432-2021</t>
+          <t>A 627-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44445.32841435185</v>
+        <v>44568.35050925926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1426,14 +1426,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 627-2022</t>
+          <t>A 628-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44568.35050925926</v>
+        <v>44568.35122685185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>8.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1483,14 +1483,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 628-2022</t>
+          <t>A 46432-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44568.35122685185</v>
+        <v>44445.32841435185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>44601</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44533</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44572</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44389.36113425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44256</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44677</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>44818</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>44347</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44571</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44271.47305555556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>44501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>44455.51653935185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44564</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44382.40559027778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44505</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>44743.30945601852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>44607</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44580</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44446.59780092593</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44298.64422453703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>44511</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>44811.28633101852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>44616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>44243</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44621.91310185185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44434.48554398148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44465.35538194444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>44469.43070601852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>44501</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>44299</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>44358</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3436,14 +3436,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 1367-2022</t>
+          <t>A 15117-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44573.34431712963</v>
+        <v>44282</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3493,14 +3493,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 15117-2021</t>
+          <t>A 1367-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44282</v>
+        <v>44573.34431712963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>44826.95922453704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>44662.48648148148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44648.29912037037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>44515</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3778,14 +3778,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 56788-2024</t>
+          <t>A 39843-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45628.45511574074</v>
+        <v>45891</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>6.3</v>
+        <v>2.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3835,14 +3835,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 26526-2022</t>
+          <t>A 16282-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44739.44171296297</v>
+        <v>45751.29126157407</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3854,8 +3854,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3892,14 +3897,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 30038-2021</t>
+          <t>A 40239-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44363.45402777778</v>
+        <v>45894.84497685185</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3912,7 +3917,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3949,14 +3954,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 29092-2023</t>
+          <t>A 56788-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45105.34570601852</v>
+        <v>45628.45511574074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3968,13 +3973,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>6.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4011,14 +4011,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 11793-2024</t>
+          <t>A 30061-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45375.30324074074</v>
+        <v>44363</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4068,14 +4068,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 20806-2023</t>
+          <t>A 17951-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45058</v>
+        <v>45040</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4125,14 +4125,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 5152-2024</t>
+          <t>A 2995-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45330.49232638889</v>
+        <v>45315</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4182,14 +4182,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 57921-2022</t>
+          <t>A 59619-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44900</v>
+        <v>44907.88240740741</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4239,14 +4239,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 20454-2025</t>
+          <t>A 9189-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45775.50877314815</v>
+        <v>44615.89261574074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4296,14 +4296,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 20456-2025</t>
+          <t>A 64234-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45775.51363425926</v>
+        <v>44510.64112268519</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4353,14 +4353,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 12990-2024</t>
+          <t>A 26362-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45385.55565972222</v>
+        <v>45469.38258101852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.3</v>
+        <v>3.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4410,14 +4410,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 20169-2025</t>
+          <t>A 37653-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45772.57777777778</v>
+        <v>45159.51601851852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4467,14 +4467,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 15236-2024</t>
+          <t>A 19319-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45400</v>
+        <v>45769.57847222222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4524,14 +4524,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 17195-2025</t>
+          <t>A 40650-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45756.40695601852</v>
+        <v>45896.6321875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4581,14 +4581,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 59225-2023</t>
+          <t>A 40955-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45253</v>
+        <v>45897.67510416666</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4638,14 +4638,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 12342-2021</t>
+          <t>A 9725-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44267.43596064814</v>
+        <v>44984</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.6</v>
+        <v>4.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4695,14 +4695,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 4548-2024</t>
+          <t>A 41593-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45327.7147800926</v>
+        <v>45901.63788194444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4752,14 +4752,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 38046-2022</t>
+          <t>A 20475-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44811.64700231481</v>
+        <v>45057</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4809,14 +4809,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 62535-2023</t>
+          <t>A 12990-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45268</v>
+        <v>45385.55565972222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4866,14 +4866,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 21875-2024</t>
+          <t>A 39375-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45443.38331018519</v>
+        <v>45889.58944444444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4923,14 +4923,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 57860-2023</t>
+          <t>A 14786-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45247.44261574074</v>
+        <v>45397.76206018519</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4980,14 +4980,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 50160-2022</t>
+          <t>A 41590-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44865.58923611111</v>
+        <v>45901.63255787037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5037,14 +5037,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 21932-2024</t>
+          <t>A 41625-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45443</v>
+        <v>45901.7124537037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>5.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5094,14 +5094,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 45978-2022</t>
+          <t>A 57167-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44846.69284722222</v>
+        <v>44895.60074074074</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5151,14 +5151,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 2345-2023</t>
+          <t>A 39419-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44942</v>
+        <v>45889.66032407407</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5208,14 +5208,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 65946-2021</t>
+          <t>A 39372-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44517</v>
+        <v>45889.58609953704</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 62097-2022</t>
+          <t>A 39416-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44920</v>
+        <v>45889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5322,14 +5322,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 39000-2023</t>
+          <t>A 50307-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45163.67079861111</v>
+        <v>45209</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5379,14 +5379,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 9721-2023</t>
+          <t>A 61969-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44984</v>
+        <v>44914</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.7</v>
+        <v>5.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5436,14 +5436,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 9090-2024</t>
+          <t>A 4550-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45357.90923611111</v>
+        <v>45327.71622685185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5493,14 +5493,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 8983-2024</t>
+          <t>A 4845-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45356</v>
+        <v>45329.35953703704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5550,14 +5550,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 58074-2022</t>
+          <t>A 39929-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44900.61518518518</v>
+        <v>45891.69728009259</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5607,14 +5607,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 15421-2024</t>
+          <t>A 30038-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45401.36530092593</v>
+        <v>44363.45402777778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5664,14 +5664,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 6525-2025</t>
+          <t>A 38046-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45699.66690972223</v>
+        <v>44811.64700231481</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5721,14 +5721,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 7962-2024</t>
+          <t>A 35055-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45350.57357638889</v>
+        <v>45852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5778,14 +5778,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 16281-2025</t>
+          <t>A 41724-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45751.29027777778</v>
+        <v>45902.4534375</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5797,13 +5797,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5840,14 +5835,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 16283-2025</t>
+          <t>A 3057-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45751.29266203703</v>
+        <v>44946</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5859,13 +5854,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5902,14 +5892,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 28152-2025</t>
+          <t>A 46736-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45818.35734953704</v>
+        <v>45198</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5921,8 +5911,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5959,14 +5954,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 28052-2025</t>
+          <t>A 16590-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45817.65847222223</v>
+        <v>45752.89317129629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5979,7 +5974,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6016,14 +6011,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 59684-2022</t>
+          <t>A 30362-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44908</v>
+        <v>45491.35975694445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6035,13 +6030,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6078,14 +6068,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 49751-2023</t>
+          <t>A 1122-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45212.52082175926</v>
+        <v>45666.66532407407</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6098,7 +6088,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>11.5</v>
+        <v>3.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6135,14 +6125,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 3756-2023</t>
+          <t>A 9090-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44951.47405092593</v>
+        <v>45357.90923611111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6155,7 +6145,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5.2</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6192,14 +6182,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 30079-2025</t>
+          <t>A 54991-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45826.64440972222</v>
+        <v>45620.85204861111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6212,7 +6202,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6249,14 +6239,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 9802-2021</t>
+          <t>A 46732-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44252.70211805555</v>
+        <v>45198.59054398148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6268,8 +6258,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6306,14 +6301,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 13034-2025</t>
+          <t>A 42646-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45734.57408564815</v>
+        <v>45906.48516203704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6326,7 +6321,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6363,14 +6358,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 61904-2022</t>
+          <t>A 55972-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44917.73387731481</v>
+        <v>45233</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6382,13 +6377,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6425,14 +6415,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 61907-2022</t>
+          <t>A 9802-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44917.73603009259</v>
+        <v>44252.70211805555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6444,13 +6434,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6487,14 +6472,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 10924-2025</t>
+          <t>A 21535-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45722.83402777778</v>
+        <v>45782.65741898148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6507,7 +6492,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6544,14 +6529,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 49455-2023</t>
+          <t>A 9898-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45211.50127314815</v>
+        <v>45363</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6564,7 +6549,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6601,14 +6586,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 20807-2025</t>
+          <t>A 24064-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45776.65706018519</v>
+        <v>44725.32741898148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6620,13 +6605,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6663,14 +6643,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 59381-2022</t>
+          <t>A 12342-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44905.46840277778</v>
+        <v>44267.43596064814</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6683,7 +6663,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6720,14 +6700,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 8895-2023</t>
+          <t>A 60191-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44979</v>
+        <v>44910</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6739,13 +6719,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6782,14 +6757,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 13122-2025</t>
+          <t>A 43214-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45734.80390046296</v>
+        <v>45910</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6801,8 +6776,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>13.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6839,14 +6819,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 10586-2024</t>
+          <t>A 52016-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45366.69975694444</v>
+        <v>44463</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6859,7 +6839,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6896,14 +6876,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 14786-2024</t>
+          <t>A 43593-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45397.76206018519</v>
+        <v>45911.65733796296</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6916,7 +6896,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6953,14 +6933,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 24064-2022</t>
+          <t>A 43337-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44725.32741898148</v>
+        <v>45910.73006944444</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6973,7 +6953,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7010,14 +6990,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 1262-2023</t>
+          <t>A 43314-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44936.39234953704</v>
+        <v>45910</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7029,8 +7009,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7067,14 +7052,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 50958-2023</t>
+          <t>A 11777-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45210</v>
+        <v>45374.35063657408</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7086,13 +7071,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7129,14 +7109,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 39372-2025</t>
+          <t>A 11792-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45889.58609953704</v>
+        <v>45375</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7149,7 +7129,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7186,14 +7166,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 39375-2025</t>
+          <t>A 8195-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45889.58944444444</v>
+        <v>45351.66591435186</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7206,7 +7186,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7243,14 +7223,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 39419-2025</t>
+          <t>A 58049-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45889.66032407407</v>
+        <v>45247</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7263,7 +7243,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7300,14 +7280,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 39416-2025</t>
+          <t>A 23950-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45889</v>
+        <v>45796.35803240741</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7320,7 +7300,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7357,14 +7337,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 50053-2024</t>
+          <t>A 9633-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45600.33508101852</v>
+        <v>45362.3203125</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7414,14 +7394,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 30674-2023</t>
+          <t>A 45309-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45112</v>
+        <v>45576.43064814815</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7434,7 +7414,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7471,14 +7451,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 39929-2025</t>
+          <t>A 21875-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45891.69728009259</v>
+        <v>45443.38331018519</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7491,7 +7471,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7528,14 +7508,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 39843-2025</t>
+          <t>A 25324-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7548,7 +7528,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7585,14 +7565,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 40239-2025</t>
+          <t>A 5448-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45894.84497685185</v>
+        <v>45692.88263888889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7605,7 +7585,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7642,14 +7622,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 40650-2025</t>
+          <t>A 25326-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45896.6321875</v>
+        <v>45800</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7662,7 +7642,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7699,14 +7679,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 22515-2022</t>
+          <t>A 45853-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44713.68042824074</v>
+        <v>45923.6297337963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7719,7 +7699,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7756,14 +7736,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 22517-2022</t>
+          <t>A 45293-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44713.68208333333</v>
+        <v>45920.43634259259</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7776,7 +7756,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7813,14 +7793,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 42552-2024</t>
+          <t>A 45292-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45565.61814814815</v>
+        <v>45920.43488425926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7833,7 +7813,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7870,14 +7850,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 40955-2025</t>
+          <t>A 25906-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45897.67510416666</v>
+        <v>45804.55729166666</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7890,7 +7870,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7927,14 +7907,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 41724-2025</t>
+          <t>A 25909-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45902.4534375</v>
+        <v>45804.55820601852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7947,7 +7927,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7984,14 +7964,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 5523-2023</t>
+          <t>A 25911-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44960</v>
+        <v>45804.55912037037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8004,7 +7984,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8041,14 +8021,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 41590-2025</t>
+          <t>A 46944-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45901.63255787037</v>
+        <v>44446.51780092593</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8061,7 +8041,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8098,14 +8078,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 44421-2024</t>
+          <t>A 37424-2021</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45573.86858796296</v>
+        <v>44398.48474537037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8118,7 +8098,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4.3</v>
+        <v>0.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8155,14 +8135,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 41625-2025</t>
+          <t>A 15236-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45901.7124537037</v>
+        <v>45400</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8175,7 +8155,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8212,14 +8192,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 41593-2025</t>
+          <t>A 59325-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45901.63788194444</v>
+        <v>45253</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8232,7 +8212,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8269,14 +8249,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 35055-2025</t>
+          <t>A 46234-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45852</v>
+        <v>45925.29591435185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8289,7 +8269,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.1</v>
+        <v>2.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8326,14 +8306,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 35621-2025</t>
+          <t>A 27109-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45859.4146875</v>
+        <v>45811.73126157407</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8346,7 +8326,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8383,14 +8363,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 42646-2025</t>
+          <t>A 27110-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45906.48516203704</v>
+        <v>45811.73269675926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8403,7 +8383,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8440,14 +8420,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 56637-2024</t>
+          <t>A 26964-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45625.69395833334</v>
+        <v>45811.46918981482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8460,7 +8440,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8497,14 +8477,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 20260-2021</t>
+          <t>A 46237-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44314</v>
+        <v>45925.30956018518</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8516,13 +8496,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>1.1</v>
+        <v>14.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8559,14 +8534,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 52097-2024</t>
+          <t>A 5144-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45608.4153125</v>
+        <v>45330</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8579,7 +8554,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>10.9</v>
+        <v>0.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8616,14 +8591,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 43337-2025</t>
+          <t>A 27112-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45910.73006944444</v>
+        <v>45811.73366898148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8636,7 +8611,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8673,14 +8648,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 43314-2025</t>
+          <t>A 54586-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45910</v>
+        <v>45233.77412037037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8692,13 +8667,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8735,14 +8705,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 8268-2025</t>
+          <t>A 27585-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45708.51210648148</v>
+        <v>45813.50371527778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8755,7 +8725,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8792,14 +8762,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 36638-2025</t>
+          <t>A 27227-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45870.73099537037</v>
+        <v>45812.43118055556</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8812,7 +8782,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8849,14 +8819,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 36639-2025</t>
+          <t>A 27249-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45870.73174768518</v>
+        <v>45812.46844907408</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8869,7 +8839,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8906,14 +8876,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 43214-2025</t>
+          <t>A 30280-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45910</v>
+        <v>45110.88763888889</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8925,13 +8895,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>13.8</v>
+        <v>0.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8968,14 +8933,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 36637-2025</t>
+          <t>A 28052-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45870.73012731481</v>
+        <v>45817.65847222223</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9025,14 +8990,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 43593-2025</t>
+          <t>A 28049-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45911.65733796296</v>
+        <v>45817.65653935185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9045,7 +9010,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9082,14 +9047,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 36838-2025</t>
+          <t>A 20275-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45874.37011574074</v>
+        <v>45774.32253472223</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9102,7 +9067,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9139,14 +9104,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 36641-2025</t>
+          <t>A 46233-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45871.43119212963</v>
+        <v>45925.29270833333</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9159,7 +9124,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9196,14 +9161,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 36974-2024</t>
+          <t>A 54185-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45538.89228009259</v>
+        <v>45616.64060185185</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9216,7 +9181,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9253,14 +9218,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 1122-2025</t>
+          <t>A 28152-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45666.66532407407</v>
+        <v>45818.35734953704</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9273,7 +9238,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9310,14 +9275,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 9725-2023</t>
+          <t>A 27141-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44984</v>
+        <v>45471.55196759259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9330,7 +9295,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9367,14 +9332,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 45293-2025</t>
+          <t>A 44431-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45920.43634259259</v>
+        <v>45189.35152777778</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9387,7 +9352,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9424,14 +9389,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 46732-2023</t>
+          <t>A 45978-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45198.59054398148</v>
+        <v>44846.69284722222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9443,13 +9408,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9486,14 +9446,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 11484-2025</t>
+          <t>A 54937-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45726.69502314815</v>
+        <v>44881</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9506,7 +9466,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9543,14 +9503,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 45292-2025</t>
+          <t>A 13034-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45920.43488425926</v>
+        <v>45734.57408564815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9563,7 +9523,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9600,14 +9560,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 45853-2025</t>
+          <t>A 46823-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45923.6297337963</v>
+        <v>45926.79550925926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9620,7 +9580,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9657,14 +9617,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 30362-2024</t>
+          <t>A 30079-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45491.35975694445</v>
+        <v>45826.64440972222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9677,7 +9637,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9714,14 +9674,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 19308-2025</t>
+          <t>A 46833-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45769.56891203704</v>
+        <v>45927.68620370371</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9733,13 +9693,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9776,14 +9731,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 24785-2023</t>
+          <t>A 9086-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45084.67194444445</v>
+        <v>45357.90260416667</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9796,7 +9751,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.6</v>
+        <v>5.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9833,14 +9788,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 54937-2022</t>
+          <t>A 9089-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44881</v>
+        <v>45357.90612268518</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9853,7 +9808,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9890,14 +9845,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 46233-2025</t>
+          <t>A 20022-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45925.29270833333</v>
+        <v>45772.34013888889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9910,7 +9865,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9947,14 +9902,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 37424-2021</t>
+          <t>A 10924-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44398.48474537037</v>
+        <v>45722.83402777778</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9967,7 +9922,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10004,14 +9959,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 46234-2025</t>
+          <t>A 42359-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45925.29591435185</v>
+        <v>45180.52940972222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10024,7 +9979,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10061,14 +10016,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 46237-2025</t>
+          <t>A 47169-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45925.30956018518</v>
+        <v>45929.91121527777</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10081,7 +10036,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>14.2</v>
+        <v>0.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10118,14 +10073,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 47169-2025</t>
+          <t>A 62097-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45929.91121527777</v>
+        <v>44920</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10138,7 +10093,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10175,14 +10130,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 46833-2025</t>
+          <t>A 48094-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45927.68620370371</v>
+        <v>45933.33019675926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10195,7 +10150,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10232,14 +10187,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 46823-2025</t>
+          <t>A 22202-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45926.79550925926</v>
+        <v>45446.37318287037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10252,7 +10207,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10289,14 +10244,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 17527-2025</t>
+          <t>A 48100-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45757.58712962963</v>
+        <v>45933.33457175926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10309,7 +10264,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10346,14 +10301,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 2917-2023</t>
+          <t>A 13122-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44943</v>
+        <v>45734.80390046296</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10366,7 +10321,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10403,14 +10358,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 48452-2025</t>
+          <t>A 9749-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45935.79104166666</v>
+        <v>44984</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10423,7 +10378,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10460,14 +10415,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 48099-2025</t>
+          <t>A 48082-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45933.33207175926</v>
+        <v>45932.77143518518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10480,7 +10435,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10517,14 +10472,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 48094-2025</t>
+          <t>A 48099-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45933.33019675926</v>
+        <v>45933.33207175926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10537,7 +10492,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10574,14 +10529,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 48104-2025</t>
+          <t>A 48080-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45933.3422337963</v>
+        <v>45932.7685300926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10594,7 +10549,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10631,14 +10586,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 46108-2021</t>
+          <t>A 48081-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44442.36792824074</v>
+        <v>45932.77</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10651,7 +10606,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10688,14 +10643,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 48081-2025</t>
+          <t>A 48104-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45932.77</v>
+        <v>45933.3422337963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10708,7 +10663,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10745,14 +10700,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 48082-2025</t>
+          <t>A 42552-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45932.77143518518</v>
+        <v>45565.61814814815</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10765,7 +10720,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10802,14 +10757,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 48080-2025</t>
+          <t>A 48452-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45932.7685300926</v>
+        <v>45935.79104166666</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10822,7 +10777,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10859,14 +10814,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 19319-2025</t>
+          <t>A 26526-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45769.57847222222</v>
+        <v>44739.44171296297</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10879,7 +10834,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10916,14 +10871,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 48100-2025</t>
+          <t>A 49431-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45933.33457175926</v>
+        <v>45938.845</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10936,7 +10891,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10973,14 +10928,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 48760-2025</t>
+          <t>A 59440-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45936.77475694445</v>
+        <v>45254</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10993,7 +10948,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.2</v>
+        <v>15</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11037,7 +10992,7 @@
         <v>45937</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11087,14 +11042,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 20475-2023</t>
+          <t>A 48760-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45057</v>
+        <v>45936.77475694445</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11107,7 +11062,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11144,14 +11099,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 49431-2025</t>
+          <t>A 13397-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45938.845</v>
+        <v>45735.71293981482</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11164,7 +11119,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.6</v>
+        <v>7.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11201,14 +11156,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 16282-2025</t>
+          <t>A 24785-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45751.29126157407</v>
+        <v>45084.67194444445</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11220,13 +11175,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11263,14 +11213,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 49598-2025</t>
+          <t>A 44421-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45939.53748842593</v>
+        <v>45573.86858796296</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11283,7 +11233,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11320,14 +11270,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 54587-2023</t>
+          <t>A 42330-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45233</v>
+        <v>45180</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11340,7 +11290,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11377,14 +11327,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 49855-2025</t>
+          <t>A 49598-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45940.50458333334</v>
+        <v>45939.53748842593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11397,7 +11347,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11434,14 +11384,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 10655-2025</t>
+          <t>A 21932-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45721.69958333333</v>
+        <v>45443</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11454,7 +11404,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11491,14 +11441,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 46944-2021</t>
+          <t>A 49855-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44446.51780092593</v>
+        <v>45940.50458333334</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11511,7 +11461,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11548,14 +11498,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 16587-2025</t>
+          <t>A 1262-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45752.87754629629</v>
+        <v>44936.39234953704</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11568,7 +11518,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11605,14 +11555,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 50685-2025</t>
+          <t>A 7732-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45945.82289351852</v>
+        <v>44973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11624,8 +11574,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>1.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11662,14 +11617,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 34133-2022</t>
+          <t>A 35621-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44791.52582175926</v>
+        <v>45859.4146875</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11682,7 +11637,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11719,14 +11674,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 51167-2025</t>
+          <t>A 16121-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45947.59884259259</v>
+        <v>45406.49583333333</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11739,7 +11694,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11776,14 +11731,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 16284-2025</t>
+          <t>A 56637-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45751.29762731482</v>
+        <v>45625.69395833334</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11796,7 +11751,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.8</v>
+        <v>4.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11833,14 +11788,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 8195-2024</t>
+          <t>A 2917-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45351.66591435186</v>
+        <v>44943</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11853,7 +11808,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11890,14 +11845,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 9863-2024</t>
+          <t>A 33939-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45363</v>
+        <v>45134.55792824074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11910,7 +11865,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11947,14 +11902,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 51890-2025</t>
+          <t>A 19391-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45952.41594907407</v>
+        <v>45429.37967592593</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11967,7 +11922,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12004,14 +11959,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 64234-2021</t>
+          <t>A 19394-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44510.64112268519</v>
+        <v>45429.38112268518</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12024,7 +11979,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12061,14 +12016,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 11777-2024</t>
+          <t>A 36637-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45374.35063657408</v>
+        <v>45870.73012731481</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12081,7 +12036,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12118,14 +12073,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 11792-2024</t>
+          <t>A 36638-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45375</v>
+        <v>45870.73099537037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12138,7 +12093,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12175,14 +12130,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 64386-2021</t>
+          <t>A 36639-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44511</v>
+        <v>45870.73174768518</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12195,7 +12150,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12232,14 +12187,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 30280-2023</t>
+          <t>A 36641-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45110.88763888889</v>
+        <v>45871.43119212963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12252,7 +12207,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12289,14 +12244,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 51887-2025</t>
+          <t>A 59381-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45952</v>
+        <v>44905.46840277778</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12309,7 +12264,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>10.6</v>
+        <v>1.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12346,14 +12301,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 9086-2024</t>
+          <t>A 20169-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45357.90260416667</v>
+        <v>45772.57777777778</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12366,7 +12321,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>5.8</v>
+        <v>2.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12403,14 +12358,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 9089-2024</t>
+          <t>A 36838-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45357.90612268518</v>
+        <v>45874.37011574074</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12423,7 +12378,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12460,14 +12415,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 55189-2025</t>
+          <t>A 51167-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45968.54363425926</v>
+        <v>45947.59884259259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12517,14 +12472,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 21232-2023</t>
+          <t>A 50685-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45062.54716435185</v>
+        <v>45945.82289351852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12537,7 +12492,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12574,14 +12529,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 55188-2025</t>
+          <t>A 17199-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45968.5422800926</v>
+        <v>45756.41421296296</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12594,7 +12549,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12631,14 +12586,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 22202-2024</t>
+          <t>A 9721-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45446.37318287037</v>
+        <v>44984</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12651,7 +12606,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12688,14 +12643,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 60380-2022</t>
+          <t>A 10586-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44910.69658564815</v>
+        <v>45366.69975694444</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12708,7 +12663,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12745,14 +12700,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 55706-2025</t>
+          <t>A 36974-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45972.47302083333</v>
+        <v>45538.89228009259</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12765,7 +12720,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12802,14 +12757,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 55776-2025</t>
+          <t>A 29092-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45972</v>
+        <v>45105.34570601852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12821,8 +12776,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12859,14 +12819,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 55992-2025</t>
+          <t>A 20807-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45973.55912037037</v>
+        <v>45776.65706018519</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12878,8 +12838,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12916,14 +12881,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 33939-2023</t>
+          <t>A 19308-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45134.55792824074</v>
+        <v>45769.56891203704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12935,8 +12900,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12973,14 +12943,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 56379-2025</t>
+          <t>A 48595-2021</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45974.70221064815</v>
+        <v>44452.48140046297</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12993,7 +12963,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13030,14 +13000,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 56381-2025</t>
+          <t>A 24611-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45974.7060300926</v>
+        <v>45084.33306712963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13050,7 +13020,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13087,14 +13057,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 9642-2025</t>
+          <t>A 62148-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45715.84020833333</v>
+        <v>44922.40197916667</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13144,14 +13114,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 17951-2023</t>
+          <t>A 51890-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45040</v>
+        <v>45952.41594907407</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13164,7 +13134,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13201,14 +13171,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 17972-2023</t>
+          <t>A 3756-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45040</v>
+        <v>44951.47405092593</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13221,7 +13191,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.4</v>
+        <v>5.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13258,14 +13228,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 3619-2023</t>
+          <t>A 8268-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44950.63637731481</v>
+        <v>45708.51210648148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13278,7 +13248,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13315,14 +13285,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 66386-2021</t>
+          <t>A 11484-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44518</v>
+        <v>45726.69502314815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13335,7 +13305,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13372,14 +13342,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 57569-2025</t>
+          <t>A 15421-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45980.73299768518</v>
+        <v>45401.36530092593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13392,7 +13362,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13429,14 +13399,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 4550-2024</t>
+          <t>A 8895-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45327.71622685185</v>
+        <v>44979</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13448,8 +13418,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13486,14 +13461,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 44668-2023</t>
+          <t>A 6003-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45189.72548611111</v>
+        <v>44964.39972222222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13505,8 +13480,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13543,14 +13523,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 57567-2025</t>
+          <t>A 57860-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45980.73072916667</v>
+        <v>45247.44261574074</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13563,7 +13543,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13600,14 +13580,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 42330-2023</t>
+          <t>A 16912-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45180</v>
+        <v>45755.36498842593</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13620,7 +13600,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13657,14 +13637,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 58398-2025</t>
+          <t>A 9642-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45985.56231481482</v>
+        <v>45715.84020833333</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13677,7 +13657,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13714,14 +13694,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 58444-2025</t>
+          <t>A 16587-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45985.61791666667</v>
+        <v>45752.87754629629</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13734,7 +13714,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13771,14 +13751,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 60814-2024</t>
+          <t>A 5152-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45644.61975694444</v>
+        <v>45330.49232638889</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13791,7 +13771,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13828,14 +13808,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 58443-2025</t>
+          <t>A 14787-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45985.61674768518</v>
+        <v>45397.7650462963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13848,7 +13828,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13885,14 +13865,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 58866-2025</t>
+          <t>A 14789-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45987.44790509259</v>
+        <v>45397.81939814815</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13905,7 +13885,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13942,14 +13922,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 946-2026</t>
+          <t>A 49751-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>46030.53789351852</v>
+        <v>45212.52082175926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13962,7 +13942,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.3</v>
+        <v>11.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13999,14 +13979,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 59156-2025</t>
+          <t>A 60814-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45988.54133101852</v>
+        <v>45644.61975694444</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14019,7 +13999,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14056,14 +14036,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 59042-2025</t>
+          <t>A 51887-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45988.37216435185</v>
+        <v>45952</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14076,7 +14056,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.5</v>
+        <v>10.6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14113,14 +14093,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 58833-2025</t>
+          <t>A 52097-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45987.35474537037</v>
+        <v>45608.4153125</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14133,7 +14113,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.9</v>
+        <v>10.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14170,14 +14150,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 7734-2022</t>
+          <t>A 55189-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44608</v>
+        <v>45968.54363425926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14227,14 +14207,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 1427-2026</t>
+          <t>A 55188-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>46031.94480324074</v>
+        <v>45968.5422800926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14247,7 +14227,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14284,14 +14264,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 59508-2025</t>
+          <t>A 55992-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45989.64269675926</v>
+        <v>45973.55912037037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14303,13 +14283,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14346,14 +14321,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 59317-2025</t>
+          <t>A 59684-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45989.32200231482</v>
+        <v>44908</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14365,8 +14340,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14403,14 +14383,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 1437-2026</t>
+          <t>A 55706-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>46032.56134259259</v>
+        <v>45972.47302083333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14423,7 +14403,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14460,14 +14440,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 1438-2026</t>
+          <t>A 55776-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>46032.5637037037</v>
+        <v>45972</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14480,7 +14460,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14517,14 +14497,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 59309-2025</t>
+          <t>A 56381-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45989.27822916667</v>
+        <v>45974.7060300926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14537,7 +14517,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14574,14 +14554,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 1513-2026</t>
+          <t>A 56379-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>46034.34575231482</v>
+        <v>45974.70221064815</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14594,7 +14574,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14631,14 +14611,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 22386-2024</t>
+          <t>A 30674-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45446.66300925926</v>
+        <v>45112</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14651,7 +14631,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14688,14 +14668,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 2430-2026</t>
+          <t>A 57567-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>46036.81327546296</v>
+        <v>45980.73072916667</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14708,7 +14688,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14745,14 +14725,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 2431-2026</t>
+          <t>A 12918-2021</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>46036.81487268519</v>
+        <v>44271</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14765,7 +14745,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.7</v>
+        <v>7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14802,14 +14782,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 49357-2024</t>
+          <t>A 57569-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45595.61976851852</v>
+        <v>45980.73299768518</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14822,7 +14802,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14859,14 +14839,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 2410-2026</t>
+          <t>A 58444-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>46036.72965277778</v>
+        <v>45985.61791666667</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14879,7 +14859,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14916,14 +14896,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 2411-2026</t>
+          <t>A 58398-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>46036.73222222222</v>
+        <v>45985.56231481482</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14936,7 +14916,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14973,14 +14953,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 2416-2026</t>
+          <t>A 58443-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>46036.76255787037</v>
+        <v>45985.61674768518</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14993,7 +14973,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15030,14 +15010,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 2052-2026</t>
+          <t>A 58866-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>46031</v>
+        <v>45987.44790509259</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15049,13 +15029,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15092,14 +15067,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 1880-2026</t>
+          <t>A 58833-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>46035.47288194444</v>
+        <v>45987.35474537037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15112,7 +15087,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15149,14 +15124,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 1860-2026</t>
+          <t>A 20172-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>46035.44283564815</v>
+        <v>45772.57979166666</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15169,7 +15144,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.7</v>
+        <v>4.9</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15206,14 +15181,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 2432-2026</t>
+          <t>A 57902-2022</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>46036.81594907407</v>
+        <v>44900.35104166667</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15226,7 +15201,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15263,14 +15238,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 2051-2026</t>
+          <t>A 17195-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>46031</v>
+        <v>45756.40695601852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15282,13 +15257,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15325,14 +15295,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 3010-2026</t>
+          <t>A 59309-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>46038.66194444444</v>
+        <v>45989.27822916667</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15345,7 +15315,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15382,14 +15352,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 1277-2026</t>
+          <t>A 59156-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>46031</v>
+        <v>45988.54133101852</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15402,7 +15372,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15439,14 +15409,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 3012-2026</t>
+          <t>A 20260-2021</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>46038.66331018518</v>
+        <v>44314</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15458,8 +15428,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G259" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15496,14 +15471,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 47583-2024</t>
+          <t>A 59508-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45587.77702546296</v>
+        <v>45989.64269675926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15521,7 +15496,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15558,14 +15533,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 14655-2022</t>
+          <t>A 59317-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44655</v>
+        <v>45989.32200231482</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15578,7 +15553,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15615,14 +15590,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 16121-2024</t>
+          <t>A 16169-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45406.49583333333</v>
+        <v>45406.61987268519</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15635,7 +15610,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15672,14 +15647,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 60802-2025</t>
+          <t>A 8456-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45999.43222222223</v>
+        <v>45354</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15692,7 +15667,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15729,14 +15704,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 3382-2026</t>
+          <t>A 946-2026</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>46042.36003472222</v>
+        <v>46030.53789351852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15749,7 +15724,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15786,14 +15761,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 60981-2025</t>
+          <t>A 22386-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45999.70361111111</v>
+        <v>45446.66300925926</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15806,7 +15781,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -15843,14 +15818,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 60975-2025</t>
+          <t>A 59042-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45999.69570601852</v>
+        <v>45988.37216435185</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15863,7 +15838,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -15900,14 +15875,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 60985-2025</t>
+          <t>A 1437-2026</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45999.70759259259</v>
+        <v>46032.56134259259</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15920,7 +15895,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -15957,14 +15932,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 60973-2025</t>
+          <t>A 1880-2026</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45999.69430555555</v>
+        <v>46035.47288194444</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15977,7 +15952,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16014,14 +15989,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 55972-2023</t>
+          <t>A 1438-2026</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45233</v>
+        <v>46032.5637037037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16034,7 +16009,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16071,14 +16046,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 9189-2022</t>
+          <t>A 50958-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44615.89261574074</v>
+        <v>45210</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16090,8 +16065,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G270" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16128,14 +16108,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 60589-2023</t>
+          <t>A 1427-2026</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45260.28659722222</v>
+        <v>46031.94480324074</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16148,7 +16128,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16185,14 +16165,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 61731-2025</t>
+          <t>A 17972-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>46002.59304398148</v>
+        <v>45040</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16205,7 +16185,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16242,14 +16222,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 50307-2023</t>
+          <t>A 1860-2026</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45209</v>
+        <v>46035.44283564815</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16262,7 +16242,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16299,14 +16279,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 3701-2026</t>
+          <t>A 1513-2026</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>46043.47123842593</v>
+        <v>46034.34575231482</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16319,7 +16299,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16356,14 +16336,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 46747-2023</t>
+          <t>A 2411-2026</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45198</v>
+        <v>46036.73222222222</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16375,13 +16355,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G275" t="n">
-        <v>6.6</v>
+        <v>1.9</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16418,14 +16393,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 46736-2023</t>
+          <t>A 1277-2026</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45198</v>
+        <v>46031</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16437,13 +16412,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G276" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16480,14 +16450,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 4260-2026</t>
+          <t>A 2416-2026</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>46045.3403125</v>
+        <v>46036.76255787037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16500,7 +16470,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16537,14 +16507,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 6083-2026</t>
+          <t>A 2051-2026</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>46052.68944444445</v>
+        <v>46031</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16556,8 +16526,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G278" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16594,14 +16569,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 17201-2025</t>
+          <t>A 2410-2026</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45756.42020833334</v>
+        <v>46036.72965277778</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16614,7 +16589,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16651,14 +16626,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 39475-2023</t>
+          <t>A 2430-2026</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45166</v>
+        <v>46036.81327546296</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16671,7 +16646,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>5.1</v>
+        <v>1.5</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16708,14 +16683,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 53213-2024</t>
+          <t>A 2431-2026</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45612.65795138889</v>
+        <v>46036.81487268519</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16728,7 +16703,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16765,14 +16740,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 5707-2026</t>
+          <t>A 2432-2026</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>46051.5116087963</v>
+        <v>46036.81594907407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16785,7 +16760,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16822,14 +16797,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 5708-2026</t>
+          <t>A 2052-2026</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>46051.51230324074</v>
+        <v>46031</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16841,8 +16816,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G283" t="n">
-        <v>9.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -16879,14 +16859,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 20022-2025</t>
+          <t>A 7047-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45772.34013888889</v>
+        <v>44968</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16899,7 +16879,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -16936,14 +16916,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 7329-2025</t>
+          <t>A 20454-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45703.32144675926</v>
+        <v>45775.50877314815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16956,7 +16936,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -16993,14 +16973,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 5144-2024</t>
+          <t>A 60802-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45330</v>
+        <v>45999.43222222223</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17013,7 +16993,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17050,14 +17030,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 7680-2025</t>
+          <t>A 60975-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45706.36583333334</v>
+        <v>45999.69570601852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17070,7 +17050,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17107,14 +17087,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 9633-2024</t>
+          <t>A 60985-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45362.3203125</v>
+        <v>45999.70759259259</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17127,7 +17107,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17164,14 +17144,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 5663-2025</t>
+          <t>A 3012-2026</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45693.82982638889</v>
+        <v>46038.66331018518</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17184,7 +17164,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>8.199999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17221,14 +17201,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 59619-2022</t>
+          <t>A 60973-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>44907.88240740741</v>
+        <v>45999.69430555555</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17241,7 +17221,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17278,14 +17258,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 16280-2025</t>
+          <t>A 3010-2026</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45751.28666666667</v>
+        <v>46038.66194444444</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17297,13 +17277,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G291" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17340,14 +17315,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 16912-2025</t>
+          <t>A 60981-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45755.36498842593</v>
+        <v>45999.70361111111</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17360,7 +17335,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17397,14 +17372,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 7070-2026</t>
+          <t>A 62535-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>46058.31163194445</v>
+        <v>45268</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17417,7 +17392,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17454,14 +17429,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 37653-2023</t>
+          <t>A 16280-2025</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45159.51601851852</v>
+        <v>45751.28666666667</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17473,8 +17448,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G294" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17511,14 +17491,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 13397-2025</t>
+          <t>A 3382-2026</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45735.71293981482</v>
+        <v>46042.36003472222</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17531,7 +17511,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>7.1</v>
+        <v>3.2</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17568,14 +17548,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 17199-2025</t>
+          <t>A 3701-2026</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45756.41421296296</v>
+        <v>46043.47123842593</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17588,7 +17568,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17625,14 +17605,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 18068-2025</t>
+          <t>A 10655-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45761.49069444444</v>
+        <v>45721.69958333333</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17645,7 +17625,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17682,14 +17662,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 7533-2026</t>
+          <t>A 44669-2023</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>46059.62197916667</v>
+        <v>45189</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17702,7 +17682,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17739,14 +17719,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 7535-2026</t>
+          <t>A 4260-2026</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>46059.62313657408</v>
+        <v>46045.3403125</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17759,7 +17739,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -17796,14 +17776,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 1005-2024</t>
+          <t>A 64386-2021</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45301</v>
+        <v>44511</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17816,7 +17796,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -17853,14 +17833,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 3057-2023</t>
+          <t>A 66386-2021</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>44946</v>
+        <v>44518</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17873,7 +17853,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -17910,14 +17890,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 20172-2025</t>
+          <t>A 61731-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45772.57979166666</v>
+        <v>46002.59304398148</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17930,7 +17910,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -17967,14 +17947,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 7529-2026</t>
+          <t>A 17201-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>46059.61733796296</v>
+        <v>45756.42020833334</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17987,7 +17967,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18024,14 +18004,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 8456-2024</t>
+          <t>A 1005-2024</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45354</v>
+        <v>45301</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18044,7 +18024,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>4.3</v>
+        <v>0.8</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18081,14 +18061,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 6003-2023</t>
+          <t>A 4548-2024</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>44964.39972222222</v>
+        <v>45327.7147800926</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18100,13 +18080,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G305" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18143,14 +18118,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 16169-2024</t>
+          <t>A 5707-2026</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45406.61987268519</v>
+        <v>46051.5116087963</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18163,7 +18138,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18200,14 +18175,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 48595-2021</t>
+          <t>A 5708-2026</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>44452.48140046297</v>
+        <v>46051.51230324074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18220,7 +18195,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18257,14 +18232,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 30061-2021</t>
+          <t>A 60589-2023</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>44363</v>
+        <v>45260.28659722222</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18277,7 +18252,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18314,14 +18289,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 42359-2023</t>
+          <t>A 6083-2026</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45180.52940972222</v>
+        <v>46052.68944444445</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18334,7 +18309,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18371,14 +18346,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 9749-2023</t>
+          <t>A 57921-2022</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>44984</v>
+        <v>44900</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18391,7 +18366,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18428,14 +18403,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 9898-2024</t>
+          <t>A 21232-2023</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45363</v>
+        <v>45062.54716435185</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18448,7 +18423,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18485,14 +18460,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 57167-2022</t>
+          <t>A 16281-2025</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>44895.60074074074</v>
+        <v>45751.29027777778</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18504,8 +18479,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G312" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18542,14 +18522,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 61969-2022</t>
+          <t>A 16283-2025</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>44914</v>
+        <v>45751.29266203703</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18561,8 +18541,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G313" t="n">
-        <v>5.7</v>
+        <v>2.6</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18599,14 +18584,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 62148-2022</t>
+          <t>A 5663-2025</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>44922.40197916667</v>
+        <v>45693.82982638889</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18619,7 +18604,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18656,14 +18641,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 12918-2021</t>
+          <t>A 7329-2025</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>44271</v>
+        <v>45703.32144675926</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18676,7 +18661,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>7</v>
+        <v>1.3</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18713,14 +18698,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 57902-2022</t>
+          <t>A 7680-2025</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>44900.35104166667</v>
+        <v>45706.36583333334</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18733,7 +18718,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18770,14 +18755,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 50945-2023</t>
+          <t>A 7734-2022</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45210</v>
+        <v>44608</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18789,13 +18774,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G317" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -18832,14 +18812,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 19391-2024</t>
+          <t>A 20806-2023</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45429.37967592593</v>
+        <v>45058</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18852,7 +18832,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -18889,14 +18869,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 19394-2024</t>
+          <t>A 54097-2024</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45429.38112268518</v>
+        <v>45616.51472222222</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18909,7 +18889,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -18946,14 +18926,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 58049-2023</t>
+          <t>A 59225-2023</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45247</v>
+        <v>45253</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18966,7 +18946,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19003,14 +18983,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 11797-2024</t>
+          <t>A 7529-2026</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45375.38054398148</v>
+        <v>46059.61733796296</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19023,7 +19003,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19060,14 +19040,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 54991-2024</t>
+          <t>A 7070-2026</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45620.85204861111</v>
+        <v>46058.31163194445</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19080,7 +19060,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19117,14 +19097,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 54097-2024</t>
+          <t>A 9863-2024</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45616.51472222222</v>
+        <v>45363</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19137,7 +19117,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19174,14 +19154,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 4065-2023</t>
+          <t>A 5523-2023</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>44952</v>
+        <v>44960</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19194,7 +19174,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19231,14 +19211,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 44431-2023</t>
+          <t>A 11793-2024</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45189.35152777778</v>
+        <v>45375.30324074074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19251,7 +19231,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19288,14 +19268,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 52016-2021</t>
+          <t>A 7533-2026</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>44463</v>
+        <v>46059.62197916667</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19308,7 +19288,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19345,14 +19325,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 60191-2022</t>
+          <t>A 7535-2026</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>44910</v>
+        <v>46059.62313657408</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19365,7 +19345,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19402,14 +19382,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 55240-2023</t>
+          <t>A 60380-2022</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45237.63732638889</v>
+        <v>44910.69658564815</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19422,7 +19402,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19459,14 +19439,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 616-2025</t>
+          <t>A 8983-2024</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45664.60969907408</v>
+        <v>45356</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19479,7 +19459,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19516,14 +19496,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 48718-2023</t>
+          <t>A 50945-2023</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45208</v>
+        <v>45210</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19535,8 +19515,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G330" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19573,14 +19558,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 16590-2025</t>
+          <t>A 22515-2022</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45752.89317129629</v>
+        <v>44713.68042824074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19593,7 +19578,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19630,14 +19615,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 24611-2023</t>
+          <t>A 22517-2022</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45084.33306712963</v>
+        <v>44713.68208333333</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19650,7 +19635,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -19687,14 +19672,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 7047-2023</t>
+          <t>A 46108-2021</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>44968</v>
+        <v>44442.36792824074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19707,7 +19692,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -19744,14 +19729,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 59440-2023</t>
+          <t>A 6525-2025</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45254</v>
+        <v>45699.66690972223</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19764,7 +19749,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>15</v>
+        <v>1.9</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -19801,14 +19786,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 63073-2023</t>
+          <t>A 39000-2023</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>45273.00841435185</v>
+        <v>45163.67079861111</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19821,7 +19806,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -19858,14 +19843,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 14787-2024</t>
+          <t>A 55240-2023</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>45397.7650462963</v>
+        <v>45237.63732638889</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19915,14 +19900,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 14789-2024</t>
+          <t>A 50053-2024</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>45397.81939814815</v>
+        <v>45600.33508101852</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19935,7 +19920,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -19972,14 +19957,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 26362-2024</t>
+          <t>A 58074-2022</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>45469.38258101852</v>
+        <v>44900.61518518518</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19992,7 +19977,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20029,14 +20014,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 7732-2023</t>
+          <t>A 11797-2024</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>44973</v>
+        <v>45375.38054398148</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20048,13 +20033,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F339" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G339" t="n">
-        <v>9.300000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -20091,14 +20071,14 @@
     <row r="340" ht="15" customHeight="1">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 43384-2023</t>
+          <t>A 53213-2024</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>45183.85680555556</v>
+        <v>45612.65795138889</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20111,7 +20091,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -20148,14 +20128,14 @@
     <row r="341" ht="15" customHeight="1">
       <c r="A341" t="inlineStr">
         <is>
-          <t>A 44669-2023</t>
+          <t>A 46747-2023</t>
         </is>
       </c>
       <c r="B341" s="1" t="n">
-        <v>45189</v>
+        <v>45198</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20167,8 +20147,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G341" t="n">
-        <v>0.7</v>
+        <v>6.6</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -20205,14 +20190,14 @@
     <row r="342" ht="15" customHeight="1">
       <c r="A342" t="inlineStr">
         <is>
-          <t>A 2995-2024</t>
+          <t>A 49455-2023</t>
         </is>
       </c>
       <c r="B342" s="1" t="n">
-        <v>45315</v>
+        <v>45211.50127314815</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20225,7 +20210,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -20262,14 +20247,14 @@
     <row r="343" ht="15" customHeight="1">
       <c r="A343" t="inlineStr">
         <is>
-          <t>A 4845-2024</t>
+          <t>A 34133-2022</t>
         </is>
       </c>
       <c r="B343" s="1" t="n">
-        <v>45329.35953703704</v>
+        <v>44791.52582175926</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20282,7 +20267,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -20319,14 +20304,14 @@
     <row r="344" ht="15" customHeight="1">
       <c r="A344" t="inlineStr">
         <is>
-          <t>A 44744-2023</t>
+          <t>A 44668-2023</t>
         </is>
       </c>
       <c r="B344" s="1" t="n">
-        <v>45190.39100694445</v>
+        <v>45189.72548611111</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20339,7 +20324,7 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -20376,14 +20361,14 @@
     <row r="345" ht="15" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
-          <t>A 21535-2025</t>
+          <t>A 47583-2024</t>
         </is>
       </c>
       <c r="B345" s="1" t="n">
-        <v>45782.65741898148</v>
+        <v>45587.77702546296</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20395,8 +20380,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G345" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -20433,14 +20423,14 @@
     <row r="346" ht="15" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
-          <t>A 23950-2025</t>
+          <t>A 49357-2024</t>
         </is>
       </c>
       <c r="B346" s="1" t="n">
-        <v>45796.35803240741</v>
+        <v>45595.61976851852</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20453,7 +20443,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -20490,14 +20480,14 @@
     <row r="347" ht="15" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
-          <t>A 45309-2024</t>
+          <t>A 61904-2022</t>
         </is>
       </c>
       <c r="B347" s="1" t="n">
-        <v>45576.43064814815</v>
+        <v>44917.73387731481</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20509,8 +20499,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G347" t="n">
-        <v>1.8</v>
+        <v>4.3</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -20547,14 +20542,14 @@
     <row r="348" ht="15" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
-          <t>A 25324-2025</t>
+          <t>A 61907-2022</t>
         </is>
       </c>
       <c r="B348" s="1" t="n">
-        <v>45800</v>
+        <v>44917.73603009259</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20566,8 +20561,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G348" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -20604,14 +20604,14 @@
     <row r="349" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
-          <t>A 25326-2025</t>
+          <t>A 4065-2023</t>
         </is>
       </c>
       <c r="B349" s="1" t="n">
-        <v>45800</v>
+        <v>44952</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -20661,14 +20661,14 @@
     <row r="350" ht="15" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
-          <t>A 25906-2025</t>
+          <t>A 7962-2024</t>
         </is>
       </c>
       <c r="B350" s="1" t="n">
-        <v>45804.55729166666</v>
+        <v>45350.57357638889</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -20718,14 +20718,14 @@
     <row r="351" ht="15" customHeight="1">
       <c r="A351" t="inlineStr">
         <is>
-          <t>A 25909-2025</t>
+          <t>A 65946-2021</t>
         </is>
       </c>
       <c r="B351" s="1" t="n">
-        <v>45804.55820601852</v>
+        <v>44517</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -20775,14 +20775,14 @@
     <row r="352" ht="15" customHeight="1">
       <c r="A352" t="inlineStr">
         <is>
-          <t>A 5448-2025</t>
+          <t>A 48718-2023</t>
         </is>
       </c>
       <c r="B352" s="1" t="n">
-        <v>45692.88263888889</v>
+        <v>45208</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -20832,14 +20832,14 @@
     <row r="353" ht="15" customHeight="1">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A 25911-2025</t>
+          <t>A 20456-2025</t>
         </is>
       </c>
       <c r="B353" s="1" t="n">
-        <v>45804.55912037037</v>
+        <v>45775.51363425926</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -20889,14 +20889,14 @@
     <row r="354" ht="15" customHeight="1">
       <c r="A354" t="inlineStr">
         <is>
-          <t>A 59325-2023</t>
+          <t>A 43384-2023</t>
         </is>
       </c>
       <c r="B354" s="1" t="n">
-        <v>45253</v>
+        <v>45183.85680555556</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -20946,14 +20946,14 @@
     <row r="355" ht="15" customHeight="1">
       <c r="A355" t="inlineStr">
         <is>
-          <t>A 54586-2023</t>
+          <t>A 616-2025</t>
         </is>
       </c>
       <c r="B355" s="1" t="n">
-        <v>45233.77412037037</v>
+        <v>45664.60969907408</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>3.9</v>
+        <v>10</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -21003,14 +21003,14 @@
     <row r="356" ht="15" customHeight="1">
       <c r="A356" t="inlineStr">
         <is>
-          <t>A 27249-2025</t>
+          <t>A 17527-2025</t>
         </is>
       </c>
       <c r="B356" s="1" t="n">
-        <v>45812.46844907408</v>
+        <v>45757.58712962963</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21060,14 +21060,14 @@
     <row r="357" ht="15" customHeight="1">
       <c r="A357" t="inlineStr">
         <is>
-          <t>A 27112-2025</t>
+          <t>A 50160-2022</t>
         </is>
       </c>
       <c r="B357" s="1" t="n">
-        <v>45811.73366898148</v>
+        <v>44865.58923611111</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -21117,14 +21117,14 @@
     <row r="358" ht="15" customHeight="1">
       <c r="A358" t="inlineStr">
         <is>
-          <t>A 26964-2025</t>
+          <t>A 39475-2023</t>
         </is>
       </c>
       <c r="B358" s="1" t="n">
-        <v>45811.46918981482</v>
+        <v>45166</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -21174,14 +21174,14 @@
     <row r="359" ht="15" customHeight="1">
       <c r="A359" t="inlineStr">
         <is>
-          <t>A 27227-2025</t>
+          <t>A 14655-2022</t>
         </is>
       </c>
       <c r="B359" s="1" t="n">
-        <v>45812.43118055556</v>
+        <v>44655</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -21231,14 +21231,14 @@
     <row r="360" ht="15" customHeight="1">
       <c r="A360" t="inlineStr">
         <is>
-          <t>A 27109-2025</t>
+          <t>A 54587-2023</t>
         </is>
       </c>
       <c r="B360" s="1" t="n">
-        <v>45811.73126157407</v>
+        <v>45233</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -21288,14 +21288,14 @@
     <row r="361" ht="15" customHeight="1">
       <c r="A361" t="inlineStr">
         <is>
-          <t>A 27110-2025</t>
+          <t>A 16284-2025</t>
         </is>
       </c>
       <c r="B361" s="1" t="n">
-        <v>45811.73269675926</v>
+        <v>45751.29762731482</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -21345,14 +21345,14 @@
     <row r="362" ht="15" customHeight="1">
       <c r="A362" t="inlineStr">
         <is>
-          <t>A 27585-2025</t>
+          <t>A 2345-2023</t>
         </is>
       </c>
       <c r="B362" s="1" t="n">
-        <v>45813.50371527778</v>
+        <v>44942</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21365,7 +21365,7 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -21402,14 +21402,14 @@
     <row r="363" ht="15" customHeight="1">
       <c r="A363" t="inlineStr">
         <is>
-          <t>A 54185-2024</t>
+          <t>A 3619-2023</t>
         </is>
       </c>
       <c r="B363" s="1" t="n">
-        <v>45616.64060185185</v>
+        <v>44950.63637731481</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         </is>
       </c>
       <c r="G363" t="n">
-        <v>5.1</v>
+        <v>2.1</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -21459,14 +21459,14 @@
     <row r="364" ht="15" customHeight="1">
       <c r="A364" t="inlineStr">
         <is>
-          <t>A 27141-2024</t>
+          <t>A 44744-2023</t>
         </is>
       </c>
       <c r="B364" s="1" t="n">
-        <v>45471.55196759259</v>
+        <v>45190.39100694445</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21516,14 +21516,14 @@
     <row r="365" ht="15" customHeight="1">
       <c r="A365" t="inlineStr">
         <is>
-          <t>A 20275-2025</t>
+          <t>A 18068-2025</t>
         </is>
       </c>
       <c r="B365" s="1" t="n">
-        <v>45774.32253472223</v>
+        <v>45761.49069444444</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21536,7 +21536,7 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -21573,14 +21573,14 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>A 28049-2025</t>
+          <t>A 63073-2023</t>
         </is>
       </c>
       <c r="B366" s="1" t="n">
-        <v>45817.65653935185</v>
+        <v>45273.00841435185</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21593,7 +21593,7 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 13991-2023</t>
+          <t>A 11214-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45008</v>
+        <v>44992</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -615,38 +615,38 @@
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>Borsttåg</t>
+          <t>Stare</t>
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 13991-2023 artfynd.xlsx", "A 13991-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 11214-2023 artfynd.xlsx", "A 11214-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 13991-2023 karta.png", "A 13991-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 11214-2023 karta.png", "A 11214-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 13991-2023 FSC-klagomål.docx", "A 13991-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 11214-2023 FSC-klagomål.docx", "A 11214-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 13991-2023 FSC-klagomål mail.docx", "A 13991-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 11214-2023 FSC-klagomål mail.docx", "A 11214-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 13991-2023 tillsynsbegäran.docx", "A 13991-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 11214-2023 tillsynsbegäran.docx", "A 11214-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 13991-2023 tillsynsbegäran mail.docx", "A 13991-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 11214-2023 tillsynsbegäran mail.docx", "A 11214-2023")</f>
         <v/>
       </c>
     </row>
@@ -660,7 +660,7 @@
         <v>45203.28686342593</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -738,14 +738,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 11214-2023</t>
+          <t>A 2412-2026</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44992</v>
+        <v>46036.73480324074</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>4.4</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -785,52 +785,52 @@
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>Stare</t>
+          <t>Svinrot</t>
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 11214-2023 artfynd.xlsx", "A 11214-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 2412-2026 artfynd.xlsx", "A 2412-2026")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 11214-2023 karta.png", "A 11214-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 2412-2026 karta.png", "A 2412-2026")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 11214-2023 FSC-klagomål.docx", "A 11214-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 2412-2026 FSC-klagomål.docx", "A 2412-2026")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 11214-2023 FSC-klagomål mail.docx", "A 11214-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 2412-2026 FSC-klagomål mail.docx", "A 2412-2026")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 11214-2023 tillsynsbegäran.docx", "A 11214-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 2412-2026 tillsynsbegäran.docx", "A 2412-2026")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 11214-2023 tillsynsbegäran mail.docx", "A 11214-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 2412-2026 tillsynsbegäran mail.docx", "A 2412-2026")</f>
         <v/>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 2412-2026</t>
+          <t>A 13991-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>46036.73480324074</v>
+        <v>45008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.4</v>
+        <v>0.2</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -877,31 +877,31 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Svinrot</t>
+          <t>Borsttåg</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 2412-2026 artfynd.xlsx", "A 2412-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 13991-2023 artfynd.xlsx", "A 13991-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 2412-2026 karta.png", "A 2412-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 13991-2023 karta.png", "A 13991-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 2412-2026 FSC-klagomål.docx", "A 2412-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 13991-2023 FSC-klagomål.docx", "A 13991-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 2412-2026 FSC-klagomål mail.docx", "A 2412-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 13991-2023 FSC-klagomål mail.docx", "A 13991-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 2412-2026 tillsynsbegäran.docx", "A 2412-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 13991-2023 tillsynsbegäran.docx", "A 13991-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 2412-2026 tillsynsbegäran mail.docx", "A 2412-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 13991-2023 tillsynsbegäran mail.docx", "A 13991-2023")</f>
         <v/>
       </c>
     </row>
@@ -915,7 +915,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44249.74386574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44271.61297453703</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44496</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44511</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>44314</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>44316.39745370371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1369,14 +1369,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 627-2022</t>
+          <t>A 46432-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44568.35050925926</v>
+        <v>44445.32841435185</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1426,14 +1426,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 628-2022</t>
+          <t>A 627-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44568.35122685185</v>
+        <v>44568.35050925926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1483,14 +1483,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 46432-2021</t>
+          <t>A 628-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44445.32841435185</v>
+        <v>44568.35122685185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>8.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>44601</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44533</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44572</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44389.36113425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44256</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1949,14 +1949,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 17326-2021</t>
+          <t>A 17201-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44298.64422453703</v>
+        <v>44677</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2006,14 +2006,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 17201-2022</t>
+          <t>A 39499-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44677</v>
+        <v>44818</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2063,14 +2063,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 64389-2021</t>
+          <t>A 26169-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44511</v>
+        <v>44347</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2120,14 +2120,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 39499-2022</t>
+          <t>A 799-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44818</v>
+        <v>44571</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>8.300000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2177,14 +2177,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 26169-2021</t>
+          <t>A 12903-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44347</v>
+        <v>44271.47305555556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2234,14 +2234,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 799-2022</t>
+          <t>A 62049-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44571</v>
+        <v>44501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2291,14 +2291,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 37848-2022</t>
+          <t>A 49719-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44811.28633101852</v>
+        <v>44455.51653935185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2348,14 +2348,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 9470-2022</t>
+          <t>A 180-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44616</v>
+        <v>44564</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,8 +2367,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>21.5</v>
+        <v>7.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2405,14 +2410,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 12903-2021</t>
+          <t>A 34531-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44271.47305555556</v>
+        <v>44382.40559027778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2425,7 +2430,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2462,14 +2467,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 8028-2021</t>
+          <t>A 63142-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44243</v>
+        <v>44505</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2482,7 +2487,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2519,14 +2524,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 62049-2021</t>
+          <t>A 27615-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44501</v>
+        <v>44743.30945601852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2539,7 +2544,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2576,14 +2581,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 27615-2022</t>
+          <t>A 7531-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44743.30945601852</v>
+        <v>44607</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2596,7 +2601,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2633,14 +2638,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 17393-2021</t>
+          <t>A 2597-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44299</v>
+        <v>44580</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2653,7 +2658,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2690,14 +2695,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 62124-2021</t>
+          <t>A 47024-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44501</v>
+        <v>44446.59780092593</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2710,7 +2715,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2747,14 +2752,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 10118-2022</t>
+          <t>A 17326-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44621.91310185185</v>
+        <v>44298.64422453703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2767,7 +2772,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2804,14 +2809,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 49719-2021</t>
+          <t>A 64389-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44455.51653935185</v>
+        <v>44511</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2824,7 +2829,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2861,14 +2866,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 44001-2021</t>
+          <t>A 37848-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44434.48554398148</v>
+        <v>44811.28633101852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2881,7 +2886,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2918,14 +2923,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 7531-2022</t>
+          <t>A 9470-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44607</v>
+        <v>44616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2938,7 +2943,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.6</v>
+        <v>21.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2975,14 +2980,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 52359-2021</t>
+          <t>A 8028-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44465.35538194444</v>
+        <v>44243</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2995,7 +3000,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3032,14 +3037,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 53650-2021</t>
+          <t>A 10118-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44469.43070601852</v>
+        <v>44621.91310185185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3052,7 +3057,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3089,14 +3094,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 15117-2021</t>
+          <t>A 44001-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44282</v>
+        <v>44434.48554398148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3109,7 +3114,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3146,14 +3151,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 180-2022</t>
+          <t>A 52359-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44564</v>
+        <v>44465.35538194444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3165,13 +3170,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>7.6</v>
+        <v>0.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3208,14 +3208,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 34531-2021</t>
+          <t>A 53650-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44382.40559027778</v>
+        <v>44469.43070601852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3265,14 +3265,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 63142-2021</t>
+          <t>A 62124-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44505</v>
+        <v>44501</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3322,14 +3322,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 29025-2021</t>
+          <t>A 17393-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44358</v>
+        <v>44299</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3379,14 +3379,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 1367-2022</t>
+          <t>A 15117-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44573.34431712963</v>
+        <v>44282</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3436,14 +3436,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 13506-2022</t>
+          <t>A 29025-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44648.29912037037</v>
+        <v>44358</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3493,14 +3493,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 41497-2022</t>
+          <t>A 1367-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44826.95922453704</v>
+        <v>44573.34431712963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3550,14 +3550,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 21875-2024</t>
+          <t>A 41497-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45443.38331018519</v>
+        <v>44826.95922453704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3607,14 +3607,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 21932-2024</t>
+          <t>A 15548-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45443</v>
+        <v>44662.48648148148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3664,14 +3664,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 57860-2023</t>
+          <t>A 13506-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45247.44261574074</v>
+        <v>44648.29912037037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3721,14 +3721,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 15548-2022</t>
+          <t>A 65303-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44662.48648148148</v>
+        <v>44515</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3778,14 +3778,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 50160-2022</t>
+          <t>A 30061-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44865.58923611111</v>
+        <v>44363</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3835,14 +3835,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 65303-2021</t>
+          <t>A 17951-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44515</v>
+        <v>45040</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3892,14 +3892,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 46944-2021</t>
+          <t>A 2995-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44446.51780092593</v>
+        <v>45315</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3949,14 +3949,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 45978-2022</t>
+          <t>A 59619-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44846.69284722222</v>
+        <v>44907.88240740741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4006,14 +4006,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 16587-2025</t>
+          <t>A 9189-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45752.87754629629</v>
+        <v>44615.89261574074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4063,14 +4063,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 2345-2023</t>
+          <t>A 64234-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44942</v>
+        <v>44510.64112268519</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4120,14 +4120,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 56788-2024</t>
+          <t>A 26362-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45628.45511574074</v>
+        <v>45469.38258101852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>6.3</v>
+        <v>3.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4177,14 +4177,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 2597-2022</t>
+          <t>A 16282-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44580</v>
+        <v>45751.29126157407</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4196,8 +4196,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4234,14 +4239,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 34133-2022</t>
+          <t>A 9725-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44791.52582175926</v>
+        <v>44984</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4254,7 +4259,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4291,14 +4296,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 62097-2022</t>
+          <t>A 61969-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44920</v>
+        <v>44914</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4311,7 +4316,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.5</v>
+        <v>5.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4348,14 +4353,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 39000-2023</t>
+          <t>A 4550-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45163.67079861111</v>
+        <v>45327.71622685185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4368,7 +4373,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4405,14 +4410,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 9721-2023</t>
+          <t>A 4845-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44984</v>
+        <v>45329.35953703704</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4425,7 +4430,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4462,14 +4467,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 26526-2022</t>
+          <t>A 30038-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44739.44171296297</v>
+        <v>44363.45402777778</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4482,7 +4487,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4519,14 +4524,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 20806-2023</t>
+          <t>A 3057-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45058</v>
+        <v>44946</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4539,7 +4544,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4576,14 +4581,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 30038-2021</t>
+          <t>A 9090-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44363.45402777778</v>
+        <v>45357.90923611111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4633,14 +4638,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 16284-2025</t>
+          <t>A 54991-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45751.29762731482</v>
+        <v>45620.85204861111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4653,7 +4658,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4690,14 +4695,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 8195-2024</t>
+          <t>A 55972-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45351.66591435186</v>
+        <v>45233</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4710,7 +4715,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4747,14 +4752,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 9863-2024</t>
+          <t>A 9898-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
         <v>45363</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4767,7 +4772,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4804,14 +4809,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 9090-2024</t>
+          <t>A 9802-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45357.90923611111</v>
+        <v>44252.70211805555</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4824,7 +4829,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4861,14 +4866,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 29092-2023</t>
+          <t>A 24064-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45105.34570601852</v>
+        <v>44725.32741898148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4880,13 +4885,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4923,14 +4923,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 11793-2024</t>
+          <t>A 23950-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45375.30324074074</v>
+        <v>45796.35803240741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4980,14 +4980,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 47024-2021</t>
+          <t>A 12342-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44446.59780092593</v>
+        <v>44267.43596064814</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5037,14 +5037,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 57921-2022</t>
+          <t>A 7529-2026</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44900</v>
+        <v>46059.61733796296</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5094,14 +5094,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 5152-2024</t>
+          <t>A 7070-2026</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45330.49232638889</v>
+        <v>46058.31163194445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5151,14 +5151,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 20454-2025</t>
+          <t>A 60191-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45775.50877314815</v>
+        <v>44910</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5208,14 +5208,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 20456-2025</t>
+          <t>A 52016-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45775.51363425926</v>
+        <v>44463</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 12990-2024</t>
+          <t>A 7533-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45385.55565972222</v>
+        <v>46059.62197916667</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.3</v>
+        <v>4.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5322,14 +5322,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 64234-2021</t>
+          <t>A 7535-2026</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44510.64112268519</v>
+        <v>46059.62313657408</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5379,14 +5379,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 8983-2024</t>
+          <t>A 45309-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45356</v>
+        <v>45576.43064814815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>45374.35063657408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45375</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5550,14 +5550,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 58074-2022</t>
+          <t>A 25324-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44900.61518518518</v>
+        <v>45800</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5607,14 +5607,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 20169-2025</t>
+          <t>A 5448-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45772.57777777778</v>
+        <v>45692.88263888889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5664,14 +5664,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 17195-2025</t>
+          <t>A 8195-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45756.40695601852</v>
+        <v>45351.66591435186</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5721,14 +5721,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 64386-2021</t>
+          <t>A 25326-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44511</v>
+        <v>45800</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5778,14 +5778,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 59225-2023</t>
+          <t>A 25906-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45253</v>
+        <v>45804.55729166666</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5835,14 +5835,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 30280-2023</t>
+          <t>A 25909-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45110.88763888889</v>
+        <v>45804.55820601852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5892,14 +5892,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 9086-2024</t>
+          <t>A 58049-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45357.90260416667</v>
+        <v>45247</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.8</v>
+        <v>2.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5949,14 +5949,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 9089-2024</t>
+          <t>A 25911-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45357.90612268518</v>
+        <v>45804.55912037037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6006,14 +6006,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 15236-2024</t>
+          <t>A 8372-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45400</v>
+        <v>46064.71388888889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6063,14 +6063,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 21232-2023</t>
+          <t>A 59325-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45062.54716435185</v>
+        <v>45253</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6120,14 +6120,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 6525-2025</t>
+          <t>A 27109-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45699.66690972223</v>
+        <v>45811.73126157407</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6177,14 +6177,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 22202-2024</t>
+          <t>A 27110-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45446.37318287037</v>
+        <v>45811.73269675926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6234,14 +6234,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 12342-2021</t>
+          <t>A 26964-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44267.43596064814</v>
+        <v>45811.46918981482</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6291,14 +6291,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 60380-2022</t>
+          <t>A 9633-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44910.69658564815</v>
+        <v>45362.3203125</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6348,14 +6348,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 7962-2024</t>
+          <t>A 27112-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45350.57357638889</v>
+        <v>45811.73366898148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6405,14 +6405,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 4548-2024</t>
+          <t>A 54586-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45327.7147800926</v>
+        <v>45233.77412037037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6462,14 +6462,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 15421-2024</t>
+          <t>A 39375-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45401.36530092593</v>
+        <v>45889.58944444444</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6519,14 +6519,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 16281-2025</t>
+          <t>A 27585-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45751.29027777778</v>
+        <v>45813.50371527778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6538,13 +6538,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6581,14 +6576,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 16283-2025</t>
+          <t>A 27227-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45751.29266203703</v>
+        <v>45812.43118055556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6600,13 +6595,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6643,14 +6633,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 62535-2023</t>
+          <t>A 27249-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45268</v>
+        <v>45812.46844907408</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6663,7 +6653,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6700,14 +6690,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 65946-2021</t>
+          <t>A 14786-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44517</v>
+        <v>45397.76206018519</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6720,7 +6710,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6757,14 +6747,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 38046-2022</t>
+          <t>A 21875-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44811.64700231481</v>
+        <v>45443.38331018519</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6777,7 +6767,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6814,14 +6804,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 59684-2022</t>
+          <t>A 28052-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44908</v>
+        <v>45817.65847222223</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6833,13 +6823,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6876,14 +6861,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 33939-2023</t>
+          <t>A 28049-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45134.55792824074</v>
+        <v>45817.65653935185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6896,7 +6881,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6933,14 +6918,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 49751-2023</t>
+          <t>A 20275-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45212.52082175926</v>
+        <v>45774.32253472223</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6953,7 +6938,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>11.5</v>
+        <v>3.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6990,14 +6975,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 25911-2025</t>
+          <t>A 54185-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45804.55912037037</v>
+        <v>45616.64060185185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7010,7 +6995,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>5.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7047,14 +7032,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 9642-2025</t>
+          <t>A 28152-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45715.84020833333</v>
+        <v>45818.35734953704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7067,7 +7052,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7104,14 +7089,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 3756-2023</t>
+          <t>A 39419-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44951.47405092593</v>
+        <v>45889.66032407407</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7124,7 +7109,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.2</v>
+        <v>1.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7161,14 +7146,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 59325-2023</t>
+          <t>A 39372-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45253</v>
+        <v>45889.58609953704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7181,7 +7166,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7218,14 +7203,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 17951-2023</t>
+          <t>A 39416-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45040</v>
+        <v>45889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7238,7 +7223,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7275,14 +7260,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 17972-2023</t>
+          <t>A 27141-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45040</v>
+        <v>45471.55196759259</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7295,7 +7280,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7332,14 +7317,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 3619-2023</t>
+          <t>A 46944-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44950.63637731481</v>
+        <v>44446.51780092593</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7352,7 +7337,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7389,14 +7374,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 54586-2023</t>
+          <t>A 37424-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45233.77412037037</v>
+        <v>44398.48474537037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7409,7 +7394,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7446,14 +7431,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 9802-2021</t>
+          <t>A 15236-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44252.70211805555</v>
+        <v>45400</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7466,7 +7451,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7503,14 +7488,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 66386-2021</t>
+          <t>A 39929-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44518</v>
+        <v>45891.69728009259</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7523,7 +7508,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7560,14 +7545,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 61904-2022</t>
+          <t>A 13034-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44917.73387731481</v>
+        <v>45734.57408564815</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7579,13 +7564,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>4.3</v>
+        <v>0.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7622,14 +7602,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 61907-2022</t>
+          <t>A 30079-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44917.73603009259</v>
+        <v>45826.64440972222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7641,13 +7621,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7684,14 +7659,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 49455-2023</t>
+          <t>A 5144-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45211.50127314815</v>
+        <v>45330</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7704,7 +7679,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7741,14 +7716,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 27249-2025</t>
+          <t>A 10924-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45812.46844907408</v>
+        <v>45722.83402777778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7761,7 +7736,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7798,14 +7773,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 27112-2025</t>
+          <t>A 39843-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45811.73366898148</v>
+        <v>45891</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7818,7 +7793,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7855,14 +7830,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 26964-2025</t>
+          <t>A 30280-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45811.46918981482</v>
+        <v>45110.88763888889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7875,7 +7850,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7912,14 +7887,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 27227-2025</t>
+          <t>A 40239-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45812.43118055556</v>
+        <v>45894.84497685185</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7932,7 +7907,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7969,14 +7944,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 59381-2022</t>
+          <t>A 13122-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44905.46840277778</v>
+        <v>45734.80390046296</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7989,7 +7964,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8026,14 +8001,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 27109-2025</t>
+          <t>A 44431-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45811.73126157407</v>
+        <v>45189.35152777778</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8046,7 +8021,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8083,14 +8058,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 27110-2025</t>
+          <t>A 45978-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45811.73269675926</v>
+        <v>44846.69284722222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8103,7 +8078,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8140,14 +8115,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 4550-2024</t>
+          <t>A 54937-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45327.71622685185</v>
+        <v>44881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8197,14 +8172,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 27585-2025</t>
+          <t>A 40650-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45813.50371527778</v>
+        <v>45896.6321875</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8217,7 +8192,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8254,14 +8229,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 44668-2023</t>
+          <t>A 40955-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45189.72548611111</v>
+        <v>45897.67510416666</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8274,7 +8249,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8311,14 +8286,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 10586-2024</t>
+          <t>A 41593-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45366.69975694444</v>
+        <v>45901.63788194444</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8331,7 +8306,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8368,14 +8343,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 42330-2023</t>
+          <t>A 41590-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45180</v>
+        <v>45901.63255787037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8388,7 +8363,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8425,14 +8400,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 24064-2022</t>
+          <t>A 41625-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44725.32741898148</v>
+        <v>45901.7124537037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8445,7 +8420,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8482,14 +8457,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 1262-2023</t>
+          <t>A 9086-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44936.39234953704</v>
+        <v>45357.90260416667</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8502,7 +8477,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8539,14 +8514,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 54185-2024</t>
+          <t>A 9089-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45616.64060185185</v>
+        <v>45357.90612268518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8559,7 +8534,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8596,14 +8571,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 27141-2024</t>
+          <t>A 20022-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45471.55196759259</v>
+        <v>45772.34013888889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8616,7 +8591,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8653,14 +8628,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 50958-2023</t>
+          <t>A 42359-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45210</v>
+        <v>45180.52940972222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8672,13 +8647,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8715,14 +8685,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 20275-2025</t>
+          <t>A 62097-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45774.32253472223</v>
+        <v>44920</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8735,7 +8705,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8772,14 +8742,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 28049-2025</t>
+          <t>A 44421-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45817.65653935185</v>
+        <v>45573.86858796296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8792,7 +8762,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8829,14 +8799,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 28152-2025</t>
+          <t>A 22202-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45818.35734953704</v>
+        <v>45446.37318287037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8849,7 +8819,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8886,14 +8856,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 28052-2025</t>
+          <t>A 35055-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45817.65847222223</v>
+        <v>45852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8906,7 +8876,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8943,14 +8913,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 50053-2024</t>
+          <t>A 9749-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45600.33508101852</v>
+        <v>44984</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8963,7 +8933,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9000,14 +8970,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 30674-2023</t>
+          <t>A 41724-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45112</v>
+        <v>45902.4534375</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9020,7 +8990,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9057,14 +9027,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 60814-2024</t>
+          <t>A 42552-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45644.61975694444</v>
+        <v>45565.61814814815</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9077,7 +9047,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9114,14 +9084,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 22515-2022</t>
+          <t>A 35621-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44713.68042824074</v>
+        <v>45859.4146875</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9134,7 +9104,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9171,14 +9141,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 22517-2022</t>
+          <t>A 56637-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44713.68208333333</v>
+        <v>45625.69395833334</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9191,7 +9161,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9228,14 +9198,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 30079-2025</t>
+          <t>A 26526-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45826.64440972222</v>
+        <v>44739.44171296297</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9248,7 +9218,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9285,14 +9255,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 42552-2024</t>
+          <t>A 42646-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45565.61814814815</v>
+        <v>45906.48516203704</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9305,7 +9275,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9342,14 +9312,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 13034-2025</t>
+          <t>A 59440-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45734.57408564815</v>
+        <v>45254</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9362,7 +9332,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.4</v>
+        <v>15</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9399,14 +9369,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 7734-2022</t>
+          <t>A 36637-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44608</v>
+        <v>45870.73012731481</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9419,7 +9389,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9456,14 +9426,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 10924-2025</t>
+          <t>A 36638-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45722.83402777778</v>
+        <v>45870.73099537037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9476,7 +9446,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9513,14 +9483,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 5523-2023</t>
+          <t>A 36639-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44960</v>
+        <v>45870.73174768518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9533,7 +9503,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9570,14 +9540,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 42359-2023</t>
+          <t>A 36641-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45180.52940972222</v>
+        <v>45871.43119212963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9590,7 +9560,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9627,14 +9597,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 9749-2023</t>
+          <t>A 13397-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44984</v>
+        <v>45735.71293981482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9647,7 +9617,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.3</v>
+        <v>7.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9684,14 +9654,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 9898-2024</t>
+          <t>A 36838-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45363</v>
+        <v>45874.37011574074</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9704,7 +9674,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9741,14 +9711,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 57167-2022</t>
+          <t>A 43214-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44895.60074074074</v>
+        <v>45910</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9760,8 +9730,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>0.6</v>
+        <v>13.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9798,14 +9773,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 13122-2025</t>
+          <t>A 24785-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45734.80390046296</v>
+        <v>45084.67194444445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9818,7 +9793,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9855,14 +9830,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 49357-2024</t>
+          <t>A 43593-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45595.61976851852</v>
+        <v>45911.65733796296</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9875,7 +9850,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9912,14 +9887,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 20260-2021</t>
+          <t>A 42330-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44314</v>
+        <v>45180</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9931,13 +9906,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9974,14 +9944,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 52097-2024</t>
+          <t>A 43337-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45608.4153125</v>
+        <v>45910.73006944444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9994,7 +9964,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>10.9</v>
+        <v>1.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10031,14 +10001,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 61969-2022</t>
+          <t>A 43314-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44914</v>
+        <v>45910</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10050,8 +10020,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>5.7</v>
+        <v>2.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10088,14 +10063,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 62148-2022</t>
+          <t>A 36974-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44922.40197916667</v>
+        <v>45538.89228009259</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10108,7 +10083,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10145,14 +10120,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 47583-2024</t>
+          <t>A 21932-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45587.77702546296</v>
+        <v>45443</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10164,13 +10139,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10207,14 +10177,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 14655-2022</t>
+          <t>A 1262-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44655</v>
+        <v>44936.39234953704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10227,7 +10197,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10264,14 +10234,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 12918-2021</t>
+          <t>A 20807-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44271</v>
+        <v>45776.65706018519</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10283,8 +10253,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10321,14 +10296,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 8268-2025</t>
+          <t>A 19308-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45708.51210648148</v>
+        <v>45769.56891203704</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10340,8 +10315,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10378,14 +10358,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 16121-2024</t>
+          <t>A 7732-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45406.49583333333</v>
+        <v>44973</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10397,8 +10377,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>4.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10435,14 +10420,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 57902-2022</t>
+          <t>A 16121-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44900.35104166667</v>
+        <v>45406.49583333333</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10455,7 +10440,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10492,14 +10477,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 50945-2023</t>
+          <t>A 2917-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45210</v>
+        <v>44943</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10511,13 +10496,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10554,14 +10534,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 19391-2024</t>
+          <t>A 33939-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45429.37967592593</v>
+        <v>45134.55792824074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10574,7 +10554,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10611,14 +10591,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 19394-2024</t>
+          <t>A 19391-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45429.38112268518</v>
+        <v>45429.37967592593</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10668,14 +10648,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 58049-2023</t>
+          <t>A 19394-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45247</v>
+        <v>45429.38112268518</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10688,7 +10668,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10725,14 +10705,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 55972-2023</t>
+          <t>A 8895-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45233</v>
+        <v>44979</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10744,8 +10724,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10782,14 +10767,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 9189-2022</t>
+          <t>A 59381-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44615.89261574074</v>
+        <v>44905.46840277778</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10802,7 +10787,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10839,14 +10824,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 60589-2023</t>
+          <t>A 20169-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45260.28659722222</v>
+        <v>45772.57777777778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10859,7 +10844,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10896,14 +10881,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 11797-2024</t>
+          <t>A 45853-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45375.38054398148</v>
+        <v>45923.6297337963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10916,7 +10901,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10953,14 +10938,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 50307-2023</t>
+          <t>A 45293-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45209</v>
+        <v>45920.43634259259</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10973,7 +10958,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11010,14 +10995,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 44421-2024</t>
+          <t>A 45292-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45573.86858796296</v>
+        <v>45920.43488425926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11030,7 +11015,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11067,14 +11052,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 46747-2023</t>
+          <t>A 17199-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45198</v>
+        <v>45756.41421296296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11086,13 +11071,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>6.6</v>
+        <v>0.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11129,14 +11109,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 46736-2023</t>
+          <t>A 9721-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45198</v>
+        <v>44984</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11148,13 +11128,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11191,14 +11166,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 35621-2025</t>
+          <t>A 46234-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45859.4146875</v>
+        <v>45925.29591435185</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11211,7 +11186,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11248,14 +11223,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 1122-2025</t>
+          <t>A 46237-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45666.66532407407</v>
+        <v>45925.30956018518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11268,7 +11243,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.6</v>
+        <v>14.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11305,14 +11280,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 56637-2024</t>
+          <t>A 10586-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45625.69395833334</v>
+        <v>45366.69975694444</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11325,7 +11300,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11362,14 +11337,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 9725-2023</t>
+          <t>A 46233-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44984</v>
+        <v>45925.29270833333</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11382,7 +11357,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11419,14 +11394,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 36638-2025</t>
+          <t>A 29092-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45870.73099537037</v>
+        <v>45105.34570601852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11438,8 +11413,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11476,14 +11456,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 46732-2023</t>
+          <t>A 46823-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45198.59054398148</v>
+        <v>45926.79550925926</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11495,13 +11475,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11538,14 +11513,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 11484-2025</t>
+          <t>A 46833-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45726.69502314815</v>
+        <v>45927.68620370371</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11558,7 +11533,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11595,14 +11570,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 36639-2025</t>
+          <t>A 48595-2021</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45870.73174768518</v>
+        <v>44452.48140046297</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11615,7 +11590,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11652,14 +11627,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 36637-2025</t>
+          <t>A 47169-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45870.73012731481</v>
+        <v>45929.91121527777</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11709,14 +11684,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 30362-2024</t>
+          <t>A 24611-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45491.35975694445</v>
+        <v>45084.33306712963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11729,7 +11704,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11766,14 +11741,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 36838-2025</t>
+          <t>A 48094-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45874.37011574074</v>
+        <v>45933.33019675926</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11786,7 +11761,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11823,14 +11798,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 24785-2023</t>
+          <t>A 62148-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45084.67194444445</v>
+        <v>44922.40197916667</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11843,7 +11818,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11880,14 +11855,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 36641-2025</t>
+          <t>A 48100-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45871.43119212963</v>
+        <v>45933.33457175926</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11900,7 +11875,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11937,14 +11912,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 17201-2025</t>
+          <t>A 48082-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45756.42020833334</v>
+        <v>45932.77143518518</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11957,7 +11932,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11994,14 +11969,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 54937-2022</t>
+          <t>A 48099-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44881</v>
+        <v>45933.33207175926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12014,7 +11989,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12051,14 +12026,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 39475-2023</t>
+          <t>A 48080-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45166</v>
+        <v>45932.7685300926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12071,7 +12046,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>5.1</v>
+        <v>1.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12108,14 +12083,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 53213-2024</t>
+          <t>A 48081-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45612.65795138889</v>
+        <v>45932.77</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12128,7 +12103,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12165,14 +12140,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 37424-2021</t>
+          <t>A 48104-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44398.48474537037</v>
+        <v>45933.3422337963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12185,7 +12160,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12222,14 +12197,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 36974-2024</t>
+          <t>A 48452-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45538.89228009259</v>
+        <v>45935.79104166666</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12242,7 +12217,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12279,14 +12254,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 54991-2024</t>
+          <t>A 3756-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45620.85204861111</v>
+        <v>44951.47405092593</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12299,7 +12274,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12336,14 +12311,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 54097-2024</t>
+          <t>A 8268-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45616.51472222222</v>
+        <v>45708.51210648148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12356,7 +12331,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12393,14 +12368,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 20022-2025</t>
+          <t>A 11484-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45772.34013888889</v>
+        <v>45726.69502314815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12413,7 +12388,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12450,14 +12425,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 17527-2025</t>
+          <t>A 15421-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45757.58712962963</v>
+        <v>45401.36530092593</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12470,7 +12445,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12507,14 +12482,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 4065-2023</t>
+          <t>A 49431-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44952</v>
+        <v>45938.845</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12564,14 +12539,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 2917-2023</t>
+          <t>A 6003-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44943</v>
+        <v>44964.39972222222</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12583,8 +12558,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12621,14 +12601,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 44431-2023</t>
+          <t>A 57860-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45189.35152777778</v>
+        <v>45247.44261574074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12641,7 +12621,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12678,14 +12658,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 52016-2021</t>
+          <t>A 16912-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44463</v>
+        <v>45755.36498842593</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12698,7 +12678,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12735,14 +12715,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 5144-2024</t>
+          <t>A 9642-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45330</v>
+        <v>45715.84020833333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12755,7 +12735,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12792,14 +12772,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 9633-2024</t>
+          <t>A 48955-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45362.3203125</v>
+        <v>45937</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12812,7 +12792,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12849,14 +12829,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 19308-2025</t>
+          <t>A 16587-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45769.56891203704</v>
+        <v>45752.87754629629</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12868,13 +12848,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12911,14 +12886,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 59619-2022</t>
+          <t>A 5152-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44907.88240740741</v>
+        <v>45330.49232638889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12931,7 +12906,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12968,14 +12943,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 16280-2025</t>
+          <t>A 48760-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45751.28666666667</v>
+        <v>45936.77475694445</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12987,13 +12962,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13030,14 +13000,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 16912-2025</t>
+          <t>A 14787-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45755.36498842593</v>
+        <v>45397.7650462963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13050,7 +13020,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13087,14 +13057,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 46108-2021</t>
+          <t>A 14789-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44442.36792824074</v>
+        <v>45397.81939814815</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13107,7 +13077,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13144,14 +13114,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 19319-2025</t>
+          <t>A 49598-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45769.57847222222</v>
+        <v>45939.53748842593</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13164,7 +13134,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13201,14 +13171,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 37653-2023</t>
+          <t>A 49855-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45159.51601851852</v>
+        <v>45940.50458333334</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13221,7 +13191,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13258,14 +13228,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 13397-2025</t>
+          <t>A 49751-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45735.71293981482</v>
+        <v>45212.52082175926</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13278,7 +13248,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>7.1</v>
+        <v>11.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13315,14 +13285,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 17199-2025</t>
+          <t>A 60814-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45756.41421296296</v>
+        <v>45644.61975694444</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13335,7 +13305,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13372,14 +13342,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 18068-2025</t>
+          <t>A 52097-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45761.49069444444</v>
+        <v>45608.4153125</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13392,7 +13362,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.7</v>
+        <v>10.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13429,14 +13399,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 20475-2023</t>
+          <t>A 51167-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45057</v>
+        <v>45947.59884259259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13449,7 +13419,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13486,14 +13456,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 1005-2024</t>
+          <t>A 50685-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45301</v>
+        <v>45945.82289351852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13506,7 +13476,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13543,14 +13513,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 3057-2023</t>
+          <t>A 59684-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44946</v>
+        <v>44908</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13562,8 +13532,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13600,14 +13575,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 20172-2025</t>
+          <t>A 30674-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45772.57979166666</v>
+        <v>45112</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13620,7 +13595,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13657,14 +13632,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 16282-2025</t>
+          <t>A 12918-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45751.29126157407</v>
+        <v>44271</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13676,13 +13651,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13719,14 +13689,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 54587-2023</t>
+          <t>A 51890-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45233</v>
+        <v>45952.41594907407</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13739,7 +13709,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13776,14 +13746,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 8456-2024</t>
+          <t>A 20172-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45354</v>
+        <v>45772.57979166666</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13796,7 +13766,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13833,14 +13803,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 10655-2025</t>
+          <t>A 57902-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45721.69958333333</v>
+        <v>44900.35104166667</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13853,7 +13823,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13890,14 +13860,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 6003-2023</t>
+          <t>A 17195-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44964.39972222222</v>
+        <v>45756.40695601852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13909,13 +13879,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13952,14 +13917,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 20807-2025</t>
+          <t>A 20260-2021</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45776.65706018519</v>
+        <v>44314</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13973,11 +13938,11 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14014,14 +13979,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 8895-2023</t>
+          <t>A 16169-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44979</v>
+        <v>45406.61987268519</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14033,13 +13998,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14076,14 +14036,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 16169-2024</t>
+          <t>A 8456-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45406.61987268519</v>
+        <v>45354</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14096,7 +14056,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14133,14 +14093,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 48595-2021</t>
+          <t>A 50958-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44452.48140046297</v>
+        <v>45210</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14152,8 +14112,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14190,14 +14155,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 60191-2022</t>
+          <t>A 17972-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44910</v>
+        <v>45040</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14210,7 +14175,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14247,14 +14212,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 30061-2021</t>
+          <t>A 51887-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44363</v>
+        <v>45952</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14267,7 +14232,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.6</v>
+        <v>10.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14304,14 +14269,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 14786-2024</t>
+          <t>A 7047-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45397.76206018519</v>
+        <v>44968</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14324,7 +14289,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14361,14 +14326,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 55240-2023</t>
+          <t>A 55189-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45237.63732638889</v>
+        <v>45968.54363425926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14381,7 +14346,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14418,14 +14383,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 616-2025</t>
+          <t>A 20454-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45664.60969907408</v>
+        <v>45775.50877314815</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14438,7 +14403,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>10</v>
+        <v>0.8</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14475,14 +14440,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 48718-2023</t>
+          <t>A 55188-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45208</v>
+        <v>45968.5422800926</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14495,7 +14460,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14532,14 +14497,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 39372-2025</t>
+          <t>A 55992-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45889.58609953704</v>
+        <v>45973.55912037037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14552,7 +14517,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14589,14 +14554,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 39375-2025</t>
+          <t>A 55706-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45889.58944444444</v>
+        <v>45972.47302083333</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14609,7 +14574,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14646,14 +14611,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 39419-2025</t>
+          <t>A 62535-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45889.66032407407</v>
+        <v>45268</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14666,7 +14631,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14703,14 +14668,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 16590-2025</t>
+          <t>A 55776-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45752.89317129629</v>
+        <v>45972</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14723,7 +14688,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14760,14 +14725,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 39416-2025</t>
+          <t>A 56381-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45889</v>
+        <v>45974.7060300926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14780,7 +14745,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14817,14 +14782,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 24611-2023</t>
+          <t>A 56379-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45084.33306712963</v>
+        <v>45974.70221064815</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14837,7 +14802,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14874,14 +14839,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 7047-2023</t>
+          <t>A 16280-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44968</v>
+        <v>45751.28666666667</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14893,8 +14858,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G249" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14931,14 +14901,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 59440-2023</t>
+          <t>A 10655-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45254</v>
+        <v>45721.69958333333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14951,7 +14921,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>15</v>
+        <v>2.1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14988,14 +14958,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 63073-2023</t>
+          <t>A 57567-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45273.00841435185</v>
+        <v>45980.73072916667</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15008,7 +14978,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15045,14 +15015,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 39929-2025</t>
+          <t>A 44669-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45891.69728009259</v>
+        <v>45189</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15065,7 +15035,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15102,14 +15072,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 39843-2025</t>
+          <t>A 57569-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45891</v>
+        <v>45980.73299768518</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15122,7 +15092,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15159,14 +15129,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 40239-2025</t>
+          <t>A 64386-2021</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45894.84497685185</v>
+        <v>44511</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15179,7 +15149,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15216,14 +15186,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 14787-2024</t>
+          <t>A 66386-2021</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45397.7650462963</v>
+        <v>44518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15236,7 +15206,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15273,14 +15243,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 14789-2024</t>
+          <t>A 58444-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45397.81939814815</v>
+        <v>45985.61791666667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15293,7 +15263,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15330,14 +15300,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 40650-2025</t>
+          <t>A 58398-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45896.6321875</v>
+        <v>45985.56231481482</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15350,7 +15320,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15387,14 +15357,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 40955-2025</t>
+          <t>A 58443-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45897.67510416666</v>
+        <v>45985.61674768518</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15407,7 +15377,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15444,14 +15414,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 41724-2025</t>
+          <t>A 17201-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45902.4534375</v>
+        <v>45756.42020833334</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15464,7 +15434,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15501,14 +15471,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 41590-2025</t>
+          <t>A 58866-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45901.63255787037</v>
+        <v>45987.44790509259</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15521,7 +15491,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15558,14 +15528,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 41625-2025</t>
+          <t>A 58833-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45901.7124537037</v>
+        <v>45987.35474537037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15578,7 +15548,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15615,14 +15585,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 26362-2024</t>
+          <t>A 1005-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45469.38258101852</v>
+        <v>45301</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15635,7 +15605,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15672,14 +15642,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 41593-2025</t>
+          <t>A 59309-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45901.63788194444</v>
+        <v>45989.27822916667</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15692,7 +15662,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15729,14 +15699,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 35055-2025</t>
+          <t>A 59156-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45852</v>
+        <v>45988.54133101852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15749,7 +15719,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.1</v>
+        <v>3.9</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15786,14 +15756,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 7732-2023</t>
+          <t>A 4548-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44973</v>
+        <v>45327.7147800926</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15805,13 +15775,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G265" t="n">
-        <v>9.300000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -15848,14 +15813,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 43384-2023</t>
+          <t>A 59508-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45183.85680555556</v>
+        <v>45989.64269675926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15867,8 +15832,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G266" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -15905,14 +15875,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 42646-2025</t>
+          <t>A 59317-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45906.48516203704</v>
+        <v>45989.32200231482</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15925,7 +15895,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -15962,14 +15932,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 44669-2023</t>
+          <t>A 946-2026</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45189</v>
+        <v>46030.53789351852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15982,7 +15952,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16019,14 +15989,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 43337-2025</t>
+          <t>A 22386-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45910.73006944444</v>
+        <v>45446.66300925926</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16039,7 +16009,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16076,14 +16046,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 43314-2025</t>
+          <t>A 59042-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45910</v>
+        <v>45988.37216435185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16095,13 +16065,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G270" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16138,14 +16103,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 43214-2025</t>
+          <t>A 1437-2026</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45910</v>
+        <v>46032.56134259259</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16157,13 +16122,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G271" t="n">
-        <v>13.8</v>
+        <v>1.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16200,14 +16160,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 43593-2025</t>
+          <t>A 1880-2026</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45911.65733796296</v>
+        <v>46035.47288194444</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16220,7 +16180,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16257,14 +16217,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 2995-2024</t>
+          <t>A 1438-2026</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45315</v>
+        <v>46032.5637037037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16277,7 +16237,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16314,14 +16274,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 4845-2024</t>
+          <t>A 60589-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45329.35953703704</v>
+        <v>45260.28659722222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16334,7 +16294,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16371,14 +16331,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 45293-2025</t>
+          <t>A 1427-2026</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45920.43634259259</v>
+        <v>46031.94480324074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16391,7 +16351,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16428,14 +16388,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 44744-2023</t>
+          <t>A 1860-2026</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45190.39100694445</v>
+        <v>46035.44283564815</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16448,7 +16408,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16485,14 +16445,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 45292-2025</t>
+          <t>A 1513-2026</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45920.43488425926</v>
+        <v>46034.34575231482</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16505,7 +16465,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16542,14 +16502,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 45853-2025</t>
+          <t>A 57921-2022</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45923.6297337963</v>
+        <v>44900</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16562,7 +16522,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16599,14 +16559,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 46233-2025</t>
+          <t>A 2411-2026</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45925.29270833333</v>
+        <v>46036.73222222222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16619,7 +16579,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16656,14 +16616,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 46234-2025</t>
+          <t>A 1277-2026</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45925.29591435185</v>
+        <v>46031</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16676,7 +16636,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16713,14 +16673,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 46237-2025</t>
+          <t>A 2416-2026</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45925.30956018518</v>
+        <v>46036.76255787037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16733,7 +16693,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>14.2</v>
+        <v>1.4</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16770,14 +16730,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 21535-2025</t>
+          <t>A 2051-2026</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45782.65741898148</v>
+        <v>46031</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16789,8 +16749,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G282" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16827,14 +16792,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 47169-2025</t>
+          <t>A 2410-2026</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45929.91121527777</v>
+        <v>46036.72965277778</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16847,7 +16812,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -16884,14 +16849,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 46833-2025</t>
+          <t>A 2430-2026</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45927.68620370371</v>
+        <v>46036.81327546296</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16904,7 +16869,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -16941,14 +16906,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 46823-2025</t>
+          <t>A 2431-2026</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45926.79550925926</v>
+        <v>46036.81487268519</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16961,7 +16926,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -16998,14 +16963,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 48452-2025</t>
+          <t>A 2432-2026</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45935.79104166666</v>
+        <v>46036.81594907407</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17018,7 +16983,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17055,14 +17020,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 48099-2025</t>
+          <t>A 21232-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45933.33207175926</v>
+        <v>45062.54716435185</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17075,7 +17040,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17112,14 +17077,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 48094-2025</t>
+          <t>A 2052-2026</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45933.33019675926</v>
+        <v>46031</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17131,8 +17096,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G288" t="n">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17169,14 +17139,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 48104-2025</t>
+          <t>A 16281-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45933.3422337963</v>
+        <v>45751.29027777778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17188,8 +17158,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G289" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17226,14 +17201,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 48081-2025</t>
+          <t>A 16283-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45932.77</v>
+        <v>45751.29266203703</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17245,8 +17220,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G290" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17283,14 +17263,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 48082-2025</t>
+          <t>A 60802-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45932.77143518518</v>
+        <v>45999.43222222223</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17303,7 +17283,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17340,14 +17320,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 48080-2025</t>
+          <t>A 60975-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45932.7685300926</v>
+        <v>45999.69570601852</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17397,14 +17377,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 48100-2025</t>
+          <t>A 60985-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45933.33457175926</v>
+        <v>45999.70759259259</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17417,7 +17397,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17454,14 +17434,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 48760-2025</t>
+          <t>A 3012-2026</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45936.77475694445</v>
+        <v>46038.66331018518</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17474,7 +17454,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17511,14 +17491,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 48955-2025</t>
+          <t>A 60973-2025</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45937</v>
+        <v>45999.69430555555</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17531,7 +17511,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>7</v>
+        <v>1.1</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17568,14 +17548,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 49431-2025</t>
+          <t>A 3010-2026</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45938.845</v>
+        <v>46038.66194444444</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17588,7 +17568,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17625,14 +17605,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 49598-2025</t>
+          <t>A 60981-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45939.53748842593</v>
+        <v>45999.70361111111</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17645,7 +17625,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17682,14 +17662,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 49855-2025</t>
+          <t>A 7734-2022</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45940.50458333334</v>
+        <v>44608</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17702,7 +17682,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17739,14 +17719,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 50685-2025</t>
+          <t>A 20806-2023</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45945.82289351852</v>
+        <v>45058</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17759,7 +17739,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -17796,14 +17776,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 51167-2025</t>
+          <t>A 54097-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45947.59884259259</v>
+        <v>45616.51472222222</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17816,7 +17796,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -17853,14 +17833,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 51890-2025</t>
+          <t>A 59225-2023</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45952.41594907407</v>
+        <v>45253</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17873,7 +17853,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -17910,14 +17890,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 23950-2025</t>
+          <t>A 9863-2024</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45796.35803240741</v>
+        <v>45363</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17930,7 +17910,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -17967,14 +17947,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 45309-2024</t>
+          <t>A 5523-2023</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45576.43064814815</v>
+        <v>44960</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17987,7 +17967,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18024,14 +18004,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 25324-2025</t>
+          <t>A 3382-2026</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45800</v>
+        <v>46042.36003472222</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18044,7 +18024,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18081,14 +18061,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 25326-2025</t>
+          <t>A 11793-2024</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45800</v>
+        <v>45375.30324074074</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18101,7 +18081,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18138,14 +18118,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 51887-2025</t>
+          <t>A 60380-2022</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45952</v>
+        <v>44910.69658564815</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18158,7 +18138,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>10.6</v>
+        <v>0</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18195,14 +18175,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 25906-2025</t>
+          <t>A 8983-2024</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45804.55729166666</v>
+        <v>45356</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18215,7 +18195,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18252,14 +18232,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 25909-2025</t>
+          <t>A 3701-2026</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45804.55820601852</v>
+        <v>46043.47123842593</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18272,7 +18252,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18309,14 +18289,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 5448-2025</t>
+          <t>A 50945-2023</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45692.88263888889</v>
+        <v>45210</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18328,8 +18308,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G309" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18366,14 +18351,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 55189-2025</t>
+          <t>A 4260-2026</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45968.54363425926</v>
+        <v>46045.3403125</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18386,7 +18371,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18423,14 +18408,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 55188-2025</t>
+          <t>A 61731-2025</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45968.5422800926</v>
+        <v>46002.59304398148</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18443,7 +18428,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18480,14 +18465,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 55706-2025</t>
+          <t>A 22515-2022</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45972.47302083333</v>
+        <v>44713.68042824074</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18500,7 +18485,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18537,14 +18522,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 55776-2025</t>
+          <t>A 22517-2022</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45972</v>
+        <v>44713.68208333333</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18557,7 +18542,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18594,14 +18579,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 55992-2025</t>
+          <t>A 5707-2026</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45973.55912037037</v>
+        <v>46051.5116087963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18614,7 +18599,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18651,14 +18636,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 56379-2025</t>
+          <t>A 46108-2021</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45974.70221064815</v>
+        <v>44442.36792824074</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18671,7 +18656,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18708,14 +18693,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 56381-2025</t>
+          <t>A 5708-2026</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45974.7060300926</v>
+        <v>46051.51230324074</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18728,7 +18713,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>3.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18765,14 +18750,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 57569-2025</t>
+          <t>A 6525-2025</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45980.73299768518</v>
+        <v>45699.66690972223</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18785,7 +18770,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -18822,14 +18807,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 57567-2025</t>
+          <t>A 39000-2023</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45980.73072916667</v>
+        <v>45163.67079861111</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18842,7 +18827,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -18879,14 +18864,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 58398-2025</t>
+          <t>A 6083-2026</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45985.56231481482</v>
+        <v>46052.68944444445</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18899,7 +18884,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -18936,14 +18921,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 58444-2025</t>
+          <t>A 55240-2023</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45985.61791666667</v>
+        <v>45237.63732638889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18956,7 +18941,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -18993,14 +18978,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 58443-2025</t>
+          <t>A 50053-2024</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45985.61674768518</v>
+        <v>45600.33508101852</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19013,7 +18998,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19050,14 +19035,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 58866-2025</t>
+          <t>A 58074-2022</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45987.44790509259</v>
+        <v>44900.61518518518</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19070,7 +19055,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19107,14 +19092,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 946-2026</t>
+          <t>A 11797-2024</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>46030.53789351852</v>
+        <v>45375.38054398148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19127,7 +19112,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19164,14 +19149,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 59156-2025</t>
+          <t>A 53213-2024</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45988.54133101852</v>
+        <v>45612.65795138889</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19184,7 +19169,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19221,14 +19206,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 59042-2025</t>
+          <t>A 46747-2023</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45988.37216435185</v>
+        <v>45198</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19240,8 +19225,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G325" t="n">
-        <v>0.5</v>
+        <v>6.6</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19278,14 +19268,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 58833-2025</t>
+          <t>A 5663-2025</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45987.35474537037</v>
+        <v>45693.82982638889</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19298,7 +19288,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>0.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19335,14 +19325,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 1427-2026</t>
+          <t>A 49455-2023</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>46031.94480324074</v>
+        <v>45211.50127314815</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19355,7 +19345,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19392,14 +19382,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 59508-2025</t>
+          <t>A 7329-2025</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45989.64269675926</v>
+        <v>45703.32144675926</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19411,13 +19401,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F328" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G328" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19454,14 +19439,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 59317-2025</t>
+          <t>A 7680-2025</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45989.32200231482</v>
+        <v>45706.36583333334</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19474,7 +19459,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19511,14 +19496,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 1437-2026</t>
+          <t>A 34133-2022</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>46032.56134259259</v>
+        <v>44791.52582175926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19531,7 +19516,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19568,14 +19553,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 1438-2026</t>
+          <t>A 44668-2023</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>46032.5637037037</v>
+        <v>45189.72548611111</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19588,7 +19573,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19625,14 +19610,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 59309-2025</t>
+          <t>A 47583-2024</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45989.27822916667</v>
+        <v>45587.77702546296</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19644,8 +19629,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G332" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -19682,14 +19672,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 1513-2026</t>
+          <t>A 49357-2024</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>46034.34575231482</v>
+        <v>45595.61976851852</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19702,7 +19692,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -19739,14 +19729,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 22386-2024</t>
+          <t>A 61904-2022</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45446.66300925926</v>
+        <v>44917.73387731481</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19758,8 +19748,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G334" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -19796,14 +19791,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 2430-2026</t>
+          <t>A 61907-2022</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>46036.81327546296</v>
+        <v>44917.73603009259</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19815,8 +19810,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G335" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -19853,14 +19853,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 2431-2026</t>
+          <t>A 4065-2023</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>46036.81487268519</v>
+        <v>44952</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -19910,14 +19910,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 2410-2026</t>
+          <t>A 7962-2024</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>46036.72965277778</v>
+        <v>45350.57357638889</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -19967,14 +19967,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 2411-2026</t>
+          <t>A 65946-2021</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>46036.73222222222</v>
+        <v>44517</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20024,14 +20024,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 2416-2026</t>
+          <t>A 48718-2023</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>46036.76255787037</v>
+        <v>45208</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -20081,14 +20081,14 @@
     <row r="340" ht="15" customHeight="1">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 2052-2026</t>
+          <t>A 20456-2025</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>46031</v>
+        <v>45775.51363425926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20100,13 +20100,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G340" t="n">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -20143,14 +20138,14 @@
     <row r="341" ht="15" customHeight="1">
       <c r="A341" t="inlineStr">
         <is>
-          <t>A 1880-2026</t>
+          <t>A 43384-2023</t>
         </is>
       </c>
       <c r="B341" s="1" t="n">
-        <v>46035.47288194444</v>
+        <v>45183.85680555556</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20163,7 +20158,7 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -20200,14 +20195,14 @@
     <row r="342" ht="15" customHeight="1">
       <c r="A342" t="inlineStr">
         <is>
-          <t>A 1860-2026</t>
+          <t>A 616-2025</t>
         </is>
       </c>
       <c r="B342" s="1" t="n">
-        <v>46035.44283564815</v>
+        <v>45664.60969907408</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20220,7 +20215,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -20257,14 +20252,14 @@
     <row r="343" ht="15" customHeight="1">
       <c r="A343" t="inlineStr">
         <is>
-          <t>A 2432-2026</t>
+          <t>A 17527-2025</t>
         </is>
       </c>
       <c r="B343" s="1" t="n">
-        <v>46036.81594907407</v>
+        <v>45757.58712962963</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20277,7 +20272,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -20314,14 +20309,14 @@
     <row r="344" ht="15" customHeight="1">
       <c r="A344" t="inlineStr">
         <is>
-          <t>A 2051-2026</t>
+          <t>A 50160-2022</t>
         </is>
       </c>
       <c r="B344" s="1" t="n">
-        <v>46031</v>
+        <v>44865.58923611111</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20333,13 +20328,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G344" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -20376,14 +20366,14 @@
     <row r="345" ht="15" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
-          <t>A 3010-2026</t>
+          <t>A 39475-2023</t>
         </is>
       </c>
       <c r="B345" s="1" t="n">
-        <v>46038.66194444444</v>
+        <v>45166</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20396,7 +20386,7 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -20433,14 +20423,14 @@
     <row r="346" ht="15" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
-          <t>A 1277-2026</t>
+          <t>A 14655-2022</t>
         </is>
       </c>
       <c r="B346" s="1" t="n">
-        <v>46031</v>
+        <v>44655</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20453,7 +20443,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -20490,14 +20480,14 @@
     <row r="347" ht="15" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
-          <t>A 3012-2026</t>
+          <t>A 54587-2023</t>
         </is>
       </c>
       <c r="B347" s="1" t="n">
-        <v>46038.66331018518</v>
+        <v>45233</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20510,7 +20500,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -20547,14 +20537,14 @@
     <row r="348" ht="15" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
-          <t>A 60802-2025</t>
+          <t>A 16284-2025</t>
         </is>
       </c>
       <c r="B348" s="1" t="n">
-        <v>45999.43222222223</v>
+        <v>45751.29762731482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20567,7 +20557,7 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -20604,14 +20594,14 @@
     <row r="349" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
-          <t>A 3382-2026</t>
+          <t>A 2345-2023</t>
         </is>
       </c>
       <c r="B349" s="1" t="n">
-        <v>46042.36003472222</v>
+        <v>44942</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20624,7 +20614,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -20661,14 +20651,14 @@
     <row r="350" ht="15" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
-          <t>A 60981-2025</t>
+          <t>A 3619-2023</t>
         </is>
       </c>
       <c r="B350" s="1" t="n">
-        <v>45999.70361111111</v>
+        <v>44950.63637731481</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20681,7 +20671,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -20718,14 +20708,14 @@
     <row r="351" ht="15" customHeight="1">
       <c r="A351" t="inlineStr">
         <is>
-          <t>A 60975-2025</t>
+          <t>A 44744-2023</t>
         </is>
       </c>
       <c r="B351" s="1" t="n">
-        <v>45999.69570601852</v>
+        <v>45190.39100694445</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20738,7 +20728,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -20775,14 +20765,14 @@
     <row r="352" ht="15" customHeight="1">
       <c r="A352" t="inlineStr">
         <is>
-          <t>A 60985-2025</t>
+          <t>A 18068-2025</t>
         </is>
       </c>
       <c r="B352" s="1" t="n">
-        <v>45999.70759259259</v>
+        <v>45761.49069444444</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20795,7 +20785,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -20832,14 +20822,14 @@
     <row r="353" ht="15" customHeight="1">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A 60973-2025</t>
+          <t>A 63073-2023</t>
         </is>
       </c>
       <c r="B353" s="1" t="n">
-        <v>45999.69430555555</v>
+        <v>45273.00841435185</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20852,7 +20842,7 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -20889,14 +20879,14 @@
     <row r="354" ht="15" customHeight="1">
       <c r="A354" t="inlineStr">
         <is>
-          <t>A 61731-2025</t>
+          <t>A 56788-2024</t>
         </is>
       </c>
       <c r="B354" s="1" t="n">
-        <v>46002.59304398148</v>
+        <v>45628.45511574074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20909,7 +20899,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>1.2</v>
+        <v>6.3</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -20946,14 +20936,14 @@
     <row r="355" ht="15" customHeight="1">
       <c r="A355" t="inlineStr">
         <is>
-          <t>A 3701-2026</t>
+          <t>A 37653-2023</t>
         </is>
       </c>
       <c r="B355" s="1" t="n">
-        <v>46043.47123842593</v>
+        <v>45159.51601851852</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20966,7 +20956,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -21003,14 +20993,14 @@
     <row r="356" ht="15" customHeight="1">
       <c r="A356" t="inlineStr">
         <is>
-          <t>A 4260-2026</t>
+          <t>A 19319-2025</t>
         </is>
       </c>
       <c r="B356" s="1" t="n">
-        <v>46045.3403125</v>
+        <v>45769.57847222222</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21023,7 +21013,7 @@
         </is>
       </c>
       <c r="G356" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -21060,14 +21050,14 @@
     <row r="357" ht="15" customHeight="1">
       <c r="A357" t="inlineStr">
         <is>
-          <t>A 6083-2026</t>
+          <t>A 20475-2023</t>
         </is>
       </c>
       <c r="B357" s="1" t="n">
-        <v>46052.68944444445</v>
+        <v>45057</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21080,7 +21070,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -21117,14 +21107,14 @@
     <row r="358" ht="15" customHeight="1">
       <c r="A358" t="inlineStr">
         <is>
-          <t>A 5707-2026</t>
+          <t>A 12990-2024</t>
         </is>
       </c>
       <c r="B358" s="1" t="n">
-        <v>46051.5116087963</v>
+        <v>45385.55565972222</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21137,7 +21127,7 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -21174,14 +21164,14 @@
     <row r="359" ht="15" customHeight="1">
       <c r="A359" t="inlineStr">
         <is>
-          <t>A 5708-2026</t>
+          <t>A 57167-2022</t>
         </is>
       </c>
       <c r="B359" s="1" t="n">
-        <v>46051.51230324074</v>
+        <v>44895.60074074074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21194,7 +21184,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>9.199999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -21231,14 +21221,14 @@
     <row r="360" ht="15" customHeight="1">
       <c r="A360" t="inlineStr">
         <is>
-          <t>A 7329-2025</t>
+          <t>A 50307-2023</t>
         </is>
       </c>
       <c r="B360" s="1" t="n">
-        <v>45703.32144675926</v>
+        <v>45209</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21251,7 +21241,7 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -21288,14 +21278,14 @@
     <row r="361" ht="15" customHeight="1">
       <c r="A361" t="inlineStr">
         <is>
-          <t>A 7680-2025</t>
+          <t>A 38046-2022</t>
         </is>
       </c>
       <c r="B361" s="1" t="n">
-        <v>45706.36583333334</v>
+        <v>44811.64700231481</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21308,7 +21298,7 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -21345,14 +21335,14 @@
     <row r="362" ht="15" customHeight="1">
       <c r="A362" t="inlineStr">
         <is>
-          <t>A 5663-2025</t>
+          <t>A 46736-2023</t>
         </is>
       </c>
       <c r="B362" s="1" t="n">
-        <v>45693.82982638889</v>
+        <v>45198</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21364,8 +21354,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G362" t="n">
-        <v>8.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -21402,14 +21397,14 @@
     <row r="363" ht="15" customHeight="1">
       <c r="A363" t="inlineStr">
         <is>
-          <t>A 7070-2026</t>
+          <t>A 16590-2025</t>
         </is>
       </c>
       <c r="B363" s="1" t="n">
-        <v>46058.31163194445</v>
+        <v>45752.89317129629</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21422,7 +21417,7 @@
         </is>
       </c>
       <c r="G363" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -21459,14 +21454,14 @@
     <row r="364" ht="15" customHeight="1">
       <c r="A364" t="inlineStr">
         <is>
-          <t>A 7533-2026</t>
+          <t>A 30362-2024</t>
         </is>
       </c>
       <c r="B364" s="1" t="n">
-        <v>46059.62197916667</v>
+        <v>45491.35975694445</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21479,7 +21474,7 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -21516,14 +21511,14 @@
     <row r="365" ht="15" customHeight="1">
       <c r="A365" t="inlineStr">
         <is>
-          <t>A 7535-2026</t>
+          <t>A 1122-2025</t>
         </is>
       </c>
       <c r="B365" s="1" t="n">
-        <v>46059.62313657408</v>
+        <v>45666.66532407407</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21536,7 +21531,7 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -21573,14 +21568,14 @@
     <row r="366" ht="15" customHeight="1">
       <c r="A366" t="inlineStr">
         <is>
-          <t>A 7529-2026</t>
+          <t>A 46732-2023</t>
         </is>
       </c>
       <c r="B366" s="1" t="n">
-        <v>46059.61733796296</v>
+        <v>45198.59054398148</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21590,6 +21585,11 @@
       <c r="E366" t="inlineStr">
         <is>
           <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G366" t="n">
@@ -21630,14 +21630,14 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>A 8372-2026</t>
+          <t>A 21535-2025</t>
         </is>
       </c>
       <c r="B367" s="1" t="n">
-        <v>46064.71388888889</v>
+        <v>45782.65741898148</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         </is>
       </c>
       <c r="G367" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z367"/>
+  <dimension ref="A1:Z368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44992</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -653,14 +653,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 47506-2023</t>
+          <t>A 2412-2026</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45203.28686342593</v>
+        <v>46036.73480324074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -673,17 +673,17 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -707,119 +707,119 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Svinrot</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 2412-2026 artfynd.xlsx", "A 2412-2026")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 2412-2026 karta.png", "A 2412-2026")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 2412-2026 FSC-klagomål.docx", "A 2412-2026")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 2412-2026 FSC-klagomål mail.docx", "A 2412-2026")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 2412-2026 tillsynsbegäran.docx", "A 2412-2026")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 2412-2026 tillsynsbegäran mail.docx", "A 2412-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 47506-2023</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45203.28686342593</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
           <t>Revlummer</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 47506-2023 artfynd.xlsx", "A 47506-2023")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 47506-2023 karta.png", "A 47506-2023")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 47506-2023 FSC-klagomål.docx", "A 47506-2023")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 47506-2023 FSC-klagomål mail.docx", "A 47506-2023")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 47506-2023 tillsynsbegäran.docx", "A 47506-2023")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 47506-2023 tillsynsbegäran mail.docx", "A 47506-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 2412-2026</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>46036.73480324074</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>VÅRGÅRDA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Svinrot</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 2412-2026 artfynd.xlsx", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 2412-2026 karta.png", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 2412-2026 FSC-klagomål.docx", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 2412-2026 FSC-klagomål mail.docx", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 2412-2026 tillsynsbegäran.docx", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 2412-2026 tillsynsbegäran mail.docx", "A 2412-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44249.74386574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44271.61297453703</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44496</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44511</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>44314</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>44316.39745370371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1369,14 +1369,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 46432-2021</t>
+          <t>A 627-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44445.32841435185</v>
+        <v>44568.35050925926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1426,14 +1426,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 627-2022</t>
+          <t>A 628-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44568.35050925926</v>
+        <v>44568.35122685185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>8.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1483,14 +1483,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 628-2022</t>
+          <t>A 46432-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44568.35122685185</v>
+        <v>44445.32841435185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>44601</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44533</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44572</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44389.36113425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44256</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44677</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>44818</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>44347</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44571</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44271.47305555556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>44501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>44455.51653935185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44564</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44382.40559027778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44505</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>44743.30945601852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>44607</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44580</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44446.59780092593</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44298.64422453703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>44511</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>44811.28633101852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>44616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2980,14 +2980,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 8028-2021</t>
+          <t>A 10118-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44243</v>
+        <v>44621.91310185185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3037,14 +3037,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 10118-2022</t>
+          <t>A 44001-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44621.91310185185</v>
+        <v>44434.48554398148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3094,14 +3094,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 44001-2021</t>
+          <t>A 52359-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44434.48554398148</v>
+        <v>44465.35538194444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3151,14 +3151,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 52359-2021</t>
+          <t>A 53650-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44465.35538194444</v>
+        <v>44469.43070601852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3208,14 +3208,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 53650-2021</t>
+          <t>A 62124-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44469.43070601852</v>
+        <v>44501</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3265,14 +3265,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 62124-2021</t>
+          <t>A 17393-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44501</v>
+        <v>44299</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3322,14 +3322,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 17393-2021</t>
+          <t>A 15117-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44299</v>
+        <v>44282</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3379,14 +3379,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 15117-2021</t>
+          <t>A 29025-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44282</v>
+        <v>44358</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3436,14 +3436,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 29025-2021</t>
+          <t>A 1367-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44358</v>
+        <v>44573.34431712963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3493,14 +3493,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 1367-2022</t>
+          <t>A 41497-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44573.34431712963</v>
+        <v>44826.95922453704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3550,14 +3550,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 41497-2022</t>
+          <t>A 15548-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44826.95922453704</v>
+        <v>44662.48648148148</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3607,14 +3607,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 15548-2022</t>
+          <t>A 13506-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44662.48648148148</v>
+        <v>44648.29912037037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3664,14 +3664,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 13506-2022</t>
+          <t>A 65303-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44648.29912037037</v>
+        <v>44515</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3721,14 +3721,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 65303-2021</t>
+          <t>A 16282-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44515</v>
+        <v>45751.29126157407</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3740,8 +3740,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3778,14 +3783,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 30061-2021</t>
+          <t>A 9189-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44363</v>
+        <v>44615.89261574074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3798,7 +3803,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>4.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3835,14 +3840,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 17951-2023</t>
+          <t>A 64234-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45040</v>
+        <v>44510.64112268519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3855,7 +3860,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3892,14 +3897,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 2995-2024</t>
+          <t>A 26362-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45315</v>
+        <v>45469.38258101852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3912,7 +3917,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3949,14 +3954,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 59619-2022</t>
+          <t>A 30061-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44907.88240740741</v>
+        <v>44363</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3969,7 +3974,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4006,14 +4011,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 9189-2022</t>
+          <t>A 9725-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44615.89261574074</v>
+        <v>44984</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4026,7 +4031,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4063,14 +4068,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 64234-2021</t>
+          <t>A 17951-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44510.64112268519</v>
+        <v>45040</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4083,7 +4088,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4120,14 +4125,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 26362-2024</t>
+          <t>A 61969-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45469.38258101852</v>
+        <v>44914</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4140,7 +4145,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4177,14 +4182,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 16282-2025</t>
+          <t>A 4550-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45751.29126157407</v>
+        <v>45327.71622685185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4196,13 +4201,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4239,14 +4239,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 9725-2023</t>
+          <t>A 4845-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44984</v>
+        <v>45329.35953703704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4296,14 +4296,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 61969-2022</t>
+          <t>A 2995-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44914</v>
+        <v>45315</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.7</v>
+        <v>0.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4353,14 +4353,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 4550-2024</t>
+          <t>A 59619-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45327.71622685185</v>
+        <v>44907.88240740741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4410,14 +4410,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 4845-2024</t>
+          <t>A 30038-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45329.35953703704</v>
+        <v>44363.45402777778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4467,14 +4467,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 30038-2021</t>
+          <t>A 3057-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44363.45402777778</v>
+        <v>44946</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4524,14 +4524,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 3057-2023</t>
+          <t>A 9090-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44946</v>
+        <v>45357.90923611111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4581,14 +4581,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 9090-2024</t>
+          <t>A 54991-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45357.90923611111</v>
+        <v>45620.85204861111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4638,14 +4638,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 54991-2024</t>
+          <t>A 3701-2026</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45620.85204861111</v>
+        <v>46043.47123842593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>45233</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4752,14 +4752,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 9898-2024</t>
+          <t>A 9802-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45363</v>
+        <v>44252.70211805555</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4809,14 +4809,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 9802-2021</t>
+          <t>A 23950-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44252.70211805555</v>
+        <v>45796.35803240741</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4866,14 +4866,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 24064-2022</t>
+          <t>A 9898-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44725.32741898148</v>
+        <v>45363</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4923,14 +4923,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 23950-2025</t>
+          <t>A 4260-2026</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45796.35803240741</v>
+        <v>46045.3403125</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4980,14 +4980,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 12342-2021</t>
+          <t>A 24064-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44267.43596064814</v>
+        <v>44725.32741898148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5037,14 +5037,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 7529-2026</t>
+          <t>A 39375-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46059.61733796296</v>
+        <v>45889.58944444444</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5094,14 +5094,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 7070-2026</t>
+          <t>A 12342-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>46058.31163194445</v>
+        <v>44267.43596064814</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5151,14 +5151,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 60191-2022</t>
+          <t>A 14786-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44910</v>
+        <v>45397.76206018519</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5208,14 +5208,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 52016-2021</t>
+          <t>A 39419-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44463</v>
+        <v>45889.66032407407</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 7533-2026</t>
+          <t>A 60191-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46059.62197916667</v>
+        <v>44910</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5322,14 +5322,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 7535-2026</t>
+          <t>A 39372-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46059.62313657408</v>
+        <v>45889.58609953704</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5379,14 +5379,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 45309-2024</t>
+          <t>A 39416-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45576.43064814815</v>
+        <v>45889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5436,14 +5436,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 11777-2024</t>
+          <t>A 52016-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45374.35063657408</v>
+        <v>44463</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5493,14 +5493,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 11792-2024</t>
+          <t>A 61731-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45375</v>
+        <v>46002.59304398148</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5550,14 +5550,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 25324-2025</t>
+          <t>A 45309-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45800</v>
+        <v>45576.43064814815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5607,14 +5607,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 5448-2025</t>
+          <t>A 39929-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45692.88263888889</v>
+        <v>45891.69728009259</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5664,14 +5664,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 8195-2024</t>
+          <t>A 39843-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45351.66591435186</v>
+        <v>45891</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5721,14 +5721,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 25326-2025</t>
+          <t>A 25324-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
         <v>45800</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5778,14 +5778,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 25906-2025</t>
+          <t>A 40239-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45804.55729166666</v>
+        <v>45894.84497685185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5835,14 +5835,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 25909-2025</t>
+          <t>A 5448-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45804.55820601852</v>
+        <v>45692.88263888889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5892,14 +5892,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 58049-2023</t>
+          <t>A 25326-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45247</v>
+        <v>45800</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5949,14 +5949,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 25911-2025</t>
+          <t>A 25906-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45804.55912037037</v>
+        <v>45804.55729166666</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6006,14 +6006,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 8372-2026</t>
+          <t>A 25909-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46064.71388888889</v>
+        <v>45804.55820601852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6063,14 +6063,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 59325-2023</t>
+          <t>A 25911-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45253</v>
+        <v>45804.55912037037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6120,14 +6120,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 27109-2025</t>
+          <t>A 11777-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45811.73126157407</v>
+        <v>45374.35063657408</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6177,14 +6177,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 27110-2025</t>
+          <t>A 11792-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45811.73269675926</v>
+        <v>45375</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6234,14 +6234,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 26964-2025</t>
+          <t>A 40650-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45811.46918981482</v>
+        <v>45896.6321875</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6291,14 +6291,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 9633-2024</t>
+          <t>A 40955-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45362.3203125</v>
+        <v>45897.67510416666</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6348,14 +6348,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 27112-2025</t>
+          <t>A 59325-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45811.73366898148</v>
+        <v>45253</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6405,14 +6405,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 54586-2023</t>
+          <t>A 8195-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45233.77412037037</v>
+        <v>45351.66591435186</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6462,14 +6462,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 39375-2025</t>
+          <t>A 41593-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45889.58944444444</v>
+        <v>45901.63788194444</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6519,14 +6519,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 27585-2025</t>
+          <t>A 27109-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45813.50371527778</v>
+        <v>45811.73126157407</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6576,14 +6576,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 27227-2025</t>
+          <t>A 27110-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45812.43118055556</v>
+        <v>45811.73269675926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6633,14 +6633,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 27249-2025</t>
+          <t>A 41590-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45812.46844907408</v>
+        <v>45901.63255787037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6690,14 +6690,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 14786-2024</t>
+          <t>A 41625-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45397.76206018519</v>
+        <v>45901.7124537037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6747,14 +6747,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 21875-2024</t>
+          <t>A 26964-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45443.38331018519</v>
+        <v>45811.46918981482</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6804,14 +6804,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 28052-2025</t>
+          <t>A 27112-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45817.65847222223</v>
+        <v>45811.73366898148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6861,14 +6861,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 28049-2025</t>
+          <t>A 54586-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45817.65653935185</v>
+        <v>45233.77412037037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6918,14 +6918,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 20275-2025</t>
+          <t>A 58049-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45774.32253472223</v>
+        <v>45247</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6975,14 +6975,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 54185-2024</t>
+          <t>A 27585-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45616.64060185185</v>
+        <v>45813.50371527778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5.1</v>
+        <v>1.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7032,14 +7032,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 28152-2025</t>
+          <t>A 27227-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45818.35734953704</v>
+        <v>45812.43118055556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7089,14 +7089,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 39419-2025</t>
+          <t>A 27249-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45889.66032407407</v>
+        <v>45812.46844907408</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7146,14 +7146,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 39372-2025</t>
+          <t>A 35055-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45889.58609953704</v>
+        <v>45852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7203,14 +7203,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 39416-2025</t>
+          <t>A 41724-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45889</v>
+        <v>45902.4534375</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7260,14 +7260,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 27141-2024</t>
+          <t>A 28052-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45471.55196759259</v>
+        <v>45817.65847222223</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7317,14 +7317,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 46944-2021</t>
+          <t>A 28049-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44446.51780092593</v>
+        <v>45817.65653935185</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7374,14 +7374,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 37424-2021</t>
+          <t>A 20275-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44398.48474537037</v>
+        <v>45774.32253472223</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7431,14 +7431,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 15236-2024</t>
+          <t>A 54185-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45400</v>
+        <v>45616.64060185185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7488,14 +7488,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 39929-2025</t>
+          <t>A 28152-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45891.69728009259</v>
+        <v>45818.35734953704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7545,14 +7545,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 13034-2025</t>
+          <t>A 9633-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45734.57408564815</v>
+        <v>45362.3203125</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7602,14 +7602,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 30079-2025</t>
+          <t>A 27141-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45826.64440972222</v>
+        <v>45471.55196759259</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7659,14 +7659,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 5144-2024</t>
+          <t>A 42646-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45330</v>
+        <v>45906.48516203704</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7716,14 +7716,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 10924-2025</t>
+          <t>A 21875-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45722.83402777778</v>
+        <v>45443.38331018519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7773,14 +7773,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 39843-2025</t>
+          <t>A 43214-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45891</v>
+        <v>45910</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,8 +7792,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>2.9</v>
+        <v>13.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7830,14 +7835,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 30280-2023</t>
+          <t>A 43593-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45110.88763888889</v>
+        <v>45911.65733796296</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7850,7 +7855,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7887,14 +7892,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 40239-2025</t>
+          <t>A 13034-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45894.84497685185</v>
+        <v>45734.57408564815</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7907,7 +7912,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7944,14 +7949,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 13122-2025</t>
+          <t>A 43337-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45734.80390046296</v>
+        <v>45910.73006944444</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7964,7 +7969,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8001,14 +8006,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 44431-2023</t>
+          <t>A 43314-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45189.35152777778</v>
+        <v>45910</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8020,8 +8025,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8058,14 +8068,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 45978-2022</t>
+          <t>A 30079-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44846.69284722222</v>
+        <v>45826.64440972222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8078,7 +8088,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8115,14 +8125,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 54937-2022</t>
+          <t>A 5707-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44881</v>
+        <v>46051.5116087963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8172,14 +8182,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 40650-2025</t>
+          <t>A 10924-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45896.6321875</v>
+        <v>45722.83402777778</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8192,7 +8202,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8229,14 +8239,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 40955-2025</t>
+          <t>A 46944-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45897.67510416666</v>
+        <v>44446.51780092593</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8249,7 +8259,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8286,14 +8296,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 41593-2025</t>
+          <t>A 5708-2026</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45901.63788194444</v>
+        <v>46051.51230324074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8306,7 +8316,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8343,14 +8353,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 41590-2025</t>
+          <t>A 37424-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45901.63255787037</v>
+        <v>44398.48474537037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8363,7 +8373,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8400,14 +8410,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 41625-2025</t>
+          <t>A 15236-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45901.7124537037</v>
+        <v>45400</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8420,7 +8430,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8457,14 +8467,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 9086-2024</t>
+          <t>A 5144-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45357.90260416667</v>
+        <v>45330</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8477,7 +8487,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8514,14 +8524,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 9089-2024</t>
+          <t>A 45853-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45357.90612268518</v>
+        <v>45923.6297337963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8534,7 +8544,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8571,14 +8581,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 20022-2025</t>
+          <t>A 45293-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45772.34013888889</v>
+        <v>45920.43634259259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8591,7 +8601,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8628,14 +8638,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 42359-2023</t>
+          <t>A 13122-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45180.52940972222</v>
+        <v>45734.80390046296</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8648,7 +8658,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8685,14 +8695,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 62097-2022</t>
+          <t>A 45292-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44920</v>
+        <v>45920.43488425926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8705,7 +8715,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8742,14 +8752,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 44421-2024</t>
+          <t>A 6083-2026</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45573.86858796296</v>
+        <v>46052.68944444445</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8762,7 +8772,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8799,14 +8809,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 22202-2024</t>
+          <t>A 30280-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45446.37318287037</v>
+        <v>45110.88763888889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8819,7 +8829,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8856,14 +8866,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 35055-2025</t>
+          <t>A 46234-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45852</v>
+        <v>45925.29591435185</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8876,7 +8886,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.1</v>
+        <v>2.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8913,14 +8923,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 9749-2023</t>
+          <t>A 46237-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44984</v>
+        <v>45925.30956018518</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8933,7 +8943,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.3</v>
+        <v>14.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8970,14 +8980,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 41724-2025</t>
+          <t>A 46233-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45902.4534375</v>
+        <v>45925.29270833333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8990,7 +9000,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9027,14 +9037,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 42552-2024</t>
+          <t>A 44431-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45565.61814814815</v>
+        <v>45189.35152777778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9047,7 +9057,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9084,14 +9094,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 35621-2025</t>
+          <t>A 45978-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45859.4146875</v>
+        <v>44846.69284722222</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9104,7 +9114,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9141,14 +9151,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 56637-2024</t>
+          <t>A 54937-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45625.69395833334</v>
+        <v>44881</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9161,7 +9171,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9198,14 +9208,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 26526-2022</t>
+          <t>A 46823-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44739.44171296297</v>
+        <v>45926.79550925926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9218,7 +9228,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9255,14 +9265,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 42646-2025</t>
+          <t>A 46833-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45906.48516203704</v>
+        <v>45927.68620370371</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9275,7 +9285,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9312,14 +9322,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 59440-2023</t>
+          <t>A 47169-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45254</v>
+        <v>45929.91121527777</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9332,7 +9342,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>15</v>
+        <v>0.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9369,14 +9379,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 36637-2025</t>
+          <t>A 48094-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45870.73012731481</v>
+        <v>45933.33019675926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9389,7 +9399,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9426,14 +9436,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 36638-2025</t>
+          <t>A 48100-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45870.73099537037</v>
+        <v>45933.33457175926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9446,7 +9456,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9483,14 +9493,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 36639-2025</t>
+          <t>A 48082-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45870.73174768518</v>
+        <v>45932.77143518518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9503,7 +9513,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9540,14 +9550,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 36641-2025</t>
+          <t>A 9086-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45871.43119212963</v>
+        <v>45357.90260416667</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9560,7 +9570,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>5.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9597,14 +9607,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 13397-2025</t>
+          <t>A 9089-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45735.71293981482</v>
+        <v>45357.90612268518</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9617,7 +9627,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>7.1</v>
+        <v>0.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9654,14 +9664,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 36838-2025</t>
+          <t>A 48099-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45874.37011574074</v>
+        <v>45933.33207175926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9674,7 +9684,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9711,14 +9721,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 43214-2025</t>
+          <t>A 48080-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45910</v>
+        <v>45932.7685300926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9730,13 +9740,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>13.8</v>
+        <v>1.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9773,14 +9778,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 24785-2023</t>
+          <t>A 44421-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45084.67194444445</v>
+        <v>45573.86858796296</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9793,7 +9798,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9830,14 +9835,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 43593-2025</t>
+          <t>A 20022-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45911.65733796296</v>
+        <v>45772.34013888889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9850,7 +9855,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9887,14 +9892,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 42330-2023</t>
+          <t>A 48081-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45180</v>
+        <v>45932.77</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9907,7 +9912,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9944,14 +9949,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 43337-2025</t>
+          <t>A 48104-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45910.73006944444</v>
+        <v>45933.3422337963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9964,7 +9969,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10001,14 +10006,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 43314-2025</t>
+          <t>A 42359-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45910</v>
+        <v>45180.52940972222</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10020,13 +10025,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10063,14 +10063,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 36974-2024</t>
+          <t>A 48452-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45538.89228009259</v>
+        <v>45935.79104166666</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10120,14 +10120,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 21932-2024</t>
+          <t>A 49431-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45443</v>
+        <v>45938.845</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10177,14 +10177,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 1262-2023</t>
+          <t>A 48955-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44936.39234953704</v>
+        <v>45937</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10234,14 +10234,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 20807-2025</t>
+          <t>A 35621-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45776.65706018519</v>
+        <v>45859.4146875</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10253,13 +10253,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10296,14 +10291,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 19308-2025</t>
+          <t>A 62097-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45769.56891203704</v>
+        <v>44920</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10315,13 +10310,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10358,14 +10348,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 7732-2023</t>
+          <t>A 48760-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44973</v>
+        <v>45936.77475694445</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10377,13 +10367,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>9.300000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10420,14 +10405,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 16121-2024</t>
+          <t>A 56637-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45406.49583333333</v>
+        <v>45625.69395833334</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10440,7 +10425,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10477,14 +10462,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 2917-2023</t>
+          <t>A 22202-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44943</v>
+        <v>45446.37318287037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10497,7 +10482,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10534,14 +10519,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 33939-2023</t>
+          <t>A 49598-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45134.55792824074</v>
+        <v>45939.53748842593</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10554,7 +10539,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10591,14 +10576,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 19391-2024</t>
+          <t>A 9749-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45429.37967592593</v>
+        <v>44984</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10611,7 +10596,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10648,14 +10633,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 19394-2024</t>
+          <t>A 49855-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45429.38112268518</v>
+        <v>45940.50458333334</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10668,7 +10653,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10705,14 +10690,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 8895-2023</t>
+          <t>A 36637-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44979</v>
+        <v>45870.73012731481</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10724,13 +10709,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10767,14 +10747,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 59381-2022</t>
+          <t>A 36638-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44905.46840277778</v>
+        <v>45870.73099537037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10787,7 +10767,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10824,14 +10804,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 20169-2025</t>
+          <t>A 42552-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45772.57777777778</v>
+        <v>45565.61814814815</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10844,7 +10824,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10881,14 +10861,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 45853-2025</t>
+          <t>A 36639-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45923.6297337963</v>
+        <v>45870.73174768518</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10901,7 +10881,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10938,14 +10918,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 45293-2025</t>
+          <t>A 36641-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45920.43634259259</v>
+        <v>45871.43119212963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10958,7 +10938,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10995,14 +10975,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 45292-2025</t>
+          <t>A 36838-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45920.43488425926</v>
+        <v>45874.37011574074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11015,7 +10995,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11052,14 +11032,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 17199-2025</t>
+          <t>A 51167-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45756.41421296296</v>
+        <v>45947.59884259259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11072,7 +11052,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11109,14 +11089,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 9721-2023</t>
+          <t>A 50685-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44984</v>
+        <v>45945.82289351852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11129,7 +11109,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11166,14 +11146,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 46234-2025</t>
+          <t>A 26526-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45925.29591435185</v>
+        <v>44739.44171296297</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11186,7 +11166,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11223,14 +11203,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 46237-2025</t>
+          <t>A 59440-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45925.30956018518</v>
+        <v>45254</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11243,7 +11223,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>14.2</v>
+        <v>15</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11280,14 +11260,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 10586-2024</t>
+          <t>A 36974-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45366.69975694444</v>
+        <v>45538.89228009259</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11300,7 +11280,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11337,14 +11317,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 46233-2025</t>
+          <t>A 5663-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45925.29270833333</v>
+        <v>45693.82982638889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11357,7 +11337,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11394,14 +11374,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 29092-2023</t>
+          <t>A 20807-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45105.34570601852</v>
+        <v>45776.65706018519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11419,7 +11399,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11456,14 +11436,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 46823-2025</t>
+          <t>A 19308-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45926.79550925926</v>
+        <v>45769.56891203704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11475,8 +11455,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11513,14 +11498,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 46833-2025</t>
+          <t>A 51890-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45927.68620370371</v>
+        <v>45952.41594907407</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11533,7 +11518,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11570,14 +11555,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 48595-2021</t>
+          <t>A 13397-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44452.48140046297</v>
+        <v>45735.71293981482</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11590,7 +11575,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.7</v>
+        <v>7.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11627,14 +11612,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 47169-2025</t>
+          <t>A 7329-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45929.91121527777</v>
+        <v>45703.32144675926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11647,7 +11632,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11684,14 +11669,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 24611-2023</t>
+          <t>A 7680-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45084.33306712963</v>
+        <v>45706.36583333334</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11704,7 +11689,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11741,14 +11726,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 48094-2025</t>
+          <t>A 7529-2026</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45933.33019675926</v>
+        <v>46059.61733796296</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11761,7 +11746,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11798,14 +11783,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 62148-2022</t>
+          <t>A 7070-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44922.40197916667</v>
+        <v>46058.31163194445</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11818,7 +11803,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11855,14 +11840,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 48100-2025</t>
+          <t>A 8895-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45933.33457175926</v>
+        <v>44979</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11874,8 +11859,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11912,14 +11902,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 48082-2025</t>
+          <t>A 24785-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45932.77143518518</v>
+        <v>45084.67194444445</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11932,7 +11922,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11969,14 +11959,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 48099-2025</t>
+          <t>A 7533-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45933.33207175926</v>
+        <v>46059.62197916667</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11989,7 +11979,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12026,14 +12016,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 48080-2025</t>
+          <t>A 7535-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45932.7685300926</v>
+        <v>46059.62313657408</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12046,7 +12036,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12083,14 +12073,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 48081-2025</t>
+          <t>A 42330-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45932.77</v>
+        <v>45180</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12103,7 +12093,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12140,14 +12130,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 48104-2025</t>
+          <t>A 21932-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45933.3422337963</v>
+        <v>45443</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12160,7 +12150,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12197,14 +12187,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 48452-2025</t>
+          <t>A 1262-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45935.79104166666</v>
+        <v>44936.39234953704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12217,7 +12207,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12254,14 +12244,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 3756-2023</t>
+          <t>A 51887-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44951.47405092593</v>
+        <v>45952</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12274,7 +12264,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>5.2</v>
+        <v>10.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12311,14 +12301,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 8268-2025</t>
+          <t>A 7732-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45708.51210648148</v>
+        <v>44973</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12330,8 +12320,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12368,14 +12363,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 11484-2025</t>
+          <t>A 16121-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45726.69502314815</v>
+        <v>45406.49583333333</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12388,7 +12383,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12425,14 +12420,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 15421-2024</t>
+          <t>A 55189-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45401.36530092593</v>
+        <v>45968.54363425926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12445,7 +12440,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12482,14 +12477,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 49431-2025</t>
+          <t>A 55188-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45938.845</v>
+        <v>45968.5422800926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12502,7 +12497,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12539,14 +12534,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 6003-2023</t>
+          <t>A 55992-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44964.39972222222</v>
+        <v>45973.55912037037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12558,13 +12553,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12601,14 +12591,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 57860-2023</t>
+          <t>A 2917-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45247.44261574074</v>
+        <v>44943</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12621,7 +12611,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12658,14 +12648,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 16912-2025</t>
+          <t>A 55706-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45755.36498842593</v>
+        <v>45972.47302083333</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12678,7 +12668,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12715,14 +12705,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 9642-2025</t>
+          <t>A 55776-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45715.84020833333</v>
+        <v>45972</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12735,7 +12725,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12772,14 +12762,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 48955-2025</t>
+          <t>A 33939-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45937</v>
+        <v>45134.55792824074</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12792,7 +12782,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12829,14 +12819,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 16587-2025</t>
+          <t>A 56381-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45752.87754629629</v>
+        <v>45974.7060300926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12849,7 +12839,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12886,14 +12876,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 5152-2024</t>
+          <t>A 19391-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45330.49232638889</v>
+        <v>45429.37967592593</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12906,7 +12896,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12943,14 +12933,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 48760-2025</t>
+          <t>A 19394-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45936.77475694445</v>
+        <v>45429.38112268518</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12963,7 +12953,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13000,14 +12990,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 14787-2024</t>
+          <t>A 56379-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45397.7650462963</v>
+        <v>45974.70221064815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13020,7 +13010,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13057,14 +13047,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 14789-2024</t>
+          <t>A 8372-2026</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45397.81939814815</v>
+        <v>46064.71388888889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13077,7 +13067,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13114,14 +13104,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 49598-2025</t>
+          <t>A 59381-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45939.53748842593</v>
+        <v>44905.46840277778</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13134,7 +13124,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13171,14 +13161,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 49855-2025</t>
+          <t>A 20169-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45940.50458333334</v>
+        <v>45772.57777777778</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13191,7 +13181,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13228,14 +13218,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 49751-2023</t>
+          <t>A 57567-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45212.52082175926</v>
+        <v>45980.73072916667</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13248,7 +13238,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>11.5</v>
+        <v>2.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13285,14 +13275,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 60814-2024</t>
+          <t>A 57569-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45644.61975694444</v>
+        <v>45980.73299768518</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13305,7 +13295,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13342,14 +13332,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 52097-2024</t>
+          <t>A 17199-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45608.4153125</v>
+        <v>45756.41421296296</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13362,7 +13352,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>10.9</v>
+        <v>0.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13399,14 +13389,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 51167-2025</t>
+          <t>A 58444-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45947.59884259259</v>
+        <v>45985.61791666667</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13419,7 +13409,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13456,14 +13446,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 50685-2025</t>
+          <t>A 9721-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45945.82289351852</v>
+        <v>44984</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13476,7 +13466,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13513,14 +13503,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 59684-2022</t>
+          <t>A 58398-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44908</v>
+        <v>45985.56231481482</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13532,13 +13522,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13575,14 +13560,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 30674-2023</t>
+          <t>A 58443-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45112</v>
+        <v>45985.61674768518</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13595,7 +13580,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13632,14 +13617,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 12918-2021</t>
+          <t>A 10586-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44271</v>
+        <v>45366.69975694444</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13652,7 +13637,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13689,14 +13674,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 51890-2025</t>
+          <t>A 58866-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45952.41594907407</v>
+        <v>45987.44790509259</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13709,7 +13694,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13746,14 +13731,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 20172-2025</t>
+          <t>A 58833-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45772.57979166666</v>
+        <v>45987.35474537037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13766,7 +13751,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>4.9</v>
+        <v>0.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13803,14 +13788,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 57902-2022</t>
+          <t>A 29092-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44900.35104166667</v>
+        <v>45105.34570601852</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13822,8 +13807,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13860,14 +13850,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 17195-2025</t>
+          <t>A 48595-2021</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45756.40695601852</v>
+        <v>44452.48140046297</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13880,7 +13870,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13917,14 +13907,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 20260-2021</t>
+          <t>A 8657-2026</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44314</v>
+        <v>46066.37245370371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13936,13 +13926,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>1.1</v>
+        <v>10</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13979,14 +13964,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 16169-2024</t>
+          <t>A 8659-2026</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45406.61987268519</v>
+        <v>46066.37532407408</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13999,7 +13984,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14036,14 +14021,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 8456-2024</t>
+          <t>A 59309-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45354</v>
+        <v>45989.27822916667</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14056,7 +14041,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14093,14 +14078,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 50958-2023</t>
+          <t>A 59156-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45210</v>
+        <v>45988.54133101852</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14112,13 +14097,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14155,14 +14135,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 17972-2023</t>
+          <t>A 59508-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45040</v>
+        <v>45989.64269675926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14174,8 +14154,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14212,14 +14197,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 51887-2025</t>
+          <t>A 59317-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45952</v>
+        <v>45989.32200231482</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14232,7 +14217,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>10.6</v>
+        <v>0.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14269,14 +14254,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 7047-2023</t>
+          <t>A 24611-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44968</v>
+        <v>45084.33306712963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14289,7 +14274,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14326,14 +14311,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 55189-2025</t>
+          <t>A 62148-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45968.54363425926</v>
+        <v>44922.40197916667</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14346,7 +14331,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14383,14 +14368,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 20454-2025</t>
+          <t>A 946-2026</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45775.50877314815</v>
+        <v>46030.53789351852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14403,7 +14388,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14440,14 +14425,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 55188-2025</t>
+          <t>A 3756-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45968.5422800926</v>
+        <v>44951.47405092593</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14460,7 +14445,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.8</v>
+        <v>5.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14497,14 +14482,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 55992-2025</t>
+          <t>A 22386-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45973.55912037037</v>
+        <v>45446.66300925926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14517,7 +14502,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14554,14 +14539,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 55706-2025</t>
+          <t>A 59042-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45972.47302083333</v>
+        <v>45988.37216435185</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14574,7 +14559,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14611,14 +14596,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 62535-2023</t>
+          <t>A 8268-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45268</v>
+        <v>45708.51210648148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14631,7 +14616,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14668,14 +14653,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 55776-2025</t>
+          <t>A 11484-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45972</v>
+        <v>45726.69502314815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14688,7 +14673,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14725,14 +14710,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 56381-2025</t>
+          <t>A 15421-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45974.7060300926</v>
+        <v>45401.36530092593</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14745,7 +14730,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14782,14 +14767,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 56379-2025</t>
+          <t>A 6003-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45974.70221064815</v>
+        <v>44964.39972222222</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14801,8 +14786,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14839,14 +14829,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 16280-2025</t>
+          <t>A 1437-2026</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45751.28666666667</v>
+        <v>46032.56134259259</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14858,13 +14848,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14901,14 +14886,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 10655-2025</t>
+          <t>A 57860-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45721.69958333333</v>
+        <v>45247.44261574074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14921,7 +14906,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14958,14 +14943,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 57567-2025</t>
+          <t>A 1880-2026</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45980.73072916667</v>
+        <v>46035.47288194444</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14978,7 +14963,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15015,14 +15000,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 44669-2023</t>
+          <t>A 16912-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45189</v>
+        <v>45755.36498842593</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15035,7 +15020,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15072,14 +15057,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 57569-2025</t>
+          <t>A 9642-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45980.73299768518</v>
+        <v>45715.84020833333</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15092,7 +15077,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15129,14 +15114,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 64386-2021</t>
+          <t>A 1438-2026</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44511</v>
+        <v>46032.5637037037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15149,7 +15134,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15186,14 +15171,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 66386-2021</t>
+          <t>A 16587-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44518</v>
+        <v>45752.87754629629</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15206,7 +15191,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15243,14 +15228,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 58444-2025</t>
+          <t>A 5152-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45985.61791666667</v>
+        <v>45330.49232638889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15263,7 +15248,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15300,14 +15285,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 58398-2025</t>
+          <t>A 1427-2026</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45985.56231481482</v>
+        <v>46031.94480324074</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15320,7 +15305,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15357,14 +15342,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 58443-2025</t>
+          <t>A 14787-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45985.61674768518</v>
+        <v>45397.7650462963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15377,7 +15362,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15414,14 +15399,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 17201-2025</t>
+          <t>A 14789-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45756.42020833334</v>
+        <v>45397.81939814815</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15434,7 +15419,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15471,14 +15456,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 58866-2025</t>
+          <t>A 1860-2026</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45987.44790509259</v>
+        <v>46035.44283564815</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15491,7 +15476,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15528,14 +15513,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 58833-2025</t>
+          <t>A 1513-2026</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45987.35474537037</v>
+        <v>46034.34575231482</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15548,7 +15533,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15585,14 +15570,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 1005-2024</t>
+          <t>A 2411-2026</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45301</v>
+        <v>46036.73222222222</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15605,7 +15590,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15642,14 +15627,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 59309-2025</t>
+          <t>A 1277-2026</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45989.27822916667</v>
+        <v>46031</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15662,7 +15647,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15699,14 +15684,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 59156-2025</t>
+          <t>A 2416-2026</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45988.54133101852</v>
+        <v>46036.76255787037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15719,7 +15704,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15756,14 +15741,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 4548-2024</t>
+          <t>A 2051-2026</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45327.7147800926</v>
+        <v>46031</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15775,8 +15760,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G265" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -15813,14 +15803,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 59508-2025</t>
+          <t>A 2410-2026</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45989.64269675926</v>
+        <v>46036.72965277778</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15832,13 +15822,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -15875,14 +15860,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 59317-2025</t>
+          <t>A 2430-2026</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45989.32200231482</v>
+        <v>46036.81327546296</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15895,7 +15880,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -15932,14 +15917,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 946-2026</t>
+          <t>A 2431-2026</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>46030.53789351852</v>
+        <v>46036.81487268519</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15952,7 +15937,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -15989,14 +15974,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 22386-2024</t>
+          <t>A 2432-2026</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45446.66300925926</v>
+        <v>46036.81594907407</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16009,7 +15994,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16046,14 +16031,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 59042-2025</t>
+          <t>A 49751-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45988.37216435185</v>
+        <v>45212.52082175926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16066,7 +16051,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.5</v>
+        <v>11.5</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16103,14 +16088,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 1437-2026</t>
+          <t>A 60814-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>46032.56134259259</v>
+        <v>45644.61975694444</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16123,7 +16108,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16160,14 +16145,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 1880-2026</t>
+          <t>A 2052-2026</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>46035.47288194444</v>
+        <v>46031</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16179,8 +16164,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G272" t="n">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16217,14 +16207,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 1438-2026</t>
+          <t>A 60802-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>46032.5637037037</v>
+        <v>45999.43222222223</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16237,7 +16227,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16274,14 +16264,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 60589-2023</t>
+          <t>A 60975-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45260.28659722222</v>
+        <v>45999.69570601852</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16294,7 +16284,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16331,14 +16321,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 1427-2026</t>
+          <t>A 60985-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>46031.94480324074</v>
+        <v>45999.70759259259</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16351,7 +16341,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16388,14 +16378,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 1860-2026</t>
+          <t>A 3012-2026</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>46035.44283564815</v>
+        <v>46038.66331018518</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16408,7 +16398,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16445,14 +16435,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 1513-2026</t>
+          <t>A 52097-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>46034.34575231482</v>
+        <v>45608.4153125</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16465,7 +16455,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.1</v>
+        <v>10.9</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16502,14 +16492,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 57921-2022</t>
+          <t>A 60973-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44900</v>
+        <v>45999.69430555555</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16522,7 +16512,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16559,14 +16549,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 2411-2026</t>
+          <t>A 3010-2026</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>46036.73222222222</v>
+        <v>46038.66194444444</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16579,7 +16569,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16616,14 +16606,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 1277-2026</t>
+          <t>A 60981-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>46031</v>
+        <v>45999.70361111111</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16636,7 +16626,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16673,14 +16663,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 2416-2026</t>
+          <t>A 59684-2022</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>46036.76255787037</v>
+        <v>44908</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16692,8 +16682,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G281" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16730,14 +16725,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 2051-2026</t>
+          <t>A 3382-2026</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>46031</v>
+        <v>46042.36003472222</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16749,13 +16744,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G282" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16792,14 +16782,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 2410-2026</t>
+          <t>A 30674-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>46036.72965277778</v>
+        <v>45112</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16812,7 +16802,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -16849,14 +16839,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 2430-2026</t>
+          <t>A 12918-2021</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>46036.81327546296</v>
+        <v>44271</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16869,7 +16859,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -16906,14 +16896,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 2431-2026</t>
+          <t>A 20172-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>46036.81487268519</v>
+        <v>45772.57979166666</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16926,7 +16916,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>1.7</v>
+        <v>4.9</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -16963,14 +16953,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 2432-2026</t>
+          <t>A 57902-2022</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>46036.81594907407</v>
+        <v>44900.35104166667</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -16983,7 +16973,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17020,14 +17010,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 21232-2023</t>
+          <t>A 17195-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45062.54716435185</v>
+        <v>45756.40695601852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17040,7 +17030,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17077,14 +17067,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 2052-2026</t>
+          <t>A 20260-2021</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>46031</v>
+        <v>44314</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17098,11 +17088,11 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G288" t="n">
-        <v>8.5</v>
+        <v>1.1</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17139,14 +17129,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 16281-2025</t>
+          <t>A 16169-2024</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45751.29027777778</v>
+        <v>45406.61987268519</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17158,13 +17148,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G289" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17201,14 +17186,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 16283-2025</t>
+          <t>A 8456-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45751.29266203703</v>
+        <v>45354</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17220,13 +17205,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G290" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17263,14 +17243,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 60802-2025</t>
+          <t>A 50958-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45999.43222222223</v>
+        <v>45210</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17282,8 +17262,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G291" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17320,14 +17305,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 60975-2025</t>
+          <t>A 17972-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45999.69570601852</v>
+        <v>45040</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17340,7 +17325,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17377,14 +17362,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 60985-2025</t>
+          <t>A 7047-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45999.70759259259</v>
+        <v>44968</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17397,7 +17382,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17434,14 +17419,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 3012-2026</t>
+          <t>A 20454-2025</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>46038.66331018518</v>
+        <v>45775.50877314815</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17454,7 +17439,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17491,14 +17476,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 60973-2025</t>
+          <t>A 62535-2023</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45999.69430555555</v>
+        <v>45268</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17511,7 +17496,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17548,14 +17533,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 3010-2026</t>
+          <t>A 16280-2025</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>46038.66194444444</v>
+        <v>45751.28666666667</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17567,8 +17552,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G296" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17605,14 +17595,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 60981-2025</t>
+          <t>A 10655-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45999.70361111111</v>
+        <v>45721.69958333333</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17625,7 +17615,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17662,14 +17652,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 7734-2022</t>
+          <t>A 44669-2023</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>44608</v>
+        <v>45189</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17682,7 +17672,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17719,14 +17709,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 20806-2023</t>
+          <t>A 64386-2021</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45058</v>
+        <v>44511</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17739,7 +17729,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -17776,14 +17766,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 54097-2024</t>
+          <t>A 66386-2021</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45616.51472222222</v>
+        <v>44518</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17796,7 +17786,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -17833,14 +17823,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 59225-2023</t>
+          <t>A 17201-2025</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45253</v>
+        <v>45756.42020833334</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17853,7 +17843,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -17890,14 +17880,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 9863-2024</t>
+          <t>A 1005-2024</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45363</v>
+        <v>45301</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17947,14 +17937,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 5523-2023</t>
+          <t>A 4548-2024</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>44960</v>
+        <v>45327.7147800926</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17967,7 +17957,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18004,14 +17994,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 3382-2026</t>
+          <t>A 60589-2023</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>46042.36003472222</v>
+        <v>45260.28659722222</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18024,7 +18014,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18061,14 +18051,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 11793-2024</t>
+          <t>A 57921-2022</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45375.30324074074</v>
+        <v>44900</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18081,7 +18071,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18118,14 +18108,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 60380-2022</t>
+          <t>A 21232-2023</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>44910.69658564815</v>
+        <v>45062.54716435185</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18138,7 +18128,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18175,14 +18165,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 8983-2024</t>
+          <t>A 16281-2025</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45356</v>
+        <v>45751.29027777778</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18194,8 +18184,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G307" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18232,14 +18227,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 3701-2026</t>
+          <t>A 16283-2025</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>46043.47123842593</v>
+        <v>45751.29266203703</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18251,8 +18246,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G308" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18289,14 +18289,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 50945-2023</t>
+          <t>A 7734-2022</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45210</v>
+        <v>44608</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18308,13 +18308,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G309" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18351,14 +18346,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 4260-2026</t>
+          <t>A 20806-2023</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>46045.3403125</v>
+        <v>45058</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18371,7 +18366,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18408,14 +18403,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 61731-2025</t>
+          <t>A 54097-2024</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>46002.59304398148</v>
+        <v>45616.51472222222</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18428,7 +18423,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18465,14 +18460,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 22515-2022</t>
+          <t>A 59225-2023</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>44713.68042824074</v>
+        <v>45253</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18485,7 +18480,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18522,14 +18517,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 22517-2022</t>
+          <t>A 9863-2024</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>44713.68208333333</v>
+        <v>45363</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18542,7 +18537,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18579,14 +18574,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 5707-2026</t>
+          <t>A 5523-2023</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>46051.5116087963</v>
+        <v>44960</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18599,7 +18594,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18636,14 +18631,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 46108-2021</t>
+          <t>A 11793-2024</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>44442.36792824074</v>
+        <v>45375.30324074074</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18656,7 +18651,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18693,14 +18688,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 5708-2026</t>
+          <t>A 60380-2022</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>46051.51230324074</v>
+        <v>44910.69658564815</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18713,7 +18708,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18750,14 +18745,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 6525-2025</t>
+          <t>A 8983-2024</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45699.66690972223</v>
+        <v>45356</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18770,7 +18765,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -18807,14 +18802,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 39000-2023</t>
+          <t>A 50945-2023</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45163.67079861111</v>
+        <v>45210</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18826,8 +18821,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G318" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -18864,14 +18864,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 6083-2026</t>
+          <t>A 22515-2022</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>46052.68944444445</v>
+        <v>44713.68042824074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -18921,14 +18921,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 55240-2023</t>
+          <t>A 22517-2022</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45237.63732638889</v>
+        <v>44713.68208333333</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -18978,14 +18978,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 50053-2024</t>
+          <t>A 46108-2021</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45600.33508101852</v>
+        <v>44442.36792824074</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19035,14 +19035,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 58074-2022</t>
+          <t>A 6525-2025</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>44900.61518518518</v>
+        <v>45699.66690972223</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19092,14 +19092,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 11797-2024</t>
+          <t>A 39000-2023</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45375.38054398148</v>
+        <v>45163.67079861111</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19149,14 +19149,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 53213-2024</t>
+          <t>A 55240-2023</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45612.65795138889</v>
+        <v>45237.63732638889</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19206,14 +19206,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 46747-2023</t>
+          <t>A 50053-2024</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45198</v>
+        <v>45600.33508101852</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19225,13 +19225,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G325" t="n">
-        <v>6.6</v>
+        <v>1.6</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19268,14 +19263,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 5663-2025</t>
+          <t>A 58074-2022</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45693.82982638889</v>
+        <v>44900.61518518518</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19288,7 +19283,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>8.199999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19325,14 +19320,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 49455-2023</t>
+          <t>A 11797-2024</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45211.50127314815</v>
+        <v>45375.38054398148</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19345,7 +19340,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19382,14 +19377,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 7329-2025</t>
+          <t>A 53213-2024</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45703.32144675926</v>
+        <v>45612.65795138889</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19402,7 +19397,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19439,14 +19434,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 7680-2025</t>
+          <t>A 46747-2023</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45706.36583333334</v>
+        <v>45198</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19458,8 +19453,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G329" t="n">
-        <v>0.5</v>
+        <v>6.6</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19496,14 +19496,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 34133-2022</t>
+          <t>A 49455-2023</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>44791.52582175926</v>
+        <v>45211.50127314815</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19553,14 +19553,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 44668-2023</t>
+          <t>A 34133-2022</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45189.72548611111</v>
+        <v>44791.52582175926</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19610,14 +19610,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 47583-2024</t>
+          <t>A 44668-2023</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45587.77702546296</v>
+        <v>45189.72548611111</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19629,13 +19629,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G332" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -19672,14 +19667,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 49357-2024</t>
+          <t>A 47583-2024</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45595.61976851852</v>
+        <v>45587.77702546296</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19691,8 +19686,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G333" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -19729,14 +19729,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 61904-2022</t>
+          <t>A 49357-2024</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>44917.73387731481</v>
+        <v>45595.61976851852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19748,13 +19748,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F334" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G334" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -19791,14 +19786,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 61907-2022</t>
+          <t>A 61904-2022</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>44917.73603009259</v>
+        <v>44917.73387731481</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19816,7 +19811,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -19853,14 +19848,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 4065-2023</t>
+          <t>A 61907-2022</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>44952</v>
+        <v>44917.73603009259</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19872,8 +19867,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G336" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -19910,14 +19910,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 7962-2024</t>
+          <t>A 4065-2023</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>45350.57357638889</v>
+        <v>44952</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -19967,14 +19967,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 65946-2021</t>
+          <t>A 7962-2024</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>44517</v>
+        <v>45350.57357638889</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20024,14 +20024,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 48718-2023</t>
+          <t>A 65946-2021</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>45208</v>
+        <v>44517</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -20081,14 +20081,14 @@
     <row r="340" ht="15" customHeight="1">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 20456-2025</t>
+          <t>A 48718-2023</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>45775.51363425926</v>
+        <v>45208</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -20138,14 +20138,14 @@
     <row r="341" ht="15" customHeight="1">
       <c r="A341" t="inlineStr">
         <is>
-          <t>A 43384-2023</t>
+          <t>A 20456-2025</t>
         </is>
       </c>
       <c r="B341" s="1" t="n">
-        <v>45183.85680555556</v>
+        <v>45775.51363425926</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -20195,14 +20195,14 @@
     <row r="342" ht="15" customHeight="1">
       <c r="A342" t="inlineStr">
         <is>
-          <t>A 616-2025</t>
+          <t>A 43384-2023</t>
         </is>
       </c>
       <c r="B342" s="1" t="n">
-        <v>45664.60969907408</v>
+        <v>45183.85680555556</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>10</v>
+        <v>2.2</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -20252,14 +20252,14 @@
     <row r="343" ht="15" customHeight="1">
       <c r="A343" t="inlineStr">
         <is>
-          <t>A 17527-2025</t>
+          <t>A 616-2025</t>
         </is>
       </c>
       <c r="B343" s="1" t="n">
-        <v>45757.58712962963</v>
+        <v>45664.60969907408</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -20309,14 +20309,14 @@
     <row r="344" ht="15" customHeight="1">
       <c r="A344" t="inlineStr">
         <is>
-          <t>A 50160-2022</t>
+          <t>A 17527-2025</t>
         </is>
       </c>
       <c r="B344" s="1" t="n">
-        <v>44865.58923611111</v>
+        <v>45757.58712962963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -20366,14 +20366,14 @@
     <row r="345" ht="15" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
-          <t>A 39475-2023</t>
+          <t>A 50160-2022</t>
         </is>
       </c>
       <c r="B345" s="1" t="n">
-        <v>45166</v>
+        <v>44865.58923611111</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -20423,14 +20423,14 @@
     <row r="346" ht="15" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
-          <t>A 14655-2022</t>
+          <t>A 39475-2023</t>
         </is>
       </c>
       <c r="B346" s="1" t="n">
-        <v>44655</v>
+        <v>45166</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20443,7 +20443,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -20480,14 +20480,14 @@
     <row r="347" ht="15" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
-          <t>A 54587-2023</t>
+          <t>A 14655-2022</t>
         </is>
       </c>
       <c r="B347" s="1" t="n">
-        <v>45233</v>
+        <v>44655</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -20537,14 +20537,14 @@
     <row r="348" ht="15" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
-          <t>A 16284-2025</t>
+          <t>A 54587-2023</t>
         </is>
       </c>
       <c r="B348" s="1" t="n">
-        <v>45751.29762731482</v>
+        <v>45233</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20557,7 +20557,7 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -20594,14 +20594,14 @@
     <row r="349" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
-          <t>A 2345-2023</t>
+          <t>A 16284-2025</t>
         </is>
       </c>
       <c r="B349" s="1" t="n">
-        <v>44942</v>
+        <v>45751.29762731482</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -20651,14 +20651,14 @@
     <row r="350" ht="15" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
-          <t>A 3619-2023</t>
+          <t>A 2345-2023</t>
         </is>
       </c>
       <c r="B350" s="1" t="n">
-        <v>44950.63637731481</v>
+        <v>44942</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -20708,14 +20708,14 @@
     <row r="351" ht="15" customHeight="1">
       <c r="A351" t="inlineStr">
         <is>
-          <t>A 44744-2023</t>
+          <t>A 3619-2023</t>
         </is>
       </c>
       <c r="B351" s="1" t="n">
-        <v>45190.39100694445</v>
+        <v>44950.63637731481</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -20765,14 +20765,14 @@
     <row r="352" ht="15" customHeight="1">
       <c r="A352" t="inlineStr">
         <is>
-          <t>A 18068-2025</t>
+          <t>A 44744-2023</t>
         </is>
       </c>
       <c r="B352" s="1" t="n">
-        <v>45761.49069444444</v>
+        <v>45190.39100694445</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -20822,14 +20822,14 @@
     <row r="353" ht="15" customHeight="1">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A 63073-2023</t>
+          <t>A 18068-2025</t>
         </is>
       </c>
       <c r="B353" s="1" t="n">
-        <v>45273.00841435185</v>
+        <v>45761.49069444444</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -20879,14 +20879,14 @@
     <row r="354" ht="15" customHeight="1">
       <c r="A354" t="inlineStr">
         <is>
-          <t>A 56788-2024</t>
+          <t>A 63073-2023</t>
         </is>
       </c>
       <c r="B354" s="1" t="n">
-        <v>45628.45511574074</v>
+        <v>45273.00841435185</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>6.3</v>
+        <v>0.8</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -20936,14 +20936,14 @@
     <row r="355" ht="15" customHeight="1">
       <c r="A355" t="inlineStr">
         <is>
-          <t>A 37653-2023</t>
+          <t>A 56788-2024</t>
         </is>
       </c>
       <c r="B355" s="1" t="n">
-        <v>45159.51601851852</v>
+        <v>45628.45511574074</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>0.9</v>
+        <v>6.3</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -20993,14 +20993,14 @@
     <row r="356" ht="15" customHeight="1">
       <c r="A356" t="inlineStr">
         <is>
-          <t>A 19319-2025</t>
+          <t>A 37653-2023</t>
         </is>
       </c>
       <c r="B356" s="1" t="n">
-        <v>45769.57847222222</v>
+        <v>45159.51601851852</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21050,14 +21050,14 @@
     <row r="357" ht="15" customHeight="1">
       <c r="A357" t="inlineStr">
         <is>
-          <t>A 20475-2023</t>
+          <t>A 19319-2025</t>
         </is>
       </c>
       <c r="B357" s="1" t="n">
-        <v>45057</v>
+        <v>45769.57847222222</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -21107,14 +21107,14 @@
     <row r="358" ht="15" customHeight="1">
       <c r="A358" t="inlineStr">
         <is>
-          <t>A 12990-2024</t>
+          <t>A 20475-2023</t>
         </is>
       </c>
       <c r="B358" s="1" t="n">
-        <v>45385.55565972222</v>
+        <v>45057</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>0.3</v>
+        <v>3.1</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -21164,14 +21164,14 @@
     <row r="359" ht="15" customHeight="1">
       <c r="A359" t="inlineStr">
         <is>
-          <t>A 57167-2022</t>
+          <t>A 12990-2024</t>
         </is>
       </c>
       <c r="B359" s="1" t="n">
-        <v>44895.60074074074</v>
+        <v>45385.55565972222</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -21221,14 +21221,14 @@
     <row r="360" ht="15" customHeight="1">
       <c r="A360" t="inlineStr">
         <is>
-          <t>A 50307-2023</t>
+          <t>A 57167-2022</t>
         </is>
       </c>
       <c r="B360" s="1" t="n">
-        <v>45209</v>
+        <v>44895.60074074074</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21241,7 +21241,7 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -21278,14 +21278,14 @@
     <row r="361" ht="15" customHeight="1">
       <c r="A361" t="inlineStr">
         <is>
-          <t>A 38046-2022</t>
+          <t>A 50307-2023</t>
         </is>
       </c>
       <c r="B361" s="1" t="n">
-        <v>44811.64700231481</v>
+        <v>45209</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -21335,14 +21335,14 @@
     <row r="362" ht="15" customHeight="1">
       <c r="A362" t="inlineStr">
         <is>
-          <t>A 46736-2023</t>
+          <t>A 38046-2022</t>
         </is>
       </c>
       <c r="B362" s="1" t="n">
-        <v>45198</v>
+        <v>44811.64700231481</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21354,13 +21354,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F362" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G362" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -21397,14 +21392,14 @@
     <row r="363" ht="15" customHeight="1">
       <c r="A363" t="inlineStr">
         <is>
-          <t>A 16590-2025</t>
+          <t>A 46736-2023</t>
         </is>
       </c>
       <c r="B363" s="1" t="n">
-        <v>45752.89317129629</v>
+        <v>45198</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21416,8 +21411,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G363" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -21454,14 +21454,14 @@
     <row r="364" ht="15" customHeight="1">
       <c r="A364" t="inlineStr">
         <is>
-          <t>A 30362-2024</t>
+          <t>A 16590-2025</t>
         </is>
       </c>
       <c r="B364" s="1" t="n">
-        <v>45491.35975694445</v>
+        <v>45752.89317129629</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -21511,14 +21511,14 @@
     <row r="365" ht="15" customHeight="1">
       <c r="A365" t="inlineStr">
         <is>
-          <t>A 1122-2025</t>
+          <t>A 30362-2024</t>
         </is>
       </c>
       <c r="B365" s="1" t="n">
-        <v>45666.66532407407</v>
+        <v>45491.35975694445</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -21568,121 +21568,178 @@
     <row r="366" ht="15" customHeight="1">
       <c r="A366" t="inlineStr">
         <is>
+          <t>A 1122-2025</t>
+        </is>
+      </c>
+      <c r="B366" s="1" t="n">
+        <v>45666.66532407407</v>
+      </c>
+      <c r="C366" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="G366" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0</v>
+      </c>
+      <c r="L366" t="n">
+        <v>0</v>
+      </c>
+      <c r="M366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N366" t="n">
+        <v>0</v>
+      </c>
+      <c r="O366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R366" s="2" t="inlineStr"/>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="A367" t="inlineStr">
+        <is>
           <t>A 46732-2023</t>
         </is>
       </c>
-      <c r="B366" s="1" t="n">
+      <c r="B367" s="1" t="n">
         <v>45198.59054398148</v>
       </c>
-      <c r="C366" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E366" t="inlineStr">
-        <is>
-          <t>VÅRGÅRDA</t>
-        </is>
-      </c>
-      <c r="F366" t="inlineStr">
+      <c r="C367" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
         <is>
           <t>Kyrkan</t>
         </is>
       </c>
-      <c r="G366" t="n">
+      <c r="G367" t="n">
         <v>1.8</v>
       </c>
-      <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="n">
-        <v>0</v>
-      </c>
-      <c r="J366" t="n">
-        <v>0</v>
-      </c>
-      <c r="K366" t="n">
-        <v>0</v>
-      </c>
-      <c r="L366" t="n">
-        <v>0</v>
-      </c>
-      <c r="M366" t="n">
-        <v>0</v>
-      </c>
-      <c r="N366" t="n">
-        <v>0</v>
-      </c>
-      <c r="O366" t="n">
-        <v>0</v>
-      </c>
-      <c r="P366" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q366" t="n">
-        <v>0</v>
-      </c>
-      <c r="R366" s="2" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0</v>
+      </c>
+      <c r="L367" t="n">
+        <v>0</v>
+      </c>
+      <c r="M367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N367" t="n">
+        <v>0</v>
+      </c>
+      <c r="O367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R367" s="2" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
         <is>
           <t>A 21535-2025</t>
         </is>
       </c>
-      <c r="B367" s="1" t="n">
+      <c r="B368" s="1" t="n">
         <v>45782.65741898148</v>
       </c>
-      <c r="C367" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>VÅRGÅRDA</t>
-        </is>
-      </c>
-      <c r="G367" t="n">
+      <c r="C368" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="G368" t="n">
         <v>3.6</v>
       </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="n">
-        <v>0</v>
-      </c>
-      <c r="J367" t="n">
-        <v>0</v>
-      </c>
-      <c r="K367" t="n">
-        <v>0</v>
-      </c>
-      <c r="L367" t="n">
-        <v>0</v>
-      </c>
-      <c r="M367" t="n">
-        <v>0</v>
-      </c>
-      <c r="N367" t="n">
-        <v>0</v>
-      </c>
-      <c r="O367" t="n">
-        <v>0</v>
-      </c>
-      <c r="P367" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q367" t="n">
-        <v>0</v>
-      </c>
-      <c r="R367" s="2" t="inlineStr"/>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="n">
+        <v>0</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0</v>
+      </c>
+      <c r="L368" t="n">
+        <v>0</v>
+      </c>
+      <c r="M368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N368" t="n">
+        <v>0</v>
+      </c>
+      <c r="O368" t="n">
+        <v>0</v>
+      </c>
+      <c r="P368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>0</v>
+      </c>
+      <c r="R368" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z368"/>
+  <dimension ref="A1:Z372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 11214-2023</t>
+          <t>A 2412-2026</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44992</v>
+        <v>46036.73480324074</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>4.4</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -615,126 +615,126 @@
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
+          <t>Svinrot</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 2412-2026 artfynd.xlsx", "A 2412-2026")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 2412-2026 karta.png", "A 2412-2026")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 2412-2026 FSC-klagomål.docx", "A 2412-2026")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 2412-2026 FSC-klagomål mail.docx", "A 2412-2026")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 2412-2026 tillsynsbegäran.docx", "A 2412-2026")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 2412-2026 tillsynsbegäran mail.docx", "A 2412-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 11214-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
           <t>Stare</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 11214-2023 artfynd.xlsx", "A 11214-2023")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 11214-2023 karta.png", "A 11214-2023")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 11214-2023 FSC-klagomål.docx", "A 11214-2023")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 11214-2023 FSC-klagomål mail.docx", "A 11214-2023")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 11214-2023 tillsynsbegäran.docx", "A 11214-2023")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 11214-2023 tillsynsbegäran mail.docx", "A 11214-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 2412-2026</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>46036.73480324074</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>VÅRGÅRDA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Svinrot</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 2412-2026 artfynd.xlsx", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 2412-2026 karta.png", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 2412-2026 FSC-klagomål.docx", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 2412-2026 FSC-klagomål mail.docx", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 2412-2026 tillsynsbegäran.docx", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 2412-2026 tillsynsbegäran mail.docx", "A 2412-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>45203.28686342593</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44249.74386574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44271.61297453703</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44496</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44511</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>44314</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>44316.39745370371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44568.35050925926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44568.35122685185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44445.32841435185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44601</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44533</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44572</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44389.36113425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44256</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44677</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>44818</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>44347</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44571</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44271.47305555556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>44501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>44455.51653935185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44564</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44382.40559027778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44505</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>44743.30945601852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>44607</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44580</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44446.59780092593</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44298.64422453703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>44511</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>44811.28633101852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>44616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>44621.91310185185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44434.48554398148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44465.35538194444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44469.43070601852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>44501</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>44299</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3322,14 +3322,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 15117-2021</t>
+          <t>A 29025-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44282</v>
+        <v>44358</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3379,14 +3379,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 29025-2021</t>
+          <t>A 15117-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44358</v>
+        <v>44282</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>44573.34431712963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44826.95922453704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>44662.48648148148</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>44648.29912037037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44515</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>45751.29126157407</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>44615.89261574074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44510.64112268519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3897,14 +3897,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 26362-2024</t>
+          <t>A 30061-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45469.38258101852</v>
+        <v>44363</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3954,14 +3954,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 30061-2021</t>
+          <t>A 17951-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44363</v>
+        <v>45040</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4011,14 +4011,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 9725-2023</t>
+          <t>A 2995-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44984</v>
+        <v>45315</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4068,14 +4068,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 17951-2023</t>
+          <t>A 59619-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45040</v>
+        <v>44907.88240740741</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4125,14 +4125,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 61969-2022</t>
+          <t>A 26362-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44914</v>
+        <v>45469.38258101852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4182,14 +4182,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4550-2024</t>
+          <t>A 9725-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45327.71622685185</v>
+        <v>44984</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4239,14 +4239,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 4845-2024</t>
+          <t>A 61969-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45329.35953703704</v>
+        <v>44914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4296,14 +4296,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 2995-2024</t>
+          <t>A 4550-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45315</v>
+        <v>45327.71622685185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4353,14 +4353,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 59619-2022</t>
+          <t>A 4845-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44907.88240740741</v>
+        <v>45329.35953703704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4410,14 +4410,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 30038-2021</t>
+          <t>A 55992-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44363.45402777778</v>
+        <v>45973.55912037037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4467,14 +4467,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 3057-2023</t>
+          <t>A 30038-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44946</v>
+        <v>44363.45402777778</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4524,14 +4524,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 9090-2024</t>
+          <t>A 55706-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45357.90923611111</v>
+        <v>45972.47302083333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4581,14 +4581,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 54991-2024</t>
+          <t>A 3057-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45620.85204861111</v>
+        <v>44946</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4638,14 +4638,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 3701-2026</t>
+          <t>A 55776-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>46043.47123842593</v>
+        <v>45972</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4695,14 +4695,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 55972-2023</t>
+          <t>A 56381-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45233</v>
+        <v>45974.7060300926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4752,14 +4752,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 9802-2021</t>
+          <t>A 39375-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44252.70211805555</v>
+        <v>45889.58944444444</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4809,14 +4809,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 23950-2025</t>
+          <t>A 14786-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45796.35803240741</v>
+        <v>45397.76206018519</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4866,14 +4866,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 9898-2024</t>
+          <t>A 9090-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45363</v>
+        <v>45357.90923611111</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4923,14 +4923,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 4260-2026</t>
+          <t>A 23950-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46045.3403125</v>
+        <v>45796.35803240741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4980,14 +4980,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 24064-2022</t>
+          <t>A 56379-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44725.32741898148</v>
+        <v>45974.70221064815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5037,14 +5037,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 39375-2025</t>
+          <t>A 54991-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45889.58944444444</v>
+        <v>45620.85204861111</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5094,14 +5094,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 12342-2021</t>
+          <t>A 39419-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44267.43596064814</v>
+        <v>45889.66032407407</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5151,14 +5151,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 14786-2024</t>
+          <t>A 39372-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45397.76206018519</v>
+        <v>45889.58609953704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5208,14 +5208,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 39419-2025</t>
+          <t>A 39416-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45889.66032407407</v>
+        <v>45889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 60191-2022</t>
+          <t>A 55972-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44910</v>
+        <v>45233</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5322,14 +5322,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 39372-2025</t>
+          <t>A 39929-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45889.58609953704</v>
+        <v>45891.69728009259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5379,14 +5379,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 39416-2025</t>
+          <t>A 9802-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45889</v>
+        <v>44252.70211805555</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5436,14 +5436,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 52016-2021</t>
+          <t>A 39843-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44463</v>
+        <v>45891</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5493,14 +5493,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 61731-2025</t>
+          <t>A 9898-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46002.59304398148</v>
+        <v>45363</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5550,14 +5550,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 45309-2024</t>
+          <t>A 40239-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45576.43064814815</v>
+        <v>45894.84497685185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5607,14 +5607,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 39929-2025</t>
+          <t>A 45309-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45891.69728009259</v>
+        <v>45576.43064814815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5664,14 +5664,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 39843-2025</t>
+          <t>A 24064-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45891</v>
+        <v>44725.32741898148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5721,14 +5721,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 25324-2025</t>
+          <t>A 12342-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45800</v>
+        <v>44267.43596064814</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5778,14 +5778,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 40239-2025</t>
+          <t>A 40650-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45894.84497685185</v>
+        <v>45896.6321875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5835,14 +5835,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 5448-2025</t>
+          <t>A 40955-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45692.88263888889</v>
+        <v>45897.67510416666</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5892,14 +5892,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 25326-2025</t>
+          <t>A 60191-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45800</v>
+        <v>44910</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5949,14 +5949,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 25906-2025</t>
+          <t>A 41593-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45804.55729166666</v>
+        <v>45901.63788194444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6006,14 +6006,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 25909-2025</t>
+          <t>A 25324-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45804.55820601852</v>
+        <v>45800</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6063,14 +6063,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 25911-2025</t>
+          <t>A 5448-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45804.55912037037</v>
+        <v>45692.88263888889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6120,14 +6120,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 11777-2024</t>
+          <t>A 52016-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45374.35063657408</v>
+        <v>44463</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6177,14 +6177,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 11792-2024</t>
+          <t>A 25326-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45375</v>
+        <v>45800</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6234,14 +6234,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 40650-2025</t>
+          <t>A 41590-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45896.6321875</v>
+        <v>45901.63255787037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6291,14 +6291,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 40955-2025</t>
+          <t>A 41625-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45897.67510416666</v>
+        <v>45901.7124537037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.6</v>
+        <v>5.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6348,14 +6348,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 59325-2023</t>
+          <t>A 57567-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45253</v>
+        <v>45980.73072916667</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6405,14 +6405,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 8195-2024</t>
+          <t>A 25906-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45351.66591435186</v>
+        <v>45804.55729166666</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6462,14 +6462,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 41593-2025</t>
+          <t>A 25909-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45901.63788194444</v>
+        <v>45804.55820601852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6519,14 +6519,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 27109-2025</t>
+          <t>A 25911-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45811.73126157407</v>
+        <v>45804.55912037037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6576,14 +6576,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 27110-2025</t>
+          <t>A 59325-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45811.73269675926</v>
+        <v>45253</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6633,14 +6633,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 41590-2025</t>
+          <t>A 35055-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45901.63255787037</v>
+        <v>45852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6690,14 +6690,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 41625-2025</t>
+          <t>A 57569-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45901.7124537037</v>
+        <v>45980.73299768518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5.4</v>
+        <v>1.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6747,14 +6747,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 26964-2025</t>
+          <t>A 41724-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45811.46918981482</v>
+        <v>45902.4534375</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6804,14 +6804,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 27112-2025</t>
+          <t>A 11777-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45811.73366898148</v>
+        <v>45374.35063657408</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6861,14 +6861,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 54586-2023</t>
+          <t>A 11792-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45233.77412037037</v>
+        <v>45375</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6918,14 +6918,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 58049-2023</t>
+          <t>A 27109-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45247</v>
+        <v>45811.73126157407</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6975,14 +6975,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 27585-2025</t>
+          <t>A 27110-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45813.50371527778</v>
+        <v>45811.73269675926</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7032,14 +7032,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 27227-2025</t>
+          <t>A 42646-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45812.43118055556</v>
+        <v>45906.48516203704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7089,14 +7089,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 27249-2025</t>
+          <t>A 8195-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45812.46844907408</v>
+        <v>45351.66591435186</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7146,14 +7146,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 35055-2025</t>
+          <t>A 26964-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45852</v>
+        <v>45811.46918981482</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7203,14 +7203,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 41724-2025</t>
+          <t>A 27112-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45902.4534375</v>
+        <v>45811.73366898148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7260,14 +7260,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 28052-2025</t>
+          <t>A 54586-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45817.65847222223</v>
+        <v>45233.77412037037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7317,14 +7317,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 28049-2025</t>
+          <t>A 27585-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45817.65653935185</v>
+        <v>45813.50371527778</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7374,14 +7374,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 20275-2025</t>
+          <t>A 27227-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45774.32253472223</v>
+        <v>45812.43118055556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7431,14 +7431,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 54185-2024</t>
+          <t>A 27249-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45616.64060185185</v>
+        <v>45812.46844907408</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7488,14 +7488,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 28152-2025</t>
+          <t>A 43214-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45818.35734953704</v>
+        <v>45910</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7507,8 +7507,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>2.3</v>
+        <v>13.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7545,14 +7550,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 9633-2024</t>
+          <t>A 58049-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45362.3203125</v>
+        <v>45247</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7565,7 +7570,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7602,14 +7607,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 27141-2024</t>
+          <t>A 43593-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45471.55196759259</v>
+        <v>45911.65733796296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7622,7 +7627,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7659,14 +7664,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 42646-2025</t>
+          <t>A 43337-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45906.48516203704</v>
+        <v>45910.73006944444</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7679,7 +7684,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7716,14 +7721,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 21875-2024</t>
+          <t>A 43314-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45443.38331018519</v>
+        <v>45910</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7735,8 +7740,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7773,14 +7783,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 43214-2025</t>
+          <t>A 28052-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45910</v>
+        <v>45817.65847222223</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7792,13 +7802,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>13.8</v>
+        <v>0.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7835,14 +7840,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 43593-2025</t>
+          <t>A 28049-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45911.65733796296</v>
+        <v>45817.65653935185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7855,7 +7860,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7892,14 +7897,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 13034-2025</t>
+          <t>A 20275-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45734.57408564815</v>
+        <v>45774.32253472223</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7912,7 +7917,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7949,14 +7954,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 43337-2025</t>
+          <t>A 54185-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45910.73006944444</v>
+        <v>45616.64060185185</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7969,7 +7974,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8006,14 +8011,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 43314-2025</t>
+          <t>A 28152-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45910</v>
+        <v>45818.35734953704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8023,11 +8028,6 @@
       <c r="E130" t="inlineStr">
         <is>
           <t>VÅRGÅRDA</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -8068,14 +8068,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 30079-2025</t>
+          <t>A 58444-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45826.64440972222</v>
+        <v>45985.61791666667</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8125,14 +8125,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 5707-2026</t>
+          <t>A 58398-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46051.5116087963</v>
+        <v>45985.56231481482</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8182,14 +8182,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 10924-2025</t>
+          <t>A 9633-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45722.83402777778</v>
+        <v>45362.3203125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8239,14 +8239,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 46944-2021</t>
+          <t>A 27141-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44446.51780092593</v>
+        <v>45471.55196759259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8296,14 +8296,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 5708-2026</t>
+          <t>A 58443-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46051.51230324074</v>
+        <v>45985.61674768518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>9.199999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8353,14 +8353,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 37424-2021</t>
+          <t>A 21875-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44398.48474537037</v>
+        <v>45443.38331018519</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8410,14 +8410,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 15236-2024</t>
+          <t>A 45853-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45400</v>
+        <v>45923.6297337963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8467,14 +8467,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 5144-2024</t>
+          <t>A 45293-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45330</v>
+        <v>45920.43634259259</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8524,14 +8524,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 45853-2025</t>
+          <t>A 45292-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45923.6297337963</v>
+        <v>45920.43488425926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8581,14 +8581,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 45293-2025</t>
+          <t>A 13034-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45920.43634259259</v>
+        <v>45734.57408564815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8638,14 +8638,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 13122-2025</t>
+          <t>A 30079-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45734.80390046296</v>
+        <v>45826.64440972222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8695,14 +8695,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 45292-2025</t>
+          <t>A 46234-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45920.43488425926</v>
+        <v>45925.29591435185</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8752,14 +8752,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 6083-2026</t>
+          <t>A 46237-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46052.68944444445</v>
+        <v>45925.30956018518</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.6</v>
+        <v>14.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8809,14 +8809,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 30280-2023</t>
+          <t>A 10924-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45110.88763888889</v>
+        <v>45722.83402777778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8866,14 +8866,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 46234-2025</t>
+          <t>A 46233-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45925.29591435185</v>
+        <v>45925.29270833333</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8923,14 +8923,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 46237-2025</t>
+          <t>A 46944-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45925.30956018518</v>
+        <v>44446.51780092593</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>14.2</v>
+        <v>1.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8980,14 +8980,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 46233-2025</t>
+          <t>A 37424-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45925.29270833333</v>
+        <v>44398.48474537037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9037,14 +9037,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 44431-2023</t>
+          <t>A 15236-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45189.35152777778</v>
+        <v>45400</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9094,14 +9094,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 45978-2022</t>
+          <t>A 58866-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44846.69284722222</v>
+        <v>45987.44790509259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9151,14 +9151,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 54937-2022</t>
+          <t>A 46823-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44881</v>
+        <v>45926.79550925926</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9208,14 +9208,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 46823-2025</t>
+          <t>A 46833-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45926.79550925926</v>
+        <v>45927.68620370371</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9265,14 +9265,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 46833-2025</t>
+          <t>A 58833-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45927.68620370371</v>
+        <v>45987.35474537037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9322,14 +9322,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 47169-2025</t>
+          <t>A 5144-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45929.91121527777</v>
+        <v>45330</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9379,14 +9379,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 48094-2025</t>
+          <t>A 47169-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45933.33019675926</v>
+        <v>45929.91121527777</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9436,14 +9436,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 48100-2025</t>
+          <t>A 48094-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45933.33457175926</v>
+        <v>45933.33019675926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9493,14 +9493,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 48082-2025</t>
+          <t>A 48100-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45932.77143518518</v>
+        <v>45933.33457175926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9550,14 +9550,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 9086-2024</t>
+          <t>A 13122-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45357.90260416667</v>
+        <v>45734.80390046296</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9607,14 +9607,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 9089-2024</t>
+          <t>A 30280-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45357.90612268518</v>
+        <v>45110.88763888889</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9664,14 +9664,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 48099-2025</t>
+          <t>A 48082-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45933.33207175926</v>
+        <v>45932.77143518518</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9721,14 +9721,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 48080-2025</t>
+          <t>A 48099-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45932.7685300926</v>
+        <v>45933.33207175926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9778,14 +9778,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 44421-2024</t>
+          <t>A 48080-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45573.86858796296</v>
+        <v>45932.7685300926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9835,14 +9835,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 20022-2025</t>
+          <t>A 48081-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45772.34013888889</v>
+        <v>45932.77</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9892,14 +9892,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 48081-2025</t>
+          <t>A 48104-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45932.77</v>
+        <v>45933.3422337963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9949,14 +9949,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 48104-2025</t>
+          <t>A 48452-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45933.3422337963</v>
+        <v>45935.79104166666</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10006,14 +10006,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 42359-2023</t>
+          <t>A 49431-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45180.52940972222</v>
+        <v>45938.845</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10063,14 +10063,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 48452-2025</t>
+          <t>A 44431-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45935.79104166666</v>
+        <v>45189.35152777778</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10120,14 +10120,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 49431-2025</t>
+          <t>A 45978-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45938.845</v>
+        <v>44846.69284722222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10184,7 +10184,7 @@
         <v>45937</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10234,14 +10234,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 35621-2025</t>
+          <t>A 54937-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45859.4146875</v>
+        <v>44881</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10291,14 +10291,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 62097-2022</t>
+          <t>A 48760-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44920</v>
+        <v>45936.77475694445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10348,14 +10348,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 48760-2025</t>
+          <t>A 49598-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45936.77475694445</v>
+        <v>45939.53748842593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10405,14 +10405,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 56637-2024</t>
+          <t>A 49855-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45625.69395833334</v>
+        <v>45940.50458333334</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10462,14 +10462,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 22202-2024</t>
+          <t>A 9086-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45446.37318287037</v>
+        <v>45357.90260416667</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.1</v>
+        <v>5.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10519,14 +10519,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 49598-2025</t>
+          <t>A 9089-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45939.53748842593</v>
+        <v>45357.90612268518</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10576,14 +10576,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 9749-2023</t>
+          <t>A 20022-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44984</v>
+        <v>45772.34013888889</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10633,14 +10633,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 49855-2025</t>
+          <t>A 42359-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45940.50458333334</v>
+        <v>45180.52940972222</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10690,14 +10690,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 36637-2025</t>
+          <t>A 51167-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45870.73012731481</v>
+        <v>45947.59884259259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10747,14 +10747,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 36638-2025</t>
+          <t>A 50685-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45870.73099537037</v>
+        <v>45945.82289351852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10804,14 +10804,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 42552-2024</t>
+          <t>A 44421-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45565.61814814815</v>
+        <v>45573.86858796296</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10861,14 +10861,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 36639-2025</t>
+          <t>A 62097-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45870.73174768518</v>
+        <v>44920</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10918,14 +10918,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 36641-2025</t>
+          <t>A 22202-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45871.43119212963</v>
+        <v>45446.37318287037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10975,14 +10975,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 36838-2025</t>
+          <t>A 9749-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45874.37011574074</v>
+        <v>44984</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11032,14 +11032,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 51167-2025</t>
+          <t>A 59309-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45947.59884259259</v>
+        <v>45989.27822916667</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11089,14 +11089,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 50685-2025</t>
+          <t>A 35621-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45945.82289351852</v>
+        <v>45859.4146875</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11146,14 +11146,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 26526-2022</t>
+          <t>A 51890-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44739.44171296297</v>
+        <v>45952.41594907407</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11203,14 +11203,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 59440-2023</t>
+          <t>A 56637-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45254</v>
+        <v>45625.69395833334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>15</v>
+        <v>4.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11260,14 +11260,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 36974-2024</t>
+          <t>A 42552-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45538.89228009259</v>
+        <v>45565.61814814815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11317,14 +11317,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 5663-2025</t>
+          <t>A 59156-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45693.82982638889</v>
+        <v>45988.54133101852</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>8.199999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11374,14 +11374,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 20807-2025</t>
+          <t>A 59508-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45776.65706018519</v>
+        <v>45989.64269675926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11395,11 +11395,11 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11436,14 +11436,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 19308-2025</t>
+          <t>A 59317-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45769.56891203704</v>
+        <v>45989.32200231482</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11455,13 +11455,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11498,14 +11493,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 51890-2025</t>
+          <t>A 26526-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45952.41594907407</v>
+        <v>44739.44171296297</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11518,7 +11513,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11555,14 +11550,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 13397-2025</t>
+          <t>A 59440-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45735.71293981482</v>
+        <v>45254</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11575,7 +11570,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>7.1</v>
+        <v>15</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11612,14 +11607,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 7329-2025</t>
+          <t>A 36637-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45703.32144675926</v>
+        <v>45870.73012731481</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11632,7 +11627,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11669,14 +11664,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 7680-2025</t>
+          <t>A 36638-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45706.36583333334</v>
+        <v>45870.73099537037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11689,7 +11684,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11726,14 +11721,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 7529-2026</t>
+          <t>A 36639-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46059.61733796296</v>
+        <v>45870.73174768518</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11746,7 +11741,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11783,14 +11778,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 7070-2026</t>
+          <t>A 36641-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46058.31163194445</v>
+        <v>45871.43119212963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11803,7 +11798,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11840,14 +11835,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 8895-2023</t>
+          <t>A 36838-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44979</v>
+        <v>45874.37011574074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11859,13 +11854,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11902,14 +11892,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 24785-2023</t>
+          <t>A 13397-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45084.67194444445</v>
+        <v>45735.71293981482</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11922,7 +11912,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.6</v>
+        <v>7.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11959,14 +11949,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 7533-2026</t>
+          <t>A 24785-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46059.62197916667</v>
+        <v>45084.67194444445</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11979,7 +11969,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12016,14 +12006,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 7535-2026</t>
+          <t>A 51887-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46059.62313657408</v>
+        <v>45952</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12036,7 +12026,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.6</v>
+        <v>10.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12073,14 +12063,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 42330-2023</t>
+          <t>A 946-2026</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45180</v>
+        <v>46030.53789351852</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12093,7 +12083,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12130,14 +12120,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 21932-2024</t>
+          <t>A 22386-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45443</v>
+        <v>45446.66300925926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12150,7 +12140,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12187,14 +12177,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 1262-2023</t>
+          <t>A 59042-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44936.39234953704</v>
+        <v>45988.37216435185</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12207,7 +12197,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12244,14 +12234,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 51887-2025</t>
+          <t>A 42330-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45952</v>
+        <v>45180</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12264,7 +12254,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>10.6</v>
+        <v>0.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12301,14 +12291,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 7732-2023</t>
+          <t>A 36974-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44973</v>
+        <v>45538.89228009259</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12320,13 +12310,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>9.300000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12363,14 +12348,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 16121-2024</t>
+          <t>A 21932-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45406.49583333333</v>
+        <v>45443</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12383,7 +12368,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12420,14 +12405,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 55189-2025</t>
+          <t>A 1262-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45968.54363425926</v>
+        <v>44936.39234953704</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12440,7 +12425,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12477,14 +12462,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 55188-2025</t>
+          <t>A 20807-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45968.5422800926</v>
+        <v>45776.65706018519</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12496,8 +12481,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12534,14 +12524,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 55992-2025</t>
+          <t>A 19308-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45973.55912037037</v>
+        <v>45769.56891203704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12553,8 +12543,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12591,14 +12586,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 2917-2023</t>
+          <t>A 55189-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44943</v>
+        <v>45968.54363425926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12611,7 +12606,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12648,14 +12643,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 55706-2025</t>
+          <t>A 55188-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45972.47302083333</v>
+        <v>45968.5422800926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12668,7 +12663,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12705,14 +12700,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 55776-2025</t>
+          <t>A 1437-2026</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45972</v>
+        <v>46032.56134259259</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12725,7 +12720,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12762,14 +12757,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 33939-2023</t>
+          <t>A 7732-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45134.55792824074</v>
+        <v>44973</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12781,8 +12776,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>0.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12819,14 +12819,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 56381-2025</t>
+          <t>A 1880-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45974.7060300926</v>
+        <v>46035.47288194444</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12876,14 +12876,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 19391-2024</t>
+          <t>A 16121-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45429.37967592593</v>
+        <v>45406.49583333333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12933,14 +12933,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 19394-2024</t>
+          <t>A 1438-2026</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45429.38112268518</v>
+        <v>46032.5637037037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -12990,14 +12990,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 56379-2025</t>
+          <t>A 1427-2026</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45974.70221064815</v>
+        <v>46031.94480324074</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13047,14 +13047,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 8372-2026</t>
+          <t>A 1860-2026</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46064.71388888889</v>
+        <v>46035.44283564815</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13104,14 +13104,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 59381-2022</t>
+          <t>A 1513-2026</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44905.46840277778</v>
+        <v>46034.34575231482</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13161,14 +13161,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 20169-2025</t>
+          <t>A 2917-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45772.57777777778</v>
+        <v>44943</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13218,14 +13218,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 57567-2025</t>
+          <t>A 33939-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45980.73072916667</v>
+        <v>45134.55792824074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13275,14 +13275,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 57569-2025</t>
+          <t>A 2411-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45980.73299768518</v>
+        <v>46036.73222222222</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13332,14 +13332,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 17199-2025</t>
+          <t>A 19391-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45756.41421296296</v>
+        <v>45429.37967592593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13389,14 +13389,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 58444-2025</t>
+          <t>A 19394-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45985.61791666667</v>
+        <v>45429.38112268518</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13446,14 +13446,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 9721-2023</t>
+          <t>A 1277-2026</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44984</v>
+        <v>46031</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13503,14 +13503,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 58398-2025</t>
+          <t>A 2416-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45985.56231481482</v>
+        <v>46036.76255787037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13560,14 +13560,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 58443-2025</t>
+          <t>A 2051-2026</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45985.61674768518</v>
+        <v>46031</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13579,8 +13579,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13617,14 +13622,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 10586-2024</t>
+          <t>A 2410-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45366.69975694444</v>
+        <v>46036.72965277778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13637,7 +13642,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13674,14 +13679,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 58866-2025</t>
+          <t>A 2430-2026</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45987.44790509259</v>
+        <v>46036.81327546296</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13694,7 +13699,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13731,14 +13736,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 58833-2025</t>
+          <t>A 2431-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45987.35474537037</v>
+        <v>46036.81487268519</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13751,7 +13756,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13788,14 +13793,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 29092-2023</t>
+          <t>A 8895-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45105.34570601852</v>
+        <v>44979</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13809,11 +13814,11 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13850,14 +13855,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 48595-2021</t>
+          <t>A 2432-2026</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44452.48140046297</v>
+        <v>46036.81594907407</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13870,7 +13875,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13907,14 +13912,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 8657-2026</t>
+          <t>A 59381-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>46066.37245370371</v>
+        <v>44905.46840277778</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13927,7 +13932,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>10</v>
+        <v>1.3</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13964,14 +13969,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 8659-2026</t>
+          <t>A 20169-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>46066.37532407408</v>
+        <v>45772.57777777778</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13984,7 +13989,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14021,14 +14026,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 59309-2025</t>
+          <t>A 17199-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45989.27822916667</v>
+        <v>45756.41421296296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14041,7 +14046,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14078,14 +14083,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 59156-2025</t>
+          <t>A 2052-2026</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45988.54133101852</v>
+        <v>46031</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14097,8 +14102,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>3.9</v>
+        <v>8.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14135,14 +14145,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 59508-2025</t>
+          <t>A 9721-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45989.64269675926</v>
+        <v>44984</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14154,13 +14164,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14197,14 +14202,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 59317-2025</t>
+          <t>A 60802-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45989.32200231482</v>
+        <v>45999.43222222223</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14217,7 +14222,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14254,14 +14259,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 24611-2023</t>
+          <t>A 60975-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45084.33306712963</v>
+        <v>45999.69570601852</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14274,7 +14279,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14311,14 +14316,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 62148-2022</t>
+          <t>A 60985-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44922.40197916667</v>
+        <v>45999.70759259259</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14331,7 +14336,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14368,14 +14373,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 946-2026</t>
+          <t>A 10586-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>46030.53789351852</v>
+        <v>45366.69975694444</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14388,7 +14393,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14425,14 +14430,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 3756-2023</t>
+          <t>A 3012-2026</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44951.47405092593</v>
+        <v>46038.66331018518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14445,7 +14450,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>5.2</v>
+        <v>3.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14482,14 +14487,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 22386-2024</t>
+          <t>A 60973-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45446.66300925926</v>
+        <v>45999.69430555555</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14502,7 +14507,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14539,14 +14544,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 59042-2025</t>
+          <t>A 3010-2026</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45988.37216435185</v>
+        <v>46038.66194444444</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14559,7 +14564,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14596,14 +14601,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 8268-2025</t>
+          <t>A 29092-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45708.51210648148</v>
+        <v>45105.34570601852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14615,8 +14620,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14653,14 +14663,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 11484-2025</t>
+          <t>A 60981-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45726.69502314815</v>
+        <v>45999.70361111111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14673,7 +14683,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14710,14 +14720,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 15421-2024</t>
+          <t>A 48595-2021</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45401.36530092593</v>
+        <v>44452.48140046297</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14730,7 +14740,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14767,14 +14777,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 6003-2023</t>
+          <t>A 24611-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44964.39972222222</v>
+        <v>45084.33306712963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14786,13 +14796,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14829,14 +14834,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 1437-2026</t>
+          <t>A 3382-2026</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>46032.56134259259</v>
+        <v>46042.36003472222</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14849,7 +14854,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14886,14 +14891,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 57860-2023</t>
+          <t>A 62148-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45247.44261574074</v>
+        <v>44922.40197916667</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14906,7 +14911,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14943,14 +14948,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 1880-2026</t>
+          <t>A 3701-2026</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>46035.47288194444</v>
+        <v>46043.47123842593</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14963,7 +14968,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15000,14 +15005,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 16912-2025</t>
+          <t>A 3756-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45755.36498842593</v>
+        <v>44951.47405092593</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15020,7 +15025,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15057,14 +15062,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 9642-2025</t>
+          <t>A 8268-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45715.84020833333</v>
+        <v>45708.51210648148</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15077,7 +15082,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15114,14 +15119,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 1438-2026</t>
+          <t>A 4260-2026</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>46032.5637037037</v>
+        <v>46045.3403125</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15134,7 +15139,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15171,14 +15176,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 16587-2025</t>
+          <t>A 11484-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45752.87754629629</v>
+        <v>45726.69502314815</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15191,7 +15196,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15228,14 +15233,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 5152-2024</t>
+          <t>A 15421-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45330.49232638889</v>
+        <v>45401.36530092593</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15248,7 +15253,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15285,14 +15290,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 1427-2026</t>
+          <t>A 6003-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>46031.94480324074</v>
+        <v>44964.39972222222</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15304,8 +15309,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G257" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15342,14 +15352,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 14787-2024</t>
+          <t>A 61731-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45397.7650462963</v>
+        <v>46002.59304398148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15362,7 +15372,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15399,14 +15409,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 14789-2024</t>
+          <t>A 57860-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45397.81939814815</v>
+        <v>45247.44261574074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15419,7 +15429,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15456,14 +15466,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 1860-2026</t>
+          <t>A 16912-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>46035.44283564815</v>
+        <v>45755.36498842593</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15476,7 +15486,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15513,14 +15523,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 1513-2026</t>
+          <t>A 9642-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>46034.34575231482</v>
+        <v>45715.84020833333</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15533,7 +15543,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15570,14 +15580,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 2411-2026</t>
+          <t>A 16587-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>46036.73222222222</v>
+        <v>45752.87754629629</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15590,7 +15600,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15627,14 +15637,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 1277-2026</t>
+          <t>A 5152-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>46031</v>
+        <v>45330.49232638889</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15647,7 +15657,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15684,14 +15694,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 2416-2026</t>
+          <t>A 14787-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>46036.76255787037</v>
+        <v>45397.7650462963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15704,7 +15714,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15741,14 +15751,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 2051-2026</t>
+          <t>A 14789-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>46031</v>
+        <v>45397.81939814815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15760,13 +15770,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G265" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -15803,14 +15808,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 2410-2026</t>
+          <t>A 49751-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>46036.72965277778</v>
+        <v>45212.52082175926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15823,7 +15828,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2.8</v>
+        <v>11.5</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -15860,14 +15865,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 2430-2026</t>
+          <t>A 60814-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>46036.81327546296</v>
+        <v>45644.61975694444</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15880,7 +15885,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -15917,14 +15922,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 2431-2026</t>
+          <t>A 5707-2026</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>46036.81487268519</v>
+        <v>46051.5116087963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15937,7 +15942,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -15974,14 +15979,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 2432-2026</t>
+          <t>A 5708-2026</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>46036.81594907407</v>
+        <v>46051.51230324074</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -15994,7 +15999,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16031,14 +16036,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 49751-2023</t>
+          <t>A 52097-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45212.52082175926</v>
+        <v>45608.4153125</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16051,7 +16056,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>11.5</v>
+        <v>10.9</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16088,14 +16093,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 60814-2024</t>
+          <t>A 59684-2022</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45644.61975694444</v>
+        <v>44908</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16107,8 +16112,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16145,14 +16155,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 2052-2026</t>
+          <t>A 6083-2026</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>46031</v>
+        <v>46052.68944444445</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16164,13 +16174,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G272" t="n">
-        <v>8.5</v>
+        <v>0.6</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16207,14 +16212,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 60802-2025</t>
+          <t>A 30674-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45999.43222222223</v>
+        <v>45112</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16227,7 +16232,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16264,14 +16269,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 60975-2025</t>
+          <t>A 12918-2021</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45999.69570601852</v>
+        <v>44271</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16284,7 +16289,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16321,14 +16326,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 60985-2025</t>
+          <t>A 5663-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45999.70759259259</v>
+        <v>45693.82982638889</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16341,7 +16346,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16378,14 +16383,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 3012-2026</t>
+          <t>A 7329-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>46038.66331018518</v>
+        <v>45703.32144675926</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16398,7 +16403,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16435,14 +16440,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 52097-2024</t>
+          <t>A 7680-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45608.4153125</v>
+        <v>45706.36583333334</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16455,7 +16460,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>10.9</v>
+        <v>0.5</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16492,14 +16497,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 60973-2025</t>
+          <t>A 7529-2026</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45999.69430555555</v>
+        <v>46059.61733796296</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16512,7 +16517,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16549,14 +16554,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 3010-2026</t>
+          <t>A 7070-2026</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>46038.66194444444</v>
+        <v>46058.31163194445</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16569,7 +16574,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16606,14 +16611,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 60981-2025</t>
+          <t>A 20172-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45999.70361111111</v>
+        <v>45772.57979166666</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16626,7 +16631,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>3.3</v>
+        <v>4.9</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16663,14 +16668,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 59684-2022</t>
+          <t>A 57902-2022</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44908</v>
+        <v>44900.35104166667</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16682,13 +16687,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G281" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16725,14 +16725,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 3382-2026</t>
+          <t>A 7533-2026</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>46042.36003472222</v>
+        <v>46059.62197916667</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16782,14 +16782,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 30674-2023</t>
+          <t>A 7535-2026</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45112</v>
+        <v>46059.62313657408</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -16839,14 +16839,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 12918-2021</t>
+          <t>A 17195-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44271</v>
+        <v>45756.40695601852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -16896,14 +16896,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 20172-2025</t>
+          <t>A 20260-2021</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45772.57979166666</v>
+        <v>44314</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16915,8 +16915,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G285" t="n">
-        <v>4.9</v>
+        <v>1.1</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -16953,14 +16958,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 57902-2022</t>
+          <t>A 16169-2024</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>44900.35104166667</v>
+        <v>45406.61987268519</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -16973,7 +16978,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17010,14 +17015,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 17195-2025</t>
+          <t>A 8456-2024</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45756.40695601852</v>
+        <v>45354</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17030,7 +17035,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17067,14 +17072,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 20260-2021</t>
+          <t>A 50958-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>44314</v>
+        <v>45210</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17088,11 +17093,11 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17129,14 +17134,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 16169-2024</t>
+          <t>A 17972-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45406.61987268519</v>
+        <v>45040</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17149,7 +17154,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17186,14 +17191,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 8456-2024</t>
+          <t>A 8372-2026</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45354</v>
+        <v>46064.71388888889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17206,7 +17211,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17243,14 +17248,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 50958-2023</t>
+          <t>A 7047-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45210</v>
+        <v>44968</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17262,13 +17267,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G291" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17305,14 +17305,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 17972-2023</t>
+          <t>A 8657-2026</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45040</v>
+        <v>46066.37245370371</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>2.4</v>
+        <v>10</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17362,14 +17362,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 7047-2023</t>
+          <t>A 20454-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>44968</v>
+        <v>45775.50877314815</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17419,14 +17419,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 20454-2025</t>
+          <t>A 8659-2026</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45775.50877314815</v>
+        <v>46066.37532407408</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17483,7 +17483,7 @@
         <v>45268</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17533,14 +17533,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 16280-2025</t>
+          <t>A 9261-2026</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45751.28666666667</v>
+        <v>46070.52174768518</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17552,13 +17552,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G296" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17595,14 +17590,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 10655-2025</t>
+          <t>A 9301-2026</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45721.69958333333</v>
+        <v>46070.60028935185</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17615,7 +17610,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17652,14 +17647,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 44669-2023</t>
+          <t>A 16280-2025</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45189</v>
+        <v>45751.28666666667</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17671,8 +17666,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G298" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17709,14 +17709,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 64386-2021</t>
+          <t>A 9305-2026</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>44511</v>
+        <v>46070.60619212963</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -17766,14 +17766,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 66386-2021</t>
+          <t>A 10655-2025</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>44518</v>
+        <v>45721.69958333333</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -17823,14 +17823,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 17201-2025</t>
+          <t>A 9297-2026</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45756.42020833334</v>
+        <v>46070.59637731482</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -17880,14 +17880,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 1005-2024</t>
+          <t>A 44669-2023</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45301</v>
+        <v>45189</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -17937,14 +17937,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 4548-2024</t>
+          <t>A 64386-2021</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45327.7147800926</v>
+        <v>44511</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -17994,14 +17994,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 60589-2023</t>
+          <t>A 66386-2021</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45260.28659722222</v>
+        <v>44518</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18051,14 +18051,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 57921-2022</t>
+          <t>A 17201-2025</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>44900</v>
+        <v>45756.42020833334</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18108,14 +18108,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 21232-2023</t>
+          <t>A 1005-2024</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45062.54716435185</v>
+        <v>45301</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18165,14 +18165,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 16281-2025</t>
+          <t>A 4548-2024</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45751.29027777778</v>
+        <v>45327.7147800926</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18184,13 +18184,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G307" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18227,14 +18222,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 16283-2025</t>
+          <t>A 60589-2023</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45751.29266203703</v>
+        <v>45260.28659722222</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18246,13 +18241,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G308" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18289,14 +18279,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 7734-2022</t>
+          <t>A 57921-2022</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>44608</v>
+        <v>44900</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18309,7 +18299,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18346,14 +18336,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 20806-2023</t>
+          <t>A 21232-2023</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45058</v>
+        <v>45062.54716435185</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18366,7 +18356,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18403,14 +18393,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 54097-2024</t>
+          <t>A 16281-2025</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45616.51472222222</v>
+        <v>45751.29027777778</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18422,8 +18412,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G311" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18460,14 +18455,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 59225-2023</t>
+          <t>A 16283-2025</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45253</v>
+        <v>45751.29266203703</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18479,8 +18474,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G312" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18517,14 +18517,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 9863-2024</t>
+          <t>A 7734-2022</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45363</v>
+        <v>44608</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18574,14 +18574,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 5523-2023</t>
+          <t>A 20806-2023</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>44960</v>
+        <v>45058</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18631,14 +18631,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 11793-2024</t>
+          <t>A 54097-2024</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45375.30324074074</v>
+        <v>45616.51472222222</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18688,14 +18688,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 60380-2022</t>
+          <t>A 59225-2023</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>44910.69658564815</v>
+        <v>45253</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18745,14 +18745,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 8983-2024</t>
+          <t>A 9863-2024</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45356</v>
+        <v>45363</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -18802,14 +18802,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 50945-2023</t>
+          <t>A 5523-2023</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45210</v>
+        <v>44960</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18821,13 +18821,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F318" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G318" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -18864,14 +18859,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 22515-2022</t>
+          <t>A 11793-2024</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>44713.68042824074</v>
+        <v>45375.30324074074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18884,7 +18879,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -18921,14 +18916,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 22517-2022</t>
+          <t>A 60380-2022</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>44713.68208333333</v>
+        <v>44910.69658564815</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18941,7 +18936,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -18978,14 +18973,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 46108-2021</t>
+          <t>A 8983-2024</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>44442.36792824074</v>
+        <v>45356</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -18998,7 +18993,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19035,14 +19030,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 6525-2025</t>
+          <t>A 50945-2023</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45699.66690972223</v>
+        <v>45210</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19054,8 +19049,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G322" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19092,14 +19092,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 39000-2023</t>
+          <t>A 22515-2022</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45163.67079861111</v>
+        <v>44713.68042824074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19149,14 +19149,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 55240-2023</t>
+          <t>A 22517-2022</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45237.63732638889</v>
+        <v>44713.68208333333</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19206,14 +19206,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 50053-2024</t>
+          <t>A 46108-2021</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45600.33508101852</v>
+        <v>44442.36792824074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19263,14 +19263,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 58074-2022</t>
+          <t>A 6525-2025</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>44900.61518518518</v>
+        <v>45699.66690972223</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19320,14 +19320,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 11797-2024</t>
+          <t>A 39000-2023</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45375.38054398148</v>
+        <v>45163.67079861111</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19377,14 +19377,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 53213-2024</t>
+          <t>A 55240-2023</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45612.65795138889</v>
+        <v>45237.63732638889</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19434,14 +19434,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 46747-2023</t>
+          <t>A 50053-2024</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45198</v>
+        <v>45600.33508101852</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19453,13 +19453,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F329" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G329" t="n">
-        <v>6.6</v>
+        <v>1.6</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19496,14 +19491,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 49455-2023</t>
+          <t>A 58074-2022</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45211.50127314815</v>
+        <v>44900.61518518518</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19516,7 +19511,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19553,14 +19548,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 34133-2022</t>
+          <t>A 11797-2024</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>44791.52582175926</v>
+        <v>45375.38054398148</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19573,7 +19568,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19610,14 +19605,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 44668-2023</t>
+          <t>A 53213-2024</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45189.72548611111</v>
+        <v>45612.65795138889</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19630,7 +19625,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -19667,14 +19662,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 47583-2024</t>
+          <t>A 46747-2023</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45587.77702546296</v>
+        <v>45198</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19692,7 +19687,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>1.3</v>
+        <v>6.6</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -19729,14 +19724,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 49357-2024</t>
+          <t>A 49455-2023</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45595.61976851852</v>
+        <v>45211.50127314815</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19749,7 +19744,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -19786,14 +19781,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 61904-2022</t>
+          <t>A 34133-2022</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>44917.73387731481</v>
+        <v>44791.52582175926</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19805,13 +19800,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G335" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -19848,14 +19838,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 61907-2022</t>
+          <t>A 44668-2023</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>44917.73603009259</v>
+        <v>45189.72548611111</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19867,13 +19857,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G336" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -19910,14 +19895,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 4065-2023</t>
+          <t>A 47583-2024</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>44952</v>
+        <v>45587.77702546296</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19929,8 +19914,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G337" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -19967,14 +19957,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 7962-2024</t>
+          <t>A 49357-2024</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>45350.57357638889</v>
+        <v>45595.61976851852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19987,7 +19977,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20024,14 +20014,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 65946-2021</t>
+          <t>A 61904-2022</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>44517</v>
+        <v>44917.73387731481</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20043,8 +20033,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G339" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -20081,14 +20076,14 @@
     <row r="340" ht="15" customHeight="1">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 48718-2023</t>
+          <t>A 61907-2022</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>45208</v>
+        <v>44917.73603009259</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20100,8 +20095,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G340" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -20138,14 +20138,14 @@
     <row r="341" ht="15" customHeight="1">
       <c r="A341" t="inlineStr">
         <is>
-          <t>A 20456-2025</t>
+          <t>A 4065-2023</t>
         </is>
       </c>
       <c r="B341" s="1" t="n">
-        <v>45775.51363425926</v>
+        <v>44952</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -20195,14 +20195,14 @@
     <row r="342" ht="15" customHeight="1">
       <c r="A342" t="inlineStr">
         <is>
-          <t>A 43384-2023</t>
+          <t>A 7962-2024</t>
         </is>
       </c>
       <c r="B342" s="1" t="n">
-        <v>45183.85680555556</v>
+        <v>45350.57357638889</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -20252,14 +20252,14 @@
     <row r="343" ht="15" customHeight="1">
       <c r="A343" t="inlineStr">
         <is>
-          <t>A 616-2025</t>
+          <t>A 65946-2021</t>
         </is>
       </c>
       <c r="B343" s="1" t="n">
-        <v>45664.60969907408</v>
+        <v>44517</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>10</v>
+        <v>0.7</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -20309,14 +20309,14 @@
     <row r="344" ht="15" customHeight="1">
       <c r="A344" t="inlineStr">
         <is>
-          <t>A 17527-2025</t>
+          <t>A 48718-2023</t>
         </is>
       </c>
       <c r="B344" s="1" t="n">
-        <v>45757.58712962963</v>
+        <v>45208</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -20366,14 +20366,14 @@
     <row r="345" ht="15" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
-          <t>A 50160-2022</t>
+          <t>A 20456-2025</t>
         </is>
       </c>
       <c r="B345" s="1" t="n">
-        <v>44865.58923611111</v>
+        <v>45775.51363425926</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -20423,14 +20423,14 @@
     <row r="346" ht="15" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
-          <t>A 39475-2023</t>
+          <t>A 43384-2023</t>
         </is>
       </c>
       <c r="B346" s="1" t="n">
-        <v>45166</v>
+        <v>45183.85680555556</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20443,7 +20443,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -20480,14 +20480,14 @@
     <row r="347" ht="15" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
-          <t>A 14655-2022</t>
+          <t>A 616-2025</t>
         </is>
       </c>
       <c r="B347" s="1" t="n">
-        <v>44655</v>
+        <v>45664.60969907408</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -20537,14 +20537,14 @@
     <row r="348" ht="15" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
-          <t>A 54587-2023</t>
+          <t>A 17527-2025</t>
         </is>
       </c>
       <c r="B348" s="1" t="n">
-        <v>45233</v>
+        <v>45757.58712962963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20557,7 +20557,7 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -20594,14 +20594,14 @@
     <row r="349" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
-          <t>A 16284-2025</t>
+          <t>A 50160-2022</t>
         </is>
       </c>
       <c r="B349" s="1" t="n">
-        <v>45751.29762731482</v>
+        <v>44865.58923611111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -20651,14 +20651,14 @@
     <row r="350" ht="15" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
-          <t>A 2345-2023</t>
+          <t>A 39475-2023</t>
         </is>
       </c>
       <c r="B350" s="1" t="n">
-        <v>44942</v>
+        <v>45166</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>1.7</v>
+        <v>5.1</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -20708,14 +20708,14 @@
     <row r="351" ht="15" customHeight="1">
       <c r="A351" t="inlineStr">
         <is>
-          <t>A 3619-2023</t>
+          <t>A 14655-2022</t>
         </is>
       </c>
       <c r="B351" s="1" t="n">
-        <v>44950.63637731481</v>
+        <v>44655</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -20765,14 +20765,14 @@
     <row r="352" ht="15" customHeight="1">
       <c r="A352" t="inlineStr">
         <is>
-          <t>A 44744-2023</t>
+          <t>A 54587-2023</t>
         </is>
       </c>
       <c r="B352" s="1" t="n">
-        <v>45190.39100694445</v>
+        <v>45233</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -20822,14 +20822,14 @@
     <row r="353" ht="15" customHeight="1">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A 18068-2025</t>
+          <t>A 16284-2025</t>
         </is>
       </c>
       <c r="B353" s="1" t="n">
-        <v>45761.49069444444</v>
+        <v>45751.29762731482</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -20879,14 +20879,14 @@
     <row r="354" ht="15" customHeight="1">
       <c r="A354" t="inlineStr">
         <is>
-          <t>A 63073-2023</t>
+          <t>A 2345-2023</t>
         </is>
       </c>
       <c r="B354" s="1" t="n">
-        <v>45273.00841435185</v>
+        <v>44942</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -20936,14 +20936,14 @@
     <row r="355" ht="15" customHeight="1">
       <c r="A355" t="inlineStr">
         <is>
-          <t>A 56788-2024</t>
+          <t>A 3619-2023</t>
         </is>
       </c>
       <c r="B355" s="1" t="n">
-        <v>45628.45511574074</v>
+        <v>44950.63637731481</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>6.3</v>
+        <v>2.1</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -20993,14 +20993,14 @@
     <row r="356" ht="15" customHeight="1">
       <c r="A356" t="inlineStr">
         <is>
-          <t>A 37653-2023</t>
+          <t>A 44744-2023</t>
         </is>
       </c>
       <c r="B356" s="1" t="n">
-        <v>45159.51601851852</v>
+        <v>45190.39100694445</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
         </is>
       </c>
       <c r="G356" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -21050,14 +21050,14 @@
     <row r="357" ht="15" customHeight="1">
       <c r="A357" t="inlineStr">
         <is>
-          <t>A 19319-2025</t>
+          <t>A 18068-2025</t>
         </is>
       </c>
       <c r="B357" s="1" t="n">
-        <v>45769.57847222222</v>
+        <v>45761.49069444444</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -21107,14 +21107,14 @@
     <row r="358" ht="15" customHeight="1">
       <c r="A358" t="inlineStr">
         <is>
-          <t>A 20475-2023</t>
+          <t>A 63073-2023</t>
         </is>
       </c>
       <c r="B358" s="1" t="n">
-        <v>45057</v>
+        <v>45273.00841435185</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -21164,14 +21164,14 @@
     <row r="359" ht="15" customHeight="1">
       <c r="A359" t="inlineStr">
         <is>
-          <t>A 12990-2024</t>
+          <t>A 56788-2024</t>
         </is>
       </c>
       <c r="B359" s="1" t="n">
-        <v>45385.55565972222</v>
+        <v>45628.45511574074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>0.3</v>
+        <v>6.3</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -21221,14 +21221,14 @@
     <row r="360" ht="15" customHeight="1">
       <c r="A360" t="inlineStr">
         <is>
-          <t>A 57167-2022</t>
+          <t>A 37653-2023</t>
         </is>
       </c>
       <c r="B360" s="1" t="n">
-        <v>44895.60074074074</v>
+        <v>45159.51601851852</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21241,7 +21241,7 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -21278,14 +21278,14 @@
     <row r="361" ht="15" customHeight="1">
       <c r="A361" t="inlineStr">
         <is>
-          <t>A 50307-2023</t>
+          <t>A 19319-2025</t>
         </is>
       </c>
       <c r="B361" s="1" t="n">
-        <v>45209</v>
+        <v>45769.57847222222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -21335,14 +21335,14 @@
     <row r="362" ht="15" customHeight="1">
       <c r="A362" t="inlineStr">
         <is>
-          <t>A 38046-2022</t>
+          <t>A 20475-2023</t>
         </is>
       </c>
       <c r="B362" s="1" t="n">
-        <v>44811.64700231481</v>
+        <v>45057</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21355,7 +21355,7 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -21392,14 +21392,14 @@
     <row r="363" ht="15" customHeight="1">
       <c r="A363" t="inlineStr">
         <is>
-          <t>A 46736-2023</t>
+          <t>A 12990-2024</t>
         </is>
       </c>
       <c r="B363" s="1" t="n">
-        <v>45198</v>
+        <v>45385.55565972222</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21411,13 +21411,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F363" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G363" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -21454,14 +21449,14 @@
     <row r="364" ht="15" customHeight="1">
       <c r="A364" t="inlineStr">
         <is>
-          <t>A 16590-2025</t>
+          <t>A 57167-2022</t>
         </is>
       </c>
       <c r="B364" s="1" t="n">
-        <v>45752.89317129629</v>
+        <v>44895.60074074074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21474,7 +21469,7 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -21511,14 +21506,14 @@
     <row r="365" ht="15" customHeight="1">
       <c r="A365" t="inlineStr">
         <is>
-          <t>A 30362-2024</t>
+          <t>A 50307-2023</t>
         </is>
       </c>
       <c r="B365" s="1" t="n">
-        <v>45491.35975694445</v>
+        <v>45209</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21531,7 +21526,7 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -21568,14 +21563,14 @@
     <row r="366" ht="15" customHeight="1">
       <c r="A366" t="inlineStr">
         <is>
-          <t>A 1122-2025</t>
+          <t>A 38046-2022</t>
         </is>
       </c>
       <c r="B366" s="1" t="n">
-        <v>45666.66532407407</v>
+        <v>44811.64700231481</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21588,7 +21583,7 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -21625,121 +21620,354 @@
     <row r="367" ht="15" customHeight="1">
       <c r="A367" t="inlineStr">
         <is>
+          <t>A 46736-2023</t>
+        </is>
+      </c>
+      <c r="B367" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C367" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G367" t="n">
+        <v>2</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0</v>
+      </c>
+      <c r="L367" t="n">
+        <v>0</v>
+      </c>
+      <c r="M367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N367" t="n">
+        <v>0</v>
+      </c>
+      <c r="O367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R367" s="2" t="inlineStr"/>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>A 16590-2025</t>
+        </is>
+      </c>
+      <c r="B368" s="1" t="n">
+        <v>45752.89317129629</v>
+      </c>
+      <c r="C368" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="G368" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="n">
+        <v>0</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0</v>
+      </c>
+      <c r="L368" t="n">
+        <v>0</v>
+      </c>
+      <c r="M368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N368" t="n">
+        <v>0</v>
+      </c>
+      <c r="O368" t="n">
+        <v>0</v>
+      </c>
+      <c r="P368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>0</v>
+      </c>
+      <c r="R368" s="2" t="inlineStr"/>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>A 30362-2024</t>
+        </is>
+      </c>
+      <c r="B369" s="1" t="n">
+        <v>45491.35975694445</v>
+      </c>
+      <c r="C369" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="G369" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="n">
+        <v>0</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0</v>
+      </c>
+      <c r="L369" t="n">
+        <v>0</v>
+      </c>
+      <c r="M369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N369" t="n">
+        <v>0</v>
+      </c>
+      <c r="O369" t="n">
+        <v>0</v>
+      </c>
+      <c r="P369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q369" t="n">
+        <v>0</v>
+      </c>
+      <c r="R369" s="2" t="inlineStr"/>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>A 1122-2025</t>
+        </is>
+      </c>
+      <c r="B370" s="1" t="n">
+        <v>45666.66532407407</v>
+      </c>
+      <c r="C370" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="G370" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0</v>
+      </c>
+      <c r="L370" t="n">
+        <v>0</v>
+      </c>
+      <c r="M370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N370" t="n">
+        <v>0</v>
+      </c>
+      <c r="O370" t="n">
+        <v>0</v>
+      </c>
+      <c r="P370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R370" s="2" t="inlineStr"/>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="A371" t="inlineStr">
+        <is>
           <t>A 46732-2023</t>
         </is>
       </c>
-      <c r="B367" s="1" t="n">
+      <c r="B371" s="1" t="n">
         <v>45198.59054398148</v>
       </c>
-      <c r="C367" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>VÅRGÅRDA</t>
-        </is>
-      </c>
-      <c r="F367" t="inlineStr">
+      <c r="C371" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
         <is>
           <t>Kyrkan</t>
         </is>
       </c>
-      <c r="G367" t="n">
+      <c r="G371" t="n">
         <v>1.8</v>
       </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="n">
-        <v>0</v>
-      </c>
-      <c r="J367" t="n">
-        <v>0</v>
-      </c>
-      <c r="K367" t="n">
-        <v>0</v>
-      </c>
-      <c r="L367" t="n">
-        <v>0</v>
-      </c>
-      <c r="M367" t="n">
-        <v>0</v>
-      </c>
-      <c r="N367" t="n">
-        <v>0</v>
-      </c>
-      <c r="O367" t="n">
-        <v>0</v>
-      </c>
-      <c r="P367" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q367" t="n">
-        <v>0</v>
-      </c>
-      <c r="R367" s="2" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="n">
+        <v>0</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0</v>
+      </c>
+      <c r="L371" t="n">
+        <v>0</v>
+      </c>
+      <c r="M371" t="n">
+        <v>0</v>
+      </c>
+      <c r="N371" t="n">
+        <v>0</v>
+      </c>
+      <c r="O371" t="n">
+        <v>0</v>
+      </c>
+      <c r="P371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>0</v>
+      </c>
+      <c r="R371" s="2" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
         <is>
           <t>A 21535-2025</t>
         </is>
       </c>
-      <c r="B368" s="1" t="n">
+      <c r="B372" s="1" t="n">
         <v>45782.65741898148</v>
       </c>
-      <c r="C368" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E368" t="inlineStr">
-        <is>
-          <t>VÅRGÅRDA</t>
-        </is>
-      </c>
-      <c r="G368" t="n">
+      <c r="C372" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="G372" t="n">
         <v>3.6</v>
       </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="n">
-        <v>0</v>
-      </c>
-      <c r="J368" t="n">
-        <v>0</v>
-      </c>
-      <c r="K368" t="n">
-        <v>0</v>
-      </c>
-      <c r="L368" t="n">
-        <v>0</v>
-      </c>
-      <c r="M368" t="n">
-        <v>0</v>
-      </c>
-      <c r="N368" t="n">
-        <v>0</v>
-      </c>
-      <c r="O368" t="n">
-        <v>0</v>
-      </c>
-      <c r="P368" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q368" t="n">
-        <v>0</v>
-      </c>
-      <c r="R368" s="2" t="inlineStr"/>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="n">
+        <v>0</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0</v>
+      </c>
+      <c r="L372" t="n">
+        <v>0</v>
+      </c>
+      <c r="M372" t="n">
+        <v>0</v>
+      </c>
+      <c r="N372" t="n">
+        <v>0</v>
+      </c>
+      <c r="O372" t="n">
+        <v>0</v>
+      </c>
+      <c r="P372" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q372" t="n">
+        <v>0</v>
+      </c>
+      <c r="R372" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 2412-2026</t>
+          <t>A 11214-2023</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>46036.73480324074</v>
+        <v>44992</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -615,296 +615,296 @@
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
+          <t>Stare</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 11214-2023 artfynd.xlsx", "A 11214-2023")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 11214-2023 karta.png", "A 11214-2023")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 11214-2023 FSC-klagomål.docx", "A 11214-2023")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 11214-2023 FSC-klagomål mail.docx", "A 11214-2023")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 11214-2023 tillsynsbegäran.docx", "A 11214-2023")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 11214-2023 tillsynsbegäran mail.docx", "A 11214-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 13991-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45008</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Borsttåg</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 13991-2023 artfynd.xlsx", "A 13991-2023")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 13991-2023 karta.png", "A 13991-2023")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 13991-2023 FSC-klagomål.docx", "A 13991-2023")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 13991-2023 FSC-klagomål mail.docx", "A 13991-2023")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 13991-2023 tillsynsbegäran.docx", "A 13991-2023")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 13991-2023 tillsynsbegäran mail.docx", "A 13991-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 2412-2026</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>46036.73480324074</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
           <t>Svinrot</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 2412-2026 artfynd.xlsx", "A 2412-2026")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 2412-2026 karta.png", "A 2412-2026")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 2412-2026 FSC-klagomål.docx", "A 2412-2026")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 2412-2026 FSC-klagomål mail.docx", "A 2412-2026")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 2412-2026 tillsynsbegäran.docx", "A 2412-2026")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 2412-2026 tillsynsbegäran mail.docx", "A 2412-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 11214-2023</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>44992</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>VÅRGÅRDA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H3" t="n">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 47506-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45203.28686342593</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Stare</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 11214-2023 artfynd.xlsx", "A 11214-2023")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 11214-2023 karta.png", "A 11214-2023")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 11214-2023 FSC-klagomål.docx", "A 11214-2023")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 11214-2023 FSC-klagomål mail.docx", "A 11214-2023")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 11214-2023 tillsynsbegäran.docx", "A 11214-2023")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 11214-2023 tillsynsbegäran mail.docx", "A 11214-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 47506-2023</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45203.28686342593</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>VÅRGÅRDA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Revlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 47506-2023 artfynd.xlsx", "A 47506-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 47506-2023 karta.png", "A 47506-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 47506-2023 FSC-klagomål.docx", "A 47506-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 47506-2023 FSC-klagomål mail.docx", "A 47506-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 47506-2023 tillsynsbegäran.docx", "A 47506-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 47506-2023 tillsynsbegäran mail.docx", "A 47506-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 13991-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45008</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>VÅRGÅRDA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Borsttåg</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 13991-2023 artfynd.xlsx", "A 13991-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 13991-2023 karta.png", "A 13991-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 13991-2023 FSC-klagomål.docx", "A 13991-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 13991-2023 FSC-klagomål mail.docx", "A 13991-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 13991-2023 tillsynsbegäran.docx", "A 13991-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 13991-2023 tillsynsbegäran mail.docx", "A 13991-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44249.74386574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44271.61297453703</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44496</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44511</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>44314</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>44316.39745370371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44568.35050925926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44568.35122685185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44445.32841435185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44601</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44533</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44572</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44389.36113425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44256</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44677</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>44818</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>44347</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2120,14 +2120,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 799-2022</t>
+          <t>A 12903-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44571</v>
+        <v>44271.47305555556</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2177,14 +2177,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 12903-2021</t>
+          <t>A 799-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44271.47305555556</v>
+        <v>44571</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>44501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>44455.51653935185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44564</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44382.40559027778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44505</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,14 +2524,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 27615-2022</t>
+          <t>A 7531-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44743.30945601852</v>
+        <v>44607</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2581,14 +2581,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 7531-2022</t>
+          <t>A 27615-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44607</v>
+        <v>44743.30945601852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>44580</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44446.59780092593</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44298.64422453703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>44511</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>44811.28633101852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>44616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>44621.91310185185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44434.48554398148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44465.35538194444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44469.43070601852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>44501</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>44299</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>44358</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>44282</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>44573.34431712963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44826.95922453704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>44662.48648148148</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>44648.29912037037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44515</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3721,14 +3721,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 16282-2025</t>
+          <t>A 26526-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45751.29126157407</v>
+        <v>44739.44171296297</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3740,13 +3740,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3783,14 +3778,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 9189-2022</t>
+          <t>A 20806-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44615.89261574074</v>
+        <v>45058</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3803,7 +3798,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3840,14 +3835,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 64234-2021</t>
+          <t>A 56788-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44510.64112268519</v>
+        <v>45628.45511574074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3860,7 +3855,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>6.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3897,14 +3892,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 30061-2021</t>
+          <t>A 4845-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44363</v>
+        <v>45329.35953703704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3917,7 +3912,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3954,14 +3949,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 17951-2023</t>
+          <t>A 30038-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45040</v>
+        <v>44363.45402777778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3974,7 +3969,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4011,14 +4006,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 2995-2024</t>
+          <t>A 29092-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45315</v>
+        <v>45105.34570601852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4030,8 +4025,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4068,14 +4068,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 59619-2022</t>
+          <t>A 11793-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44907.88240740741</v>
+        <v>45375.30324074074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4125,14 +4125,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 26362-2024</t>
+          <t>A 57921-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45469.38258101852</v>
+        <v>44900</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4182,14 +4182,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 9725-2023</t>
+          <t>A 44744-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44984</v>
+        <v>45190.39100694445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4239,14 +4239,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 61969-2022</t>
+          <t>A 5152-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44914</v>
+        <v>45330.49232638889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4296,14 +4296,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 4550-2024</t>
+          <t>A 48452-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45327.71622685185</v>
+        <v>45935.79104166666</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4353,14 +4353,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 4845-2024</t>
+          <t>A 20454-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45329.35953703704</v>
+        <v>45775.50877314815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4410,14 +4410,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 55992-2025</t>
+          <t>A 20456-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45973.55912037037</v>
+        <v>45775.51363425926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4467,14 +4467,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 30038-2021</t>
+          <t>A 48099-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44363.45402777778</v>
+        <v>45933.33207175926</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4524,14 +4524,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 55706-2025</t>
+          <t>A 48094-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45972.47302083333</v>
+        <v>45933.33019675926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4581,14 +4581,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 3057-2023</t>
+          <t>A 48104-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44946</v>
+        <v>45933.3422337963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4638,14 +4638,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 55776-2025</t>
+          <t>A 48081-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45972</v>
+        <v>45932.77</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4695,14 +4695,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 56381-2025</t>
+          <t>A 48082-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45974.7060300926</v>
+        <v>45932.77143518518</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4752,14 +4752,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 39375-2025</t>
+          <t>A 48080-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45889.58944444444</v>
+        <v>45932.7685300926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4809,14 +4809,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 14786-2024</t>
+          <t>A 48100-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45397.76206018519</v>
+        <v>45933.33457175926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4866,14 +4866,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 9090-2024</t>
+          <t>A 20807-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45357.90923611111</v>
+        <v>45776.65706018519</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4885,8 +4885,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4923,14 +4928,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 23950-2025</t>
+          <t>A 48760-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45796.35803240741</v>
+        <v>45936.77475694445</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4943,7 +4948,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4980,14 +4985,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 56379-2025</t>
+          <t>A 12990-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45974.70221064815</v>
+        <v>45385.55565972222</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5000,7 +5005,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5037,14 +5042,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 54991-2024</t>
+          <t>A 8895-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45620.85204861111</v>
+        <v>44979</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5056,8 +5061,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5094,14 +5104,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 39419-2025</t>
+          <t>A 21535-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45889.66032407407</v>
+        <v>45782.65741898148</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5114,7 +5124,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5151,14 +5161,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 39372-2025</t>
+          <t>A 14786-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45889.58609953704</v>
+        <v>45397.76206018519</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5171,7 +5181,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5208,14 +5218,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 39416-2025</t>
+          <t>A 20169-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45889</v>
+        <v>45772.57777777778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5228,7 +5238,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5265,14 +5275,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 55972-2023</t>
+          <t>A 17195-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45233</v>
+        <v>45756.40695601852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5285,7 +5295,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5322,14 +5332,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 39929-2025</t>
+          <t>A 59225-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45891.69728009259</v>
+        <v>45253</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5342,7 +5352,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5379,14 +5389,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 9802-2021</t>
+          <t>A 39372-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44252.70211805555</v>
+        <v>45889.58609953704</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5399,7 +5409,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5436,14 +5446,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 39843-2025</t>
+          <t>A 39375-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45891</v>
+        <v>45889.58944444444</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5456,7 +5466,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5493,14 +5503,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 9898-2024</t>
+          <t>A 39419-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45363</v>
+        <v>45889.66032407407</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5513,7 +5523,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5550,14 +5560,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 40239-2025</t>
+          <t>A 39416-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45894.84497685185</v>
+        <v>45889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5570,7 +5580,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5607,14 +5617,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 45309-2024</t>
+          <t>A 15236-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45576.43064814815</v>
+        <v>45400</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5627,7 +5637,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5664,14 +5674,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 24064-2022</t>
+          <t>A 12342-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44725.32741898148</v>
+        <v>44267.43596064814</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5684,7 +5694,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5721,14 +5731,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 12342-2021</t>
+          <t>A 4548-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44267.43596064814</v>
+        <v>45327.7147800926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5741,7 +5751,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5778,14 +5788,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 40650-2025</t>
+          <t>A 39929-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45896.6321875</v>
+        <v>45891.69728009259</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5798,7 +5808,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5835,14 +5845,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 40955-2025</t>
+          <t>A 39843-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45897.67510416666</v>
+        <v>45891</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5855,7 +5865,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5892,14 +5902,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 60191-2022</t>
+          <t>A 40239-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44910</v>
+        <v>45894.84497685185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5912,7 +5922,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5949,14 +5959,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 41593-2025</t>
+          <t>A 62535-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45901.63788194444</v>
+        <v>45268</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5969,7 +5979,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6006,14 +6016,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 25324-2025</t>
+          <t>A 40650-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45800</v>
+        <v>45896.6321875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6026,7 +6036,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6063,14 +6073,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 5448-2025</t>
+          <t>A 65946-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45692.88263888889</v>
+        <v>44517</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6083,7 +6093,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6120,14 +6130,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 52016-2021</t>
+          <t>A 38046-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44463</v>
+        <v>44811.64700231481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6140,7 +6150,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6177,14 +6187,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 25326-2025</t>
+          <t>A 48955-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45800</v>
+        <v>45937</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6197,7 +6207,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.9</v>
+        <v>7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6234,14 +6244,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 41590-2025</t>
+          <t>A 40955-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45901.63255787037</v>
+        <v>45897.67510416666</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6254,7 +6264,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6291,14 +6301,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 41625-2025</t>
+          <t>A 41724-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45901.7124537037</v>
+        <v>45902.4534375</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6311,7 +6321,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6348,14 +6358,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 57567-2025</t>
+          <t>A 21875-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45980.73072916667</v>
+        <v>45443.38331018519</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6368,7 +6378,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6405,14 +6415,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 25906-2025</t>
+          <t>A 41590-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45804.55729166666</v>
+        <v>45901.63255787037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6425,7 +6435,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6462,14 +6472,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 25909-2025</t>
+          <t>A 41625-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45804.55820601852</v>
+        <v>45901.7124537037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6482,7 +6492,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.5</v>
+        <v>5.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6519,14 +6529,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 25911-2025</t>
+          <t>A 21932-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45804.55912037037</v>
+        <v>45443</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6539,7 +6549,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6576,14 +6586,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 59325-2023</t>
+          <t>A 41593-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45253</v>
+        <v>45901.63788194444</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6596,7 +6606,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6640,7 +6650,7 @@
         <v>45852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6690,14 +6700,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 57569-2025</t>
+          <t>A 57860-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45980.73299768518</v>
+        <v>45247.44261574074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6710,7 +6720,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6747,14 +6757,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 41724-2025</t>
+          <t>A 50160-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45902.4534375</v>
+        <v>44865.58923611111</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6767,7 +6777,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6804,14 +6814,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 11777-2024</t>
+          <t>A 49431-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45374.35063657408</v>
+        <v>45938.845</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6824,7 +6834,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6861,14 +6871,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 11792-2024</t>
+          <t>A 49598-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45375</v>
+        <v>45939.53748842593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6881,7 +6891,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6918,14 +6928,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 27109-2025</t>
+          <t>A 49855-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45811.73126157407</v>
+        <v>45940.50458333334</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6938,7 +6948,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6975,14 +6985,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 27110-2025</t>
+          <t>A 23950-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45811.73269675926</v>
+        <v>45796.35803240741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6995,7 +7005,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7039,7 +7049,7 @@
         <v>45906.48516203704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7089,14 +7099,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 8195-2024</t>
+          <t>A 45978-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45351.66591435186</v>
+        <v>44846.69284722222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7109,7 +7119,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7146,14 +7156,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 26964-2025</t>
+          <t>A 2345-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45811.46918981482</v>
+        <v>44942</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7166,7 +7176,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7203,14 +7213,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 27112-2025</t>
+          <t>A 50685-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45811.73366898148</v>
+        <v>45945.82289351852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7223,7 +7233,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7260,14 +7270,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 54586-2023</t>
+          <t>A 51167-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45233.77412037037</v>
+        <v>45947.59884259259</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7280,7 +7290,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7317,14 +7327,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 27585-2025</t>
+          <t>A 62097-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45813.50371527778</v>
+        <v>44920</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7337,7 +7347,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7374,14 +7384,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 27227-2025</t>
+          <t>A 39000-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45812.43118055556</v>
+        <v>45163.67079861111</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7394,7 +7404,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7431,14 +7441,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 27249-2025</t>
+          <t>A 9721-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45812.46844907408</v>
+        <v>44984</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7451,7 +7461,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7488,14 +7498,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 43214-2025</t>
+          <t>A 45309-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45910</v>
+        <v>45576.43064814815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7507,13 +7517,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>13.8</v>
+        <v>1.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7550,14 +7555,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 58049-2023</t>
+          <t>A 51890-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45247</v>
+        <v>45952.41594907407</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7570,7 +7575,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7607,14 +7612,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 43593-2025</t>
+          <t>A 43337-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45911.65733796296</v>
+        <v>45910.73006944444</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7627,7 +7632,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7664,14 +7669,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 43337-2025</t>
+          <t>A 43314-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45910.73006944444</v>
+        <v>45910</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7683,8 +7688,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7721,14 +7731,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 43314-2025</t>
+          <t>A 25324-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45910</v>
+        <v>45800</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7740,13 +7750,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7783,14 +7788,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 28052-2025</t>
+          <t>A 9090-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45817.65847222223</v>
+        <v>45357.90923611111</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7803,7 +7808,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7840,14 +7845,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 28049-2025</t>
+          <t>A 43214-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45817.65653935185</v>
+        <v>45910</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7859,8 +7864,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>2.4</v>
+        <v>13.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7897,14 +7907,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 20275-2025</t>
+          <t>A 43593-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45774.32253472223</v>
+        <v>45911.65733796296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7917,7 +7927,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7954,14 +7964,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 54185-2024</t>
+          <t>A 25326-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45616.64060185185</v>
+        <v>45800</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7974,7 +7984,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8011,14 +8021,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 28152-2025</t>
+          <t>A 25906-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45818.35734953704</v>
+        <v>45804.55729166666</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8031,7 +8041,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8068,14 +8078,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 58444-2025</t>
+          <t>A 25909-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45985.61791666667</v>
+        <v>45804.55820601852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8088,7 +8098,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8125,14 +8135,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 58398-2025</t>
+          <t>A 5448-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45985.56231481482</v>
+        <v>45692.88263888889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8145,7 +8155,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8182,14 +8192,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 9633-2024</t>
+          <t>A 51887-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45362.3203125</v>
+        <v>45952</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8202,7 +8212,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.6</v>
+        <v>10.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8239,14 +8249,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 27141-2024</t>
+          <t>A 25911-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45471.55196759259</v>
+        <v>45804.55912037037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8259,7 +8269,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8296,14 +8306,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 58443-2025</t>
+          <t>A 55189-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45985.61674768518</v>
+        <v>45968.54363425926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8316,7 +8326,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8353,14 +8363,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 21875-2024</t>
+          <t>A 55188-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45443.38331018519</v>
+        <v>45968.5422800926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8373,7 +8383,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8410,14 +8420,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 45853-2025</t>
+          <t>A 55706-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45923.6297337963</v>
+        <v>45972.47302083333</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8430,7 +8440,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8467,14 +8477,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 45293-2025</t>
+          <t>A 55776-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45920.43634259259</v>
+        <v>45972</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8487,7 +8497,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8524,14 +8534,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 45292-2025</t>
+          <t>A 59325-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45920.43488425926</v>
+        <v>45253</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8544,7 +8554,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8581,14 +8591,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 13034-2025</t>
+          <t>A 54586-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45734.57408564815</v>
+        <v>45233.77412037037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8601,7 +8611,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.4</v>
+        <v>3.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8638,14 +8648,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 30079-2025</t>
+          <t>A 45293-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45826.64440972222</v>
+        <v>45920.43634259259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8658,7 +8668,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8695,14 +8705,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 46234-2025</t>
+          <t>A 45292-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45925.29591435185</v>
+        <v>45920.43488425926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8715,7 +8725,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8752,14 +8762,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 46237-2025</t>
+          <t>A 8983-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45925.30956018518</v>
+        <v>45356</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8772,7 +8782,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>14.2</v>
+        <v>2.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8809,14 +8819,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 10924-2025</t>
+          <t>A 45853-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45722.83402777778</v>
+        <v>45923.6297337963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8829,7 +8839,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8866,14 +8876,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 46233-2025</t>
+          <t>A 27249-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45925.29270833333</v>
+        <v>45812.46844907408</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8923,14 +8933,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 46944-2021</t>
+          <t>A 58074-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44446.51780092593</v>
+        <v>44900.61518518518</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8943,7 +8953,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8980,14 +8990,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 37424-2021</t>
+          <t>A 27112-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44398.48474537037</v>
+        <v>45811.73366898148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9000,7 +9010,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9037,14 +9047,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 15236-2024</t>
+          <t>A 26964-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45400</v>
+        <v>45811.46918981482</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9057,7 +9067,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9094,14 +9104,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 58866-2025</t>
+          <t>A 27227-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45987.44790509259</v>
+        <v>45812.43118055556</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9114,7 +9124,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9151,14 +9161,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 46823-2025</t>
+          <t>A 27109-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45926.79550925926</v>
+        <v>45811.73126157407</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9171,7 +9181,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9208,14 +9218,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 46833-2025</t>
+          <t>A 27110-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45927.68620370371</v>
+        <v>45811.73269675926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9228,7 +9238,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9265,14 +9275,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 58833-2025</t>
+          <t>A 55992-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45987.35474537037</v>
+        <v>45973.55912037037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9285,7 +9295,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9322,14 +9332,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 5144-2024</t>
+          <t>A 46233-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45330</v>
+        <v>45925.29270833333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9342,7 +9352,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9379,14 +9389,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 47169-2025</t>
+          <t>A 27585-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45929.91121527777</v>
+        <v>45813.50371527778</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9399,7 +9409,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9436,14 +9446,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 48094-2025</t>
+          <t>A 46234-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45933.33019675926</v>
+        <v>45925.29591435185</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9456,7 +9466,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9493,14 +9503,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 48100-2025</t>
+          <t>A 46237-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45933.33457175926</v>
+        <v>45925.30956018518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9513,7 +9523,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.8</v>
+        <v>14.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9550,14 +9560,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 13122-2025</t>
+          <t>A 56379-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45734.80390046296</v>
+        <v>45974.70221064815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9570,7 +9580,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9607,14 +9617,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 30280-2023</t>
+          <t>A 56381-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45110.88763888889</v>
+        <v>45974.7060300926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9627,7 +9637,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9664,14 +9674,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 48082-2025</t>
+          <t>A 6525-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45932.77143518518</v>
+        <v>45699.66690972223</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9684,7 +9694,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9721,14 +9731,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 48099-2025</t>
+          <t>A 54185-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45933.33207175926</v>
+        <v>45616.64060185185</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9741,7 +9751,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9778,14 +9788,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 48080-2025</t>
+          <t>A 27141-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45932.7685300926</v>
+        <v>45471.55196759259</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9798,7 +9808,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9835,14 +9845,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 48081-2025</t>
+          <t>A 47169-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45932.77</v>
+        <v>45929.91121527777</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9855,7 +9865,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9892,14 +9902,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 48104-2025</t>
+          <t>A 46833-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45933.3422337963</v>
+        <v>45927.68620370371</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9912,7 +9922,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9949,14 +9959,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 48452-2025</t>
+          <t>A 46823-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45935.79104166666</v>
+        <v>45926.79550925926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9969,7 +9979,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10006,14 +10016,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 49431-2025</t>
+          <t>A 20275-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45938.845</v>
+        <v>45774.32253472223</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10026,7 +10036,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10063,14 +10073,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 44431-2023</t>
+          <t>A 7962-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45189.35152777778</v>
+        <v>45350.57357638889</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10083,7 +10093,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10120,14 +10130,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 45978-2022</t>
+          <t>A 28049-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44846.69284722222</v>
+        <v>45817.65653935185</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10140,7 +10150,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10177,14 +10187,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 48955-2025</t>
+          <t>A 28152-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45937</v>
+        <v>45818.35734953704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10197,7 +10207,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10234,14 +10244,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 54937-2022</t>
+          <t>A 28052-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44881</v>
+        <v>45817.65847222223</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10254,7 +10264,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10291,14 +10301,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 48760-2025</t>
+          <t>A 15421-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45936.77475694445</v>
+        <v>45401.36530092593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10311,7 +10321,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10348,14 +10358,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 49598-2025</t>
+          <t>A 16281-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45939.53748842593</v>
+        <v>45751.29027777778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10367,8 +10377,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10405,14 +10420,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 49855-2025</t>
+          <t>A 16283-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45940.50458333334</v>
+        <v>45751.29266203703</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10424,8 +10439,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10462,14 +10482,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 9086-2024</t>
+          <t>A 59684-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45357.90260416667</v>
+        <v>44908</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10481,8 +10501,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10519,14 +10544,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 9089-2024</t>
+          <t>A 49751-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45357.90612268518</v>
+        <v>45212.52082175926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10539,7 +10564,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.7</v>
+        <v>11.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10576,14 +10601,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 20022-2025</t>
+          <t>A 30079-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45772.34013888889</v>
+        <v>45826.64440972222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10596,7 +10621,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10633,14 +10658,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 42359-2023</t>
+          <t>A 13034-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45180.52940972222</v>
+        <v>45734.57408564815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10653,7 +10678,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10690,14 +10715,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 51167-2025</t>
+          <t>A 3756-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45947.59884259259</v>
+        <v>44951.47405092593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10710,7 +10735,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.7</v>
+        <v>5.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10747,14 +10772,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 50685-2025</t>
+          <t>A 57569-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45945.82289351852</v>
+        <v>45980.73299768518</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10767,7 +10792,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10804,14 +10829,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 44421-2024</t>
+          <t>A 10924-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45573.86858796296</v>
+        <v>45722.83402777778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10824,7 +10849,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10861,14 +10886,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 62097-2022</t>
+          <t>A 9802-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44920</v>
+        <v>44252.70211805555</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10881,7 +10906,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10918,14 +10943,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 22202-2024</t>
+          <t>A 57567-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45446.37318287037</v>
+        <v>45980.73072916667</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10975,14 +11000,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 9749-2023</t>
+          <t>A 61904-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44984</v>
+        <v>44917.73387731481</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10994,8 +11019,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11032,14 +11062,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 59309-2025</t>
+          <t>A 61907-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45989.27822916667</v>
+        <v>44917.73603009259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11051,8 +11081,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11089,14 +11124,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 35621-2025</t>
+          <t>A 49455-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45859.4146875</v>
+        <v>45211.50127314815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11109,7 +11144,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11146,14 +11181,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 51890-2025</t>
+          <t>A 13122-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45952.41594907407</v>
+        <v>45734.80390046296</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11166,7 +11201,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11203,14 +11238,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 56637-2024</t>
+          <t>A 59381-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45625.69395833334</v>
+        <v>44905.46840277778</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11223,7 +11258,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11260,14 +11295,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 42552-2024</t>
+          <t>A 58398-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45565.61814814815</v>
+        <v>45985.56231481482</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11280,7 +11315,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11317,14 +11352,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 59156-2025</t>
+          <t>A 58444-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45988.54133101852</v>
+        <v>45985.61791666667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11337,7 +11372,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11374,14 +11409,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 59508-2025</t>
+          <t>A 10586-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45989.64269675926</v>
+        <v>45366.69975694444</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11393,13 +11428,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11436,14 +11466,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 59317-2025</t>
+          <t>A 58443-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45989.32200231482</v>
+        <v>45985.61674768518</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11456,7 +11486,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11493,14 +11523,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 26526-2022</t>
+          <t>A 24064-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44739.44171296297</v>
+        <v>44725.32741898148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11513,7 +11543,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11550,14 +11580,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 59440-2023</t>
+          <t>A 1262-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45254</v>
+        <v>44936.39234953704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11570,7 +11600,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>15</v>
+        <v>4.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11607,14 +11637,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 36637-2025</t>
+          <t>A 50958-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45870.73012731481</v>
+        <v>45210</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11626,8 +11656,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11664,14 +11699,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 36638-2025</t>
+          <t>A 58866-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45870.73099537037</v>
+        <v>45987.44790509259</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11684,7 +11719,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11721,14 +11756,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 36639-2025</t>
+          <t>A 50053-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45870.73174768518</v>
+        <v>45600.33508101852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11741,7 +11776,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11778,14 +11813,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 36641-2025</t>
+          <t>A 59156-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45871.43119212963</v>
+        <v>45988.54133101852</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11798,7 +11833,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11835,14 +11870,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 36838-2025</t>
+          <t>A 59042-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45874.37011574074</v>
+        <v>45988.37216435185</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11855,7 +11890,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11892,14 +11927,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 13397-2025</t>
+          <t>A 30674-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45735.71293981482</v>
+        <v>45112</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11912,7 +11947,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>7.1</v>
+        <v>2.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11949,14 +11984,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 24785-2023</t>
+          <t>A 58833-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45084.67194444445</v>
+        <v>45987.35474537037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11969,7 +12004,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12006,14 +12041,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 51887-2025</t>
+          <t>A 1427-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45952</v>
+        <v>46031.94480324074</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12026,7 +12061,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>10.6</v>
+        <v>2.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12063,14 +12098,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 946-2026</t>
+          <t>A 59508-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46030.53789351852</v>
+        <v>45989.64269675926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12082,8 +12117,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12120,14 +12160,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 22386-2024</t>
+          <t>A 59317-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45446.66300925926</v>
+        <v>45989.32200231482</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12140,7 +12180,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12177,14 +12217,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 59042-2025</t>
+          <t>A 44421-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45988.37216435185</v>
+        <v>45573.86858796296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12197,7 +12237,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12234,14 +12274,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 42330-2023</t>
+          <t>A 1437-2026</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45180</v>
+        <v>46032.56134259259</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12254,7 +12294,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12291,14 +12331,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 36974-2024</t>
+          <t>A 1438-2026</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45538.89228009259</v>
+        <v>46032.5637037037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12311,7 +12351,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12348,14 +12388,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 21932-2024</t>
+          <t>A 59309-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45443</v>
+        <v>45989.27822916667</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12368,7 +12408,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12405,14 +12445,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 1262-2023</t>
+          <t>A 1513-2026</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44936.39234953704</v>
+        <v>46034.34575231482</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12425,7 +12465,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12462,14 +12502,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 20807-2025</t>
+          <t>A 22386-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45776.65706018519</v>
+        <v>45446.66300925926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12481,13 +12521,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12524,14 +12559,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 19308-2025</t>
+          <t>A 2430-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45769.56891203704</v>
+        <v>46036.81327546296</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12543,13 +12578,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12586,14 +12616,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 55189-2025</t>
+          <t>A 2431-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45968.54363425926</v>
+        <v>46036.81487268519</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12606,7 +12636,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12643,14 +12673,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 55188-2025</t>
+          <t>A 22515-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45968.5422800926</v>
+        <v>44713.68042824074</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12663,7 +12693,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12700,14 +12730,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 1437-2026</t>
+          <t>A 22517-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46032.56134259259</v>
+        <v>44713.68208333333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12720,7 +12750,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12757,14 +12787,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 7732-2023</t>
+          <t>A 2410-2026</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44973</v>
+        <v>46036.72965277778</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12776,13 +12806,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>9.300000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12819,14 +12844,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 1880-2026</t>
+          <t>A 2411-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46035.47288194444</v>
+        <v>46036.73222222222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12839,7 +12864,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12876,14 +12901,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 16121-2024</t>
+          <t>A 2416-2026</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45406.49583333333</v>
+        <v>46036.76255787037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12896,7 +12921,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12933,14 +12958,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 1438-2026</t>
+          <t>A 2052-2026</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46032.5637037037</v>
+        <v>46031</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12952,8 +12977,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>1.2</v>
+        <v>8.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -12990,14 +13020,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 1427-2026</t>
+          <t>A 42552-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46031.94480324074</v>
+        <v>45565.61814814815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13010,7 +13040,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13047,14 +13077,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 1860-2026</t>
+          <t>A 35621-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46035.44283564815</v>
+        <v>45859.4146875</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13067,7 +13097,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13104,14 +13134,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 1513-2026</t>
+          <t>A 1880-2026</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46034.34575231482</v>
+        <v>46035.47288194444</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13124,7 +13154,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13161,14 +13191,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 2917-2023</t>
+          <t>A 1860-2026</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44943</v>
+        <v>46035.44283564815</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13181,7 +13211,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13218,14 +13248,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 33939-2023</t>
+          <t>A 5523-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45134.55792824074</v>
+        <v>44960</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13238,7 +13268,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13275,14 +13305,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 2411-2026</t>
+          <t>A 56637-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46036.73222222222</v>
+        <v>45625.69395833334</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13295,7 +13325,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13332,14 +13362,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 19391-2024</t>
+          <t>A 2432-2026</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45429.37967592593</v>
+        <v>46036.81594907407</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13352,7 +13382,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13389,14 +13419,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 19394-2024</t>
+          <t>A 2051-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45429.38112268518</v>
+        <v>46031</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13408,8 +13438,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13446,14 +13481,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 1277-2026</t>
+          <t>A 36638-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>46031</v>
+        <v>45870.73099537037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13466,7 +13501,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13503,14 +13538,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 2416-2026</t>
+          <t>A 36639-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>46036.76255787037</v>
+        <v>45870.73174768518</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13523,7 +13558,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13560,14 +13595,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 2051-2026</t>
+          <t>A 3010-2026</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46031</v>
+        <v>46038.66194444444</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13579,13 +13614,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13622,14 +13652,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 2410-2026</t>
+          <t>A 36637-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46036.72965277778</v>
+        <v>45870.73012731481</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13642,7 +13672,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13679,14 +13709,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 2430-2026</t>
+          <t>A 1277-2026</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46036.81327546296</v>
+        <v>46031</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13699,7 +13729,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13736,14 +13766,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 2431-2026</t>
+          <t>A 3012-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46036.81487268519</v>
+        <v>46038.66331018518</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13756,7 +13786,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13793,14 +13823,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 8895-2023</t>
+          <t>A 36838-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44979</v>
+        <v>45874.37011574074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13812,13 +13842,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13855,14 +13880,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 2432-2026</t>
+          <t>A 20260-2021</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>46036.81594907407</v>
+        <v>44314</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13874,8 +13899,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13912,14 +13942,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 59381-2022</t>
+          <t>A 52097-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44905.46840277778</v>
+        <v>45608.4153125</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13932,7 +13962,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.3</v>
+        <v>10.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13969,14 +13999,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 20169-2025</t>
+          <t>A 36641-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45772.57777777778</v>
+        <v>45871.43119212963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13989,7 +14019,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14026,14 +14056,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 17199-2025</t>
+          <t>A 8268-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45756.41421296296</v>
+        <v>45708.51210648148</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14046,7 +14076,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14083,14 +14113,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 2052-2026</t>
+          <t>A 36974-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>46031</v>
+        <v>45538.89228009259</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14102,13 +14132,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14145,14 +14170,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 9721-2023</t>
+          <t>A 60802-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44984</v>
+        <v>45999.43222222223</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14165,7 +14190,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14202,14 +14227,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 60802-2025</t>
+          <t>A 3382-2026</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45999.43222222223</v>
+        <v>46042.36003472222</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14222,7 +14247,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14259,14 +14284,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 60975-2025</t>
+          <t>A 60981-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45999.69570601852</v>
+        <v>45999.70361111111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14279,7 +14304,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14316,14 +14341,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 60985-2025</t>
+          <t>A 60975-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45999.70759259259</v>
+        <v>45999.69570601852</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14336,7 +14361,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14373,14 +14398,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 10586-2024</t>
+          <t>A 60985-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45366.69975694444</v>
+        <v>45999.70759259259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14393,7 +14418,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14430,14 +14455,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 3012-2026</t>
+          <t>A 60973-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>46038.66331018518</v>
+        <v>45999.69430555555</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14450,7 +14475,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14487,14 +14512,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 60973-2025</t>
+          <t>A 19308-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45999.69430555555</v>
+        <v>45769.56891203704</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14504,6 +14529,11 @@
       <c r="E243" t="inlineStr">
         <is>
           <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G243" t="n">
@@ -14544,14 +14574,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 3010-2026</t>
+          <t>A 1122-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>46038.66194444444</v>
+        <v>45666.66532407407</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14564,7 +14594,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14601,14 +14631,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 29092-2023</t>
+          <t>A 9725-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45105.34570601852</v>
+        <v>44984</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14620,13 +14650,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14663,14 +14688,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 60981-2025</t>
+          <t>A 46732-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45999.70361111111</v>
+        <v>45198.59054398148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14682,8 +14707,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G246" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14720,14 +14750,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 48595-2021</t>
+          <t>A 11484-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44452.48140046297</v>
+        <v>45726.69502314815</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14740,7 +14770,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14777,14 +14807,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 24611-2023</t>
+          <t>A 61731-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45084.33306712963</v>
+        <v>46002.59304398148</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14797,7 +14827,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14834,14 +14864,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 3382-2026</t>
+          <t>A 3701-2026</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>46042.36003472222</v>
+        <v>46043.47123842593</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14854,7 +14884,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14891,14 +14921,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 62148-2022</t>
+          <t>A 30362-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44922.40197916667</v>
+        <v>45491.35975694445</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14911,7 +14941,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14948,14 +14978,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 3701-2026</t>
+          <t>A 24785-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>46043.47123842593</v>
+        <v>45084.67194444445</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14968,7 +14998,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15005,14 +15035,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 3756-2023</t>
+          <t>A 54937-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44951.47405092593</v>
+        <v>44881</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15025,7 +15055,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>5.2</v>
+        <v>2.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15062,14 +15092,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 8268-2025</t>
+          <t>A 37424-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45708.51210648148</v>
+        <v>44398.48474537037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15082,7 +15112,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15126,7 +15156,7 @@
         <v>46045.3403125</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15176,14 +15206,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 11484-2025</t>
+          <t>A 17527-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45726.69502314815</v>
+        <v>45757.58712962963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15196,7 +15226,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15233,14 +15263,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 15421-2024</t>
+          <t>A 2917-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45401.36530092593</v>
+        <v>44943</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15253,7 +15283,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15290,14 +15320,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 6003-2023</t>
+          <t>A 6083-2026</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44964.39972222222</v>
+        <v>46052.68944444445</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15309,13 +15339,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G257" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15352,14 +15377,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 61731-2025</t>
+          <t>A 46108-2021</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>46002.59304398148</v>
+        <v>44442.36792824074</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15372,7 +15397,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15409,14 +15434,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 57860-2023</t>
+          <t>A 19319-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45247.44261574074</v>
+        <v>45769.57847222222</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15429,7 +15454,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15466,14 +15491,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 16912-2025</t>
+          <t>A 5707-2026</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45755.36498842593</v>
+        <v>46051.5116087963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15486,7 +15511,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15523,14 +15548,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 9642-2025</t>
+          <t>A 20475-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45715.84020833333</v>
+        <v>45057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15543,7 +15568,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15580,14 +15605,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 16587-2025</t>
+          <t>A 5708-2026</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45752.87754629629</v>
+        <v>46051.51230324074</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15600,7 +15625,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>3.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15637,14 +15662,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 5152-2024</t>
+          <t>A 16282-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45330.49232638889</v>
+        <v>45751.29126157407</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15656,8 +15681,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G263" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15694,14 +15724,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 14787-2024</t>
+          <t>A 7329-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45397.7650462963</v>
+        <v>45703.32144675926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15714,7 +15744,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15751,14 +15781,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 14789-2024</t>
+          <t>A 54587-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45397.81939814815</v>
+        <v>45233</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15771,7 +15801,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -15808,14 +15838,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 49751-2023</t>
+          <t>A 7680-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45212.52082175926</v>
+        <v>45706.36583333334</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15828,7 +15858,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>11.5</v>
+        <v>0.5</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -15865,14 +15895,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 60814-2024</t>
+          <t>A 10655-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45644.61975694444</v>
+        <v>45721.69958333333</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15885,7 +15915,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -15922,14 +15952,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 5707-2026</t>
+          <t>A 46944-2021</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>46051.5116087963</v>
+        <v>44446.51780092593</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15942,7 +15972,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -15979,14 +16009,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 5708-2026</t>
+          <t>A 5663-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>46051.51230324074</v>
+        <v>45693.82982638889</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -15999,7 +16029,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16036,14 +16066,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 52097-2024</t>
+          <t>A 16587-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45608.4153125</v>
+        <v>45752.87754629629</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16056,7 +16086,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>10.9</v>
+        <v>3.1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16093,14 +16123,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 59684-2022</t>
+          <t>A 7070-2026</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44908</v>
+        <v>46058.31163194445</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16112,13 +16142,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G271" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16155,14 +16180,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 6083-2026</t>
+          <t>A 34133-2022</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>46052.68944444445</v>
+        <v>44791.52582175926</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16175,7 +16200,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16212,14 +16237,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 30674-2023</t>
+          <t>A 7533-2026</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45112</v>
+        <v>46059.62197916667</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16232,7 +16257,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16269,14 +16294,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 12918-2021</t>
+          <t>A 7535-2026</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44271</v>
+        <v>46059.62313657408</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16289,7 +16314,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16326,14 +16351,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 5663-2025</t>
+          <t>A 16284-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45693.82982638889</v>
+        <v>45751.29762731482</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16346,7 +16371,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>8.199999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16383,14 +16408,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 7329-2025</t>
+          <t>A 8195-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45703.32144675926</v>
+        <v>45351.66591435186</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16403,7 +16428,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16440,14 +16465,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 7680-2025</t>
+          <t>A 9863-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45706.36583333334</v>
+        <v>45363</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16460,7 +16485,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16504,7 +16529,7 @@
         <v>46059.61733796296</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16554,14 +16579,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 7070-2026</t>
+          <t>A 8372-2026</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>46058.31163194445</v>
+        <v>46064.71388888889</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16574,7 +16599,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16611,14 +16636,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 20172-2025</t>
+          <t>A 8659-2026</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45772.57979166666</v>
+        <v>46066.37532407408</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16631,7 +16656,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>4.9</v>
+        <v>0.9</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16668,14 +16693,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 57902-2022</t>
+          <t>A 64234-2021</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44900.35104166667</v>
+        <v>44510.64112268519</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16688,7 +16713,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16725,14 +16750,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 7533-2026</t>
+          <t>A 11777-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>46059.62197916667</v>
+        <v>45374.35063657408</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16745,7 +16770,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16782,14 +16807,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 7535-2026</t>
+          <t>A 11792-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>46059.62313657408</v>
+        <v>45375</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16802,7 +16827,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -16839,14 +16864,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 17195-2025</t>
+          <t>A 64386-2021</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45756.40695601852</v>
+        <v>44511</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16859,7 +16884,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -16896,14 +16921,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 20260-2021</t>
+          <t>A 30280-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44314</v>
+        <v>45110.88763888889</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16915,13 +16940,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G285" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -16958,14 +16978,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 16169-2024</t>
+          <t>A 9086-2024</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45406.61987268519</v>
+        <v>45357.90260416667</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -16978,7 +16998,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>2.1</v>
+        <v>5.8</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17015,14 +17035,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 8456-2024</t>
+          <t>A 9089-2024</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45354</v>
+        <v>45357.90612268518</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17035,7 +17055,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17072,14 +17092,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 50958-2023</t>
+          <t>A 8657-2026</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45210</v>
+        <v>46066.37245370371</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17091,13 +17111,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G288" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17134,14 +17149,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 17972-2023</t>
+          <t>A 21232-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45040</v>
+        <v>45062.54716435185</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17154,7 +17169,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17191,14 +17206,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 8372-2026</t>
+          <t>A 9297-2026</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>46064.71388888889</v>
+        <v>46070.59637731482</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17211,7 +17226,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17248,14 +17263,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 7047-2023</t>
+          <t>A 22202-2024</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44968</v>
+        <v>45446.37318287037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17268,7 +17283,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17305,14 +17320,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 8657-2026</t>
+          <t>A 60380-2022</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>46066.37245370371</v>
+        <v>44910.69658564815</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17325,7 +17340,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17362,14 +17377,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 20454-2025</t>
+          <t>A 9305-2026</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45775.50877314815</v>
+        <v>46070.60619212963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17382,7 +17397,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17419,14 +17434,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 8659-2026</t>
+          <t>A 9301-2026</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>46066.37532407408</v>
+        <v>46070.60028935185</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17439,7 +17454,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17476,14 +17491,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 62535-2023</t>
+          <t>A 9261-2026</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45268</v>
+        <v>46070.52174768518</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17496,7 +17511,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17533,14 +17548,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 9261-2026</t>
+          <t>A 33939-2023</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>46070.52174768518</v>
+        <v>45134.55792824074</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17553,7 +17568,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17590,14 +17605,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 9301-2026</t>
+          <t>A 9642-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>46070.60028935185</v>
+        <v>45715.84020833333</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17610,7 +17625,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17647,14 +17662,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 16280-2025</t>
+          <t>A 946-2026</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45751.28666666667</v>
+        <v>46030.53789351852</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17666,13 +17681,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G298" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17709,14 +17719,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 9305-2026</t>
+          <t>A 17951-2023</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>46070.60619212963</v>
+        <v>45040</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17729,7 +17739,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -17766,14 +17776,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 10655-2025</t>
+          <t>A 17972-2023</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45721.69958333333</v>
+        <v>45040</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17786,7 +17796,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -17823,14 +17833,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 9297-2026</t>
+          <t>A 3619-2023</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>46070.59637731482</v>
+        <v>44950.63637731481</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17843,7 +17853,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -17880,14 +17890,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 44669-2023</t>
+          <t>A 66386-2021</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45189</v>
+        <v>44518</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17900,7 +17910,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -17937,14 +17947,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 64386-2021</t>
+          <t>A 4550-2024</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>44511</v>
+        <v>45327.71622685185</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17957,7 +17967,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -17994,14 +18004,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 66386-2021</t>
+          <t>A 44668-2023</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>44518</v>
+        <v>45189.72548611111</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18014,7 +18024,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18051,14 +18061,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 17201-2025</t>
+          <t>A 42330-2023</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45756.42020833334</v>
+        <v>45180</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18071,7 +18081,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18108,14 +18118,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 1005-2024</t>
+          <t>A 60814-2024</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45301</v>
+        <v>45644.61975694444</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18128,7 +18138,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18165,14 +18175,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 4548-2024</t>
+          <t>A 7734-2022</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45327.7147800926</v>
+        <v>44608</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18185,7 +18195,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18222,14 +18232,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 60589-2023</t>
+          <t>A 49357-2024</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45260.28659722222</v>
+        <v>45595.61976851852</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18242,7 +18252,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18279,14 +18289,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 57921-2022</t>
+          <t>A 47583-2024</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>44900</v>
+        <v>45587.77702546296</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18298,8 +18308,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G309" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18336,14 +18351,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 21232-2023</t>
+          <t>A 14655-2022</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45062.54716435185</v>
+        <v>44655</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18356,7 +18371,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18393,14 +18408,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 16281-2025</t>
+          <t>A 16121-2024</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45751.29027777778</v>
+        <v>45406.49583333333</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18412,13 +18427,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G311" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18455,14 +18465,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 16283-2025</t>
+          <t>A 55972-2023</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45751.29266203703</v>
+        <v>45233</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18474,13 +18484,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G312" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18517,14 +18522,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 7734-2022</t>
+          <t>A 9189-2022</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>44608</v>
+        <v>44615.89261574074</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18537,7 +18542,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18574,14 +18579,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 20806-2023</t>
+          <t>A 60589-2023</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45058</v>
+        <v>45260.28659722222</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18594,7 +18599,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18631,14 +18636,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 54097-2024</t>
+          <t>A 50307-2023</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45616.51472222222</v>
+        <v>45209</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18651,7 +18656,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18688,14 +18693,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 59225-2023</t>
+          <t>A 46747-2023</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45253</v>
+        <v>45198</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18707,8 +18712,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G316" t="n">
-        <v>2</v>
+        <v>6.6</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18745,14 +18755,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 9863-2024</t>
+          <t>A 46736-2023</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45363</v>
+        <v>45198</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18764,8 +18774,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G317" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -18802,14 +18817,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 5523-2023</t>
+          <t>A 17201-2025</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>44960</v>
+        <v>45756.42020833334</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18822,7 +18837,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -18859,14 +18874,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 11793-2024</t>
+          <t>A 39475-2023</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45375.30324074074</v>
+        <v>45166</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18879,7 +18894,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>0.4</v>
+        <v>5.1</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -18916,14 +18931,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 60380-2022</t>
+          <t>A 53213-2024</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>44910.69658564815</v>
+        <v>45612.65795138889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18936,7 +18951,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -18973,14 +18988,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 8983-2024</t>
+          <t>A 20022-2025</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45356</v>
+        <v>45772.34013888889</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -18993,7 +19008,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19030,14 +19045,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 50945-2023</t>
+          <t>A 5144-2024</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45210</v>
+        <v>45330</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19049,13 +19064,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G322" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19092,14 +19102,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 22515-2022</t>
+          <t>A 9633-2024</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>44713.68042824074</v>
+        <v>45362.3203125</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19112,7 +19122,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19149,14 +19159,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 22517-2022</t>
+          <t>A 59619-2022</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>44713.68208333333</v>
+        <v>44907.88240740741</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19169,7 +19179,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19206,14 +19216,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 46108-2021</t>
+          <t>A 16280-2025</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>44442.36792824074</v>
+        <v>45751.28666666667</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19225,8 +19235,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G325" t="n">
-        <v>0.3</v>
+        <v>3.3</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19263,14 +19278,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 6525-2025</t>
+          <t>A 16912-2025</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45699.66690972223</v>
+        <v>45755.36498842593</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19283,7 +19298,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19320,14 +19335,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 39000-2023</t>
+          <t>A 37653-2023</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45163.67079861111</v>
+        <v>45159.51601851852</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19377,14 +19392,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 55240-2023</t>
+          <t>A 13397-2025</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45237.63732638889</v>
+        <v>45735.71293981482</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19397,7 +19412,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>0.7</v>
+        <v>7.1</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19434,14 +19449,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 50053-2024</t>
+          <t>A 17199-2025</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45600.33508101852</v>
+        <v>45756.41421296296</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19454,7 +19469,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19491,14 +19506,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 58074-2022</t>
+          <t>A 18068-2025</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>44900.61518518518</v>
+        <v>45761.49069444444</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19511,7 +19526,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19548,14 +19563,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 11797-2024</t>
+          <t>A 1005-2024</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45375.38054398148</v>
+        <v>45301</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19568,7 +19583,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19605,14 +19620,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 53213-2024</t>
+          <t>A 3057-2023</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45612.65795138889</v>
+        <v>44946</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19625,7 +19640,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -19662,14 +19677,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 46747-2023</t>
+          <t>A 20172-2025</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45198</v>
+        <v>45772.57979166666</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19681,13 +19696,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G333" t="n">
-        <v>6.6</v>
+        <v>4.9</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -19724,14 +19734,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 49455-2023</t>
+          <t>A 8456-2024</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45211.50127314815</v>
+        <v>45354</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19744,7 +19754,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -19781,14 +19791,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 34133-2022</t>
+          <t>A 6003-2023</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>44791.52582175926</v>
+        <v>44964.39972222222</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19800,8 +19810,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G335" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -19838,14 +19853,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 44668-2023</t>
+          <t>A 16169-2024</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>45189.72548611111</v>
+        <v>45406.61987268519</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19858,7 +19873,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -19895,14 +19910,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 47583-2024</t>
+          <t>A 48595-2021</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>45587.77702546296</v>
+        <v>44452.48140046297</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19914,13 +19929,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F337" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G337" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -19957,14 +19967,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 49357-2024</t>
+          <t>A 30061-2021</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>45595.61976851852</v>
+        <v>44363</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19977,7 +19987,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20014,14 +20024,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 61904-2022</t>
+          <t>A 42359-2023</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>44917.73387731481</v>
+        <v>45180.52940972222</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20033,13 +20043,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F339" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G339" t="n">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -20076,14 +20081,14 @@
     <row r="340" ht="15" customHeight="1">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 61907-2022</t>
+          <t>A 9749-2023</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>44917.73603009259</v>
+        <v>44984</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20095,13 +20100,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G340" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -20138,14 +20138,14 @@
     <row r="341" ht="15" customHeight="1">
       <c r="A341" t="inlineStr">
         <is>
-          <t>A 4065-2023</t>
+          <t>A 9898-2024</t>
         </is>
       </c>
       <c r="B341" s="1" t="n">
-        <v>44952</v>
+        <v>45363</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -20195,14 +20195,14 @@
     <row r="342" ht="15" customHeight="1">
       <c r="A342" t="inlineStr">
         <is>
-          <t>A 7962-2024</t>
+          <t>A 57167-2022</t>
         </is>
       </c>
       <c r="B342" s="1" t="n">
-        <v>45350.57357638889</v>
+        <v>44895.60074074074</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -20252,14 +20252,14 @@
     <row r="343" ht="15" customHeight="1">
       <c r="A343" t="inlineStr">
         <is>
-          <t>A 65946-2021</t>
+          <t>A 61969-2022</t>
         </is>
       </c>
       <c r="B343" s="1" t="n">
-        <v>44517</v>
+        <v>44914</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>0.7</v>
+        <v>5.7</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -20309,14 +20309,14 @@
     <row r="344" ht="15" customHeight="1">
       <c r="A344" t="inlineStr">
         <is>
-          <t>A 48718-2023</t>
+          <t>A 62148-2022</t>
         </is>
       </c>
       <c r="B344" s="1" t="n">
-        <v>45208</v>
+        <v>44922.40197916667</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -20366,14 +20366,14 @@
     <row r="345" ht="15" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
-          <t>A 20456-2025</t>
+          <t>A 12918-2021</t>
         </is>
       </c>
       <c r="B345" s="1" t="n">
-        <v>45775.51363425926</v>
+        <v>44271</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -20423,14 +20423,14 @@
     <row r="346" ht="15" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
-          <t>A 43384-2023</t>
+          <t>A 57902-2022</t>
         </is>
       </c>
       <c r="B346" s="1" t="n">
-        <v>45183.85680555556</v>
+        <v>44900.35104166667</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20443,7 +20443,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -20480,14 +20480,14 @@
     <row r="347" ht="15" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
-          <t>A 616-2025</t>
+          <t>A 50945-2023</t>
         </is>
       </c>
       <c r="B347" s="1" t="n">
-        <v>45664.60969907408</v>
+        <v>45210</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20499,8 +20499,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G347" t="n">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -20537,14 +20542,14 @@
     <row r="348" ht="15" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
-          <t>A 17527-2025</t>
+          <t>A 19391-2024</t>
         </is>
       </c>
       <c r="B348" s="1" t="n">
-        <v>45757.58712962963</v>
+        <v>45429.37967592593</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20557,7 +20562,7 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -20594,14 +20599,14 @@
     <row r="349" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
-          <t>A 50160-2022</t>
+          <t>A 19394-2024</t>
         </is>
       </c>
       <c r="B349" s="1" t="n">
-        <v>44865.58923611111</v>
+        <v>45429.38112268518</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20614,7 +20619,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -20651,14 +20656,14 @@
     <row r="350" ht="15" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
-          <t>A 39475-2023</t>
+          <t>A 58049-2023</t>
         </is>
       </c>
       <c r="B350" s="1" t="n">
-        <v>45166</v>
+        <v>45247</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20671,7 +20676,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -20708,14 +20713,14 @@
     <row r="351" ht="15" customHeight="1">
       <c r="A351" t="inlineStr">
         <is>
-          <t>A 14655-2022</t>
+          <t>A 11797-2024</t>
         </is>
       </c>
       <c r="B351" s="1" t="n">
-        <v>44655</v>
+        <v>45375.38054398148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20728,7 +20733,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -20765,14 +20770,14 @@
     <row r="352" ht="15" customHeight="1">
       <c r="A352" t="inlineStr">
         <is>
-          <t>A 54587-2023</t>
+          <t>A 54991-2024</t>
         </is>
       </c>
       <c r="B352" s="1" t="n">
-        <v>45233</v>
+        <v>45620.85204861111</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20785,7 +20790,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -20822,14 +20827,14 @@
     <row r="353" ht="15" customHeight="1">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A 16284-2025</t>
+          <t>A 54097-2024</t>
         </is>
       </c>
       <c r="B353" s="1" t="n">
-        <v>45751.29762731482</v>
+        <v>45616.51472222222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20842,7 +20847,7 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -20879,14 +20884,14 @@
     <row r="354" ht="15" customHeight="1">
       <c r="A354" t="inlineStr">
         <is>
-          <t>A 2345-2023</t>
+          <t>A 4065-2023</t>
         </is>
       </c>
       <c r="B354" s="1" t="n">
-        <v>44942</v>
+        <v>44952</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20899,7 +20904,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -20936,14 +20941,14 @@
     <row r="355" ht="15" customHeight="1">
       <c r="A355" t="inlineStr">
         <is>
-          <t>A 3619-2023</t>
+          <t>A 44431-2023</t>
         </is>
       </c>
       <c r="B355" s="1" t="n">
-        <v>44950.63637731481</v>
+        <v>45189.35152777778</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20956,7 +20961,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -20993,14 +20998,14 @@
     <row r="356" ht="15" customHeight="1">
       <c r="A356" t="inlineStr">
         <is>
-          <t>A 44744-2023</t>
+          <t>A 52016-2021</t>
         </is>
       </c>
       <c r="B356" s="1" t="n">
-        <v>45190.39100694445</v>
+        <v>44463</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21013,7 +21018,7 @@
         </is>
       </c>
       <c r="G356" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -21050,14 +21055,14 @@
     <row r="357" ht="15" customHeight="1">
       <c r="A357" t="inlineStr">
         <is>
-          <t>A 18068-2025</t>
+          <t>A 60191-2022</t>
         </is>
       </c>
       <c r="B357" s="1" t="n">
-        <v>45761.49069444444</v>
+        <v>44910</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21070,7 +21075,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -21107,14 +21112,14 @@
     <row r="358" ht="15" customHeight="1">
       <c r="A358" t="inlineStr">
         <is>
-          <t>A 63073-2023</t>
+          <t>A 55240-2023</t>
         </is>
       </c>
       <c r="B358" s="1" t="n">
-        <v>45273.00841435185</v>
+        <v>45237.63732638889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21127,7 +21132,7 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -21164,14 +21169,14 @@
     <row r="359" ht="15" customHeight="1">
       <c r="A359" t="inlineStr">
         <is>
-          <t>A 56788-2024</t>
+          <t>A 616-2025</t>
         </is>
       </c>
       <c r="B359" s="1" t="n">
-        <v>45628.45511574074</v>
+        <v>45664.60969907408</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21184,7 +21189,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>6.3</v>
+        <v>10</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -21221,14 +21226,14 @@
     <row r="360" ht="15" customHeight="1">
       <c r="A360" t="inlineStr">
         <is>
-          <t>A 37653-2023</t>
+          <t>A 48718-2023</t>
         </is>
       </c>
       <c r="B360" s="1" t="n">
-        <v>45159.51601851852</v>
+        <v>45208</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21278,14 +21283,14 @@
     <row r="361" ht="15" customHeight="1">
       <c r="A361" t="inlineStr">
         <is>
-          <t>A 19319-2025</t>
+          <t>A 16590-2025</t>
         </is>
       </c>
       <c r="B361" s="1" t="n">
-        <v>45769.57847222222</v>
+        <v>45752.89317129629</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21298,7 +21303,7 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -21335,14 +21340,14 @@
     <row r="362" ht="15" customHeight="1">
       <c r="A362" t="inlineStr">
         <is>
-          <t>A 20475-2023</t>
+          <t>A 24611-2023</t>
         </is>
       </c>
       <c r="B362" s="1" t="n">
-        <v>45057</v>
+        <v>45084.33306712963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21355,7 +21360,7 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -21392,14 +21397,14 @@
     <row r="363" ht="15" customHeight="1">
       <c r="A363" t="inlineStr">
         <is>
-          <t>A 12990-2024</t>
+          <t>A 7047-2023</t>
         </is>
       </c>
       <c r="B363" s="1" t="n">
-        <v>45385.55565972222</v>
+        <v>44968</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21412,7 +21417,7 @@
         </is>
       </c>
       <c r="G363" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -21449,14 +21454,14 @@
     <row r="364" ht="15" customHeight="1">
       <c r="A364" t="inlineStr">
         <is>
-          <t>A 57167-2022</t>
+          <t>A 59440-2023</t>
         </is>
       </c>
       <c r="B364" s="1" t="n">
-        <v>44895.60074074074</v>
+        <v>45254</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21469,7 +21474,7 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>0.6</v>
+        <v>15</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -21506,14 +21511,14 @@
     <row r="365" ht="15" customHeight="1">
       <c r="A365" t="inlineStr">
         <is>
-          <t>A 50307-2023</t>
+          <t>A 63073-2023</t>
         </is>
       </c>
       <c r="B365" s="1" t="n">
-        <v>45209</v>
+        <v>45273.00841435185</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21526,7 +21531,7 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -21563,14 +21568,14 @@
     <row r="366" ht="15" customHeight="1">
       <c r="A366" t="inlineStr">
         <is>
-          <t>A 38046-2022</t>
+          <t>A 14787-2024</t>
         </is>
       </c>
       <c r="B366" s="1" t="n">
-        <v>44811.64700231481</v>
+        <v>45397.7650462963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21583,7 +21588,7 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -21620,14 +21625,14 @@
     <row r="367" ht="15" customHeight="1">
       <c r="A367" t="inlineStr">
         <is>
-          <t>A 46736-2023</t>
+          <t>A 14789-2024</t>
         </is>
       </c>
       <c r="B367" s="1" t="n">
-        <v>45198</v>
+        <v>45397.81939814815</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21639,13 +21644,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G367" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -21682,14 +21682,14 @@
     <row r="368" ht="15" customHeight="1">
       <c r="A368" t="inlineStr">
         <is>
-          <t>A 16590-2025</t>
+          <t>A 26362-2024</t>
         </is>
       </c>
       <c r="B368" s="1" t="n">
-        <v>45752.89317129629</v>
+        <v>45469.38258101852</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         </is>
       </c>
       <c r="G368" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -21739,14 +21739,14 @@
     <row r="369" ht="15" customHeight="1">
       <c r="A369" t="inlineStr">
         <is>
-          <t>A 30362-2024</t>
+          <t>A 7732-2023</t>
         </is>
       </c>
       <c r="B369" s="1" t="n">
-        <v>45491.35975694445</v>
+        <v>44973</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21758,8 +21758,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G369" t="n">
-        <v>2.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -21796,14 +21801,14 @@
     <row r="370" ht="15" customHeight="1">
       <c r="A370" t="inlineStr">
         <is>
-          <t>A 1122-2025</t>
+          <t>A 43384-2023</t>
         </is>
       </c>
       <c r="B370" s="1" t="n">
-        <v>45666.66532407407</v>
+        <v>45183.85680555556</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21816,7 +21821,7 @@
         </is>
       </c>
       <c r="G370" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -21853,14 +21858,14 @@
     <row r="371" ht="15" customHeight="1">
       <c r="A371" t="inlineStr">
         <is>
-          <t>A 46732-2023</t>
+          <t>A 44669-2023</t>
         </is>
       </c>
       <c r="B371" s="1" t="n">
-        <v>45198.59054398148</v>
+        <v>45189</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21872,13 +21877,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F371" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G371" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -21915,14 +21915,14 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>A 21535-2025</t>
+          <t>A 2995-2024</t>
         </is>
       </c>
       <c r="B372" s="1" t="n">
-        <v>45782.65741898148</v>
+        <v>45315</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         </is>
       </c>
       <c r="G372" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -575,7 +575,7 @@
         <v>44992</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -653,14 +653,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 13991-2023</t>
+          <t>A 2412-2026</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45008</v>
+        <v>46036.73480324074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.2</v>
+        <v>4.4</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -707,204 +707,204 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Svinrot</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 2412-2026 artfynd.xlsx", "A 2412-2026")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 2412-2026 karta.png", "A 2412-2026")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 2412-2026 FSC-klagomål.docx", "A 2412-2026")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 2412-2026 FSC-klagomål mail.docx", "A 2412-2026")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 2412-2026 tillsynsbegäran.docx", "A 2412-2026")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 2412-2026 tillsynsbegäran mail.docx", "A 2412-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 47506-2023</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45203.28686342593</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 47506-2023 artfynd.xlsx", "A 47506-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 47506-2023 karta.png", "A 47506-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 47506-2023 FSC-klagomål.docx", "A 47506-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 47506-2023 FSC-klagomål mail.docx", "A 47506-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 47506-2023 tillsynsbegäran.docx", "A 47506-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 47506-2023 tillsynsbegäran mail.docx", "A 47506-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 13991-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45008</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Borsttåg</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 13991-2023 artfynd.xlsx", "A 13991-2023")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 13991-2023 karta.png", "A 13991-2023")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 13991-2023 FSC-klagomål.docx", "A 13991-2023")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 13991-2023 FSC-klagomål mail.docx", "A 13991-2023")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 13991-2023 tillsynsbegäran.docx", "A 13991-2023")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 13991-2023 tillsynsbegäran mail.docx", "A 13991-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 2412-2026</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>46036.73480324074</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>VÅRGÅRDA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Svinrot</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 2412-2026 artfynd.xlsx", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 2412-2026 karta.png", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 2412-2026 FSC-klagomål.docx", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 2412-2026 FSC-klagomål mail.docx", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 2412-2026 tillsynsbegäran.docx", "A 2412-2026")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 2412-2026 tillsynsbegäran mail.docx", "A 2412-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 47506-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45203.28686342593</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>VÅRGÅRDA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/artfynd/A 47506-2023 artfynd.xlsx", "A 47506-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/kartor/A 47506-2023 karta.png", "A 47506-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomål/A 47506-2023 FSC-klagomål.docx", "A 47506-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/klagomålsmail/A 47506-2023 FSC-klagomål mail.docx", "A 47506-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsyn/A 47506-2023 tillsynsbegäran.docx", "A 47506-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1442/tillsynsmail/A 47506-2023 tillsynsbegäran mail.docx", "A 47506-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44249.74386574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44271.61297453703</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44496</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44511</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>44314</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>44316.39745370371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44568.35050925926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44568.35122685185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44445.32841435185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44601</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44533</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44572</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44389.36113425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44256</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44677</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>44818</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>44347</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2120,14 +2120,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 12903-2021</t>
+          <t>A 799-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44271.47305555556</v>
+        <v>44571</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2177,14 +2177,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 799-2022</t>
+          <t>A 12903-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44571</v>
+        <v>44271.47305555556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>44501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>44455.51653935185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44564</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44382.40559027778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44505</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,14 +2524,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 7531-2022</t>
+          <t>A 27615-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44607</v>
+        <v>44743.30945601852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2581,14 +2581,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 27615-2022</t>
+          <t>A 7531-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44743.30945601852</v>
+        <v>44607</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>44580</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44446.59780092593</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44298.64422453703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>44511</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>44811.28633101852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>44616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>44621.91310185185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44434.48554398148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44465.35538194444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44469.43070601852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3208,14 +3208,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 62124-2021</t>
+          <t>A 17393-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44501</v>
+        <v>44299</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3265,14 +3265,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 17393-2021</t>
+          <t>A 62124-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44299</v>
+        <v>44501</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3322,14 +3322,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 29025-2021</t>
+          <t>A 15117-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44358</v>
+        <v>44282</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3379,14 +3379,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 15117-2021</t>
+          <t>A 29025-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44282</v>
+        <v>44358</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>44573.34431712963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44826.95922453704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>44662.48648148148</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>44648.29912037037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44515</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3721,14 +3721,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 26526-2022</t>
+          <t>A 30061-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44739.44171296297</v>
+        <v>44363</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3778,14 +3778,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 20806-2023</t>
+          <t>A 17951-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45058</v>
+        <v>45040</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3835,14 +3835,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 56788-2024</t>
+          <t>A 2995-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45628.45511574074</v>
+        <v>45315</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6.3</v>
+        <v>0.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3892,14 +3892,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 4845-2024</t>
+          <t>A 16282-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45329.35953703704</v>
+        <v>45751.29126157407</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3911,8 +3911,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3949,14 +3954,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 30038-2021</t>
+          <t>A 59619-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44363.45402777778</v>
+        <v>44907.88240740741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3969,7 +3974,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4006,14 +4011,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 29092-2023</t>
+          <t>A 9189-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45105.34570601852</v>
+        <v>44615.89261574074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4025,13 +4030,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4068,14 +4068,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 11793-2024</t>
+          <t>A 64234-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45375.30324074074</v>
+        <v>44510.64112268519</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4125,14 +4125,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 57921-2022</t>
+          <t>A 26362-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44900</v>
+        <v>45469.38258101852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4182,14 +4182,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 44744-2023</t>
+          <t>A 9725-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45190.39100694445</v>
+        <v>44984</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4239,14 +4239,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 5152-2024</t>
+          <t>A 61969-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45330.49232638889</v>
+        <v>44914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>5.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4296,14 +4296,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 48452-2025</t>
+          <t>A 4550-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45935.79104166666</v>
+        <v>45327.71622685185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4353,14 +4353,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 20454-2025</t>
+          <t>A 4845-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45775.50877314815</v>
+        <v>45329.35953703704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4410,14 +4410,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 20456-2025</t>
+          <t>A 30038-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45775.51363425926</v>
+        <v>44363.45402777778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4467,14 +4467,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 48099-2025</t>
+          <t>A 3057-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45933.33207175926</v>
+        <v>44946</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4524,14 +4524,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 48094-2025</t>
+          <t>A 55972-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45933.33019675926</v>
+        <v>45233</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4581,14 +4581,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 48104-2025</t>
+          <t>A 9802-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45933.3422337963</v>
+        <v>44252.70211805555</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4638,14 +4638,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 48081-2025</t>
+          <t>A 9898-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45932.77</v>
+        <v>45363</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4695,14 +4695,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 48082-2025</t>
+          <t>A 24064-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45932.77143518518</v>
+        <v>44725.32741898148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4752,14 +4752,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 48080-2025</t>
+          <t>A 12342-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45932.7685300926</v>
+        <v>44267.43596064814</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4809,14 +4809,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 48100-2025</t>
+          <t>A 9090-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45933.33457175926</v>
+        <v>45357.90923611111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4866,14 +4866,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 20807-2025</t>
+          <t>A 52016-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45776.65706018519</v>
+        <v>44463</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4885,13 +4885,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4928,14 +4923,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 48760-2025</t>
+          <t>A 60191-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45936.77475694445</v>
+        <v>44910</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4948,7 +4943,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4985,14 +4980,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 12990-2024</t>
+          <t>A 11777-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45385.55565972222</v>
+        <v>45374.35063657408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5005,7 +5000,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5042,14 +5037,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 8895-2023</t>
+          <t>A 11792-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44979</v>
+        <v>45375</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5061,13 +5056,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5104,14 +5094,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 21535-2025</t>
+          <t>A 8195-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45782.65741898148</v>
+        <v>45351.66591435186</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5124,7 +5114,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5161,14 +5151,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 14786-2024</t>
+          <t>A 54991-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45397.76206018519</v>
+        <v>45620.85204861111</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5181,7 +5171,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5218,14 +5208,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 20169-2025</t>
+          <t>A 58049-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45772.57777777778</v>
+        <v>45247</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5238,7 +5228,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5275,14 +5265,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 17195-2025</t>
+          <t>A 9633-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45756.40695601852</v>
+        <v>45362.3203125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5295,7 +5285,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5332,14 +5322,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 59225-2023</t>
+          <t>A 21875-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45253</v>
+        <v>45443.38331018519</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5352,7 +5342,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5389,14 +5379,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 39372-2025</t>
+          <t>A 54185-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45889.58609953704</v>
+        <v>45616.64060185185</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5409,7 +5399,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5446,14 +5436,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 39375-2025</t>
+          <t>A 28152-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45889.58944444444</v>
+        <v>45818.35734953704</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5466,7 +5456,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5503,14 +5493,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 39419-2025</t>
+          <t>A 46944-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45889.66032407407</v>
+        <v>44446.51780092593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5560,14 +5550,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 39416-2025</t>
+          <t>A 37424-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45889</v>
+        <v>44398.48474537037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5580,7 +5570,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5617,14 +5607,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 15236-2024</t>
+          <t>A 27141-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45400</v>
+        <v>45471.55196759259</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5637,7 +5627,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5674,14 +5664,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 12342-2021</t>
+          <t>A 15236-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44267.43596064814</v>
+        <v>45400</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5694,7 +5684,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5731,14 +5721,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 4548-2024</t>
+          <t>A 5144-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45327.7147800926</v>
+        <v>45330</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5751,7 +5741,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5788,14 +5778,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 39929-2025</t>
+          <t>A 39375-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45891.69728009259</v>
+        <v>45889.58944444444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5808,7 +5798,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5845,14 +5835,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 39843-2025</t>
+          <t>A 14786-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45891</v>
+        <v>45397.76206018519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5865,7 +5855,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5902,14 +5892,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 40239-2025</t>
+          <t>A 39419-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45894.84497685185</v>
+        <v>45889.66032407407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5922,7 +5912,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5959,14 +5949,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 62535-2023</t>
+          <t>A 39372-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45268</v>
+        <v>45889.58609953704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5979,7 +5969,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6016,14 +6006,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 40650-2025</t>
+          <t>A 39416-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45896.6321875</v>
+        <v>45889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6036,7 +6026,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6073,14 +6063,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 65946-2021</t>
+          <t>A 13034-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44517</v>
+        <v>45734.57408564815</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6093,7 +6083,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6130,14 +6120,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 38046-2022</t>
+          <t>A 30280-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44811.64700231481</v>
+        <v>45110.88763888889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6150,7 +6140,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6187,14 +6177,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 48955-2025</t>
+          <t>A 30079-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45937</v>
+        <v>45826.64440972222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6207,7 +6197,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>7</v>
+        <v>1.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6244,14 +6234,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 40955-2025</t>
+          <t>A 39929-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45897.67510416666</v>
+        <v>45891.69728009259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6264,7 +6254,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6301,14 +6291,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 41724-2025</t>
+          <t>A 39843-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45902.4534375</v>
+        <v>45891</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6321,7 +6311,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6358,14 +6348,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 21875-2024</t>
+          <t>A 10924-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45443.38331018519</v>
+        <v>45722.83402777778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6378,7 +6368,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6415,14 +6405,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 41590-2025</t>
+          <t>A 40239-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45901.63255787037</v>
+        <v>45894.84497685185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6435,7 +6425,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6472,14 +6462,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 41625-2025</t>
+          <t>A 44431-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45901.7124537037</v>
+        <v>45189.35152777778</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6492,7 +6482,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5.4</v>
+        <v>2.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6529,14 +6519,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 21932-2024</t>
+          <t>A 45978-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45443</v>
+        <v>44846.69284722222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6549,7 +6539,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6586,14 +6576,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 41593-2025</t>
+          <t>A 54937-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45901.63788194444</v>
+        <v>44881</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6606,7 +6596,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6643,14 +6633,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 35055-2025</t>
+          <t>A 40650-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45852</v>
+        <v>45896.6321875</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6663,7 +6653,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.1</v>
+        <v>4.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6700,14 +6690,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 57860-2023</t>
+          <t>A 40955-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45247.44261574074</v>
+        <v>45897.67510416666</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6720,7 +6710,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6757,14 +6747,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 50160-2022</t>
+          <t>A 41593-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44865.58923611111</v>
+        <v>45901.63788194444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6777,7 +6767,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6814,14 +6804,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 49431-2025</t>
+          <t>A 41590-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45938.845</v>
+        <v>45901.63255787037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6834,7 +6824,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6871,14 +6861,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 49598-2025</t>
+          <t>A 41625-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45939.53748842593</v>
+        <v>45901.7124537037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6891,7 +6881,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6928,14 +6918,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 49855-2025</t>
+          <t>A 13122-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45940.50458333334</v>
+        <v>45734.80390046296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6948,7 +6938,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6985,14 +6975,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 23950-2025</t>
+          <t>A 9086-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45796.35803240741</v>
+        <v>45357.90260416667</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7005,7 +6995,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>5.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7042,14 +7032,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 42646-2025</t>
+          <t>A 9089-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45906.48516203704</v>
+        <v>45357.90612268518</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7062,7 +7052,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7099,14 +7089,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 45978-2022</t>
+          <t>A 35055-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44846.69284722222</v>
+        <v>45852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7119,7 +7109,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.1</v>
+        <v>0.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7156,14 +7146,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 2345-2023</t>
+          <t>A 41724-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44942</v>
+        <v>45902.4534375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7176,7 +7166,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7213,14 +7203,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 50685-2025</t>
+          <t>A 20022-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45945.82289351852</v>
+        <v>45772.34013888889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7233,7 +7223,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7270,14 +7260,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 51167-2025</t>
+          <t>A 42359-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45947.59884259259</v>
+        <v>45180.52940972222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7290,7 +7280,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7327,14 +7317,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 62097-2022</t>
+          <t>A 42646-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44920</v>
+        <v>45906.48516203704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7347,7 +7337,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7384,14 +7374,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 39000-2023</t>
+          <t>A 62097-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45163.67079861111</v>
+        <v>44920</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7404,7 +7394,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7441,14 +7431,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 9721-2023</t>
+          <t>A 43214-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44984</v>
+        <v>45910</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7460,8 +7450,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>1.7</v>
+        <v>13.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7498,14 +7493,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 45309-2024</t>
+          <t>A 43593-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45576.43064814815</v>
+        <v>45911.65733796296</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7518,7 +7513,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7555,14 +7550,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 51890-2025</t>
+          <t>A 22202-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45952.41594907407</v>
+        <v>45446.37318287037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7575,7 +7570,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7619,7 +7614,7 @@
         <v>45910.73006944444</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7676,7 +7671,7 @@
         <v>45910</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7731,14 +7726,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 25324-2025</t>
+          <t>A 9749-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45800</v>
+        <v>44984</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7751,7 +7746,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7788,14 +7783,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 9090-2024</t>
+          <t>A 42552-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45357.90923611111</v>
+        <v>45565.61814814815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7808,7 +7803,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.6</v>
+        <v>4.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7845,14 +7840,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 43214-2025</t>
+          <t>A 26526-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45910</v>
+        <v>44739.44171296297</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7864,13 +7859,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>13.8</v>
+        <v>3.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7907,14 +7897,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 43593-2025</t>
+          <t>A 44421-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45911.65733796296</v>
+        <v>45573.86858796296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7927,7 +7917,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7964,14 +7954,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 25326-2025</t>
+          <t>A 59440-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45800</v>
+        <v>45254</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7984,7 +7974,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.9</v>
+        <v>15</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8021,14 +8011,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 25906-2025</t>
+          <t>A 45853-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45804.55729166666</v>
+        <v>45923.6297337963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8041,7 +8031,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8078,14 +8068,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 25909-2025</t>
+          <t>A 45293-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45804.55820601852</v>
+        <v>45920.43634259259</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8098,7 +8088,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8135,14 +8125,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 5448-2025</t>
+          <t>A 45292-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45692.88263888889</v>
+        <v>45920.43488425926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8155,7 +8145,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8192,14 +8182,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 51887-2025</t>
+          <t>A 35621-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45952</v>
+        <v>45859.4146875</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8212,7 +8202,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>10.6</v>
+        <v>1.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8249,14 +8239,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 25911-2025</t>
+          <t>A 46234-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45804.55912037037</v>
+        <v>45925.29591435185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8269,7 +8259,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8306,14 +8296,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 55189-2025</t>
+          <t>A 56637-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45968.54363425926</v>
+        <v>45625.69395833334</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8326,7 +8316,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8363,14 +8353,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 55188-2025</t>
+          <t>A 13397-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45968.5422800926</v>
+        <v>45735.71293981482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8383,7 +8373,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.8</v>
+        <v>7.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8420,14 +8410,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 55706-2025</t>
+          <t>A 46237-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45972.47302083333</v>
+        <v>45925.30956018518</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8440,7 +8430,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.1</v>
+        <v>14.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8477,14 +8467,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 55776-2025</t>
+          <t>A 46233-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45972</v>
+        <v>45925.29270833333</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8497,7 +8487,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8534,14 +8524,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 59325-2023</t>
+          <t>A 24785-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45253</v>
+        <v>45084.67194444445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8554,7 +8544,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8591,14 +8581,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 54586-2023</t>
+          <t>A 42330-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45233.77412037037</v>
+        <v>45180</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8611,7 +8601,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8648,14 +8638,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 45293-2025</t>
+          <t>A 36637-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45920.43634259259</v>
+        <v>45870.73012731481</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8668,7 +8658,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8705,14 +8695,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 45292-2025</t>
+          <t>A 36638-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45920.43488425926</v>
+        <v>45870.73099537037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8725,7 +8715,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8762,14 +8752,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 8983-2024</t>
+          <t>A 21932-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45356</v>
+        <v>45443</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8782,7 +8772,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8819,14 +8809,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 45853-2025</t>
+          <t>A 46823-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45923.6297337963</v>
+        <v>45926.79550925926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8839,7 +8829,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8876,14 +8866,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 27249-2025</t>
+          <t>A 1262-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45812.46844907408</v>
+        <v>44936.39234953704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8896,7 +8886,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8933,14 +8923,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 58074-2022</t>
+          <t>A 46833-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44900.61518518518</v>
+        <v>45927.68620370371</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8953,7 +8943,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8990,14 +8980,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 27112-2025</t>
+          <t>A 36639-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45811.73366898148</v>
+        <v>45870.73174768518</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9010,7 +9000,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9047,14 +9037,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 26964-2025</t>
+          <t>A 36641-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45811.46918981482</v>
+        <v>45871.43119212963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9067,7 +9057,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9104,14 +9094,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 27227-2025</t>
+          <t>A 36838-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45812.43118055556</v>
+        <v>45874.37011574074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9124,7 +9114,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9161,14 +9151,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 27109-2025</t>
+          <t>A 47169-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45811.73126157407</v>
+        <v>45929.91121527777</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9181,7 +9171,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9218,14 +9208,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 27110-2025</t>
+          <t>A 7732-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45811.73269675926</v>
+        <v>44973</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9237,8 +9227,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>1.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9275,14 +9270,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 55992-2025</t>
+          <t>A 48094-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45973.55912037037</v>
+        <v>45933.33019675926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9295,7 +9290,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9332,14 +9327,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 46233-2025</t>
+          <t>A 16121-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45925.29270833333</v>
+        <v>45406.49583333333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9352,7 +9347,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9389,14 +9384,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 27585-2025</t>
+          <t>A 48100-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45813.50371527778</v>
+        <v>45933.33457175926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9409,7 +9404,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9446,14 +9441,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 46234-2025</t>
+          <t>A 48082-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45925.29591435185</v>
+        <v>45932.77143518518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9466,7 +9461,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9503,14 +9498,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 46237-2025</t>
+          <t>A 48099-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45925.30956018518</v>
+        <v>45933.33207175926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9523,7 +9518,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>14.2</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9560,14 +9555,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 56379-2025</t>
+          <t>A 48080-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45974.70221064815</v>
+        <v>45932.7685300926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9580,7 +9575,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9617,14 +9612,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 56381-2025</t>
+          <t>A 48081-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45974.7060300926</v>
+        <v>45932.77</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9637,7 +9632,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9674,14 +9669,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 6525-2025</t>
+          <t>A 36974-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45699.66690972223</v>
+        <v>45538.89228009259</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9694,7 +9689,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9731,14 +9726,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 54185-2024</t>
+          <t>A 48104-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45616.64060185185</v>
+        <v>45933.3422337963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9751,7 +9746,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>5.1</v>
+        <v>1.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9788,14 +9783,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 27141-2024</t>
+          <t>A 48452-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45471.55196759259</v>
+        <v>45935.79104166666</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9808,7 +9803,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9845,14 +9840,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 47169-2025</t>
+          <t>A 2917-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45929.91121527777</v>
+        <v>44943</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9865,7 +9860,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9902,14 +9897,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 46833-2025</t>
+          <t>A 20807-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45927.68620370371</v>
+        <v>45776.65706018519</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9921,8 +9916,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9959,14 +9959,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 46823-2025</t>
+          <t>A 19308-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45926.79550925926</v>
+        <v>45769.56891203704</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9978,8 +9978,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10016,14 +10021,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 20275-2025</t>
+          <t>A 33939-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45774.32253472223</v>
+        <v>45134.55792824074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10036,7 +10041,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10073,14 +10078,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 7962-2024</t>
+          <t>A 19391-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45350.57357638889</v>
+        <v>45429.37967592593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10093,7 +10098,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10130,14 +10135,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 28049-2025</t>
+          <t>A 19394-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45817.65653935185</v>
+        <v>45429.38112268518</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10150,7 +10155,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10187,14 +10192,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 28152-2025</t>
+          <t>A 49431-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45818.35734953704</v>
+        <v>45938.845</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10207,7 +10212,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10244,14 +10249,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 28052-2025</t>
+          <t>A 48955-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45817.65847222223</v>
+        <v>45937</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10264,7 +10269,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10301,14 +10306,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 15421-2024</t>
+          <t>A 48760-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45401.36530092593</v>
+        <v>45936.77475694445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10321,7 +10326,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10358,14 +10363,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 16281-2025</t>
+          <t>A 59381-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45751.29027777778</v>
+        <v>44905.46840277778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10377,13 +10382,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10420,14 +10420,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 16283-2025</t>
+          <t>A 20169-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45751.29266203703</v>
+        <v>45772.57777777778</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10439,13 +10439,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10482,14 +10477,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 59684-2022</t>
+          <t>A 49598-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44908</v>
+        <v>45939.53748842593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10501,13 +10496,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10544,14 +10534,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 49751-2023</t>
+          <t>A 49855-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45212.52082175926</v>
+        <v>45940.50458333334</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10564,7 +10554,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>11.5</v>
+        <v>2.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10601,14 +10591,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 30079-2025</t>
+          <t>A 8895-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45826.64440972222</v>
+        <v>44979</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10620,8 +10610,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10658,14 +10653,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 13034-2025</t>
+          <t>A 17199-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45734.57408564815</v>
+        <v>45756.41421296296</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10678,7 +10673,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10715,14 +10710,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 3756-2023</t>
+          <t>A 9721-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44951.47405092593</v>
+        <v>44984</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10735,7 +10730,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>5.2</v>
+        <v>1.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10772,14 +10767,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 57569-2025</t>
+          <t>A 10586-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45980.73299768518</v>
+        <v>45366.69975694444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10792,7 +10787,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10829,14 +10824,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 10924-2025</t>
+          <t>A 29092-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45722.83402777778</v>
+        <v>45105.34570601852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10848,8 +10843,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10886,14 +10886,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 9802-2021</t>
+          <t>A 51167-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44252.70211805555</v>
+        <v>45947.59884259259</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10943,14 +10943,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 57567-2025</t>
+          <t>A 50685-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45980.73072916667</v>
+        <v>45945.82289351852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11000,14 +11000,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 61904-2022</t>
+          <t>A 48595-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44917.73387731481</v>
+        <v>44452.48140046297</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11019,13 +11019,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11062,14 +11057,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 61907-2022</t>
+          <t>A 24611-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44917.73603009259</v>
+        <v>45084.33306712963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11081,13 +11076,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11124,14 +11114,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 49455-2023</t>
+          <t>A 62148-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45211.50127314815</v>
+        <v>44922.40197916667</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11144,7 +11134,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11181,14 +11171,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 13122-2025</t>
+          <t>A 51890-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45734.80390046296</v>
+        <v>45952.41594907407</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11201,7 +11191,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11238,14 +11228,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 59381-2022</t>
+          <t>A 3756-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44905.46840277778</v>
+        <v>44951.47405092593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11258,7 +11248,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11295,14 +11285,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 58398-2025</t>
+          <t>A 8268-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45985.56231481482</v>
+        <v>45708.51210648148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11315,7 +11305,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11352,14 +11342,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 58444-2025</t>
+          <t>A 11484-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45985.61791666667</v>
+        <v>45726.69502314815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11372,7 +11362,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11409,14 +11399,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 10586-2024</t>
+          <t>A 15421-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45366.69975694444</v>
+        <v>45401.36530092593</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11429,7 +11419,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11466,14 +11456,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 58443-2025</t>
+          <t>A 6003-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45985.61674768518</v>
+        <v>44964.39972222222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11483,6 +11473,11 @@
       <c r="E190" t="inlineStr">
         <is>
           <t>VÅRGÅRDA</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G190" t="n">
@@ -11523,14 +11518,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 24064-2022</t>
+          <t>A 57860-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44725.32741898148</v>
+        <v>45247.44261574074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11543,7 +11538,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11580,14 +11575,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 1262-2023</t>
+          <t>A 16912-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44936.39234953704</v>
+        <v>45755.36498842593</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11600,7 +11595,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11637,14 +11632,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 50958-2023</t>
+          <t>A 9642-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45210</v>
+        <v>45715.84020833333</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11656,13 +11651,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11699,14 +11689,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 58866-2025</t>
+          <t>A 16587-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45987.44790509259</v>
+        <v>45752.87754629629</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11719,7 +11709,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11756,14 +11746,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 50053-2024</t>
+          <t>A 5152-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45600.33508101852</v>
+        <v>45330.49232638889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11776,7 +11766,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11813,14 +11803,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 59156-2025</t>
+          <t>A 14787-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45988.54133101852</v>
+        <v>45397.7650462963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11833,7 +11823,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11870,14 +11860,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 59042-2025</t>
+          <t>A 14789-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45988.37216435185</v>
+        <v>45397.81939814815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11890,7 +11880,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11927,14 +11917,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 30674-2023</t>
+          <t>A 49751-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45112</v>
+        <v>45212.52082175926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11947,7 +11937,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.4</v>
+        <v>11.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11984,14 +11974,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 58833-2025</t>
+          <t>A 51887-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45987.35474537037</v>
+        <v>45952</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12004,7 +11994,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.9</v>
+        <v>10.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12041,14 +12031,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 1427-2026</t>
+          <t>A 60814-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46031.94480324074</v>
+        <v>45644.61975694444</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12061,7 +12051,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12098,14 +12088,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 59508-2025</t>
+          <t>A 52097-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45989.64269675926</v>
+        <v>45608.4153125</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12117,13 +12107,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>4.2</v>
+        <v>10.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12160,14 +12145,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 59317-2025</t>
+          <t>A 55189-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45989.32200231482</v>
+        <v>45968.54363425926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12180,7 +12165,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12217,14 +12202,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 44421-2024</t>
+          <t>A 59684-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45573.86858796296</v>
+        <v>44908</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12236,8 +12221,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12274,14 +12264,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 1437-2026</t>
+          <t>A 55188-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46032.56134259259</v>
+        <v>45968.5422800926</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12294,7 +12284,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12331,14 +12321,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 1438-2026</t>
+          <t>A 55992-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46032.5637037037</v>
+        <v>45973.55912037037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12351,7 +12341,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12388,14 +12378,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 59309-2025</t>
+          <t>A 55706-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45989.27822916667</v>
+        <v>45972.47302083333</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12445,14 +12435,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 1513-2026</t>
+          <t>A 55776-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46034.34575231482</v>
+        <v>45972</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12465,7 +12455,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12502,14 +12492,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 22386-2024</t>
+          <t>A 56381-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45446.66300925926</v>
+        <v>45974.7060300926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12522,7 +12512,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12559,14 +12549,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 2430-2026</t>
+          <t>A 30674-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46036.81327546296</v>
+        <v>45112</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12579,7 +12569,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12616,14 +12606,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 2431-2026</t>
+          <t>A 56379-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46036.81487268519</v>
+        <v>45974.70221064815</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12636,7 +12626,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12673,14 +12663,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 22515-2022</t>
+          <t>A 12918-2021</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44713.68042824074</v>
+        <v>44271</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12693,7 +12683,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12730,14 +12720,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 22517-2022</t>
+          <t>A 57567-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44713.68208333333</v>
+        <v>45980.73072916667</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12750,7 +12740,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12787,14 +12777,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 2410-2026</t>
+          <t>A 20172-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46036.72965277778</v>
+        <v>45772.57979166666</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12807,7 +12797,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12844,14 +12834,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 2411-2026</t>
+          <t>A 57569-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46036.73222222222</v>
+        <v>45980.73299768518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12864,7 +12854,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12901,14 +12891,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 2416-2026</t>
+          <t>A 57902-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46036.76255787037</v>
+        <v>44900.35104166667</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12921,7 +12911,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12958,14 +12948,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 2052-2026</t>
+          <t>A 58444-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46031</v>
+        <v>45985.61791666667</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12977,13 +12967,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>8.5</v>
+        <v>1.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13020,14 +13005,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 42552-2024</t>
+          <t>A 58398-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45565.61814814815</v>
+        <v>45985.56231481482</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13040,7 +13025,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13077,14 +13062,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 35621-2025</t>
+          <t>A 17195-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45859.4146875</v>
+        <v>45756.40695601852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13097,7 +13082,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13134,14 +13119,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 1880-2026</t>
+          <t>A 58443-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46035.47288194444</v>
+        <v>45985.61674768518</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13154,7 +13139,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13191,14 +13176,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 1860-2026</t>
+          <t>A 20260-2021</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46035.44283564815</v>
+        <v>44314</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13210,8 +13195,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13248,14 +13238,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 5523-2023</t>
+          <t>A 58866-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44960</v>
+        <v>45987.44790509259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13268,7 +13258,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13305,14 +13295,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 56637-2024</t>
+          <t>A 58833-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45625.69395833334</v>
+        <v>45987.35474537037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13325,7 +13315,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13362,14 +13352,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 2432-2026</t>
+          <t>A 16169-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46036.81594907407</v>
+        <v>45406.61987268519</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13382,7 +13372,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13419,14 +13409,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 2051-2026</t>
+          <t>A 8456-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>46031</v>
+        <v>45354</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13438,13 +13428,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13481,14 +13466,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 36638-2025</t>
+          <t>A 59309-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45870.73099537037</v>
+        <v>45989.27822916667</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13501,7 +13486,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13538,14 +13523,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 36639-2025</t>
+          <t>A 59156-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45870.73174768518</v>
+        <v>45988.54133101852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13558,7 +13543,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13595,14 +13580,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 3010-2026</t>
+          <t>A 59508-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46038.66194444444</v>
+        <v>45989.64269675926</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13614,8 +13599,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13652,14 +13642,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 36637-2025</t>
+          <t>A 59317-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45870.73012731481</v>
+        <v>45989.32200231482</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13672,7 +13662,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13709,14 +13699,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 1277-2026</t>
+          <t>A 22386-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46031</v>
+        <v>45446.66300925926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13729,7 +13719,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13766,14 +13756,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 3012-2026</t>
+          <t>A 59042-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46038.66331018518</v>
+        <v>45988.37216435185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13786,7 +13776,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13823,14 +13813,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 36838-2025</t>
+          <t>A 50958-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45874.37011574074</v>
+        <v>45210</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13842,8 +13832,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13880,14 +13875,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 20260-2021</t>
+          <t>A 1437-2026</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44314</v>
+        <v>46032.56134259259</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13899,13 +13894,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13942,14 +13932,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 52097-2024</t>
+          <t>A 17972-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45608.4153125</v>
+        <v>45040</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13962,7 +13952,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>10.9</v>
+        <v>2.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13999,14 +13989,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 36641-2025</t>
+          <t>A 1880-2026</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45871.43119212963</v>
+        <v>46035.47288194444</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14019,7 +14009,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14056,14 +14046,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 8268-2025</t>
+          <t>A 1438-2026</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45708.51210648148</v>
+        <v>46032.5637037037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14076,7 +14066,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14113,14 +14103,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 36974-2024</t>
+          <t>A 1427-2026</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45538.89228009259</v>
+        <v>46031.94480324074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14133,7 +14123,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14170,14 +14160,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 60802-2025</t>
+          <t>A 1860-2026</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45999.43222222223</v>
+        <v>46035.44283564815</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14190,7 +14180,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14227,14 +14217,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 3382-2026</t>
+          <t>A 1513-2026</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>46042.36003472222</v>
+        <v>46034.34575231482</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14247,7 +14237,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14284,14 +14274,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 60981-2025</t>
+          <t>A 2411-2026</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45999.70361111111</v>
+        <v>46036.73222222222</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14304,7 +14294,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14341,14 +14331,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 60975-2025</t>
+          <t>A 2416-2026</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45999.69570601852</v>
+        <v>46036.76255787037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14398,14 +14388,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 60985-2025</t>
+          <t>A 2051-2026</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45999.70759259259</v>
+        <v>46031</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14417,8 +14407,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14455,14 +14450,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 60973-2025</t>
+          <t>A 2410-2026</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45999.69430555555</v>
+        <v>46036.72965277778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14475,7 +14470,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14512,14 +14507,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 19308-2025</t>
+          <t>A 2430-2026</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45769.56891203704</v>
+        <v>46036.81327546296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14531,13 +14526,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G243" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14574,14 +14564,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 1122-2025</t>
+          <t>A 2431-2026</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45666.66532407407</v>
+        <v>46036.81487268519</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14594,7 +14584,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14631,14 +14621,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 9725-2023</t>
+          <t>A 7047-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44984</v>
+        <v>44968</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14651,7 +14641,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14688,14 +14678,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 46732-2023</t>
+          <t>A 2432-2026</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45198.59054398148</v>
+        <v>46036.81594907407</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14707,13 +14697,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G246" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14750,14 +14735,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 11484-2025</t>
+          <t>A 20454-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45726.69502314815</v>
+        <v>45775.50877314815</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14770,7 +14755,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14807,14 +14792,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 61731-2025</t>
+          <t>A 2052-2026</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>46002.59304398148</v>
+        <v>46031</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14826,8 +14811,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>1.2</v>
+        <v>8.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14864,14 +14854,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 3701-2026</t>
+          <t>A 60802-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>46043.47123842593</v>
+        <v>45999.43222222223</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14921,14 +14911,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 30362-2024</t>
+          <t>A 60975-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45491.35975694445</v>
+        <v>45999.69570601852</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14941,7 +14931,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14978,14 +14968,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 24785-2023</t>
+          <t>A 60985-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45084.67194444445</v>
+        <v>45999.70759259259</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14998,7 +14988,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15035,14 +15025,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 54937-2022</t>
+          <t>A 3012-2026</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44881</v>
+        <v>46038.66331018518</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15055,7 +15045,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15092,14 +15082,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 37424-2021</t>
+          <t>A 62535-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44398.48474537037</v>
+        <v>45268</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15112,7 +15102,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15149,14 +15139,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 4260-2026</t>
+          <t>A 60973-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>46045.3403125</v>
+        <v>45999.69430555555</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15169,7 +15159,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15206,14 +15196,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 17527-2025</t>
+          <t>A 3010-2026</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45757.58712962963</v>
+        <v>46038.66194444444</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15226,7 +15216,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15263,14 +15253,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 2917-2023</t>
+          <t>A 60981-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44943</v>
+        <v>45999.70361111111</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15283,7 +15273,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15320,14 +15310,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 6083-2026</t>
+          <t>A 16280-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>46052.68944444445</v>
+        <v>45751.28666666667</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15339,8 +15329,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G257" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15377,14 +15372,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 46108-2021</t>
+          <t>A 3382-2026</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44442.36792824074</v>
+        <v>46042.36003472222</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15397,7 +15392,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.3</v>
+        <v>3.2</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15434,14 +15429,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 19319-2025</t>
+          <t>A 3701-2026</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45769.57847222222</v>
+        <v>46043.47123842593</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15454,7 +15449,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15491,14 +15486,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 5707-2026</t>
+          <t>A 10655-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>46051.5116087963</v>
+        <v>45721.69958333333</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15511,7 +15506,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15548,14 +15543,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 20475-2023</t>
+          <t>A 44669-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45057</v>
+        <v>45189</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15568,7 +15563,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15605,14 +15600,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 5708-2026</t>
+          <t>A 64386-2021</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>46051.51230324074</v>
+        <v>44511</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15625,7 +15620,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>9.199999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15662,14 +15657,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 16282-2025</t>
+          <t>A 4260-2026</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45751.29126157407</v>
+        <v>46045.3403125</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15681,13 +15676,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G263" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15724,14 +15714,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 7329-2025</t>
+          <t>A 66386-2021</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45703.32144675926</v>
+        <v>44518</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15744,7 +15734,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15781,14 +15771,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 54587-2023</t>
+          <t>A 61731-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45233</v>
+        <v>46002.59304398148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15801,7 +15791,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -15838,14 +15828,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 7680-2025</t>
+          <t>A 17201-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45706.36583333334</v>
+        <v>45756.42020833334</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15858,7 +15848,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -15895,14 +15885,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 10655-2025</t>
+          <t>A 1005-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45721.69958333333</v>
+        <v>45301</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15915,7 +15905,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -15952,14 +15942,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 46944-2021</t>
+          <t>A 5707-2026</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44446.51780092593</v>
+        <v>46051.5116087963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15972,7 +15962,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16009,14 +15999,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 5663-2025</t>
+          <t>A 4548-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45693.82982638889</v>
+        <v>45327.7147800926</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16029,7 +16019,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>8.199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16066,14 +16056,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 16587-2025</t>
+          <t>A 5708-2026</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45752.87754629629</v>
+        <v>46051.51230324074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16086,7 +16076,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>3.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16123,14 +16113,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 7070-2026</t>
+          <t>A 6083-2026</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>46058.31163194445</v>
+        <v>46052.68944444445</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16143,7 +16133,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16180,14 +16170,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 34133-2022</t>
+          <t>A 60589-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44791.52582175926</v>
+        <v>45260.28659722222</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16237,14 +16227,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 7533-2026</t>
+          <t>A 57921-2022</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>46059.62197916667</v>
+        <v>44900</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16257,7 +16247,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16294,14 +16284,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 7535-2026</t>
+          <t>A 5663-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>46059.62313657408</v>
+        <v>45693.82982638889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16314,7 +16304,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16351,14 +16341,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 16284-2025</t>
+          <t>A 7329-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45751.29762731482</v>
+        <v>45703.32144675926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16371,7 +16361,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16408,14 +16398,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 8195-2024</t>
+          <t>A 7680-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45351.66591435186</v>
+        <v>45706.36583333334</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16428,7 +16418,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16465,14 +16455,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 9863-2024</t>
+          <t>A 21232-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45363</v>
+        <v>45062.54716435185</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16485,7 +16475,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16529,7 +16519,7 @@
         <v>46059.61733796296</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16579,14 +16569,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 8372-2026</t>
+          <t>A 7070-2026</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>46064.71388888889</v>
+        <v>46058.31163194445</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16599,7 +16589,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16636,14 +16626,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 8659-2026</t>
+          <t>A 16281-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>46066.37532407408</v>
+        <v>45751.29027777778</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16655,8 +16645,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G280" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16693,14 +16688,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 64234-2021</t>
+          <t>A 16283-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44510.64112268519</v>
+        <v>45751.29266203703</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16712,8 +16707,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G281" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16750,14 +16750,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 11777-2024</t>
+          <t>A 7533-2026</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45374.35063657408</v>
+        <v>46059.62197916667</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16807,14 +16807,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 11792-2024</t>
+          <t>A 7535-2026</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45375</v>
+        <v>46059.62313657408</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -16864,14 +16864,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 64386-2021</t>
+          <t>A 7734-2022</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44511</v>
+        <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -16921,14 +16921,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 30280-2023</t>
+          <t>A 20806-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45110.88763888889</v>
+        <v>45058</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -16978,14 +16978,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 9086-2024</t>
+          <t>A 54097-2024</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45357.90260416667</v>
+        <v>45616.51472222222</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17035,14 +17035,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 9089-2024</t>
+          <t>A 59225-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45357.90612268518</v>
+        <v>45253</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17092,14 +17092,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 8657-2026</t>
+          <t>A 8372-2026</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>46066.37245370371</v>
+        <v>46064.71388888889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>10</v>
+        <v>1.3</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17149,14 +17149,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 21232-2023</t>
+          <t>A 9863-2024</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45062.54716435185</v>
+        <v>45363</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17206,14 +17206,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 9297-2026</t>
+          <t>A 5523-2023</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>46070.59637731482</v>
+        <v>44960</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17263,14 +17263,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 22202-2024</t>
+          <t>A 11793-2024</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45446.37318287037</v>
+        <v>45375.30324074074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17327,7 +17327,7 @@
         <v>44910.69658564815</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17377,14 +17377,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 9305-2026</t>
+          <t>A 8983-2024</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>46070.60619212963</v>
+        <v>45356</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17434,14 +17434,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 9301-2026</t>
+          <t>A 50945-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>46070.60028935185</v>
+        <v>45210</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17453,8 +17453,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G294" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17491,14 +17496,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 9261-2026</t>
+          <t>A 8657-2026</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>46070.52174768518</v>
+        <v>46066.37245370371</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17511,7 +17516,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17548,14 +17553,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 33939-2023</t>
+          <t>A 8659-2026</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45134.55792824074</v>
+        <v>46066.37532407408</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17568,7 +17573,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17605,14 +17610,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 9642-2025</t>
+          <t>A 22515-2022</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45715.84020833333</v>
+        <v>44713.68042824074</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17625,7 +17630,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17662,14 +17667,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 946-2026</t>
+          <t>A 22517-2022</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>46030.53789351852</v>
+        <v>44713.68208333333</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17682,7 +17687,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17719,14 +17724,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 17951-2023</t>
+          <t>A 46108-2021</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45040</v>
+        <v>44442.36792824074</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17739,7 +17744,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -17776,14 +17781,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 17972-2023</t>
+          <t>A 6525-2025</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45040</v>
+        <v>45699.66690972223</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17796,7 +17801,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -17833,14 +17838,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 3619-2023</t>
+          <t>A 9261-2026</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>44950.63637731481</v>
+        <v>46070.52174768518</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17890,14 +17895,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 66386-2021</t>
+          <t>A 9301-2026</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>44518</v>
+        <v>46070.60028935185</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17910,7 +17915,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -17947,14 +17952,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 4550-2024</t>
+          <t>A 39000-2023</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45327.71622685185</v>
+        <v>45163.67079861111</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17967,7 +17972,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18004,14 +18009,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 44668-2023</t>
+          <t>A 9305-2026</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45189.72548611111</v>
+        <v>46070.60619212963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18024,7 +18029,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18061,14 +18066,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 42330-2023</t>
+          <t>A 9297-2026</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45180</v>
+        <v>46070.59637731482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18081,7 +18086,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18118,14 +18123,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 60814-2024</t>
+          <t>A 55240-2023</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45644.61975694444</v>
+        <v>45237.63732638889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18138,7 +18143,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18175,14 +18180,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 7734-2022</t>
+          <t>A 946-2026</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>44608</v>
+        <v>46030.53789351852</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18195,7 +18200,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18232,14 +18237,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 49357-2024</t>
+          <t>A 50053-2024</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45595.61976851852</v>
+        <v>45600.33508101852</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18252,7 +18257,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18289,14 +18294,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 47583-2024</t>
+          <t>A 58074-2022</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45587.77702546296</v>
+        <v>44900.61518518518</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18308,13 +18313,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G309" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18351,14 +18351,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 14655-2022</t>
+          <t>A 11797-2024</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>44655</v>
+        <v>45375.38054398148</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18408,14 +18408,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 16121-2024</t>
+          <t>A 53213-2024</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45406.49583333333</v>
+        <v>45612.65795138889</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18465,14 +18465,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 55972-2023</t>
+          <t>A 1277-2026</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45233</v>
+        <v>46031</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18522,14 +18522,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 9189-2022</t>
+          <t>A 46747-2023</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>44615.89261574074</v>
+        <v>45198</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18541,8 +18541,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G313" t="n">
-        <v>4.6</v>
+        <v>6.6</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18579,14 +18584,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 60589-2023</t>
+          <t>A 49455-2023</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45260.28659722222</v>
+        <v>45211.50127314815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18599,7 +18604,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18636,14 +18641,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 50307-2023</t>
+          <t>A 34133-2022</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45209</v>
+        <v>44791.52582175926</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18656,7 +18661,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18693,14 +18698,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 46747-2023</t>
+          <t>A 44668-2023</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45198</v>
+        <v>45189.72548611111</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18712,13 +18717,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G316" t="n">
-        <v>6.6</v>
+        <v>1.1</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18755,14 +18755,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 46736-2023</t>
+          <t>A 47583-2024</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45198</v>
+        <v>45587.77702546296</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -18817,14 +18817,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 17201-2025</t>
+          <t>A 49357-2024</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45756.42020833334</v>
+        <v>45595.61976851852</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -18874,14 +18874,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 39475-2023</t>
+          <t>A 61904-2022</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45166</v>
+        <v>44917.73387731481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18893,8 +18893,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G319" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -18931,14 +18936,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 53213-2024</t>
+          <t>A 61907-2022</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45612.65795138889</v>
+        <v>44917.73603009259</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18950,8 +18955,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G320" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -18988,14 +18998,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 20022-2025</t>
+          <t>A 4065-2023</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45772.34013888889</v>
+        <v>44952</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19008,7 +19018,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19045,14 +19055,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 5144-2024</t>
+          <t>A 7962-2024</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45330</v>
+        <v>45350.57357638889</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19065,7 +19075,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19102,14 +19112,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 9633-2024</t>
+          <t>A 65946-2021</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45362.3203125</v>
+        <v>44517</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19122,7 +19132,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19159,14 +19169,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 59619-2022</t>
+          <t>A 48718-2023</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>44907.88240740741</v>
+        <v>45208</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19179,7 +19189,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19216,14 +19226,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 16280-2025</t>
+          <t>A 20456-2025</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45751.28666666667</v>
+        <v>45775.51363425926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19235,13 +19245,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G325" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19278,14 +19283,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 16912-2025</t>
+          <t>A 43384-2023</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45755.36498842593</v>
+        <v>45183.85680555556</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19298,7 +19303,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19335,14 +19340,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 37653-2023</t>
+          <t>A 616-2025</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45159.51601851852</v>
+        <v>45664.60969907408</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19355,7 +19360,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>0.9</v>
+        <v>10</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19392,14 +19397,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 13397-2025</t>
+          <t>A 17527-2025</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45735.71293981482</v>
+        <v>45757.58712962963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19412,7 +19417,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>7.1</v>
+        <v>3.1</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19449,14 +19454,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 17199-2025</t>
+          <t>A 50160-2022</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45756.41421296296</v>
+        <v>44865.58923611111</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19469,7 +19474,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19506,14 +19511,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 18068-2025</t>
+          <t>A 39475-2023</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45761.49069444444</v>
+        <v>45166</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19526,7 +19531,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>1.7</v>
+        <v>5.1</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19563,14 +19568,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 1005-2024</t>
+          <t>A 14655-2022</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45301</v>
+        <v>44655</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19583,7 +19588,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19620,14 +19625,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 3057-2023</t>
+          <t>A 54587-2023</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>44946</v>
+        <v>45233</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19640,7 +19645,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -19677,14 +19682,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 20172-2025</t>
+          <t>A 16284-2025</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45772.57979166666</v>
+        <v>45751.29762731482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19697,7 +19702,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>4.9</v>
+        <v>0.8</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -19734,14 +19739,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 8456-2024</t>
+          <t>A 2345-2023</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45354</v>
+        <v>44942</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19754,7 +19759,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -19791,14 +19796,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 6003-2023</t>
+          <t>A 3619-2023</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>44964.39972222222</v>
+        <v>44950.63637731481</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -19810,13 +19815,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G335" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -19853,14 +19853,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 16169-2024</t>
+          <t>A 44744-2023</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>45406.61987268519</v>
+        <v>45190.39100694445</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -19873,7 +19873,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -19910,14 +19910,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 48595-2021</t>
+          <t>A 18068-2025</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>44452.48140046297</v>
+        <v>45761.49069444444</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -19967,14 +19967,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 30061-2021</t>
+          <t>A 63073-2023</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>44363</v>
+        <v>45273.00841435185</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20024,14 +20024,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 42359-2023</t>
+          <t>A 56788-2024</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>45180.52940972222</v>
+        <v>45628.45511574074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>1.6</v>
+        <v>6.3</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -20081,14 +20081,14 @@
     <row r="340" ht="15" customHeight="1">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 9749-2023</t>
+          <t>A 37653-2023</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>44984</v>
+        <v>45159.51601851852</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -20138,14 +20138,14 @@
     <row r="341" ht="15" customHeight="1">
       <c r="A341" t="inlineStr">
         <is>
-          <t>A 9898-2024</t>
+          <t>A 19319-2025</t>
         </is>
       </c>
       <c r="B341" s="1" t="n">
-        <v>45363</v>
+        <v>45769.57847222222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -20195,14 +20195,14 @@
     <row r="342" ht="15" customHeight="1">
       <c r="A342" t="inlineStr">
         <is>
-          <t>A 57167-2022</t>
+          <t>A 20475-2023</t>
         </is>
       </c>
       <c r="B342" s="1" t="n">
-        <v>44895.60074074074</v>
+        <v>45057</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -20252,14 +20252,14 @@
     <row r="343" ht="15" customHeight="1">
       <c r="A343" t="inlineStr">
         <is>
-          <t>A 61969-2022</t>
+          <t>A 12990-2024</t>
         </is>
       </c>
       <c r="B343" s="1" t="n">
-        <v>44914</v>
+        <v>45385.55565972222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>5.7</v>
+        <v>0.3</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -20309,14 +20309,14 @@
     <row r="344" ht="15" customHeight="1">
       <c r="A344" t="inlineStr">
         <is>
-          <t>A 62148-2022</t>
+          <t>A 57167-2022</t>
         </is>
       </c>
       <c r="B344" s="1" t="n">
-        <v>44922.40197916667</v>
+        <v>44895.60074074074</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20329,7 +20329,7 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -20366,14 +20366,14 @@
     <row r="345" ht="15" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
-          <t>A 12918-2021</t>
+          <t>A 50307-2023</t>
         </is>
       </c>
       <c r="B345" s="1" t="n">
-        <v>44271</v>
+        <v>45209</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -20423,14 +20423,14 @@
     <row r="346" ht="15" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
-          <t>A 57902-2022</t>
+          <t>A 38046-2022</t>
         </is>
       </c>
       <c r="B346" s="1" t="n">
-        <v>44900.35104166667</v>
+        <v>44811.64700231481</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20443,7 +20443,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -20480,14 +20480,14 @@
     <row r="347" ht="15" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
-          <t>A 50945-2023</t>
+          <t>A 46736-2023</t>
         </is>
       </c>
       <c r="B347" s="1" t="n">
-        <v>45210</v>
+        <v>45198</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20501,11 +20501,11 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G347" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -20542,14 +20542,14 @@
     <row r="348" ht="15" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
-          <t>A 19391-2024</t>
+          <t>A 16590-2025</t>
         </is>
       </c>
       <c r="B348" s="1" t="n">
-        <v>45429.37967592593</v>
+        <v>45752.89317129629</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -20599,14 +20599,14 @@
     <row r="349" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
-          <t>A 19394-2024</t>
+          <t>A 30362-2024</t>
         </is>
       </c>
       <c r="B349" s="1" t="n">
-        <v>45429.38112268518</v>
+        <v>45491.35975694445</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -20656,14 +20656,14 @@
     <row r="350" ht="15" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
-          <t>A 58049-2023</t>
+          <t>A 1122-2025</t>
         </is>
       </c>
       <c r="B350" s="1" t="n">
-        <v>45247</v>
+        <v>45666.66532407407</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -20713,14 +20713,14 @@
     <row r="351" ht="15" customHeight="1">
       <c r="A351" t="inlineStr">
         <is>
-          <t>A 11797-2024</t>
+          <t>A 46732-2023</t>
         </is>
       </c>
       <c r="B351" s="1" t="n">
-        <v>45375.38054398148</v>
+        <v>45198.59054398148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20732,8 +20732,13 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G351" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -20770,14 +20775,14 @@
     <row r="352" ht="15" customHeight="1">
       <c r="A352" t="inlineStr">
         <is>
-          <t>A 54991-2024</t>
+          <t>A 21535-2025</t>
         </is>
       </c>
       <c r="B352" s="1" t="n">
-        <v>45620.85204861111</v>
+        <v>45782.65741898148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20790,7 +20795,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -20827,14 +20832,14 @@
     <row r="353" ht="15" customHeight="1">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A 54097-2024</t>
+          <t>A 23950-2025</t>
         </is>
       </c>
       <c r="B353" s="1" t="n">
-        <v>45616.51472222222</v>
+        <v>45796.35803240741</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -20847,7 +20852,7 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -20884,14 +20889,14 @@
     <row r="354" ht="15" customHeight="1">
       <c r="A354" t="inlineStr">
         <is>
-          <t>A 4065-2023</t>
+          <t>A 45309-2024</t>
         </is>
       </c>
       <c r="B354" s="1" t="n">
-        <v>44952</v>
+        <v>45576.43064814815</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -20904,7 +20909,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -20941,14 +20946,14 @@
     <row r="355" ht="15" customHeight="1">
       <c r="A355" t="inlineStr">
         <is>
-          <t>A 44431-2023</t>
+          <t>A 25324-2025</t>
         </is>
       </c>
       <c r="B355" s="1" t="n">
-        <v>45189.35152777778</v>
+        <v>45800</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -20961,7 +20966,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -20998,14 +21003,14 @@
     <row r="356" ht="15" customHeight="1">
       <c r="A356" t="inlineStr">
         <is>
-          <t>A 52016-2021</t>
+          <t>A 5448-2025</t>
         </is>
       </c>
       <c r="B356" s="1" t="n">
-        <v>44463</v>
+        <v>45692.88263888889</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21018,7 +21023,7 @@
         </is>
       </c>
       <c r="G356" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -21055,14 +21060,14 @@
     <row r="357" ht="15" customHeight="1">
       <c r="A357" t="inlineStr">
         <is>
-          <t>A 60191-2022</t>
+          <t>A 25326-2025</t>
         </is>
       </c>
       <c r="B357" s="1" t="n">
-        <v>44910</v>
+        <v>45800</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21075,7 +21080,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -21112,14 +21117,14 @@
     <row r="358" ht="15" customHeight="1">
       <c r="A358" t="inlineStr">
         <is>
-          <t>A 55240-2023</t>
+          <t>A 25906-2025</t>
         </is>
       </c>
       <c r="B358" s="1" t="n">
-        <v>45237.63732638889</v>
+        <v>45804.55729166666</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21132,7 +21137,7 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -21169,14 +21174,14 @@
     <row r="359" ht="15" customHeight="1">
       <c r="A359" t="inlineStr">
         <is>
-          <t>A 616-2025</t>
+          <t>A 25909-2025</t>
         </is>
       </c>
       <c r="B359" s="1" t="n">
-        <v>45664.60969907408</v>
+        <v>45804.55820601852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21189,7 +21194,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -21226,14 +21231,14 @@
     <row r="360" ht="15" customHeight="1">
       <c r="A360" t="inlineStr">
         <is>
-          <t>A 48718-2023</t>
+          <t>A 25911-2025</t>
         </is>
       </c>
       <c r="B360" s="1" t="n">
-        <v>45208</v>
+        <v>45804.55912037037</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21246,7 +21251,7 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -21283,14 +21288,14 @@
     <row r="361" ht="15" customHeight="1">
       <c r="A361" t="inlineStr">
         <is>
-          <t>A 16590-2025</t>
+          <t>A 59325-2023</t>
         </is>
       </c>
       <c r="B361" s="1" t="n">
-        <v>45752.89317129629</v>
+        <v>45253</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21303,7 +21308,7 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -21340,14 +21345,14 @@
     <row r="362" ht="15" customHeight="1">
       <c r="A362" t="inlineStr">
         <is>
-          <t>A 24611-2023</t>
+          <t>A 27109-2025</t>
         </is>
       </c>
       <c r="B362" s="1" t="n">
-        <v>45084.33306712963</v>
+        <v>45811.73126157407</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21360,7 +21365,7 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -21397,14 +21402,14 @@
     <row r="363" ht="15" customHeight="1">
       <c r="A363" t="inlineStr">
         <is>
-          <t>A 7047-2023</t>
+          <t>A 27110-2025</t>
         </is>
       </c>
       <c r="B363" s="1" t="n">
-        <v>44968</v>
+        <v>45811.73269675926</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21417,7 +21422,7 @@
         </is>
       </c>
       <c r="G363" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -21454,14 +21459,14 @@
     <row r="364" ht="15" customHeight="1">
       <c r="A364" t="inlineStr">
         <is>
-          <t>A 59440-2023</t>
+          <t>A 26964-2025</t>
         </is>
       </c>
       <c r="B364" s="1" t="n">
-        <v>45254</v>
+        <v>45811.46918981482</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21474,7 +21479,7 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>15</v>
+        <v>1.2</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -21511,14 +21516,14 @@
     <row r="365" ht="15" customHeight="1">
       <c r="A365" t="inlineStr">
         <is>
-          <t>A 63073-2023</t>
+          <t>A 27112-2025</t>
         </is>
       </c>
       <c r="B365" s="1" t="n">
-        <v>45273.00841435185</v>
+        <v>45811.73366898148</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21531,7 +21536,7 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -21568,14 +21573,14 @@
     <row r="366" ht="15" customHeight="1">
       <c r="A366" t="inlineStr">
         <is>
-          <t>A 14787-2024</t>
+          <t>A 54586-2023</t>
         </is>
       </c>
       <c r="B366" s="1" t="n">
-        <v>45397.7650462963</v>
+        <v>45233.77412037037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21588,7 +21593,7 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -21625,14 +21630,14 @@
     <row r="367" ht="15" customHeight="1">
       <c r="A367" t="inlineStr">
         <is>
-          <t>A 14789-2024</t>
+          <t>A 27585-2025</t>
         </is>
       </c>
       <c r="B367" s="1" t="n">
-        <v>45397.81939814815</v>
+        <v>45813.50371527778</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21645,7 +21650,7 @@
         </is>
       </c>
       <c r="G367" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -21682,14 +21687,14 @@
     <row r="368" ht="15" customHeight="1">
       <c r="A368" t="inlineStr">
         <is>
-          <t>A 26362-2024</t>
+          <t>A 27227-2025</t>
         </is>
       </c>
       <c r="B368" s="1" t="n">
-        <v>45469.38258101852</v>
+        <v>45812.43118055556</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21702,7 +21707,7 @@
         </is>
       </c>
       <c r="G368" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -21739,14 +21744,14 @@
     <row r="369" ht="15" customHeight="1">
       <c r="A369" t="inlineStr">
         <is>
-          <t>A 7732-2023</t>
+          <t>A 27249-2025</t>
         </is>
       </c>
       <c r="B369" s="1" t="n">
-        <v>44973</v>
+        <v>45812.46844907408</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -21758,13 +21763,8 @@
           <t>VÅRGÅRDA</t>
         </is>
       </c>
-      <c r="F369" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G369" t="n">
-        <v>9.300000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -21801,14 +21801,14 @@
     <row r="370" ht="15" customHeight="1">
       <c r="A370" t="inlineStr">
         <is>
-          <t>A 43384-2023</t>
+          <t>A 28052-2025</t>
         </is>
       </c>
       <c r="B370" s="1" t="n">
-        <v>45183.85680555556</v>
+        <v>45817.65847222223</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="G370" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -21858,14 +21858,14 @@
     <row r="371" ht="15" customHeight="1">
       <c r="A371" t="inlineStr">
         <is>
-          <t>A 44669-2023</t>
+          <t>A 28049-2025</t>
         </is>
       </c>
       <c r="B371" s="1" t="n">
-        <v>45189</v>
+        <v>45817.65653935185</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -21878,7 +21878,7 @@
         </is>
       </c>
       <c r="G371" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -21915,14 +21915,14 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>A 2995-2024</t>
+          <t>A 20275-2025</t>
         </is>
       </c>
       <c r="B372" s="1" t="n">
-        <v>45315</v>
+        <v>45774.32253472223</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         </is>
       </c>
       <c r="G372" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>

--- a/Översikt VÅRGÅRDA.xlsx
+++ b/Översikt VÅRGÅRDA.xlsx
@@ -575,7 +575,7 @@
         <v>44992</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>46036.73480324074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>45203.28686342593</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>45008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>44693</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44249.74386574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44271.61297453703</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>44496</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44511</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>44314</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>44316.39745370371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44568.35050925926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44568.35122685185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>44445.32841435185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>44601</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>44533</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44572</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>44389.36113425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         <v>44496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44256</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44677</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>44818</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>44347</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>44571</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44271.47305555556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>44501</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>44455.51653935185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44564</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44382.40559027778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>44505</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>44743.30945601852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>44607</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>44580</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44446.59780092593</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44298.64422453703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>44511</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>44811.28633101852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>44616</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>44621.91310185185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
         <v>44434.48554398148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>44465.35538194444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>44469.43070601852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>44299</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>44501</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>44282</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>44358</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>44573.34431712963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44826.95922453704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>44662.48648148148</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>44648.29912037037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>44515</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>44363</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>45040</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>45315</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>45751.29126157407</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>44907.88240740741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44615.89261574074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44510.64112268519</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>45469.38258101852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44984</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44914</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>45327.71622685185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>45329.35953703704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44363.45402777778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44946</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>45233</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44252.70211805555</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>45363</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44725.32741898148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44267.43596064814</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>45357.90923611111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44463</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44910</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>45374.35063657408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45375</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45351.66591435186</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45620.85204861111</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45247</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45362.3203125</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45443.38331018519</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45616.64060185185</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45818.35734953704</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44446.51780092593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44398.48474537037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>45471.55196759259</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45400</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45330</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>45889.58944444444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>45397.76206018519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>45889.66032407407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>45889.58609953704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>45889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45734.57408564815</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45110.88763888889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>45826.64440972222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>45891.69728009259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>45891</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>45722.83402777778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>45894.84497685185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>45189.35152777778</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>44846.69284722222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44881</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>45896.6321875</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>45897.67510416666</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>45901.63788194444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>45901.63255787037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>45901.7124537037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>45734.80390046296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>45357.90260416667</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>45357.90612268518</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>45852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>45902.4534375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>45772.34013888889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>45180.52940972222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>45906.48516203704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>44920</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>45910</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>45911.65733796296</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>45446.37318287037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>45910.73006944444</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>45910</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>44984</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>45565.61814814815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>44739.44171296297</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>45573.86858796296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>45254</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>45923.6297337963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>45920.43634259259</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>45920.43488425926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>45859.4146875</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>45925.29591435185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>45625.69395833334</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>45735.71293981482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45925.30956018518</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>45925.29270833333</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>45084.67194444445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>45180</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>45870.73012731481</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>45870.73099537037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>45443</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>45926.79550925926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>44936.39234953704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>45927.68620370371</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>45870.73174768518</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>45871.43119212963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>45874.37011574074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>45929.91121527777</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44973</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>45933.33019675926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>45406.49583333333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>45933.33457175926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>45932.77143518518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>45933.33207175926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>45932.7685300926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>45932.77</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>45538.89228009259</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>45933.3422337963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>45935.79104166666</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>44943</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>45776.65706018519</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>45769.56891203704</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>45134.55792824074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>45429.37967592593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>45429.38112268518</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>45938.845</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>45937</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>45936.77475694445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44905.46840277778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>45772.57777777778</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>45939.53748842593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>45940.50458333334</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44979</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>45756.41421296296</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44984</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>45366.69975694444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>45105.34570601852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>45947.59884259259</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>45945.82289351852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>44452.48140046297</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>45084.33306712963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>44922.40197916667</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>45952.41594907407</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>44951.47405092593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>45708.51210648148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>45726.69502314815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>45401.36530092593</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>44964.39972222222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>45247.44261574074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45755.36498842593</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45715.84020833333</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45752.87754629629</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45330.49232638889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45397.7650462963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45397.81939814815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45212.52082175926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45952</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45644.61975694444</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45608.4153125</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45968.54363425926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>44908</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>45968.5422800926</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>45973.55912037037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>45972.47302083333</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>45972</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>45974.7060300926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45112</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>45974.70221064815</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44271</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>45980.73072916667</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>45772.57979166666</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45980.73299768518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>44900.35104166667</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>45985.61791666667</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>45985.56231481482</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>45756.40695601852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>45985.61674768518</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
         <v>44314</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>45987.44790509259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>45987.35474537037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>45406.61987268519</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>45354</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>45989.27822916667</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>45988.54133101852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>45989.64269675926</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>45989.32200231482</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13706,7 +13706,7 @@
         <v>45446.66300925926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13763,7 +13763,7 @@
         <v>45988.37216435185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13820,7 +13820,7 @@
         <v>45210</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>46032.56134259259</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>45040</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>46035.47288194444</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>46032.5637037037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>46031.94480324074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>46035.44283564815</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>46034.34575231482</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>46036.73222222222</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>46036.76255787037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>46031</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>46036.72965277778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>46036.81327546296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>46036.81487268519</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>44968</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>46036.81594907407</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>45775.50877314815</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>46031</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>45999.43222222223</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>45999.69570601852</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>45999.70759259259</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>46038.66331018518</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45268</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45999.69430555555</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>46038.66194444444</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45999.70361111111</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45751.28666666667</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>46042.36003472222</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>46043.47123842593</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>45721.69958333333</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>45189</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>44511</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15664,7 +15664,7 @@
         <v>46045.3403125</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
         <v>44518</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>46002.59304398148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>45756.42020833334</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>45301</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>46051.5116087963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>45327.7147800926</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>46051.51230324074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>46052.68944444445</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>45260.28659722222</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>44900</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         <v>45693.82982638889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>45703.32144675926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>45706.36583333334</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>45062.54716435185</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>46059.61733796296</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>46058.31163194445</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>45751.29027777778</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16695,7 +16695,7 @@
         <v>45751.29266203703</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16757,7 +16757,7 @@
         <v>46059.62197916667</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>46059.62313657408</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16871,7 +16871,7 @@
         <v>44608</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="in